--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -52533,7 +52533,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>4643990</v>
+        <v>4643899</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -52545,55 +52545,55 @@
         <v>44720.79166666666</v>
       </c>
       <c r="F585" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G585" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I585">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J585" t="s">
         <v>55</v>
       </c>
       <c r="K585">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L585">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M585">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N585">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O585">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P585">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q585">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R585">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S585">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T585">
         <v>2</v>
       </c>
       <c r="U585">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V585">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W585">
         <v>-1</v>
@@ -52602,19 +52602,19 @@
         <v>-1</v>
       </c>
       <c r="Y585">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="Z585">
         <v>-1</v>
       </c>
       <c r="AA585">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB585">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC585">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="586" spans="1:29">
@@ -52622,7 +52622,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>4643899</v>
+        <v>4643990</v>
       </c>
       <c r="C586" t="s">
         <v>28</v>
@@ -52634,55 +52634,55 @@
         <v>44720.79166666666</v>
       </c>
       <c r="F586" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G586" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J586" t="s">
         <v>55</v>
       </c>
       <c r="K586">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L586">
+        <v>3.1</v>
+      </c>
+      <c r="M586">
+        <v>3.3</v>
+      </c>
+      <c r="N586">
+        <v>2.25</v>
+      </c>
+      <c r="O586">
         <v>3</v>
       </c>
-      <c r="M586">
-        <v>2.9</v>
-      </c>
-      <c r="N586">
-        <v>2.8</v>
-      </c>
-      <c r="O586">
-        <v>2.875</v>
-      </c>
       <c r="P586">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q586">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R586">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S586">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T586">
         <v>2</v>
       </c>
       <c r="U586">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V586">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W586">
         <v>-1</v>
@@ -52691,19 +52691,19 @@
         <v>-1</v>
       </c>
       <c r="Y586">
-        <v>1.9</v>
+        <v>2.75</v>
       </c>
       <c r="Z586">
         <v>-1</v>
       </c>
       <c r="AA586">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB586">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AC586">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="587" spans="1:29">
@@ -53779,7 +53779,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>4644525</v>
+        <v>4643992</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53791,76 +53791,76 @@
         <v>44724.66666666666</v>
       </c>
       <c r="F599" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G599" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H599">
         <v>1</v>
       </c>
       <c r="I599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J599" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K599">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L599">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M599">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N599">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O599">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P599">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q599">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R599">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S599">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T599">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U599">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V599">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W599">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X599">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y599">
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA599">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB599">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC599">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53868,7 +53868,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>4643992</v>
+        <v>4644525</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53880,76 +53880,76 @@
         <v>44724.66666666666</v>
       </c>
       <c r="F600" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G600" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H600">
         <v>1</v>
       </c>
       <c r="I600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J600" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K600">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L600">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M600">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N600">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O600">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P600">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q600">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R600">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S600">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T600">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U600">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V600">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W600">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X600">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y600">
         <v>-1</v>
       </c>
       <c r="Z600">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA600">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB600">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC600">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -55559,7 +55559,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>4643466</v>
+        <v>5160038</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55571,73 +55571,73 @@
         <v>44731.75</v>
       </c>
       <c r="F619" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G619" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I619">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J619" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K619">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L619">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M619">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N619">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O619">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P619">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q619">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R619">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S619">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T619">
         <v>2.25</v>
       </c>
       <c r="U619">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V619">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W619">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA619">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB619">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC619">
         <v>-1</v>
@@ -55648,7 +55648,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>4643994</v>
+        <v>4643466</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55660,76 +55660,76 @@
         <v>44731.75</v>
       </c>
       <c r="F620" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G620" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I620">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J620" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K620">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L620">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M620">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N620">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O620">
         <v>3.8</v>
       </c>
       <c r="P620">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q620">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R620">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S620">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T620">
         <v>2.25</v>
       </c>
       <c r="U620">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V620">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W620">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z620">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA620">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB620">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC620">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="621" spans="1:29">
@@ -55737,7 +55737,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>5160038</v>
+        <v>4643994</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55749,22 +55749,22 @@
         <v>44731.75</v>
       </c>
       <c r="F621" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G621" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H621">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J621" t="s">
         <v>56</v>
       </c>
       <c r="K621">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L621">
         <v>3.4</v>
@@ -55773,34 +55773,34 @@
         <v>4</v>
       </c>
       <c r="N621">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O621">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P621">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q621">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R621">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S621">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T621">
         <v>2.25</v>
       </c>
       <c r="U621">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V621">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W621">
-        <v>0.6659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X621">
         <v>-1</v>
@@ -55809,16 +55809,16 @@
         <v>-1</v>
       </c>
       <c r="Z621">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA621">
         <v>-1</v>
       </c>
       <c r="AB621">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC621">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="622" spans="1:29">
@@ -57517,7 +57517,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>4643909</v>
+        <v>4644077</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57529,58 +57529,58 @@
         <v>44745.75</v>
       </c>
       <c r="F641" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G641" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J641" t="s">
         <v>56</v>
       </c>
       <c r="K641">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L641">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M641">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N641">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O641">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P641">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q641">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R641">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S641">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T641">
         <v>2.25</v>
       </c>
       <c r="U641">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V641">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W641">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="X641">
         <v>-1</v>
@@ -57589,16 +57589,16 @@
         <v>-1</v>
       </c>
       <c r="Z641">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
       <c r="AA641">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB641">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC641">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57606,7 +57606,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>4644077</v>
+        <v>4643909</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57618,58 +57618,58 @@
         <v>44745.75</v>
       </c>
       <c r="F642" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G642" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H642">
+        <v>2</v>
+      </c>
+      <c r="I642">
         <v>1</v>
-      </c>
-      <c r="I642">
-        <v>0</v>
       </c>
       <c r="J642" t="s">
         <v>56</v>
       </c>
       <c r="K642">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="L642">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M642">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N642">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O642">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P642">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q642">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R642">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S642">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T642">
         <v>2.25</v>
       </c>
       <c r="U642">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V642">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W642">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="X642">
         <v>-1</v>
@@ -57678,16 +57678,16 @@
         <v>-1</v>
       </c>
       <c r="Z642">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
       <c r="AA642">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB642">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC642">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -59208,7 +59208,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>5291157</v>
+        <v>4643477</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59220,10 +59220,10 @@
         <v>44759.75</v>
       </c>
       <c r="F660" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G660" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H660">
         <v>0</v>
@@ -59235,28 +59235,28 @@
         <v>55</v>
       </c>
       <c r="K660">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="L660">
         <v>3.2</v>
       </c>
       <c r="M660">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N660">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="O660">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P660">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q660">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R660">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S660">
         <v>2.05</v>
@@ -59265,10 +59265,10 @@
         <v>2.25</v>
       </c>
       <c r="U660">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V660">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W660">
         <v>-1</v>
@@ -59277,19 +59277,19 @@
         <v>-1</v>
       </c>
       <c r="Y660">
-        <v>2.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z660">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA660">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB660">
         <v>-1</v>
       </c>
       <c r="AC660">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="661" spans="1:29">
@@ -59297,7 +59297,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>4643477</v>
+        <v>5291157</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59309,10 +59309,10 @@
         <v>44759.75</v>
       </c>
       <c r="F661" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G661" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H661">
         <v>0</v>
@@ -59324,28 +59324,28 @@
         <v>55</v>
       </c>
       <c r="K661">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="L661">
         <v>3.2</v>
       </c>
       <c r="M661">
+        <v>3.4</v>
+      </c>
+      <c r="N661">
         <v>2.05</v>
       </c>
-      <c r="N661">
-        <v>5.25</v>
-      </c>
       <c r="O661">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P661">
+        <v>3.8</v>
+      </c>
+      <c r="Q661">
+        <v>-0.25</v>
+      </c>
+      <c r="R661">
         <v>1.75</v>
-      </c>
-      <c r="Q661">
-        <v>0.75</v>
-      </c>
-      <c r="R661">
-        <v>1.8</v>
       </c>
       <c r="S661">
         <v>2.05</v>
@@ -59354,10 +59354,10 @@
         <v>2.25</v>
       </c>
       <c r="U661">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V661">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W661">
         <v>-1</v>
@@ -59366,19 +59366,19 @@
         <v>-1</v>
       </c>
       <c r="Y661">
-        <v>0.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z661">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA661">
-        <v>0.5249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB661">
         <v>-1</v>
       </c>
       <c r="AC661">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -59653,7 +59653,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>4643480</v>
+        <v>4644001</v>
       </c>
       <c r="C665" t="s">
         <v>28</v>
@@ -59665,46 +59665,46 @@
         <v>44762.79166666666</v>
       </c>
       <c r="F665" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G665" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H665">
         <v>2</v>
       </c>
       <c r="I665">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J665" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K665">
+        <v>1.833</v>
+      </c>
+      <c r="L665">
+        <v>3.25</v>
+      </c>
+      <c r="M665">
+        <v>4.333</v>
+      </c>
+      <c r="N665">
+        <v>1.8</v>
+      </c>
+      <c r="O665">
         <v>3.4</v>
       </c>
-      <c r="L665">
-        <v>3.2</v>
-      </c>
-      <c r="M665">
-        <v>2.1</v>
-      </c>
-      <c r="N665">
-        <v>4.5</v>
-      </c>
-      <c r="O665">
-        <v>3.6</v>
-      </c>
       <c r="P665">
+        <v>5</v>
+      </c>
+      <c r="Q665">
+        <v>-0.5</v>
+      </c>
+      <c r="R665">
         <v>1.8</v>
       </c>
-      <c r="Q665">
-        <v>0.5</v>
-      </c>
-      <c r="R665">
+      <c r="S665">
         <v>2.05</v>
-      </c>
-      <c r="S665">
-        <v>1.8</v>
       </c>
       <c r="T665">
         <v>2.25</v>
@@ -59716,19 +59716,19 @@
         <v>1.925</v>
       </c>
       <c r="W665">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X665">
         <v>-1</v>
       </c>
       <c r="Y665">
+        <v>-1</v>
+      </c>
+      <c r="Z665">
         <v>0.8</v>
       </c>
-      <c r="Z665">
-        <v>-1</v>
-      </c>
       <c r="AA665">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB665">
         <v>0.925</v>
@@ -59742,7 +59742,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>4644001</v>
+        <v>4643480</v>
       </c>
       <c r="C666" t="s">
         <v>28</v>
@@ -59754,46 +59754,46 @@
         <v>44762.79166666666</v>
       </c>
       <c r="F666" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G666" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H666">
         <v>2</v>
       </c>
       <c r="I666">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J666" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K666">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L666">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M666">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N666">
+        <v>4.5</v>
+      </c>
+      <c r="O666">
+        <v>3.6</v>
+      </c>
+      <c r="P666">
         <v>1.8</v>
       </c>
-      <c r="O666">
-        <v>3.4</v>
-      </c>
-      <c r="P666">
-        <v>5</v>
-      </c>
       <c r="Q666">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R666">
+        <v>2.05</v>
+      </c>
+      <c r="S666">
         <v>1.8</v>
-      </c>
-      <c r="S666">
-        <v>2.05</v>
       </c>
       <c r="T666">
         <v>2.25</v>
@@ -59805,19 +59805,19 @@
         <v>1.925</v>
       </c>
       <c r="W666">
+        <v>-1</v>
+      </c>
+      <c r="X666">
+        <v>-1</v>
+      </c>
+      <c r="Y666">
         <v>0.8</v>
       </c>
-      <c r="X666">
-        <v>-1</v>
-      </c>
-      <c r="Y666">
-        <v>-1</v>
-      </c>
       <c r="Z666">
+        <v>-1</v>
+      </c>
+      <c r="AA666">
         <v>0.8</v>
-      </c>
-      <c r="AA666">
-        <v>-1</v>
       </c>
       <c r="AB666">
         <v>0.925</v>
@@ -60098,7 +60098,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>4643479</v>
+        <v>4643913</v>
       </c>
       <c r="C670" t="s">
         <v>28</v>
@@ -60110,58 +60110,58 @@
         <v>44762.89583333334</v>
       </c>
       <c r="F670" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G670" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I670">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J670" t="s">
         <v>56</v>
       </c>
       <c r="K670">
+        <v>1.444</v>
+      </c>
+      <c r="L670">
+        <v>4</v>
+      </c>
+      <c r="M670">
+        <v>7.5</v>
+      </c>
+      <c r="N670">
+        <v>1.615</v>
+      </c>
+      <c r="O670">
+        <v>3.6</v>
+      </c>
+      <c r="P670">
+        <v>6.5</v>
+      </c>
+      <c r="Q670">
+        <v>-0.75</v>
+      </c>
+      <c r="R670">
+        <v>1.9</v>
+      </c>
+      <c r="S670">
         <v>1.95</v>
-      </c>
-      <c r="L670">
-        <v>3.25</v>
-      </c>
-      <c r="M670">
-        <v>3.75</v>
-      </c>
-      <c r="N670">
-        <v>1.85</v>
-      </c>
-      <c r="O670">
-        <v>3.5</v>
-      </c>
-      <c r="P670">
-        <v>4.2</v>
-      </c>
-      <c r="Q670">
-        <v>-0.5</v>
-      </c>
-      <c r="R670">
-        <v>1.85</v>
-      </c>
-      <c r="S670">
-        <v>2</v>
       </c>
       <c r="T670">
         <v>2.25</v>
       </c>
       <c r="U670">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V670">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W670">
-        <v>0.8500000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X670">
         <v>-1</v>
@@ -60170,16 +60170,16 @@
         <v>-1</v>
       </c>
       <c r="Z670">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA670">
         <v>-1</v>
       </c>
       <c r="AB670">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC670">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="671" spans="1:29">
@@ -60187,7 +60187,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>4643913</v>
+        <v>4643479</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60199,58 +60199,58 @@
         <v>44762.89583333334</v>
       </c>
       <c r="F671" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G671" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H671">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I671">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J671" t="s">
         <v>56</v>
       </c>
       <c r="K671">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L671">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M671">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N671">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="O671">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P671">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q671">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R671">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S671">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T671">
         <v>2.25</v>
       </c>
       <c r="U671">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V671">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W671">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X671">
         <v>-1</v>
@@ -60259,16 +60259,16 @@
         <v>-1</v>
       </c>
       <c r="Z671">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA671">
         <v>-1</v>
       </c>
       <c r="AB671">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC671">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="672" spans="1:29">
@@ -62234,7 +62234,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>4643489</v>
+        <v>4644480</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62246,76 +62246,76 @@
         <v>44779.6875</v>
       </c>
       <c r="F694" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G694" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694">
         <v>1</v>
       </c>
       <c r="J694" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K694">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L694">
         <v>3</v>
       </c>
       <c r="M694">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N694">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O694">
         <v>3.1</v>
       </c>
       <c r="P694">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q694">
         <v>-0.25</v>
       </c>
       <c r="R694">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S694">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T694">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U694">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V694">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W694">
         <v>-1</v>
       </c>
       <c r="X694">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y694">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z694">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA694">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB694">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC694">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62323,7 +62323,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>4644480</v>
+        <v>4643489</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62335,76 +62335,76 @@
         <v>44779.6875</v>
       </c>
       <c r="F695" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G695" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I695">
         <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K695">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L695">
         <v>3</v>
       </c>
       <c r="M695">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N695">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O695">
         <v>3.1</v>
       </c>
       <c r="P695">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q695">
         <v>-0.25</v>
       </c>
       <c r="R695">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S695">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T695">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U695">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V695">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W695">
         <v>-1</v>
       </c>
       <c r="X695">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y695">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA695">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB695">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC695">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -66773,7 +66773,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>4693528</v>
+        <v>4668476</v>
       </c>
       <c r="C745" t="s">
         <v>28</v>
@@ -66785,40 +66785,40 @@
         <v>44814.6875</v>
       </c>
       <c r="F745" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G745" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I745">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J745" t="s">
         <v>56</v>
       </c>
       <c r="K745">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L745">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M745">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N745">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O745">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P745">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q745">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R745">
         <v>2.05</v>
@@ -66827,16 +66827,16 @@
         <v>1.75</v>
       </c>
       <c r="T745">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U745">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V745">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W745">
-        <v>1.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X745">
         <v>-1</v>
@@ -66845,16 +66845,16 @@
         <v>-1</v>
       </c>
       <c r="Z745">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA745">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB745">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC745">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="746" spans="1:29">
@@ -66862,7 +66862,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>4668476</v>
+        <v>4693528</v>
       </c>
       <c r="C746" t="s">
         <v>28</v>
@@ -66874,40 +66874,40 @@
         <v>44814.6875</v>
       </c>
       <c r="F746" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G746" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H746">
+        <v>2</v>
+      </c>
+      <c r="I746">
         <v>1</v>
-      </c>
-      <c r="I746">
-        <v>0</v>
       </c>
       <c r="J746" t="s">
         <v>56</v>
       </c>
       <c r="K746">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L746">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M746">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N746">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O746">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P746">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q746">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R746">
         <v>2.05</v>
@@ -66916,16 +66916,16 @@
         <v>1.75</v>
       </c>
       <c r="T746">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U746">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V746">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W746">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X746">
         <v>-1</v>
@@ -66934,16 +66934,16 @@
         <v>-1</v>
       </c>
       <c r="Z746">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA746">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB746">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC746">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="747" spans="1:29">
@@ -68642,7 +68642,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>4729911</v>
+        <v>4729753</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68654,58 +68654,58 @@
         <v>44832.79166666666</v>
       </c>
       <c r="F766" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G766" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J766" t="s">
         <v>56</v>
       </c>
       <c r="K766">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L766">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M766">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N766">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O766">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P766">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q766">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R766">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S766">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T766">
         <v>2.25</v>
       </c>
       <c r="U766">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V766">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W766">
-        <v>0.615</v>
+        <v>1.2</v>
       </c>
       <c r="X766">
         <v>-1</v>
@@ -68714,16 +68714,16 @@
         <v>-1</v>
       </c>
       <c r="Z766">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA766">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB766">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC766">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>4729753</v>
+        <v>4729911</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,58 +68743,58 @@
         <v>44832.79166666666</v>
       </c>
       <c r="F767" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G767" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767">
         <v>1</v>
-      </c>
-      <c r="I767">
-        <v>0</v>
       </c>
       <c r="J767" t="s">
         <v>56</v>
       </c>
       <c r="K767">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L767">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M767">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="N767">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O767">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P767">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q767">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R767">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S767">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T767">
         <v>2.25</v>
       </c>
       <c r="U767">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V767">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W767">
-        <v>1.2</v>
+        <v>0.615</v>
       </c>
       <c r="X767">
         <v>-1</v>
@@ -68803,16 +68803,16 @@
         <v>-1</v>
       </c>
       <c r="Z767">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA767">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB767">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC767">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68820,7 +68820,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>4746703</v>
+        <v>4710744</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68832,58 +68832,58 @@
         <v>44832.79166666666</v>
       </c>
       <c r="F768" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G768" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H768">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I768">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J768" t="s">
         <v>56</v>
       </c>
       <c r="K768">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L768">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M768">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N768">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O768">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P768">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q768">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R768">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S768">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T768">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U768">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V768">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W768">
-        <v>0.363</v>
+        <v>2</v>
       </c>
       <c r="X768">
         <v>-1</v>
@@ -68892,13 +68892,13 @@
         <v>-1</v>
       </c>
       <c r="Z768">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AA768">
         <v>-1</v>
       </c>
       <c r="AB768">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC768">
         <v>-1</v>
@@ -68909,7 +68909,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>4710744</v>
+        <v>4746703</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68921,58 +68921,58 @@
         <v>44832.79166666666</v>
       </c>
       <c r="F769" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G769" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H769">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I769">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J769" t="s">
         <v>56</v>
       </c>
       <c r="K769">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L769">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M769">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N769">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O769">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="P769">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q769">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R769">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S769">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T769">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U769">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V769">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W769">
-        <v>2</v>
+        <v>0.363</v>
       </c>
       <c r="X769">
         <v>-1</v>
@@ -68981,13 +68981,13 @@
         <v>-1</v>
       </c>
       <c r="Z769">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AA769">
         <v>-1</v>
       </c>
       <c r="AB769">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -70600,7 +70600,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>4805545</v>
+        <v>4780538</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70612,76 +70612,76 @@
         <v>44839.89583333334</v>
       </c>
       <c r="F788" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G788" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H788">
+        <v>0</v>
+      </c>
+      <c r="I788">
+        <v>0</v>
+      </c>
+      <c r="J788" t="s">
+        <v>57</v>
+      </c>
+      <c r="K788">
+        <v>1.7</v>
+      </c>
+      <c r="L788">
+        <v>3.75</v>
+      </c>
+      <c r="M788">
+        <v>4.5</v>
+      </c>
+      <c r="N788">
+        <v>1.4</v>
+      </c>
+      <c r="O788">
+        <v>4.5</v>
+      </c>
+      <c r="P788">
+        <v>8</v>
+      </c>
+      <c r="Q788">
+        <v>-1.25</v>
+      </c>
+      <c r="R788">
+        <v>1.85</v>
+      </c>
+      <c r="S788">
+        <v>2</v>
+      </c>
+      <c r="T788">
+        <v>2.75</v>
+      </c>
+      <c r="U788">
+        <v>1.825</v>
+      </c>
+      <c r="V788">
+        <v>2.025</v>
+      </c>
+      <c r="W788">
+        <v>-1</v>
+      </c>
+      <c r="X788">
+        <v>3.5</v>
+      </c>
+      <c r="Y788">
+        <v>-1</v>
+      </c>
+      <c r="Z788">
+        <v>-1</v>
+      </c>
+      <c r="AA788">
         <v>1</v>
       </c>
-      <c r="I788">
-        <v>2</v>
-      </c>
-      <c r="J788" t="s">
-        <v>55</v>
-      </c>
-      <c r="K788">
-        <v>3.1</v>
-      </c>
-      <c r="L788">
-        <v>3.25</v>
-      </c>
-      <c r="M788">
-        <v>2.25</v>
-      </c>
-      <c r="N788">
-        <v>3.1</v>
-      </c>
-      <c r="O788">
-        <v>3.2</v>
-      </c>
-      <c r="P788">
-        <v>2.4</v>
-      </c>
-      <c r="Q788">
-        <v>0.25</v>
-      </c>
-      <c r="R788">
-        <v>1.8</v>
-      </c>
-      <c r="S788">
-        <v>2.05</v>
-      </c>
-      <c r="T788">
-        <v>2</v>
-      </c>
-      <c r="U788">
-        <v>1.925</v>
-      </c>
-      <c r="V788">
-        <v>1.925</v>
-      </c>
-      <c r="W788">
-        <v>-1</v>
-      </c>
-      <c r="X788">
-        <v>-1</v>
-      </c>
-      <c r="Y788">
-        <v>1.4</v>
-      </c>
-      <c r="Z788">
-        <v>-1</v>
-      </c>
-      <c r="AA788">
-        <v>1.05</v>
-      </c>
       <c r="AB788">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC788">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="789" spans="1:29">
@@ -70689,7 +70689,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>4780538</v>
+        <v>4805545</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70701,76 +70701,76 @@
         <v>44839.89583333334</v>
       </c>
       <c r="F789" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G789" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I789">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J789" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K789">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L789">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M789">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N789">
+        <v>3.1</v>
+      </c>
+      <c r="O789">
+        <v>3.2</v>
+      </c>
+      <c r="P789">
+        <v>2.4</v>
+      </c>
+      <c r="Q789">
+        <v>0.25</v>
+      </c>
+      <c r="R789">
+        <v>1.8</v>
+      </c>
+      <c r="S789">
+        <v>2.05</v>
+      </c>
+      <c r="T789">
+        <v>2</v>
+      </c>
+      <c r="U789">
+        <v>1.925</v>
+      </c>
+      <c r="V789">
+        <v>1.925</v>
+      </c>
+      <c r="W789">
+        <v>-1</v>
+      </c>
+      <c r="X789">
+        <v>-1</v>
+      </c>
+      <c r="Y789">
         <v>1.4</v>
       </c>
-      <c r="O789">
-        <v>4.5</v>
-      </c>
-      <c r="P789">
-        <v>8</v>
-      </c>
-      <c r="Q789">
-        <v>-1.25</v>
-      </c>
-      <c r="R789">
-        <v>1.85</v>
-      </c>
-      <c r="S789">
-        <v>2</v>
-      </c>
-      <c r="T789">
-        <v>2.75</v>
-      </c>
-      <c r="U789">
-        <v>1.825</v>
-      </c>
-      <c r="V789">
-        <v>2.025</v>
-      </c>
-      <c r="W789">
-        <v>-1</v>
-      </c>
-      <c r="X789">
-        <v>3.5</v>
-      </c>
-      <c r="Y789">
-        <v>-1</v>
-      </c>
       <c r="Z789">
         <v>-1</v>
       </c>
       <c r="AA789">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB789">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC789">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790" spans="1:29">
@@ -71935,7 +71935,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>4999836</v>
+        <v>4999837</v>
       </c>
       <c r="C803" t="s">
         <v>28</v>
@@ -71947,76 +71947,76 @@
         <v>44849.85416666666</v>
       </c>
       <c r="F803" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G803" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H803">
         <v>1</v>
       </c>
       <c r="I803">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J803" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K803">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L803">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M803">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N803">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O803">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P803">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q803">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R803">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S803">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T803">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U803">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V803">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W803">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X803">
         <v>-1</v>
       </c>
       <c r="Y803">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z803">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA803">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB803">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC803">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="804" spans="1:29">
@@ -72024,7 +72024,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>4999837</v>
+        <v>4999836</v>
       </c>
       <c r="C804" t="s">
         <v>28</v>
@@ -72036,76 +72036,76 @@
         <v>44849.85416666666</v>
       </c>
       <c r="F804" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G804" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H804">
         <v>1</v>
       </c>
       <c r="I804">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J804" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K804">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L804">
+        <v>3.2</v>
+      </c>
+      <c r="M804">
         <v>3.3</v>
       </c>
-      <c r="M804">
-        <v>3.4</v>
-      </c>
       <c r="N804">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O804">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P804">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q804">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R804">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S804">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T804">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U804">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V804">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W804">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X804">
         <v>-1</v>
       </c>
       <c r="Y804">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z804">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA804">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB804">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC804">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="805" spans="1:29">
@@ -72291,7 +72291,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>4948829</v>
+        <v>4948980</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72303,76 +72303,76 @@
         <v>44850.75</v>
       </c>
       <c r="F807" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G807" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I807">
         <v>1</v>
       </c>
       <c r="J807" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K807">
         <v>2.8</v>
       </c>
       <c r="L807">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M807">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N807">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O807">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P807">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q807">
         <v>0</v>
       </c>
       <c r="R807">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S807">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T807">
         <v>2.25</v>
       </c>
       <c r="U807">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V807">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W807">
         <v>-1</v>
       </c>
       <c r="X807">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y807">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z807">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA807">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB807">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC807">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72380,7 +72380,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>4948980</v>
+        <v>4948829</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72392,76 +72392,76 @@
         <v>44850.75</v>
       </c>
       <c r="F808" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G808" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808">
         <v>1</v>
       </c>
       <c r="J808" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K808">
         <v>2.8</v>
       </c>
       <c r="L808">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M808">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N808">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O808">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P808">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q808">
         <v>0</v>
       </c>
       <c r="R808">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S808">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T808">
         <v>2.25</v>
       </c>
       <c r="U808">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V808">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W808">
         <v>-1</v>
       </c>
       <c r="X808">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y808">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z808">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA808">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB808">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC808">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -72469,7 +72469,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>4945738</v>
+        <v>4918674</v>
       </c>
       <c r="C809" t="s">
         <v>28</v>
@@ -72481,76 +72481,76 @@
         <v>44850.79166666666</v>
       </c>
       <c r="F809" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G809" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J809" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K809">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L809">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M809">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N809">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="O809">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P809">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q809">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R809">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S809">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T809">
         <v>2.25</v>
       </c>
       <c r="U809">
+        <v>2</v>
+      </c>
+      <c r="V809">
         <v>1.85</v>
       </c>
-      <c r="V809">
-        <v>2</v>
-      </c>
       <c r="W809">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X809">
         <v>-1</v>
       </c>
       <c r="Y809">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z809">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA809">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB809">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC809">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="810" spans="1:29">
@@ -72558,7 +72558,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>4918674</v>
+        <v>4945738</v>
       </c>
       <c r="C810" t="s">
         <v>28</v>
@@ -72570,76 +72570,76 @@
         <v>44850.79166666666</v>
       </c>
       <c r="F810" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G810" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I810">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J810" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K810">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="L810">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M810">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N810">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="O810">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P810">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q810">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R810">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S810">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T810">
         <v>2.25</v>
       </c>
       <c r="U810">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V810">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W810">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X810">
         <v>-1</v>
       </c>
       <c r="Y810">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z810">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA810">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB810">
+        <v>-1</v>
+      </c>
+      <c r="AC810">
         <v>1</v>
-      </c>
-      <c r="AC810">
-        <v>-1</v>
       </c>
     </row>
     <row r="811" spans="1:29">
@@ -72914,7 +72914,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>5012229</v>
+        <v>5016459</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72926,56 +72926,56 @@
         <v>44856.79166666666</v>
       </c>
       <c r="F814" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G814" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H814">
+        <v>0</v>
+      </c>
+      <c r="I814">
         <v>1</v>
-      </c>
-      <c r="I814">
-        <v>2</v>
       </c>
       <c r="J814" t="s">
         <v>55</v>
       </c>
       <c r="K814">
+        <v>2.25</v>
+      </c>
+      <c r="L814">
+        <v>3.1</v>
+      </c>
+      <c r="M814">
         <v>3.5</v>
       </c>
-      <c r="L814">
-        <v>3.4</v>
-      </c>
-      <c r="M814">
-        <v>2.05</v>
-      </c>
       <c r="N814">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O814">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P814">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q814">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R814">
+        <v>2.1</v>
+      </c>
+      <c r="S814">
+        <v>1.7</v>
+      </c>
+      <c r="T814">
+        <v>1.75</v>
+      </c>
+      <c r="U814">
+        <v>1.875</v>
+      </c>
+      <c r="V814">
         <v>1.975</v>
       </c>
-      <c r="S814">
-        <v>1.875</v>
-      </c>
-      <c r="T814">
-        <v>2.25</v>
-      </c>
-      <c r="U814">
-        <v>1.925</v>
-      </c>
-      <c r="V814">
-        <v>1.925</v>
-      </c>
       <c r="W814">
         <v>-1</v>
       </c>
@@ -72983,19 +72983,19 @@
         <v>-1</v>
       </c>
       <c r="Y814">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z814">
         <v>-1</v>
       </c>
       <c r="AA814">
-        <v>0.875</v>
+        <v>0.7</v>
       </c>
       <c r="AB814">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC814">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="815" spans="1:29">
@@ -73003,7 +73003,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>5016459</v>
+        <v>5012229</v>
       </c>
       <c r="C815" t="s">
         <v>28</v>
@@ -73015,55 +73015,55 @@
         <v>44856.79166666666</v>
       </c>
       <c r="F815" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G815" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I815">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J815" t="s">
         <v>55</v>
       </c>
       <c r="K815">
+        <v>3.5</v>
+      </c>
+      <c r="L815">
+        <v>3.4</v>
+      </c>
+      <c r="M815">
+        <v>2.05</v>
+      </c>
+      <c r="N815">
+        <v>2.75</v>
+      </c>
+      <c r="O815">
+        <v>3.3</v>
+      </c>
+      <c r="P815">
+        <v>2.625</v>
+      </c>
+      <c r="Q815">
+        <v>0</v>
+      </c>
+      <c r="R815">
+        <v>1.975</v>
+      </c>
+      <c r="S815">
+        <v>1.875</v>
+      </c>
+      <c r="T815">
         <v>2.25</v>
       </c>
-      <c r="L815">
-        <v>3.1</v>
-      </c>
-      <c r="M815">
-        <v>3.5</v>
-      </c>
-      <c r="N815">
-        <v>2.6</v>
-      </c>
-      <c r="O815">
-        <v>2.875</v>
-      </c>
-      <c r="P815">
-        <v>3.1</v>
-      </c>
-      <c r="Q815">
-        <v>-0.25</v>
-      </c>
-      <c r="R815">
-        <v>2.1</v>
-      </c>
-      <c r="S815">
-        <v>1.7</v>
-      </c>
-      <c r="T815">
-        <v>1.75</v>
-      </c>
       <c r="U815">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V815">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W815">
         <v>-1</v>
@@ -73072,19 +73072,19 @@
         <v>-1</v>
       </c>
       <c r="Y815">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z815">
         <v>-1</v>
       </c>
       <c r="AA815">
-        <v>0.7</v>
+        <v>0.875</v>
       </c>
       <c r="AB815">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC815">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816" spans="1:29">
@@ -73181,7 +73181,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>4975634</v>
+        <v>4975011</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73193,73 +73193,73 @@
         <v>44857.66666666666</v>
       </c>
       <c r="F817" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G817" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I817">
         <v>2</v>
       </c>
       <c r="J817" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K817">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L817">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M817">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N817">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="O817">
         <v>3.5</v>
       </c>
       <c r="P817">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="Q817">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R817">
+        <v>2</v>
+      </c>
+      <c r="S817">
         <v>1.85</v>
-      </c>
-      <c r="S817">
-        <v>2</v>
       </c>
       <c r="T817">
         <v>2.25</v>
       </c>
       <c r="U817">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V817">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W817">
         <v>-1</v>
       </c>
       <c r="X817">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y817">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z817">
         <v>-1</v>
       </c>
       <c r="AA817">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB817">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC817">
         <v>-1</v>
@@ -73270,7 +73270,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>4975011</v>
+        <v>4975634</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73282,73 +73282,73 @@
         <v>44857.66666666666</v>
       </c>
       <c r="F818" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G818" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I818">
         <v>2</v>
       </c>
       <c r="J818" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K818">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="L818">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M818">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="N818">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="O818">
         <v>3.5</v>
       </c>
       <c r="P818">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="Q818">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R818">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S818">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T818">
         <v>2.25</v>
       </c>
       <c r="U818">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V818">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W818">
         <v>-1</v>
       </c>
       <c r="X818">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y818">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z818">
         <v>-1</v>
       </c>
       <c r="AA818">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB818">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC818">
         <v>-1</v>
@@ -73448,7 +73448,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>4976153</v>
+        <v>4972622</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73460,76 +73460,76 @@
         <v>44857.75</v>
       </c>
       <c r="F820" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G820" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H820">
         <v>1</v>
       </c>
       <c r="I820">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J820" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K820">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="L820">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M820">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N820">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="O820">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P820">
+        <v>5</v>
+      </c>
+      <c r="Q820">
+        <v>-0.75</v>
+      </c>
+      <c r="R820">
         <v>1.95</v>
       </c>
-      <c r="Q820">
-        <v>0.5</v>
-      </c>
-      <c r="R820">
+      <c r="S820">
         <v>1.9</v>
-      </c>
-      <c r="S820">
-        <v>1.95</v>
       </c>
       <c r="T820">
         <v>2.25</v>
       </c>
       <c r="U820">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V820">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W820">
         <v>-1</v>
       </c>
       <c r="X820">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y820">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z820">
+        <v>-1</v>
+      </c>
+      <c r="AA820">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA820">
-        <v>-1</v>
-      </c>
       <c r="AB820">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC820">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73537,7 +73537,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>4972622</v>
+        <v>4976153</v>
       </c>
       <c r="C821" t="s">
         <v>28</v>
@@ -73549,76 +73549,76 @@
         <v>44857.75</v>
       </c>
       <c r="F821" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G821" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H821">
         <v>1</v>
       </c>
       <c r="I821">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J821" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K821">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="L821">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M821">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N821">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="O821">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P821">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="Q821">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R821">
+        <v>1.9</v>
+      </c>
+      <c r="S821">
         <v>1.95</v>
-      </c>
-      <c r="S821">
-        <v>1.9</v>
       </c>
       <c r="T821">
         <v>2.25</v>
       </c>
       <c r="U821">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V821">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W821">
         <v>-1</v>
       </c>
       <c r="X821">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y821">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z821">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA821">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB821">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC821">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="822" spans="1:29">
@@ -74961,7 +74961,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>5032708</v>
+        <v>5041328</v>
       </c>
       <c r="C837" t="s">
         <v>28</v>
@@ -74973,58 +74973,58 @@
         <v>44867.66666666666</v>
       </c>
       <c r="F837" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G837" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H837">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I837">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J837" t="s">
         <v>56</v>
       </c>
       <c r="K837">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L837">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M837">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N837">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O837">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P837">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q837">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R837">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S837">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T837">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U837">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V837">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W837">
-        <v>0.615</v>
+        <v>1.375</v>
       </c>
       <c r="X837">
         <v>-1</v>
@@ -75033,16 +75033,16 @@
         <v>-1</v>
       </c>
       <c r="Z837">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA837">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB837">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC837">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:29">
@@ -75050,7 +75050,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>5041328</v>
+        <v>5032708</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75062,58 +75062,58 @@
         <v>44867.66666666666</v>
       </c>
       <c r="F838" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G838" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I838">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J838" t="s">
         <v>56</v>
       </c>
       <c r="K838">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L838">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M838">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N838">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O838">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P838">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q838">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R838">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S838">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T838">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U838">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V838">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W838">
-        <v>1.375</v>
+        <v>0.615</v>
       </c>
       <c r="X838">
         <v>-1</v>
@@ -75122,16 +75122,16 @@
         <v>-1</v>
       </c>
       <c r="Z838">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA838">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB838">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC838">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -77898,7 +77898,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>5090917</v>
+        <v>5127233</v>
       </c>
       <c r="C870" t="s">
         <v>28</v>
@@ -77910,10 +77910,10 @@
         <v>44878.66666666666</v>
       </c>
       <c r="F870" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G870" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H870">
         <v>0</v>
@@ -77925,40 +77925,40 @@
         <v>55</v>
       </c>
       <c r="K870">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L870">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M870">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N870">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O870">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P870">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q870">
         <v>0</v>
       </c>
       <c r="R870">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="S870">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T870">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U870">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V870">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W870">
         <v>-1</v>
@@ -77967,19 +77967,19 @@
         <v>-1</v>
       </c>
       <c r="Y870">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z870">
         <v>-1</v>
       </c>
       <c r="AA870">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AB870">
         <v>-1</v>
       </c>
       <c r="AC870">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="871" spans="1:29">
@@ -77987,7 +77987,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>5127233</v>
+        <v>5131733</v>
       </c>
       <c r="C871" t="s">
         <v>28</v>
@@ -77999,76 +77999,76 @@
         <v>44878.66666666666</v>
       </c>
       <c r="F871" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G871" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I871">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J871" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K871">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L871">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M871">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N871">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O871">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P871">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q871">
         <v>0</v>
       </c>
       <c r="R871">
-        <v>2.125</v>
+        <v>1.825</v>
       </c>
       <c r="S871">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T871">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U871">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V871">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W871">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X871">
         <v>-1</v>
       </c>
       <c r="Y871">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z871">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA871">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB871">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC871">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="872" spans="1:29">
@@ -78076,7 +78076,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>5131733</v>
+        <v>5158065</v>
       </c>
       <c r="C872" t="s">
         <v>28</v>
@@ -78088,76 +78088,76 @@
         <v>44878.66666666666</v>
       </c>
       <c r="F872" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G872" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H872">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J872" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K872">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L872">
         <v>3.4</v>
       </c>
       <c r="M872">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N872">
+        <v>3.5</v>
+      </c>
+      <c r="O872">
+        <v>3.2</v>
+      </c>
+      <c r="P872">
+        <v>2.25</v>
+      </c>
+      <c r="Q872">
+        <v>0.25</v>
+      </c>
+      <c r="R872">
+        <v>1.9</v>
+      </c>
+      <c r="S872">
+        <v>1.95</v>
+      </c>
+      <c r="T872">
         <v>2.5</v>
       </c>
-      <c r="O872">
-        <v>3.5</v>
-      </c>
-      <c r="P872">
-        <v>2.8</v>
-      </c>
-      <c r="Q872">
-        <v>0</v>
-      </c>
-      <c r="R872">
-        <v>1.825</v>
-      </c>
-      <c r="S872">
-        <v>2.025</v>
-      </c>
-      <c r="T872">
-        <v>2.75</v>
-      </c>
       <c r="U872">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V872">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W872">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X872">
         <v>-1</v>
       </c>
       <c r="Y872">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z872">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA872">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB872">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC872">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="873" spans="1:29">
@@ -78165,7 +78165,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>5158065</v>
+        <v>5090917</v>
       </c>
       <c r="C873" t="s">
         <v>28</v>
@@ -78177,55 +78177,55 @@
         <v>44878.66666666666</v>
       </c>
       <c r="F873" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G873" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H873">
         <v>0</v>
       </c>
       <c r="I873">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J873" t="s">
         <v>55</v>
       </c>
       <c r="K873">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L873">
         <v>3.4</v>
       </c>
       <c r="M873">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N873">
+        <v>2.45</v>
+      </c>
+      <c r="O873">
         <v>3.5</v>
       </c>
-      <c r="O873">
-        <v>3.2</v>
-      </c>
       <c r="P873">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q873">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R873">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S873">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T873">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U873">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V873">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W873">
         <v>-1</v>
@@ -78234,19 +78234,19 @@
         <v>-1</v>
       </c>
       <c r="Y873">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Z873">
         <v>-1</v>
       </c>
       <c r="AA873">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB873">
         <v>-1</v>
       </c>
       <c r="AC873">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="874" spans="1:29">
@@ -80212,7 +80212,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>6277398</v>
+        <v>6277397</v>
       </c>
       <c r="C896" t="s">
         <v>28</v>
@@ -80224,73 +80224,73 @@
         <v>45045.77083333334</v>
       </c>
       <c r="F896" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G896" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I896">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J896" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K896">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L896">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M896">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N896">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O896">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P896">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q896">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R896">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S896">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T896">
         <v>2.25</v>
       </c>
       <c r="U896">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V896">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W896">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X896">
         <v>-1</v>
       </c>
       <c r="Y896">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z896">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA896">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB896">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC896">
         <v>-1</v>
@@ -80390,7 +80390,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>6277397</v>
+        <v>6277398</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80402,73 +80402,73 @@
         <v>45045.77083333334</v>
       </c>
       <c r="F898" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G898" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H898">
+        <v>0</v>
+      </c>
+      <c r="I898">
         <v>3</v>
       </c>
-      <c r="I898">
-        <v>2</v>
-      </c>
       <c r="J898" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K898">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L898">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M898">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N898">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O898">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P898">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q898">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R898">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S898">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T898">
         <v>2.25</v>
       </c>
       <c r="U898">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V898">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W898">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X898">
         <v>-1</v>
       </c>
       <c r="Y898">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z898">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA898">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB898">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC898">
         <v>-1</v>
@@ -80657,7 +80657,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>6277461</v>
+        <v>6277296</v>
       </c>
       <c r="C901" t="s">
         <v>28</v>
@@ -80669,76 +80669,76 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F901" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G901" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H901">
         <v>1</v>
       </c>
       <c r="I901">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J901" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K901">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L901">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M901">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N901">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O901">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P901">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q901">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R901">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S901">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T901">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U901">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V901">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W901">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X901">
         <v>-1</v>
       </c>
       <c r="Y901">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z901">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA901">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB901">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC901">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="902" spans="1:29">
@@ -80746,7 +80746,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>6277296</v>
+        <v>6277461</v>
       </c>
       <c r="C902" t="s">
         <v>28</v>
@@ -80758,76 +80758,76 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F902" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G902" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H902">
         <v>1</v>
       </c>
       <c r="I902">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J902" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K902">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L902">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M902">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N902">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O902">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P902">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q902">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R902">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S902">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T902">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U902">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V902">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W902">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X902">
         <v>-1</v>
       </c>
       <c r="Y902">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z902">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA902">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB902">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC902">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="903" spans="1:29">
@@ -83416,7 +83416,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>6277464</v>
+        <v>6277667</v>
       </c>
       <c r="C932" t="s">
         <v>28</v>
@@ -83428,58 +83428,58 @@
         <v>45060.77083333334</v>
       </c>
       <c r="F932" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G932" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I932">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J932" t="s">
         <v>56</v>
       </c>
       <c r="K932">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L932">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M932">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N932">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="O932">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P932">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q932">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R932">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S932">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T932">
         <v>2.25</v>
       </c>
       <c r="U932">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V932">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W932">
-        <v>2.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X932">
         <v>-1</v>
@@ -83488,13 +83488,13 @@
         <v>-1</v>
       </c>
       <c r="Z932">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA932">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB932">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC932">
         <v>-1</v>
@@ -83505,7 +83505,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>6277667</v>
+        <v>6277464</v>
       </c>
       <c r="C933" t="s">
         <v>28</v>
@@ -83517,58 +83517,58 @@
         <v>45060.77083333334</v>
       </c>
       <c r="F933" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G933" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H933">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I933">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J933" t="s">
         <v>56</v>
       </c>
       <c r="K933">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L933">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M933">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N933">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="O933">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P933">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q933">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R933">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S933">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T933">
         <v>2.25</v>
       </c>
       <c r="U933">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V933">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W933">
-        <v>0.6000000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X933">
         <v>-1</v>
@@ -83577,13 +83577,13 @@
         <v>-1</v>
       </c>
       <c r="Z933">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA933">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB933">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC933">
         <v>-1</v>
@@ -87154,7 +87154,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6277674</v>
+        <v>6277412</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87166,76 +87166,76 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F974" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G974" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974">
         <v>1</v>
       </c>
       <c r="J974" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K974">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L974">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M974">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N974">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O974">
         <v>3.4</v>
       </c>
       <c r="P974">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q974">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R974">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S974">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T974">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U974">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V974">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W974">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X974">
         <v>-1</v>
       </c>
       <c r="Y974">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z974">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA974">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB974">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC974">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="975" spans="1:29">
@@ -87243,7 +87243,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>6277412</v>
+        <v>6277674</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87255,76 +87255,76 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F975" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G975" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975">
         <v>1</v>
       </c>
       <c r="J975" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K975">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L975">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M975">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N975">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O975">
         <v>3.4</v>
       </c>
       <c r="P975">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q975">
+        <v>-0.75</v>
+      </c>
+      <c r="R975">
+        <v>2.025</v>
+      </c>
+      <c r="S975">
+        <v>1.825</v>
+      </c>
+      <c r="T975">
+        <v>2.25</v>
+      </c>
+      <c r="U975">
+        <v>1.95</v>
+      </c>
+      <c r="V975">
+        <v>1.9</v>
+      </c>
+      <c r="W975">
+        <v>0.8</v>
+      </c>
+      <c r="X975">
+        <v>-1</v>
+      </c>
+      <c r="Y975">
+        <v>-1</v>
+      </c>
+      <c r="Z975">
+        <v>0.5125</v>
+      </c>
+      <c r="AA975">
         <v>-0.5</v>
       </c>
-      <c r="R975">
-        <v>1.925</v>
-      </c>
-      <c r="S975">
-        <v>1.925</v>
-      </c>
-      <c r="T975">
-        <v>2.5</v>
-      </c>
-      <c r="U975">
-        <v>1.975</v>
-      </c>
-      <c r="V975">
-        <v>1.875</v>
-      </c>
-      <c r="W975">
-        <v>-1</v>
-      </c>
-      <c r="X975">
-        <v>-1</v>
-      </c>
-      <c r="Y975">
-        <v>3.2</v>
-      </c>
-      <c r="Z975">
-        <v>-1</v>
-      </c>
-      <c r="AA975">
-        <v>0.925</v>
-      </c>
       <c r="AB975">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC975">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="976" spans="1:29">
@@ -87421,7 +87421,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>6277869</v>
+        <v>6277914</v>
       </c>
       <c r="C977" t="s">
         <v>28</v>
@@ -87433,40 +87433,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F977" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G977" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H977">
         <v>1</v>
       </c>
       <c r="I977">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J977" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K977">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="L977">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M977">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N977">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O977">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P977">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q977">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R977">
         <v>2.025</v>
@@ -87475,34 +87475,34 @@
         <v>1.825</v>
       </c>
       <c r="T977">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U977">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V977">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W977">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X977">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y977">
         <v>-1</v>
       </c>
       <c r="Z977">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA977">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB977">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC977">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="978" spans="1:29">
@@ -87510,7 +87510,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>6277914</v>
+        <v>6277869</v>
       </c>
       <c r="C978" t="s">
         <v>28</v>
@@ -87522,40 +87522,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F978" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G978" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H978">
         <v>1</v>
       </c>
       <c r="I978">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J978" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K978">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L978">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M978">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N978">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O978">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P978">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q978">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R978">
         <v>2.025</v>
@@ -87564,34 +87564,34 @@
         <v>1.825</v>
       </c>
       <c r="T978">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U978">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V978">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W978">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X978">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y978">
         <v>-1</v>
       </c>
       <c r="Z978">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA978">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB978">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC978">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="979" spans="1:29">
@@ -88578,7 +88578,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>6277414</v>
+        <v>6277470</v>
       </c>
       <c r="C990" t="s">
         <v>28</v>
@@ -88590,76 +88590,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F990" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G990" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I990">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J990" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K990">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L990">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M990">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N990">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O990">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P990">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q990">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R990">
+        <v>1.925</v>
+      </c>
+      <c r="S990">
+        <v>1.925</v>
+      </c>
+      <c r="T990">
+        <v>2.75</v>
+      </c>
+      <c r="U990">
         <v>1.975</v>
       </c>
-      <c r="S990">
+      <c r="V990">
         <v>1.875</v>
       </c>
-      <c r="T990">
-        <v>2.25</v>
-      </c>
-      <c r="U990">
-        <v>1.925</v>
-      </c>
-      <c r="V990">
-        <v>1.925</v>
-      </c>
       <c r="W990">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X990">
         <v>-1</v>
       </c>
       <c r="Y990">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z990">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA990">
+        <v>-1</v>
+      </c>
+      <c r="AB990">
+        <v>-1</v>
+      </c>
+      <c r="AC990">
         <v>0.875</v>
-      </c>
-      <c r="AB990">
-        <v>0.925</v>
-      </c>
-      <c r="AC990">
-        <v>-1</v>
       </c>
     </row>
     <row r="991" spans="1:29">
@@ -88756,7 +88756,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>6277470</v>
+        <v>6277414</v>
       </c>
       <c r="C992" t="s">
         <v>28</v>
@@ -88768,76 +88768,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F992" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G992" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I992">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J992" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K992">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L992">
+        <v>3.1</v>
+      </c>
+      <c r="M992">
+        <v>2.9</v>
+      </c>
+      <c r="N992">
+        <v>1.95</v>
+      </c>
+      <c r="O992">
+        <v>3.4</v>
+      </c>
+      <c r="P992">
         <v>4</v>
       </c>
-      <c r="M992">
-        <v>5.5</v>
-      </c>
-      <c r="N992">
-        <v>1.4</v>
-      </c>
-      <c r="O992">
-        <v>4.5</v>
-      </c>
-      <c r="P992">
-        <v>7.5</v>
-      </c>
       <c r="Q992">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R992">
+        <v>1.975</v>
+      </c>
+      <c r="S992">
+        <v>1.875</v>
+      </c>
+      <c r="T992">
+        <v>2.25</v>
+      </c>
+      <c r="U992">
         <v>1.925</v>
       </c>
-      <c r="S992">
+      <c r="V992">
         <v>1.925</v>
       </c>
-      <c r="T992">
-        <v>2.75</v>
-      </c>
-      <c r="U992">
-        <v>1.975</v>
-      </c>
-      <c r="V992">
-        <v>1.875</v>
-      </c>
       <c r="W992">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X992">
         <v>-1</v>
       </c>
       <c r="Y992">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z992">
+        <v>-1</v>
+      </c>
+      <c r="AA992">
+        <v>0.875</v>
+      </c>
+      <c r="AB992">
         <v>0.925</v>
       </c>
-      <c r="AA992">
-        <v>-1</v>
-      </c>
-      <c r="AB992">
-        <v>-1</v>
-      </c>
       <c r="AC992">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="993" spans="1:29">
@@ -89379,7 +89379,7 @@
         <v>997</v>
       </c>
       <c r="B999">
-        <v>6277677</v>
+        <v>6277415</v>
       </c>
       <c r="C999" t="s">
         <v>28</v>
@@ -89391,10 +89391,10 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F999" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G999" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H999">
         <v>2</v>
@@ -89406,58 +89406,58 @@
         <v>57</v>
       </c>
       <c r="K999">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L999">
+        <v>3.75</v>
+      </c>
+      <c r="M999">
+        <v>4.333</v>
+      </c>
+      <c r="N999">
+        <v>1.5</v>
+      </c>
+      <c r="O999">
+        <v>4</v>
+      </c>
+      <c r="P999">
+        <v>7.5</v>
+      </c>
+      <c r="Q999">
+        <v>-1</v>
+      </c>
+      <c r="R999">
+        <v>1.75</v>
+      </c>
+      <c r="S999">
+        <v>2.05</v>
+      </c>
+      <c r="T999">
+        <v>2.5</v>
+      </c>
+      <c r="U999">
+        <v>2.05</v>
+      </c>
+      <c r="V999">
+        <v>1.8</v>
+      </c>
+      <c r="W999">
+        <v>-1</v>
+      </c>
+      <c r="X999">
         <v>3</v>
       </c>
-      <c r="M999">
-        <v>2.15</v>
-      </c>
-      <c r="N999">
-        <v>2.25</v>
-      </c>
-      <c r="O999">
-        <v>3.25</v>
-      </c>
-      <c r="P999">
-        <v>3.3</v>
-      </c>
-      <c r="Q999">
-        <v>-0.25</v>
-      </c>
-      <c r="R999">
-        <v>1.925</v>
-      </c>
-      <c r="S999">
-        <v>1.925</v>
-      </c>
-      <c r="T999">
-        <v>2.25</v>
-      </c>
-      <c r="U999">
-        <v>1.95</v>
-      </c>
-      <c r="V999">
-        <v>1.9</v>
-      </c>
-      <c r="W999">
-        <v>-1</v>
-      </c>
-      <c r="X999">
-        <v>2.25</v>
-      </c>
       <c r="Y999">
         <v>-1</v>
       </c>
       <c r="Z999">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA999">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AB999">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC999">
         <v>-1</v>
@@ -89468,7 +89468,7 @@
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>6277415</v>
+        <v>6277677</v>
       </c>
       <c r="C1000" t="s">
         <v>28</v>
@@ -89480,10 +89480,10 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F1000" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1000" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H1000">
         <v>2</v>
@@ -89495,58 +89495,58 @@
         <v>57</v>
       </c>
       <c r="K1000">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L1000">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M1000">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N1000">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O1000">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P1000">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q1000">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1000">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S1000">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T1000">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1000">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V1000">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W1000">
         <v>-1</v>
       </c>
       <c r="X1000">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y1000">
         <v>-1</v>
       </c>
       <c r="Z1000">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1000">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1000">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC1000">
         <v>-1</v>
@@ -89824,7 +89824,7 @@
         <v>1002</v>
       </c>
       <c r="B1004">
-        <v>6277417</v>
+        <v>6851050</v>
       </c>
       <c r="C1004" t="s">
         <v>28</v>
@@ -89836,76 +89836,76 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F1004" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G1004" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1004">
         <v>1</v>
       </c>
       <c r="J1004" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1004">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1004">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M1004">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N1004">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O1004">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P1004">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q1004">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1004">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S1004">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T1004">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1004">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1004">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W1004">
         <v>-1</v>
       </c>
       <c r="X1004">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1004">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1004">
         <v>-1</v>
       </c>
       <c r="AA1004">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB1004">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1004">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1005" spans="1:29">
@@ -89913,7 +89913,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>6851050</v>
+        <v>6277417</v>
       </c>
       <c r="C1005" t="s">
         <v>28</v>
@@ -89925,76 +89925,76 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F1005" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G1005" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1005">
         <v>1</v>
       </c>
       <c r="J1005" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1005">
+        <v>2.4</v>
+      </c>
+      <c r="L1005">
+        <v>3.25</v>
+      </c>
+      <c r="M1005">
+        <v>2.875</v>
+      </c>
+      <c r="N1005">
+        <v>2.9</v>
+      </c>
+      <c r="O1005">
+        <v>3.2</v>
+      </c>
+      <c r="P1005">
+        <v>2.5</v>
+      </c>
+      <c r="Q1005">
+        <v>0</v>
+      </c>
+      <c r="R1005">
+        <v>2.05</v>
+      </c>
+      <c r="S1005">
+        <v>1.8</v>
+      </c>
+      <c r="T1005">
         <v>2.25</v>
       </c>
-      <c r="L1005">
-        <v>3.2</v>
-      </c>
-      <c r="M1005">
-        <v>3.2</v>
-      </c>
-      <c r="N1005">
-        <v>1.75</v>
-      </c>
-      <c r="O1005">
-        <v>3.6</v>
-      </c>
-      <c r="P1005">
-        <v>5</v>
-      </c>
-      <c r="Q1005">
-        <v>-0.75</v>
-      </c>
-      <c r="R1005">
-        <v>2.025</v>
-      </c>
-      <c r="S1005">
-        <v>1.825</v>
-      </c>
-      <c r="T1005">
-        <v>2</v>
-      </c>
       <c r="U1005">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V1005">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W1005">
         <v>-1</v>
       </c>
       <c r="X1005">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1005">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z1005">
         <v>-1</v>
       </c>
       <c r="AA1005">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB1005">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1005">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1006" spans="1:29">
@@ -91426,7 +91426,7 @@
         <v>1020</v>
       </c>
       <c r="B1022">
-        <v>6278693</v>
+        <v>6277421</v>
       </c>
       <c r="C1022" t="s">
         <v>28</v>
@@ -91438,76 +91438,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F1022" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G1022" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H1022">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1022">
         <v>1</v>
       </c>
       <c r="J1022" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1022">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L1022">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M1022">
+        <v>8</v>
+      </c>
+      <c r="N1022">
+        <v>1.333</v>
+      </c>
+      <c r="O1022">
         <v>5</v>
       </c>
-      <c r="N1022">
-        <v>1.55</v>
-      </c>
-      <c r="O1022">
+      <c r="P1022">
+        <v>8.5</v>
+      </c>
+      <c r="Q1022">
+        <v>-1.5</v>
+      </c>
+      <c r="R1022">
+        <v>2.05</v>
+      </c>
+      <c r="S1022">
+        <v>1.8</v>
+      </c>
+      <c r="T1022">
+        <v>2.75</v>
+      </c>
+      <c r="U1022">
+        <v>1.825</v>
+      </c>
+      <c r="V1022">
+        <v>2.025</v>
+      </c>
+      <c r="W1022">
+        <v>-1</v>
+      </c>
+      <c r="X1022">
         <v>4</v>
       </c>
-      <c r="P1022">
-        <v>6.5</v>
-      </c>
-      <c r="Q1022">
-        <v>-1</v>
-      </c>
-      <c r="R1022">
-        <v>1.925</v>
-      </c>
-      <c r="S1022">
-        <v>1.925</v>
-      </c>
-      <c r="T1022">
-        <v>2.5</v>
-      </c>
-      <c r="U1022">
-        <v>1.975</v>
-      </c>
-      <c r="V1022">
-        <v>1.875</v>
-      </c>
-      <c r="W1022">
-        <v>0.55</v>
-      </c>
-      <c r="X1022">
-        <v>-1</v>
-      </c>
       <c r="Y1022">
         <v>-1</v>
       </c>
       <c r="Z1022">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA1022">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1022">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1022">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1023" spans="1:29">
@@ -91515,7 +91515,7 @@
         <v>1021</v>
       </c>
       <c r="B1023">
-        <v>6277421</v>
+        <v>6278693</v>
       </c>
       <c r="C1023" t="s">
         <v>28</v>
@@ -91527,76 +91527,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F1023" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G1023" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1023">
         <v>1</v>
       </c>
       <c r="J1023" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1023">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L1023">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M1023">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1023">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O1023">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P1023">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q1023">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R1023">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S1023">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T1023">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1023">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V1023">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W1023">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X1023">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y1023">
         <v>-1</v>
       </c>
       <c r="Z1023">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA1023">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1023">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1023">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1024" spans="1:29">
@@ -91604,7 +91604,7 @@
         <v>1022</v>
       </c>
       <c r="B1024">
-        <v>6277723</v>
+        <v>6277915</v>
       </c>
       <c r="C1024" t="s">
         <v>28</v>
@@ -91616,76 +91616,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F1024" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1024" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024">
+        <v>0</v>
+      </c>
+      <c r="J1024" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1024">
+        <v>2.5</v>
+      </c>
+      <c r="L1024">
+        <v>2.875</v>
+      </c>
+      <c r="M1024">
+        <v>3.1</v>
+      </c>
+      <c r="N1024">
+        <v>2.2</v>
+      </c>
+      <c r="O1024">
+        <v>3.2</v>
+      </c>
+      <c r="P1024">
+        <v>3.75</v>
+      </c>
+      <c r="Q1024">
+        <v>-0.25</v>
+      </c>
+      <c r="R1024">
+        <v>1.875</v>
+      </c>
+      <c r="S1024">
+        <v>1.975</v>
+      </c>
+      <c r="T1024">
+        <v>2</v>
+      </c>
+      <c r="U1024">
+        <v>1.85</v>
+      </c>
+      <c r="V1024">
+        <v>2</v>
+      </c>
+      <c r="W1024">
+        <v>-1</v>
+      </c>
+      <c r="X1024">
+        <v>2.2</v>
+      </c>
+      <c r="Y1024">
+        <v>-1</v>
+      </c>
+      <c r="Z1024">
+        <v>-0.5</v>
+      </c>
+      <c r="AA1024">
+        <v>0.4875</v>
+      </c>
+      <c r="AB1024">
+        <v>-1</v>
+      </c>
+      <c r="AC1024">
         <v>1</v>
-      </c>
-      <c r="J1024" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1024">
-        <v>2.55</v>
-      </c>
-      <c r="L1024">
-        <v>3.1</v>
-      </c>
-      <c r="M1024">
-        <v>2.8</v>
-      </c>
-      <c r="N1024">
-        <v>2.75</v>
-      </c>
-      <c r="O1024">
-        <v>3.1</v>
-      </c>
-      <c r="P1024">
-        <v>2.7</v>
-      </c>
-      <c r="Q1024">
-        <v>0</v>
-      </c>
-      <c r="R1024">
-        <v>1.925</v>
-      </c>
-      <c r="S1024">
-        <v>1.925</v>
-      </c>
-      <c r="T1024">
-        <v>2</v>
-      </c>
-      <c r="U1024">
-        <v>1.95</v>
-      </c>
-      <c r="V1024">
-        <v>1.9</v>
-      </c>
-      <c r="W1024">
-        <v>1.75</v>
-      </c>
-      <c r="X1024">
-        <v>-1</v>
-      </c>
-      <c r="Y1024">
-        <v>-1</v>
-      </c>
-      <c r="Z1024">
-        <v>0.925</v>
-      </c>
-      <c r="AA1024">
-        <v>-1</v>
-      </c>
-      <c r="AB1024">
-        <v>0.95</v>
-      </c>
-      <c r="AC1024">
-        <v>-1</v>
       </c>
     </row>
     <row r="1025" spans="1:29">
@@ -91693,7 +91693,7 @@
         <v>1023</v>
       </c>
       <c r="B1025">
-        <v>6277915</v>
+        <v>6277723</v>
       </c>
       <c r="C1025" t="s">
         <v>28</v>
@@ -91705,76 +91705,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F1025" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1025" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1025" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1025">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L1025">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M1025">
+        <v>2.8</v>
+      </c>
+      <c r="N1025">
+        <v>2.75</v>
+      </c>
+      <c r="O1025">
         <v>3.1</v>
       </c>
-      <c r="N1025">
-        <v>2.2</v>
-      </c>
-      <c r="O1025">
-        <v>3.2</v>
-      </c>
       <c r="P1025">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q1025">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1025">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S1025">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T1025">
         <v>2</v>
       </c>
       <c r="U1025">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V1025">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W1025">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X1025">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1025">
         <v>-1</v>
       </c>
       <c r="Z1025">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA1025">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB1025">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1025">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1026" spans="1:29">
@@ -91871,7 +91871,7 @@
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>6277881</v>
+        <v>6278730</v>
       </c>
       <c r="C1027" t="s">
         <v>28</v>
@@ -91883,76 +91883,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F1027" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G1027" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1027" t="s">
         <v>57</v>
       </c>
       <c r="K1027">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L1027">
+        <v>3.25</v>
+      </c>
+      <c r="M1027">
         <v>3.1</v>
       </c>
-      <c r="M1027">
-        <v>2.55</v>
-      </c>
       <c r="N1027">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O1027">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P1027">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q1027">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1027">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="S1027">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="T1027">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1027">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V1027">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W1027">
         <v>-1</v>
       </c>
       <c r="X1027">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y1027">
         <v>-1</v>
       </c>
       <c r="Z1027">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1027">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1027">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC1027">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1028" spans="1:29">
@@ -91960,7 +91960,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>6278730</v>
+        <v>6277881</v>
       </c>
       <c r="C1028" t="s">
         <v>28</v>
@@ -91972,76 +91972,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F1028" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G1028" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1028" t="s">
         <v>57</v>
       </c>
       <c r="K1028">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L1028">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M1028">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N1028">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O1028">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P1028">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q1028">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1028">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="S1028">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="T1028">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1028">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V1028">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W1028">
         <v>-1</v>
       </c>
       <c r="X1028">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y1028">
         <v>-1</v>
       </c>
       <c r="Z1028">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1028">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB1028">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC1028">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1029" spans="1:29">
@@ -99614,7 +99614,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>6295861</v>
+        <v>6277318</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99626,61 +99626,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F1114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G1114" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1114">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L1114">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M1114">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N1114">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O1114">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P1114">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q1114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1114">
+        <v>1.825</v>
+      </c>
+      <c r="S1114">
+        <v>2.025</v>
+      </c>
+      <c r="T1114">
+        <v>2.25</v>
+      </c>
+      <c r="U1114">
         <v>1.875</v>
       </c>
-      <c r="S1114">
+      <c r="V1114">
         <v>1.975</v>
       </c>
-      <c r="T1114">
-        <v>2.75</v>
-      </c>
-      <c r="U1114">
-        <v>2.025</v>
-      </c>
-      <c r="V1114">
-        <v>1.825</v>
-      </c>
       <c r="W1114">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1114">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1114">
         <v>-1</v>
@@ -99692,10 +99692,10 @@
         <v>-0</v>
       </c>
       <c r="AB1114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1114">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="1115" spans="1:29">
@@ -99703,7 +99703,7 @@
         <v>1113</v>
       </c>
       <c r="B1115">
-        <v>6277318</v>
+        <v>6295861</v>
       </c>
       <c r="C1115" t="s">
         <v>28</v>
@@ -99715,61 +99715,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F1115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G1115" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H1115">
         <v>1</v>
       </c>
       <c r="I1115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1115">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L1115">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M1115">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N1115">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O1115">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P1115">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q1115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R1115">
+        <v>1.875</v>
+      </c>
+      <c r="S1115">
+        <v>1.975</v>
+      </c>
+      <c r="T1115">
+        <v>2.75</v>
+      </c>
+      <c r="U1115">
+        <v>2.025</v>
+      </c>
+      <c r="V1115">
         <v>1.825</v>
       </c>
-      <c r="S1115">
-        <v>2.025</v>
-      </c>
-      <c r="T1115">
-        <v>2.25</v>
-      </c>
-      <c r="U1115">
-        <v>1.875</v>
-      </c>
-      <c r="V1115">
-        <v>1.975</v>
-      </c>
       <c r="W1115">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X1115">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1115">
         <v>-1</v>
@@ -99781,10 +99781,10 @@
         <v>-0</v>
       </c>
       <c r="AB1115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1115">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1116" spans="1:29">
@@ -101038,7 +101038,7 @@
         <v>1128</v>
       </c>
       <c r="B1130">
-        <v>6277699</v>
+        <v>6277698</v>
       </c>
       <c r="C1130" t="s">
         <v>28</v>
@@ -101050,76 +101050,76 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F1130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1130">
         <v>1</v>
       </c>
       <c r="I1130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1130" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1130">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L1130">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M1130">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N1130">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O1130">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P1130">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q1130">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R1130">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S1130">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T1130">
         <v>2.25</v>
       </c>
       <c r="U1130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V1130">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W1130">
         <v>-1</v>
       </c>
       <c r="X1130">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1130">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z1130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1130">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB1130">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC1130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1131" spans="1:29">
@@ -101127,7 +101127,7 @@
         <v>1129</v>
       </c>
       <c r="B1131">
-        <v>6277698</v>
+        <v>6277439</v>
       </c>
       <c r="C1131" t="s">
         <v>28</v>
@@ -101139,73 +101139,73 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F1131" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G1131" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H1131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1131">
         <v>2</v>
       </c>
       <c r="J1131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1131">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L1131">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M1131">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N1131">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O1131">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P1131">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q1131">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R1131">
+        <v>1.875</v>
+      </c>
+      <c r="S1131">
         <v>1.975</v>
       </c>
-      <c r="S1131">
-        <v>1.875</v>
-      </c>
       <c r="T1131">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V1131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W1131">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X1131">
         <v>-1</v>
       </c>
       <c r="Y1131">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1131">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB1131">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1131">
         <v>-1</v>
@@ -101216,7 +101216,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6277439</v>
+        <v>6277699</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101228,49 +101228,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G1132" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H1132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1132">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L1132">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M1132">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N1132">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O1132">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P1132">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q1132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S1132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T1132">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1132">
         <v>1.85</v>
@@ -101279,10 +101279,10 @@
         <v>2</v>
       </c>
       <c r="W1132">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1132">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1132">
         <v>-1</v>
@@ -101294,10 +101294,10 @@
         <v>-0</v>
       </c>
       <c r="AB1132">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1132">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -107713,7 +107713,7 @@
         <v>1203</v>
       </c>
       <c r="B1205">
-        <v>6622499</v>
+        <v>6648522</v>
       </c>
       <c r="C1205" t="s">
         <v>28</v>
@@ -107725,76 +107725,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F1205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1205" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1205">
         <v>1</v>
       </c>
       <c r="J1205" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1205">
+        <v>2.375</v>
+      </c>
+      <c r="L1205">
+        <v>3.4</v>
+      </c>
+      <c r="M1205">
+        <v>2.875</v>
+      </c>
+      <c r="N1205">
+        <v>2.3</v>
+      </c>
+      <c r="O1205">
+        <v>3.4</v>
+      </c>
+      <c r="P1205">
+        <v>3.1</v>
+      </c>
+      <c r="Q1205">
+        <v>-0.25</v>
+      </c>
+      <c r="R1205">
+        <v>2</v>
+      </c>
+      <c r="S1205">
+        <v>1.85</v>
+      </c>
+      <c r="T1205">
+        <v>2.25</v>
+      </c>
+      <c r="U1205">
+        <v>2</v>
+      </c>
+      <c r="V1205">
+        <v>1.85</v>
+      </c>
+      <c r="W1205">
+        <v>-1</v>
+      </c>
+      <c r="X1205">
         <v>2.4</v>
       </c>
-      <c r="L1205">
-        <v>3.3</v>
-      </c>
-      <c r="M1205">
-        <v>2.9</v>
-      </c>
-      <c r="N1205">
-        <v>2.75</v>
-      </c>
-      <c r="O1205">
-        <v>2.9</v>
-      </c>
-      <c r="P1205">
-        <v>2.9</v>
-      </c>
-      <c r="Q1205">
-        <v>0</v>
-      </c>
-      <c r="R1205">
-        <v>1.875</v>
-      </c>
-      <c r="S1205">
-        <v>1.975</v>
-      </c>
-      <c r="T1205">
-        <v>1.75</v>
-      </c>
-      <c r="U1205">
-        <v>1.775</v>
-      </c>
-      <c r="V1205">
-        <v>2.1</v>
-      </c>
-      <c r="W1205">
-        <v>1.75</v>
-      </c>
-      <c r="X1205">
-        <v>-1</v>
-      </c>
       <c r="Y1205">
         <v>-1</v>
       </c>
       <c r="Z1205">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1205">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB1205">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1205">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1206" spans="1:29">
@@ -107802,7 +107802,7 @@
         <v>1204</v>
       </c>
       <c r="B1206">
-        <v>6648522</v>
+        <v>6619639</v>
       </c>
       <c r="C1206" t="s">
         <v>28</v>
@@ -107814,76 +107814,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F1206" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G1206" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H1206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1206">
         <v>1</v>
       </c>
       <c r="J1206" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1206">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L1206">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1206">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N1206">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O1206">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P1206">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q1206">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1206">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S1206">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T1206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1206">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V1206">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W1206">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X1206">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1206">
         <v>-1</v>
       </c>
       <c r="Z1206">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA1206">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB1206">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC1206">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1207" spans="1:29">
@@ -107980,7 +107980,7 @@
         <v>1206</v>
       </c>
       <c r="B1208">
-        <v>6619639</v>
+        <v>6622499</v>
       </c>
       <c r="C1208" t="s">
         <v>28</v>
@@ -107992,10 +107992,10 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F1208" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G1208" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H1208">
         <v>2</v>
@@ -108007,43 +108007,43 @@
         <v>56</v>
       </c>
       <c r="K1208">
+        <v>2.4</v>
+      </c>
+      <c r="L1208">
+        <v>3.3</v>
+      </c>
+      <c r="M1208">
+        <v>2.9</v>
+      </c>
+      <c r="N1208">
+        <v>2.75</v>
+      </c>
+      <c r="O1208">
+        <v>2.9</v>
+      </c>
+      <c r="P1208">
+        <v>2.9</v>
+      </c>
+      <c r="Q1208">
+        <v>0</v>
+      </c>
+      <c r="R1208">
+        <v>1.875</v>
+      </c>
+      <c r="S1208">
+        <v>1.975</v>
+      </c>
+      <c r="T1208">
         <v>1.75</v>
       </c>
-      <c r="L1208">
-        <v>3.5</v>
-      </c>
-      <c r="M1208">
-        <v>4.75</v>
-      </c>
-      <c r="N1208">
-        <v>1.5</v>
-      </c>
-      <c r="O1208">
-        <v>4</v>
-      </c>
-      <c r="P1208">
-        <v>8</v>
-      </c>
-      <c r="Q1208">
-        <v>-1</v>
-      </c>
-      <c r="R1208">
-        <v>1.8</v>
-      </c>
-      <c r="S1208">
-        <v>2.05</v>
-      </c>
-      <c r="T1208">
-        <v>2.5</v>
-      </c>
       <c r="U1208">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V1208">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W1208">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="X1208">
         <v>-1</v>
@@ -108052,13 +108052,13 @@
         <v>-1</v>
       </c>
       <c r="Z1208">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA1208">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1208">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC1208">
         <v>-1</v>
@@ -109671,7 +109671,7 @@
         <v>1225</v>
       </c>
       <c r="B1227">
-        <v>6648739</v>
+        <v>7526668</v>
       </c>
       <c r="C1227" t="s">
         <v>28</v>
@@ -109683,55 +109683,55 @@
         <v>45259.83333333334</v>
       </c>
       <c r="F1227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1227" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1227">
         <v>0</v>
       </c>
       <c r="I1227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1227" t="s">
         <v>55</v>
       </c>
       <c r="K1227">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L1227">
+        <v>3.2</v>
+      </c>
+      <c r="M1227">
+        <v>3.6</v>
+      </c>
+      <c r="N1227">
+        <v>2.2</v>
+      </c>
+      <c r="O1227">
         <v>3.1</v>
       </c>
-      <c r="M1227">
-        <v>3</v>
-      </c>
-      <c r="N1227">
-        <v>3.1</v>
-      </c>
-      <c r="O1227">
-        <v>2.875</v>
-      </c>
       <c r="P1227">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q1227">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1227">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S1227">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T1227">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U1227">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V1227">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W1227">
         <v>-1</v>
@@ -109740,19 +109740,19 @@
         <v>-1</v>
       </c>
       <c r="Y1227">
-        <v>1.625</v>
+        <v>2.6</v>
       </c>
       <c r="Z1227">
         <v>-1</v>
       </c>
       <c r="AA1227">
-        <v>0.7</v>
+        <v>0.925</v>
       </c>
       <c r="AB1227">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC1227">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1228" spans="1:29">
@@ -109760,7 +109760,7 @@
         <v>1226</v>
       </c>
       <c r="B1228">
-        <v>7526668</v>
+        <v>6648739</v>
       </c>
       <c r="C1228" t="s">
         <v>28</v>
@@ -109772,55 +109772,55 @@
         <v>45259.83333333334</v>
       </c>
       <c r="F1228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1228" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1228">
         <v>0</v>
       </c>
       <c r="I1228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1228" t="s">
         <v>55</v>
       </c>
       <c r="K1228">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L1228">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M1228">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N1228">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O1228">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P1228">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q1228">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1228">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S1228">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T1228">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U1228">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V1228">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W1228">
         <v>-1</v>
@@ -109829,19 +109829,19 @@
         <v>-1</v>
       </c>
       <c r="Y1228">
-        <v>2.6</v>
+        <v>1.625</v>
       </c>
       <c r="Z1228">
         <v>-1</v>
       </c>
       <c r="AA1228">
-        <v>0.925</v>
+        <v>0.7</v>
       </c>
       <c r="AB1228">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC1228">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1229" spans="1:29">
@@ -110650,7 +110650,7 @@
         <v>1236</v>
       </c>
       <c r="B1238">
-        <v>6733112</v>
+        <v>6733768</v>
       </c>
       <c r="C1238" t="s">
         <v>28</v>
@@ -110662,13 +110662,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1238" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G1238" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1238">
         <v>0</v>
@@ -110677,43 +110677,43 @@
         <v>56</v>
       </c>
       <c r="K1238">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L1238">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1238">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N1238">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O1238">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P1238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q1238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1238">
-        <v>1.96</v>
+        <v>1.975</v>
       </c>
       <c r="S1238">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T1238">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V1238">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W1238">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X1238">
         <v>-1</v>
@@ -110722,16 +110722,16 @@
         <v>-1</v>
       </c>
       <c r="Z1238">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1238">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
       <c r="AB1238">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1238">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1239" spans="1:29">
@@ -110739,7 +110739,7 @@
         <v>1237</v>
       </c>
       <c r="B1239">
-        <v>6677292</v>
+        <v>6707715</v>
       </c>
       <c r="C1239" t="s">
         <v>28</v>
@@ -110751,58 +110751,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1239" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G1239" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1239" t="s">
         <v>56</v>
       </c>
       <c r="K1239">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="L1239">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1239">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N1239">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="O1239">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P1239">
-        <v>12</v>
+        <v>1.909</v>
       </c>
       <c r="Q1239">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R1239">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S1239">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T1239">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1239">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V1239">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W1239">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="X1239">
         <v>-1</v>
@@ -110811,16 +110811,16 @@
         <v>-1</v>
       </c>
       <c r="Z1239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1239">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1239">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1239">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1240" spans="1:29">
@@ -110828,7 +110828,7 @@
         <v>1238</v>
       </c>
       <c r="B1240">
-        <v>6705049</v>
+        <v>6677290</v>
       </c>
       <c r="C1240" t="s">
         <v>28</v>
@@ -110840,76 +110840,76 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1240" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1240" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1240">
         <v>0</v>
       </c>
       <c r="J1240" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1240">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L1240">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M1240">
+        <v>4.75</v>
+      </c>
+      <c r="N1240">
+        <v>1.85</v>
+      </c>
+      <c r="O1240">
+        <v>3.5</v>
+      </c>
+      <c r="P1240">
         <v>4.5</v>
-      </c>
-      <c r="N1240">
-        <v>1.909</v>
-      </c>
-      <c r="O1240">
-        <v>3.4</v>
-      </c>
-      <c r="P1240">
-        <v>4.2</v>
       </c>
       <c r="Q1240">
         <v>-0.5</v>
       </c>
       <c r="R1240">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="S1240">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="T1240">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1240">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V1240">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W1240">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X1240">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1240">
         <v>-1</v>
       </c>
       <c r="Z1240">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA1240">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1240">
         <v>-1</v>
       </c>
       <c r="AC1240">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1241" spans="1:29">
@@ -110917,7 +110917,7 @@
         <v>1239</v>
       </c>
       <c r="B1241">
-        <v>6733768</v>
+        <v>6705049</v>
       </c>
       <c r="C1241" t="s">
         <v>28</v>
@@ -110929,34 +110929,34 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1241" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G1241" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H1241">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1241">
         <v>0</v>
       </c>
       <c r="J1241" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1241">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="L1241">
         <v>3.4</v>
       </c>
       <c r="M1241">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N1241">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O1241">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P1241">
         <v>4.2</v>
@@ -110965,40 +110965,40 @@
         <v>-0.5</v>
       </c>
       <c r="R1241">
-        <v>1.975</v>
+        <v>1.96</v>
       </c>
       <c r="S1241">
-        <v>1.875</v>
+        <v>1.94</v>
       </c>
       <c r="T1241">
         <v>2.25</v>
       </c>
       <c r="U1241">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V1241">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W1241">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X1241">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1241">
         <v>-1</v>
       </c>
       <c r="Z1241">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1241">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB1241">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1241">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1242" spans="1:29">
@@ -111006,7 +111006,7 @@
         <v>1240</v>
       </c>
       <c r="B1242">
-        <v>6707715</v>
+        <v>6677292</v>
       </c>
       <c r="C1242" t="s">
         <v>28</v>
@@ -111018,58 +111018,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1242" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G1242" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H1242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1242" t="s">
         <v>56</v>
       </c>
       <c r="K1242">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L1242">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M1242">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N1242">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="O1242">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P1242">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="Q1242">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R1242">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S1242">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T1242">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U1242">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V1242">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W1242">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="X1242">
         <v>-1</v>
@@ -111078,16 +111078,16 @@
         <v>-1</v>
       </c>
       <c r="Z1242">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1242">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1242">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC1242">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1243" spans="1:29">
@@ -111095,7 +111095,7 @@
         <v>1241</v>
       </c>
       <c r="B1243">
-        <v>6677290</v>
+        <v>6733112</v>
       </c>
       <c r="C1243" t="s">
         <v>28</v>
@@ -111107,10 +111107,10 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1243" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G1243" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H1243">
         <v>1</v>
@@ -111122,43 +111122,43 @@
         <v>56</v>
       </c>
       <c r="K1243">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L1243">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M1243">
         <v>4.75</v>
       </c>
       <c r="N1243">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O1243">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P1243">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q1243">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R1243">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="S1243">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="T1243">
         <v>2.5</v>
       </c>
       <c r="U1243">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V1243">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W1243">
-        <v>0.8500000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X1243">
         <v>-1</v>
@@ -111167,16 +111167,16 @@
         <v>-1</v>
       </c>
       <c r="Z1243">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1243">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="AB1243">
         <v>-1</v>
       </c>
       <c r="AC1243">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1244" spans="1:29">
@@ -111273,7 +111273,7 @@
         <v>1243</v>
       </c>
       <c r="B1245">
-        <v>6745537</v>
+        <v>6723141</v>
       </c>
       <c r="C1245" t="s">
         <v>28</v>
@@ -111285,76 +111285,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1245" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G1245" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H1245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1245">
         <v>1</v>
       </c>
       <c r="J1245" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1245">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L1245">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M1245">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N1245">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O1245">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P1245">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q1245">
+        <v>0.25</v>
+      </c>
+      <c r="R1245">
+        <v>2</v>
+      </c>
+      <c r="S1245">
+        <v>1.85</v>
+      </c>
+      <c r="T1245">
+        <v>2</v>
+      </c>
+      <c r="U1245">
+        <v>1.975</v>
+      </c>
+      <c r="V1245">
+        <v>1.875</v>
+      </c>
+      <c r="W1245">
+        <v>-1</v>
+      </c>
+      <c r="X1245">
+        <v>2</v>
+      </c>
+      <c r="Y1245">
+        <v>-1</v>
+      </c>
+      <c r="Z1245">
+        <v>0.5</v>
+      </c>
+      <c r="AA1245">
         <v>-0.5</v>
       </c>
-      <c r="R1245">
-        <v>2.05</v>
-      </c>
-      <c r="S1245">
-        <v>1.8</v>
-      </c>
-      <c r="T1245">
-        <v>2.25</v>
-      </c>
-      <c r="U1245">
-        <v>1.85</v>
-      </c>
-      <c r="V1245">
-        <v>2</v>
-      </c>
-      <c r="W1245">
-        <v>1.05</v>
-      </c>
-      <c r="X1245">
-        <v>-1</v>
-      </c>
-      <c r="Y1245">
-        <v>-1</v>
-      </c>
-      <c r="Z1245">
-        <v>1.05</v>
-      </c>
-      <c r="AA1245">
-        <v>-1</v>
-      </c>
       <c r="AB1245">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC1245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1246" spans="1:29">
@@ -111362,7 +111362,7 @@
         <v>1244</v>
       </c>
       <c r="B1246">
-        <v>6764571</v>
+        <v>6721895</v>
       </c>
       <c r="C1246" t="s">
         <v>28</v>
@@ -111374,40 +111374,40 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1246" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G1246" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H1246">
+        <v>4</v>
+      </c>
+      <c r="I1246">
         <v>1</v>
-      </c>
-      <c r="I1246">
-        <v>0</v>
       </c>
       <c r="J1246" t="s">
         <v>56</v>
       </c>
       <c r="K1246">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L1246">
         <v>3.3</v>
       </c>
       <c r="M1246">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N1246">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O1246">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P1246">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q1246">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R1246">
         <v>1.95</v>
@@ -111416,7 +111416,7 @@
         <v>1.9</v>
       </c>
       <c r="T1246">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1246">
         <v>1.975</v>
@@ -111425,7 +111425,7 @@
         <v>1.875</v>
       </c>
       <c r="W1246">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="X1246">
         <v>-1</v>
@@ -111440,10 +111440,10 @@
         <v>-1</v>
       </c>
       <c r="AB1246">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1246">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1247" spans="1:29">
@@ -111451,7 +111451,7 @@
         <v>1245</v>
       </c>
       <c r="B1247">
-        <v>6745222</v>
+        <v>6704083</v>
       </c>
       <c r="C1247" t="s">
         <v>28</v>
@@ -111463,73 +111463,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1247" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1247" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1247">
+        <v>2</v>
+      </c>
+      <c r="I1247">
         <v>1</v>
       </c>
-      <c r="I1247">
-        <v>2</v>
-      </c>
       <c r="J1247" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1247">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L1247">
+        <v>3.25</v>
+      </c>
+      <c r="M1247">
+        <v>3.6</v>
+      </c>
+      <c r="N1247">
+        <v>2.15</v>
+      </c>
+      <c r="O1247">
         <v>3.4</v>
       </c>
-      <c r="M1247">
-        <v>4.2</v>
-      </c>
-      <c r="N1247">
-        <v>1.95</v>
-      </c>
-      <c r="O1247">
-        <v>3.25</v>
-      </c>
       <c r="P1247">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q1247">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1247">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S1247">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T1247">
         <v>2.25</v>
       </c>
       <c r="U1247">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V1247">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W1247">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X1247">
         <v>-1</v>
       </c>
       <c r="Y1247">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1247">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA1247">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB1247">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1247">
         <v>-1</v>
@@ -111540,7 +111540,7 @@
         <v>1246</v>
       </c>
       <c r="B1248">
-        <v>6705186</v>
+        <v>6723140</v>
       </c>
       <c r="C1248" t="s">
         <v>28</v>
@@ -111552,73 +111552,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1248" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G1248" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H1248">
+        <v>2</v>
+      </c>
+      <c r="I1248">
         <v>3</v>
       </c>
-      <c r="I1248">
-        <v>0</v>
-      </c>
       <c r="J1248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1248">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L1248">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M1248">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N1248">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O1248">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1248">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q1248">
         <v>-0.25</v>
       </c>
       <c r="R1248">
-        <v>2.03</v>
+        <v>1.875</v>
       </c>
       <c r="S1248">
-        <v>1.87</v>
+        <v>1.975</v>
       </c>
       <c r="T1248">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1248">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="V1248">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="W1248">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X1248">
         <v>-1</v>
       </c>
       <c r="Y1248">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z1248">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA1248">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB1248">
-        <v>0.79</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1248">
         <v>-1</v>
@@ -111629,7 +111629,7 @@
         <v>1247</v>
       </c>
       <c r="B1249">
-        <v>6705200</v>
+        <v>6745537</v>
       </c>
       <c r="C1249" t="s">
         <v>28</v>
@@ -111641,76 +111641,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1249" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G1249" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1249" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1249">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L1249">
         <v>3.2</v>
       </c>
       <c r="M1249">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N1249">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="O1249">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P1249">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q1249">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1249">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S1249">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T1249">
         <v>2.25</v>
       </c>
       <c r="U1249">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V1249">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W1249">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X1249">
         <v>-1</v>
       </c>
       <c r="Y1249">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z1249">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1249">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1249">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1249">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1250" spans="1:29">
@@ -111718,7 +111718,7 @@
         <v>1248</v>
       </c>
       <c r="B1250">
-        <v>6723140</v>
+        <v>6705186</v>
       </c>
       <c r="C1250" t="s">
         <v>28</v>
@@ -111730,73 +111730,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1250" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1250" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H1250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1250">
+        <v>0</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1250">
+        <v>2.75</v>
+      </c>
+      <c r="L1250">
         <v>3</v>
       </c>
-      <c r="J1250" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1250">
-        <v>2.2</v>
-      </c>
-      <c r="L1250">
+      <c r="M1250">
+        <v>2.7</v>
+      </c>
+      <c r="N1250">
+        <v>2.3</v>
+      </c>
+      <c r="O1250">
+        <v>3.2</v>
+      </c>
+      <c r="P1250">
         <v>3.3</v>
-      </c>
-      <c r="M1250">
-        <v>3.25</v>
-      </c>
-      <c r="N1250">
-        <v>2.15</v>
-      </c>
-      <c r="O1250">
-        <v>3.75</v>
-      </c>
-      <c r="P1250">
-        <v>3.1</v>
       </c>
       <c r="Q1250">
         <v>-0.25</v>
       </c>
       <c r="R1250">
-        <v>1.875</v>
+        <v>2.03</v>
       </c>
       <c r="S1250">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="T1250">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U1250">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="V1250">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="W1250">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X1250">
         <v>-1</v>
       </c>
       <c r="Y1250">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1250">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA1250">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1250">
-        <v>0.8500000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AC1250">
         <v>-1</v>
@@ -111807,7 +111807,7 @@
         <v>1249</v>
       </c>
       <c r="B1251">
-        <v>6721895</v>
+        <v>6764571</v>
       </c>
       <c r="C1251" t="s">
         <v>28</v>
@@ -111819,40 +111819,40 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1251" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G1251" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H1251">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1251" t="s">
         <v>56</v>
       </c>
       <c r="K1251">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L1251">
         <v>3.3</v>
       </c>
       <c r="M1251">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N1251">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O1251">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P1251">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q1251">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R1251">
         <v>1.95</v>
@@ -111861,7 +111861,7 @@
         <v>1.9</v>
       </c>
       <c r="T1251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1251">
         <v>1.975</v>
@@ -111870,7 +111870,7 @@
         <v>1.875</v>
       </c>
       <c r="W1251">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="X1251">
         <v>-1</v>
@@ -111885,10 +111885,10 @@
         <v>-1</v>
       </c>
       <c r="AB1251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1251">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1252" spans="1:29">
@@ -111896,7 +111896,7 @@
         <v>1250</v>
       </c>
       <c r="B1252">
-        <v>6723141</v>
+        <v>6705200</v>
       </c>
       <c r="C1252" t="s">
         <v>28</v>
@@ -111908,76 +111908,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1252" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G1252" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1252" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1252">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L1252">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M1252">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N1252">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O1252">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P1252">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q1252">
         <v>0.25</v>
       </c>
       <c r="R1252">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S1252">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T1252">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1252">
+        <v>1.875</v>
+      </c>
+      <c r="V1252">
         <v>1.975</v>
       </c>
-      <c r="V1252">
-        <v>1.875</v>
-      </c>
       <c r="W1252">
         <v>-1</v>
       </c>
       <c r="X1252">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y1252">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z1252">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1252">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB1252">
         <v>-0.5</v>
       </c>
-      <c r="AB1252">
-        <v>0</v>
-      </c>
       <c r="AC1252">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="1253" spans="1:29">
@@ -111985,7 +111985,7 @@
         <v>1251</v>
       </c>
       <c r="B1253">
-        <v>6704083</v>
+        <v>6745222</v>
       </c>
       <c r="C1253" t="s">
         <v>28</v>
@@ -111997,73 +111997,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1253" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G1253" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1253">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L1253">
+        <v>3.4</v>
+      </c>
+      <c r="M1253">
+        <v>4.2</v>
+      </c>
+      <c r="N1253">
+        <v>1.95</v>
+      </c>
+      <c r="O1253">
         <v>3.25</v>
       </c>
-      <c r="M1253">
-        <v>3.6</v>
-      </c>
-      <c r="N1253">
-        <v>2.15</v>
-      </c>
-      <c r="O1253">
-        <v>3.4</v>
-      </c>
       <c r="P1253">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q1253">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1253">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S1253">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T1253">
         <v>2.25</v>
       </c>
       <c r="U1253">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V1253">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W1253">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X1253">
         <v>-1</v>
       </c>
       <c r="Y1253">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z1253">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA1253">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB1253">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC1253">
         <v>-1</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -52088,7 +52088,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>4644523</v>
+        <v>4643452</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52100,76 +52100,76 @@
         <v>44717.66666666666</v>
       </c>
       <c r="F580" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G580" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I580">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J580" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K580">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L580">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M580">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N580">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O580">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P580">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q580">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R580">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S580">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T580">
         <v>2.5</v>
       </c>
       <c r="U580">
+        <v>1.875</v>
+      </c>
+      <c r="V580">
         <v>1.975</v>
       </c>
-      <c r="V580">
-        <v>1.875</v>
-      </c>
       <c r="W580">
         <v>-1</v>
       </c>
       <c r="X580">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y580">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z580">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA580">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AB580">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC580">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52177,7 +52177,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>4643452</v>
+        <v>4644523</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52189,76 +52189,76 @@
         <v>44717.66666666666</v>
       </c>
       <c r="F581" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G581" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J581" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K581">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L581">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M581">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N581">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O581">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P581">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q581">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R581">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S581">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T581">
         <v>2.5</v>
       </c>
       <c r="U581">
+        <v>1.975</v>
+      </c>
+      <c r="V581">
         <v>1.875</v>
       </c>
-      <c r="V581">
-        <v>1.975</v>
-      </c>
       <c r="W581">
         <v>-1</v>
       </c>
       <c r="X581">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y581">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z581">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA581">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AB581">
+        <v>-1</v>
+      </c>
+      <c r="AC581">
         <v>0.875</v>
-      </c>
-      <c r="AC581">
-        <v>-1</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -53512,7 +53512,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>4643960</v>
+        <v>4643458</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53524,76 +53524,76 @@
         <v>44723.79166666666</v>
       </c>
       <c r="F596" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G596" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J596" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K596">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="L596">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M596">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N596">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O596">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P596">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q596">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R596">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S596">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T596">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U596">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V596">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W596">
         <v>-1</v>
       </c>
       <c r="X596">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y596">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z596">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA596">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB596">
         <v>-0.5</v>
       </c>
-      <c r="AB596">
-        <v>0</v>
-      </c>
       <c r="AC596">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53601,7 +53601,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>4643458</v>
+        <v>4643960</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53613,76 +53613,76 @@
         <v>44723.79166666666</v>
       </c>
       <c r="F597" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G597" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I597">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J597" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K597">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L597">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M597">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N597">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O597">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P597">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q597">
+        <v>0.25</v>
+      </c>
+      <c r="R597">
+        <v>1.925</v>
+      </c>
+      <c r="S597">
+        <v>1.925</v>
+      </c>
+      <c r="T597">
+        <v>2</v>
+      </c>
+      <c r="U597">
+        <v>2.025</v>
+      </c>
+      <c r="V597">
+        <v>1.825</v>
+      </c>
+      <c r="W597">
+        <v>-1</v>
+      </c>
+      <c r="X597">
+        <v>2</v>
+      </c>
+      <c r="Y597">
+        <v>-1</v>
+      </c>
+      <c r="Z597">
+        <v>0.4625</v>
+      </c>
+      <c r="AA597">
         <v>-0.5</v>
       </c>
-      <c r="R597">
-        <v>1.875</v>
-      </c>
-      <c r="S597">
-        <v>1.975</v>
-      </c>
-      <c r="T597">
-        <v>2.25</v>
-      </c>
-      <c r="U597">
-        <v>1.975</v>
-      </c>
-      <c r="V597">
-        <v>1.875</v>
-      </c>
-      <c r="W597">
-        <v>-1</v>
-      </c>
-      <c r="X597">
-        <v>-1</v>
-      </c>
-      <c r="Y597">
-        <v>3.75</v>
-      </c>
-      <c r="Z597">
-        <v>-1</v>
-      </c>
-      <c r="AA597">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB597">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC597">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53779,7 +53779,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>4643992</v>
+        <v>4644525</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53791,76 +53791,76 @@
         <v>44724.66666666666</v>
       </c>
       <c r="F599" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G599" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H599">
         <v>1</v>
       </c>
       <c r="I599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J599" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K599">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L599">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M599">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N599">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O599">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P599">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q599">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R599">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S599">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T599">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U599">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V599">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W599">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X599">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y599">
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA599">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB599">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC599">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53868,7 +53868,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>4644525</v>
+        <v>4643992</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53880,76 +53880,76 @@
         <v>44724.66666666666</v>
       </c>
       <c r="F600" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G600" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H600">
         <v>1</v>
       </c>
       <c r="I600">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J600" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K600">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L600">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M600">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N600">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O600">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P600">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q600">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R600">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S600">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T600">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U600">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V600">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W600">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X600">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y600">
         <v>-1</v>
       </c>
       <c r="Z600">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA600">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB600">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC600">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -54669,7 +54669,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>4643461</v>
+        <v>4643904</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54681,34 +54681,34 @@
         <v>44727.89583333334</v>
       </c>
       <c r="F609" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G609" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J609" t="s">
         <v>57</v>
       </c>
       <c r="K609">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L609">
         <v>3</v>
       </c>
       <c r="M609">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N609">
         <v>2.3</v>
       </c>
       <c r="O609">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P609">
         <v>3.4</v>
@@ -54717,25 +54717,25 @@
         <v>-0.25</v>
       </c>
       <c r="R609">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S609">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T609">
         <v>2</v>
       </c>
       <c r="U609">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V609">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W609">
         <v>-1</v>
       </c>
       <c r="X609">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y609">
         <v>-1</v>
@@ -54744,13 +54744,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA609">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
       <c r="AB609">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC609">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -54758,7 +54758,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>4643904</v>
+        <v>4643461</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54770,34 +54770,34 @@
         <v>44727.89583333334</v>
       </c>
       <c r="F610" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G610" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J610" t="s">
         <v>57</v>
       </c>
       <c r="K610">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L610">
         <v>3</v>
       </c>
       <c r="M610">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N610">
         <v>2.3</v>
       </c>
       <c r="O610">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P610">
         <v>3.4</v>
@@ -54806,25 +54806,25 @@
         <v>-0.25</v>
       </c>
       <c r="R610">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S610">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T610">
         <v>2</v>
       </c>
       <c r="U610">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V610">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W610">
         <v>-1</v>
       </c>
       <c r="X610">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y610">
         <v>-1</v>
@@ -54833,13 +54833,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA610">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB610">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC610">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -55381,7 +55381,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>4643905</v>
+        <v>4643464</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55393,76 +55393,76 @@
         <v>44731.66666666666</v>
       </c>
       <c r="F617" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G617" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617">
+        <v>0</v>
+      </c>
+      <c r="J617" t="s">
+        <v>56</v>
+      </c>
+      <c r="K617">
+        <v>2.05</v>
+      </c>
+      <c r="L617">
+        <v>3.3</v>
+      </c>
+      <c r="M617">
+        <v>3.5</v>
+      </c>
+      <c r="N617">
+        <v>2</v>
+      </c>
+      <c r="O617">
+        <v>3.5</v>
+      </c>
+      <c r="P617">
+        <v>3.75</v>
+      </c>
+      <c r="Q617">
+        <v>-0.5</v>
+      </c>
+      <c r="R617">
+        <v>1.95</v>
+      </c>
+      <c r="S617">
+        <v>1.9</v>
+      </c>
+      <c r="T617">
+        <v>2.5</v>
+      </c>
+      <c r="U617">
+        <v>1.95</v>
+      </c>
+      <c r="V617">
+        <v>1.9</v>
+      </c>
+      <c r="W617">
         <v>1</v>
       </c>
-      <c r="J617" t="s">
-        <v>55</v>
-      </c>
-      <c r="K617">
-        <v>2.375</v>
-      </c>
-      <c r="L617">
-        <v>3.1</v>
-      </c>
-      <c r="M617">
-        <v>3.2</v>
-      </c>
-      <c r="N617">
-        <v>2.55</v>
-      </c>
-      <c r="O617">
-        <v>2.9</v>
-      </c>
-      <c r="P617">
-        <v>3.1</v>
-      </c>
-      <c r="Q617">
-        <v>0</v>
-      </c>
-      <c r="R617">
-        <v>1.775</v>
-      </c>
-      <c r="S617">
-        <v>2.1</v>
-      </c>
-      <c r="T617">
-        <v>2</v>
-      </c>
-      <c r="U617">
-        <v>2</v>
-      </c>
-      <c r="V617">
-        <v>1.85</v>
-      </c>
-      <c r="W617">
-        <v>-1</v>
-      </c>
       <c r="X617">
         <v>-1</v>
       </c>
       <c r="Y617">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z617">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA617">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB617">
         <v>-1</v>
       </c>
       <c r="AC617">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -55470,7 +55470,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>4643464</v>
+        <v>4643905</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55482,76 +55482,76 @@
         <v>44731.66666666666</v>
       </c>
       <c r="F618" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G618" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J618" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K618">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L618">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M618">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N618">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O618">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P618">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q618">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R618">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S618">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T618">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U618">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V618">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W618">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X618">
         <v>-1</v>
       </c>
       <c r="Y618">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z618">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA618">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB618">
         <v>-1</v>
       </c>
       <c r="AC618">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -55559,7 +55559,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5160038</v>
+        <v>4643466</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55571,73 +55571,73 @@
         <v>44731.75</v>
       </c>
       <c r="F619" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G619" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H619">
+        <v>2</v>
+      </c>
+      <c r="I619">
         <v>3</v>
       </c>
-      <c r="I619">
-        <v>1</v>
-      </c>
       <c r="J619" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K619">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L619">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M619">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N619">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O619">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P619">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q619">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R619">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S619">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T619">
         <v>2.25</v>
       </c>
       <c r="U619">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V619">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W619">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z619">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA619">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB619">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC619">
         <v>-1</v>
@@ -55648,7 +55648,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>4643466</v>
+        <v>4643994</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55660,76 +55660,76 @@
         <v>44731.75</v>
       </c>
       <c r="F620" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G620" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J620" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K620">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L620">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M620">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N620">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O620">
         <v>3.8</v>
       </c>
       <c r="P620">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q620">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R620">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S620">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T620">
         <v>2.25</v>
       </c>
       <c r="U620">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V620">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W620">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z620">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA620">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB620">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC620">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="621" spans="1:29">
@@ -55737,7 +55737,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>4643994</v>
+        <v>5160038</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55749,22 +55749,22 @@
         <v>44731.75</v>
       </c>
       <c r="F621" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G621" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H621">
+        <v>3</v>
+      </c>
+      <c r="I621">
         <v>1</v>
-      </c>
-      <c r="I621">
-        <v>0</v>
       </c>
       <c r="J621" t="s">
         <v>56</v>
       </c>
       <c r="K621">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L621">
         <v>3.4</v>
@@ -55773,34 +55773,34 @@
         <v>4</v>
       </c>
       <c r="N621">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O621">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P621">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q621">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R621">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S621">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T621">
         <v>2.25</v>
       </c>
       <c r="U621">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V621">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W621">
-        <v>0.7270000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X621">
         <v>-1</v>
@@ -55809,16 +55809,16 @@
         <v>-1</v>
       </c>
       <c r="Z621">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA621">
         <v>-1</v>
       </c>
       <c r="AB621">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC621">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="622" spans="1:29">
@@ -56627,7 +56627,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>4643996</v>
+        <v>4644477</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56639,61 +56639,61 @@
         <v>44738.75</v>
       </c>
       <c r="F631" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G631" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J631" t="s">
         <v>57</v>
       </c>
       <c r="K631">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L631">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M631">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N631">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O631">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P631">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q631">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R631">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S631">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T631">
         <v>2.25</v>
       </c>
       <c r="U631">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V631">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W631">
         <v>-1</v>
       </c>
       <c r="X631">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y631">
         <v>-1</v>
@@ -56702,13 +56702,13 @@
         <v>-1</v>
       </c>
       <c r="AA631">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB631">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC631">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -56716,7 +56716,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>4644477</v>
+        <v>4643996</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56728,61 +56728,61 @@
         <v>44738.75</v>
       </c>
       <c r="F632" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G632" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J632" t="s">
         <v>57</v>
       </c>
       <c r="K632">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L632">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M632">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N632">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O632">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P632">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q632">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R632">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S632">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T632">
         <v>2.25</v>
       </c>
       <c r="U632">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V632">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W632">
         <v>-1</v>
       </c>
       <c r="X632">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y632">
         <v>-1</v>
@@ -56791,13 +56791,13 @@
         <v>-1</v>
       </c>
       <c r="AA632">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB632">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC632">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -57072,7 +57072,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>4643471</v>
+        <v>4643997</v>
       </c>
       <c r="C636" t="s">
         <v>28</v>
@@ -57084,76 +57084,76 @@
         <v>44744.79166666666</v>
       </c>
       <c r="F636" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G636" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H636">
         <v>1</v>
       </c>
       <c r="I636">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J636" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K636">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="L636">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M636">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N636">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O636">
         <v>3.2</v>
       </c>
       <c r="P636">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q636">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R636">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S636">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T636">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U636">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V636">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W636">
         <v>-1</v>
       </c>
       <c r="X636">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y636">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z636">
         <v>-1</v>
       </c>
       <c r="AA636">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB636">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC636">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="637" spans="1:29">
@@ -57161,7 +57161,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>4643997</v>
+        <v>4643471</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57173,76 +57173,76 @@
         <v>44744.79166666666</v>
       </c>
       <c r="F637" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G637" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H637">
         <v>1</v>
       </c>
       <c r="I637">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J637" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K637">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="L637">
+        <v>3.1</v>
+      </c>
+      <c r="M637">
+        <v>2.6</v>
+      </c>
+      <c r="N637">
         <v>3</v>
-      </c>
-      <c r="M637">
-        <v>3.2</v>
-      </c>
-      <c r="N637">
-        <v>2.05</v>
       </c>
       <c r="O637">
         <v>3.2</v>
       </c>
       <c r="P637">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q637">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R637">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S637">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T637">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U637">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V637">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W637">
         <v>-1</v>
       </c>
       <c r="X637">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y637">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z637">
         <v>-1</v>
       </c>
       <c r="AA637">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB637">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC637">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="638" spans="1:29">
@@ -58229,7 +58229,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>4643998</v>
+        <v>4644079</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58241,67 +58241,67 @@
         <v>44752.75</v>
       </c>
       <c r="F649" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G649" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I649">
         <v>0</v>
       </c>
       <c r="J649" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K649">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L649">
         <v>3.3</v>
       </c>
       <c r="M649">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N649">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O649">
         <v>3.3</v>
       </c>
       <c r="P649">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q649">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R649">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S649">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T649">
         <v>2.25</v>
       </c>
       <c r="U649">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V649">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W649">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X649">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y649">
         <v>-1</v>
       </c>
       <c r="Z649">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA649">
         <v>-1</v>
@@ -58310,7 +58310,7 @@
         <v>-1</v>
       </c>
       <c r="AC649">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -58318,7 +58318,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>4644529</v>
+        <v>4643998</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58330,10 +58330,10 @@
         <v>44752.75</v>
       </c>
       <c r="F650" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G650" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H650">
         <v>0</v>
@@ -58345,61 +58345,61 @@
         <v>57</v>
       </c>
       <c r="K650">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L650">
+        <v>3.3</v>
+      </c>
+      <c r="M650">
+        <v>2</v>
+      </c>
+      <c r="N650">
         <v>3.75</v>
       </c>
-      <c r="M650">
-        <v>5</v>
-      </c>
-      <c r="N650">
-        <v>1.55</v>
-      </c>
       <c r="O650">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P650">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q650">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R650">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S650">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T650">
         <v>2.25</v>
       </c>
       <c r="U650">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V650">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W650">
         <v>-1</v>
       </c>
       <c r="X650">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Y650">
         <v>-1</v>
       </c>
       <c r="Z650">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA650">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB650">
         <v>-1</v>
       </c>
       <c r="AC650">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -58407,7 +58407,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>4644079</v>
+        <v>4644529</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58419,76 +58419,76 @@
         <v>44752.75</v>
       </c>
       <c r="F651" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G651" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651">
         <v>0</v>
       </c>
       <c r="J651" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K651">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L651">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M651">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N651">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="O651">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P651">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q651">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R651">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S651">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T651">
         <v>2.25</v>
       </c>
       <c r="U651">
+        <v>1.9</v>
+      </c>
+      <c r="V651">
         <v>1.95</v>
       </c>
-      <c r="V651">
-        <v>1.9</v>
-      </c>
       <c r="W651">
+        <v>-1</v>
+      </c>
+      <c r="X651">
+        <v>2.8</v>
+      </c>
+      <c r="Y651">
+        <v>-1</v>
+      </c>
+      <c r="Z651">
+        <v>-1</v>
+      </c>
+      <c r="AA651">
+        <v>0.825</v>
+      </c>
+      <c r="AB651">
+        <v>-1</v>
+      </c>
+      <c r="AC651">
         <v>0.95</v>
-      </c>
-      <c r="X651">
-        <v>-1</v>
-      </c>
-      <c r="Y651">
-        <v>-1</v>
-      </c>
-      <c r="Z651">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA651">
-        <v>-1</v>
-      </c>
-      <c r="AB651">
-        <v>-1</v>
-      </c>
-      <c r="AC651">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -59920,7 +59920,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>4643478</v>
+        <v>4644462</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59932,73 +59932,73 @@
         <v>44762.85416666666</v>
       </c>
       <c r="F668" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G668" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H668">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I668">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J668" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K668">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L668">
+        <v>3.1</v>
+      </c>
+      <c r="M668">
+        <v>3.1</v>
+      </c>
+      <c r="N668">
+        <v>1.85</v>
+      </c>
+      <c r="O668">
+        <v>3.4</v>
+      </c>
+      <c r="P668">
         <v>4.5</v>
       </c>
-      <c r="M668">
-        <v>8</v>
-      </c>
-      <c r="N668">
-        <v>1.363</v>
-      </c>
-      <c r="O668">
-        <v>5.25</v>
-      </c>
-      <c r="P668">
-        <v>8</v>
-      </c>
       <c r="Q668">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R668">
+        <v>1.825</v>
+      </c>
+      <c r="S668">
         <v>2.025</v>
       </c>
-      <c r="S668">
+      <c r="T668">
+        <v>2.25</v>
+      </c>
+      <c r="U668">
+        <v>2.025</v>
+      </c>
+      <c r="V668">
         <v>1.825</v>
       </c>
-      <c r="T668">
-        <v>2.75</v>
-      </c>
-      <c r="U668">
-        <v>1.85</v>
-      </c>
-      <c r="V668">
-        <v>2</v>
-      </c>
       <c r="W668">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X668">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y668">
         <v>-1</v>
       </c>
       <c r="Z668">
+        <v>-1</v>
+      </c>
+      <c r="AA668">
         <v>1.025</v>
       </c>
-      <c r="AA668">
-        <v>-1</v>
-      </c>
       <c r="AB668">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC668">
         <v>-1</v>
@@ -60009,7 +60009,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>4644462</v>
+        <v>4643478</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60021,73 +60021,73 @@
         <v>44762.85416666666</v>
       </c>
       <c r="F669" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G669" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H669">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I669">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J669" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K669">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L669">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M669">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N669">
+        <v>1.363</v>
+      </c>
+      <c r="O669">
+        <v>5.25</v>
+      </c>
+      <c r="P669">
+        <v>8</v>
+      </c>
+      <c r="Q669">
+        <v>-1.5</v>
+      </c>
+      <c r="R669">
+        <v>2.025</v>
+      </c>
+      <c r="S669">
+        <v>1.825</v>
+      </c>
+      <c r="T669">
+        <v>2.75</v>
+      </c>
+      <c r="U669">
         <v>1.85</v>
       </c>
-      <c r="O669">
-        <v>3.4</v>
-      </c>
-      <c r="P669">
-        <v>4.5</v>
-      </c>
-      <c r="Q669">
-        <v>-0.5</v>
-      </c>
-      <c r="R669">
-        <v>1.825</v>
-      </c>
-      <c r="S669">
-        <v>2.025</v>
-      </c>
-      <c r="T669">
-        <v>2.25</v>
-      </c>
-      <c r="U669">
-        <v>2.025</v>
-      </c>
       <c r="V669">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W669">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X669">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y669">
         <v>-1</v>
       </c>
       <c r="Z669">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA669">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB669">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC669">
         <v>-1</v>
@@ -60988,7 +60988,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>4644532</v>
+        <v>4644082</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -61000,55 +61000,55 @@
         <v>44766.75</v>
       </c>
       <c r="F680" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G680" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H680">
+        <v>0</v>
+      </c>
+      <c r="I680">
         <v>1</v>
-      </c>
-      <c r="I680">
-        <v>2</v>
       </c>
       <c r="J680" t="s">
         <v>55</v>
       </c>
       <c r="K680">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L680">
+        <v>3.25</v>
+      </c>
+      <c r="M680">
         <v>3.75</v>
       </c>
-      <c r="M680">
-        <v>6</v>
-      </c>
       <c r="N680">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O680">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P680">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q680">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R680">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S680">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T680">
         <v>2.25</v>
       </c>
       <c r="U680">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V680">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W680">
         <v>-1</v>
@@ -61057,19 +61057,19 @@
         <v>-1</v>
       </c>
       <c r="Y680">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z680">
         <v>-1</v>
       </c>
       <c r="AA680">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB680">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC680">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61077,7 +61077,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>4644082</v>
+        <v>4644532</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61089,55 +61089,55 @@
         <v>44766.75</v>
       </c>
       <c r="F681" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G681" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I681">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J681" t="s">
         <v>55</v>
       </c>
       <c r="K681">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L681">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M681">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N681">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O681">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P681">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="Q681">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R681">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S681">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T681">
         <v>2.25</v>
       </c>
       <c r="U681">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V681">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W681">
         <v>-1</v>
@@ -61146,19 +61146,19 @@
         <v>-1</v>
       </c>
       <c r="Y681">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z681">
         <v>-1</v>
       </c>
       <c r="AA681">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB681">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC681">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -62234,7 +62234,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>4644480</v>
+        <v>4643489</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62246,76 +62246,76 @@
         <v>44779.6875</v>
       </c>
       <c r="F694" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G694" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I694">
         <v>1</v>
       </c>
       <c r="J694" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K694">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L694">
         <v>3</v>
       </c>
       <c r="M694">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N694">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O694">
         <v>3.1</v>
       </c>
       <c r="P694">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q694">
         <v>-0.25</v>
       </c>
       <c r="R694">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S694">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T694">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U694">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V694">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W694">
         <v>-1</v>
       </c>
       <c r="X694">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y694">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z694">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA694">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB694">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC694">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62323,7 +62323,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>4643489</v>
+        <v>4644480</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62335,76 +62335,76 @@
         <v>44779.6875</v>
       </c>
       <c r="F695" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G695" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695">
         <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K695">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L695">
         <v>3</v>
       </c>
       <c r="M695">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N695">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O695">
         <v>3.1</v>
       </c>
       <c r="P695">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q695">
         <v>-0.25</v>
       </c>
       <c r="R695">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S695">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T695">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U695">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V695">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W695">
         <v>-1</v>
       </c>
       <c r="X695">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y695">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z695">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA695">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB695">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC695">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -65260,7 +65260,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>4681291</v>
+        <v>4644008</v>
       </c>
       <c r="C728" t="s">
         <v>28</v>
@@ -65272,76 +65272,76 @@
         <v>44801.66666666666</v>
       </c>
       <c r="F728" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G728" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728">
         <v>1</v>
       </c>
       <c r="J728" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K728">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L728">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M728">
+        <v>3.75</v>
+      </c>
+      <c r="N728">
+        <v>1.85</v>
+      </c>
+      <c r="O728">
+        <v>3.5</v>
+      </c>
+      <c r="P728">
+        <v>4.2</v>
+      </c>
+      <c r="Q728">
+        <v>-0.5</v>
+      </c>
+      <c r="R728">
+        <v>1.925</v>
+      </c>
+      <c r="S728">
+        <v>1.925</v>
+      </c>
+      <c r="T728">
+        <v>2</v>
+      </c>
+      <c r="U728">
         <v>1.75</v>
       </c>
-      <c r="N728">
-        <v>6</v>
-      </c>
-      <c r="O728">
-        <v>3.75</v>
-      </c>
-      <c r="P728">
-        <v>1.65</v>
-      </c>
-      <c r="Q728">
-        <v>0.75</v>
-      </c>
-      <c r="R728">
-        <v>2</v>
-      </c>
-      <c r="S728">
-        <v>1.85</v>
-      </c>
-      <c r="T728">
-        <v>2.25</v>
-      </c>
-      <c r="U728">
-        <v>1.9</v>
-      </c>
       <c r="V728">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W728">
         <v>-1</v>
       </c>
       <c r="X728">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y728">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z728">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA728">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB728">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC728">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="729" spans="1:29">
@@ -65349,7 +65349,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>4644008</v>
+        <v>4681291</v>
       </c>
       <c r="C729" t="s">
         <v>28</v>
@@ -65361,76 +65361,76 @@
         <v>44801.66666666666</v>
       </c>
       <c r="F729" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G729" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I729">
         <v>1</v>
       </c>
       <c r="J729" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K729">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L729">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M729">
+        <v>1.75</v>
+      </c>
+      <c r="N729">
+        <v>6</v>
+      </c>
+      <c r="O729">
         <v>3.75</v>
       </c>
-      <c r="N729">
+      <c r="P729">
+        <v>1.65</v>
+      </c>
+      <c r="Q729">
+        <v>0.75</v>
+      </c>
+      <c r="R729">
+        <v>2</v>
+      </c>
+      <c r="S729">
         <v>1.85</v>
       </c>
-      <c r="O729">
-        <v>3.5</v>
-      </c>
-      <c r="P729">
-        <v>4.2</v>
-      </c>
-      <c r="Q729">
+      <c r="T729">
+        <v>2.25</v>
+      </c>
+      <c r="U729">
+        <v>1.9</v>
+      </c>
+      <c r="V729">
+        <v>1.95</v>
+      </c>
+      <c r="W729">
+        <v>-1</v>
+      </c>
+      <c r="X729">
+        <v>2.75</v>
+      </c>
+      <c r="Y729">
+        <v>-1</v>
+      </c>
+      <c r="Z729">
+        <v>1</v>
+      </c>
+      <c r="AA729">
+        <v>-1</v>
+      </c>
+      <c r="AB729">
         <v>-0.5</v>
       </c>
-      <c r="R729">
-        <v>1.925</v>
-      </c>
-      <c r="S729">
-        <v>1.925</v>
-      </c>
-      <c r="T729">
-        <v>2</v>
-      </c>
-      <c r="U729">
-        <v>1.75</v>
-      </c>
-      <c r="V729">
-        <v>2.05</v>
-      </c>
-      <c r="W729">
-        <v>-1</v>
-      </c>
-      <c r="X729">
-        <v>-1</v>
-      </c>
-      <c r="Y729">
-        <v>3.2</v>
-      </c>
-      <c r="Z729">
-        <v>-1</v>
-      </c>
-      <c r="AA729">
-        <v>0.925</v>
-      </c>
-      <c r="AB729">
-        <v>-1</v>
-      </c>
       <c r="AC729">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="730" spans="1:29">
@@ -66773,7 +66773,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>4668476</v>
+        <v>4693528</v>
       </c>
       <c r="C745" t="s">
         <v>28</v>
@@ -66785,40 +66785,40 @@
         <v>44814.6875</v>
       </c>
       <c r="F745" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G745" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H745">
+        <v>2</v>
+      </c>
+      <c r="I745">
         <v>1</v>
-      </c>
-      <c r="I745">
-        <v>0</v>
       </c>
       <c r="J745" t="s">
         <v>56</v>
       </c>
       <c r="K745">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L745">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M745">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N745">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O745">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P745">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q745">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R745">
         <v>2.05</v>
@@ -66827,16 +66827,16 @@
         <v>1.75</v>
       </c>
       <c r="T745">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U745">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V745">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W745">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X745">
         <v>-1</v>
@@ -66845,16 +66845,16 @@
         <v>-1</v>
       </c>
       <c r="Z745">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA745">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB745">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC745">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="746" spans="1:29">
@@ -66862,7 +66862,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>4693528</v>
+        <v>4668476</v>
       </c>
       <c r="C746" t="s">
         <v>28</v>
@@ -66874,40 +66874,40 @@
         <v>44814.6875</v>
       </c>
       <c r="F746" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G746" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J746" t="s">
         <v>56</v>
       </c>
       <c r="K746">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L746">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M746">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N746">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O746">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P746">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q746">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R746">
         <v>2.05</v>
@@ -66916,16 +66916,16 @@
         <v>1.75</v>
       </c>
       <c r="T746">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U746">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V746">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W746">
-        <v>1.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X746">
         <v>-1</v>
@@ -66934,16 +66934,16 @@
         <v>-1</v>
       </c>
       <c r="Z746">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA746">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB746">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC746">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="747" spans="1:29">
@@ -70244,7 +70244,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>4805744</v>
+        <v>4816247</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70256,76 +70256,76 @@
         <v>44839.79166666666</v>
       </c>
       <c r="F784" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G784" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I784">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J784" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K784">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="L784">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M784">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N784">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O784">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P784">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q784">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R784">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S784">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T784">
         <v>2.25</v>
       </c>
       <c r="U784">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V784">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W784">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X784">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y784">
         <v>-1</v>
       </c>
       <c r="Z784">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA784">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB784">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC784">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70333,7 +70333,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>4816247</v>
+        <v>4805744</v>
       </c>
       <c r="C785" t="s">
         <v>28</v>
@@ -70345,76 +70345,76 @@
         <v>44839.79166666666</v>
       </c>
       <c r="F785" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G785" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H785">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I785">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J785" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K785">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="L785">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M785">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N785">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O785">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P785">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q785">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R785">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S785">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T785">
         <v>2.25</v>
       </c>
       <c r="U785">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V785">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W785">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X785">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y785">
         <v>-1</v>
       </c>
       <c r="Z785">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA785">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB785">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC785">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="786" spans="1:29">
@@ -71490,7 +71490,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>4984444</v>
+        <v>4984443</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71502,76 +71502,76 @@
         <v>44843.75</v>
       </c>
       <c r="F798" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G798" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H798">
         <v>0</v>
       </c>
       <c r="I798">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J798" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K798">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="L798">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M798">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N798">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O798">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P798">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q798">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R798">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S798">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T798">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U798">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V798">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W798">
         <v>-1</v>
       </c>
       <c r="X798">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y798">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z798">
         <v>-1</v>
       </c>
       <c r="AA798">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AB798">
         <v>-1</v>
       </c>
       <c r="AC798">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71579,7 +71579,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>4984443</v>
+        <v>4984444</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71591,76 +71591,76 @@
         <v>44843.75</v>
       </c>
       <c r="F799" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G799" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H799">
         <v>0</v>
       </c>
       <c r="I799">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J799" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K799">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="L799">
+        <v>3.75</v>
+      </c>
+      <c r="M799">
+        <v>5.5</v>
+      </c>
+      <c r="N799">
+        <v>1.615</v>
+      </c>
+      <c r="O799">
         <v>4</v>
       </c>
-      <c r="M799">
+      <c r="P799">
         <v>6</v>
       </c>
-      <c r="N799">
-        <v>1.45</v>
-      </c>
-      <c r="O799">
-        <v>4.2</v>
-      </c>
-      <c r="P799">
-        <v>8</v>
-      </c>
       <c r="Q799">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R799">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S799">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T799">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U799">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V799">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W799">
         <v>-1</v>
       </c>
       <c r="X799">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y799">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z799">
         <v>-1</v>
       </c>
       <c r="AA799">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AB799">
         <v>-1</v>
       </c>
       <c r="AC799">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71935,7 +71935,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>4999837</v>
+        <v>4999836</v>
       </c>
       <c r="C803" t="s">
         <v>28</v>
@@ -71947,76 +71947,76 @@
         <v>44849.85416666666</v>
       </c>
       <c r="F803" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G803" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H803">
         <v>1</v>
       </c>
       <c r="I803">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J803" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K803">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L803">
+        <v>3.2</v>
+      </c>
+      <c r="M803">
         <v>3.3</v>
       </c>
-      <c r="M803">
-        <v>3.4</v>
-      </c>
       <c r="N803">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O803">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P803">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q803">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R803">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S803">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T803">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U803">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V803">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W803">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X803">
         <v>-1</v>
       </c>
       <c r="Y803">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z803">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA803">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB803">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC803">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="804" spans="1:29">
@@ -72024,7 +72024,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>4999836</v>
+        <v>4999837</v>
       </c>
       <c r="C804" t="s">
         <v>28</v>
@@ -72036,76 +72036,76 @@
         <v>44849.85416666666</v>
       </c>
       <c r="F804" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G804" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H804">
         <v>1</v>
       </c>
       <c r="I804">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J804" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K804">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L804">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M804">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N804">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O804">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P804">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q804">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R804">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S804">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T804">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U804">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V804">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W804">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X804">
         <v>-1</v>
       </c>
       <c r="Y804">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z804">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA804">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB804">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC804">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="805" spans="1:29">
@@ -72291,7 +72291,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>4948980</v>
+        <v>4948829</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72303,76 +72303,76 @@
         <v>44850.75</v>
       </c>
       <c r="F807" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G807" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807">
         <v>1</v>
       </c>
       <c r="J807" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K807">
         <v>2.8</v>
       </c>
       <c r="L807">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M807">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N807">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O807">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P807">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q807">
         <v>0</v>
       </c>
       <c r="R807">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S807">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T807">
         <v>2.25</v>
       </c>
       <c r="U807">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V807">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W807">
         <v>-1</v>
       </c>
       <c r="X807">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y807">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z807">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA807">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB807">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC807">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72380,7 +72380,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>4948829</v>
+        <v>4948980</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72392,76 +72392,76 @@
         <v>44850.75</v>
       </c>
       <c r="F808" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G808" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I808">
         <v>1</v>
       </c>
       <c r="J808" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K808">
         <v>2.8</v>
       </c>
       <c r="L808">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M808">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N808">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O808">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P808">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q808">
         <v>0</v>
       </c>
       <c r="R808">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S808">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T808">
         <v>2.25</v>
       </c>
       <c r="U808">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V808">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W808">
         <v>-1</v>
       </c>
       <c r="X808">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y808">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z808">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA808">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB808">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC808">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -72469,7 +72469,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>4918674</v>
+        <v>4945738</v>
       </c>
       <c r="C809" t="s">
         <v>28</v>
@@ -72481,76 +72481,76 @@
         <v>44850.79166666666</v>
       </c>
       <c r="F809" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G809" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I809">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J809" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K809">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="L809">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M809">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N809">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="O809">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P809">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q809">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R809">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S809">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T809">
         <v>2.25</v>
       </c>
       <c r="U809">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V809">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W809">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X809">
         <v>-1</v>
       </c>
       <c r="Y809">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z809">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA809">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB809">
+        <v>-1</v>
+      </c>
+      <c r="AC809">
         <v>1</v>
-      </c>
-      <c r="AC809">
-        <v>-1</v>
       </c>
     </row>
     <row r="810" spans="1:29">
@@ -72558,7 +72558,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>4945738</v>
+        <v>4918674</v>
       </c>
       <c r="C810" t="s">
         <v>28</v>
@@ -72570,76 +72570,76 @@
         <v>44850.79166666666</v>
       </c>
       <c r="F810" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G810" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J810" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K810">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L810">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M810">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N810">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="O810">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P810">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q810">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R810">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S810">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T810">
         <v>2.25</v>
       </c>
       <c r="U810">
+        <v>2</v>
+      </c>
+      <c r="V810">
         <v>1.85</v>
       </c>
-      <c r="V810">
-        <v>2</v>
-      </c>
       <c r="W810">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X810">
         <v>-1</v>
       </c>
       <c r="Y810">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z810">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA810">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB810">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC810">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="811" spans="1:29">
@@ -73181,7 +73181,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>4975011</v>
+        <v>4975634</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73193,73 +73193,73 @@
         <v>44857.66666666666</v>
       </c>
       <c r="F817" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G817" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I817">
         <v>2</v>
       </c>
       <c r="J817" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K817">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="L817">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M817">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="N817">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="O817">
         <v>3.5</v>
       </c>
       <c r="P817">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="Q817">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R817">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S817">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T817">
         <v>2.25</v>
       </c>
       <c r="U817">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V817">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W817">
         <v>-1</v>
       </c>
       <c r="X817">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y817">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z817">
         <v>-1</v>
       </c>
       <c r="AA817">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB817">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC817">
         <v>-1</v>
@@ -73270,7 +73270,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>4975634</v>
+        <v>4975011</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73282,73 +73282,73 @@
         <v>44857.66666666666</v>
       </c>
       <c r="F818" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G818" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I818">
         <v>2</v>
       </c>
       <c r="J818" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K818">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L818">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M818">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N818">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="O818">
         <v>3.5</v>
       </c>
       <c r="P818">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="Q818">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R818">
+        <v>2</v>
+      </c>
+      <c r="S818">
         <v>1.85</v>
-      </c>
-      <c r="S818">
-        <v>2</v>
       </c>
       <c r="T818">
         <v>2.25</v>
       </c>
       <c r="U818">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V818">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W818">
         <v>-1</v>
       </c>
       <c r="X818">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y818">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z818">
         <v>-1</v>
       </c>
       <c r="AA818">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB818">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC818">
         <v>-1</v>
@@ -74961,7 +74961,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>5041328</v>
+        <v>5032708</v>
       </c>
       <c r="C837" t="s">
         <v>28</v>
@@ -74973,58 +74973,58 @@
         <v>44867.66666666666</v>
       </c>
       <c r="F837" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G837" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I837">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J837" t="s">
         <v>56</v>
       </c>
       <c r="K837">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L837">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M837">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N837">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O837">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P837">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q837">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R837">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S837">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T837">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U837">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V837">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W837">
-        <v>1.375</v>
+        <v>0.615</v>
       </c>
       <c r="X837">
         <v>-1</v>
@@ -75033,16 +75033,16 @@
         <v>-1</v>
       </c>
       <c r="Z837">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA837">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB837">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC837">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="838" spans="1:29">
@@ -75050,7 +75050,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>5032708</v>
+        <v>5041328</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75062,58 +75062,58 @@
         <v>44867.66666666666</v>
       </c>
       <c r="F838" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G838" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H838">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I838">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J838" t="s">
         <v>56</v>
       </c>
       <c r="K838">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L838">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M838">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N838">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O838">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P838">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q838">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R838">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S838">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T838">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U838">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V838">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W838">
-        <v>0.615</v>
+        <v>1.375</v>
       </c>
       <c r="X838">
         <v>-1</v>
@@ -75122,16 +75122,16 @@
         <v>-1</v>
       </c>
       <c r="Z838">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA838">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB838">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC838">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -80212,7 +80212,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>6277397</v>
+        <v>6278717</v>
       </c>
       <c r="C896" t="s">
         <v>28</v>
@@ -80224,58 +80224,58 @@
         <v>45045.77083333334</v>
       </c>
       <c r="F896" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G896" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H896">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I896">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J896" t="s">
         <v>56</v>
       </c>
       <c r="K896">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L896">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M896">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N896">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O896">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P896">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Q896">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R896">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S896">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T896">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U896">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V896">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W896">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="X896">
         <v>-1</v>
@@ -80284,13 +80284,13 @@
         <v>-1</v>
       </c>
       <c r="Z896">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA896">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB896">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC896">
         <v>-1</v>
@@ -80301,7 +80301,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>6278717</v>
+        <v>6277397</v>
       </c>
       <c r="C897" t="s">
         <v>28</v>
@@ -80313,58 +80313,58 @@
         <v>45045.77083333334</v>
       </c>
       <c r="F897" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G897" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I897">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J897" t="s">
         <v>56</v>
       </c>
       <c r="K897">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L897">
+        <v>3.2</v>
+      </c>
+      <c r="M897">
         <v>3.4</v>
       </c>
-      <c r="M897">
-        <v>5</v>
-      </c>
       <c r="N897">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O897">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P897">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q897">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R897">
+        <v>2</v>
+      </c>
+      <c r="S897">
         <v>1.85</v>
       </c>
-      <c r="S897">
-        <v>2</v>
-      </c>
       <c r="T897">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U897">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V897">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W897">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="X897">
         <v>-1</v>
@@ -80373,13 +80373,13 @@
         <v>-1</v>
       </c>
       <c r="Z897">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA897">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB897">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC897">
         <v>-1</v>
@@ -80657,7 +80657,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>6277296</v>
+        <v>6277461</v>
       </c>
       <c r="C901" t="s">
         <v>28</v>
@@ -80669,76 +80669,76 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F901" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G901" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H901">
         <v>1</v>
       </c>
       <c r="I901">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J901" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K901">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L901">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M901">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N901">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O901">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P901">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q901">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R901">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S901">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T901">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U901">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V901">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W901">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X901">
         <v>-1</v>
       </c>
       <c r="Y901">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z901">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA901">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB901">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC901">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="902" spans="1:29">
@@ -80746,7 +80746,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>6277461</v>
+        <v>6277296</v>
       </c>
       <c r="C902" t="s">
         <v>28</v>
@@ -80758,76 +80758,76 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F902" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G902" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H902">
         <v>1</v>
       </c>
       <c r="I902">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J902" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K902">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L902">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M902">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N902">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O902">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P902">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q902">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R902">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S902">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T902">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U902">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V902">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W902">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X902">
         <v>-1</v>
       </c>
       <c r="Y902">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z902">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA902">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB902">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC902">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="903" spans="1:29">
@@ -83416,7 +83416,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>6277667</v>
+        <v>6277464</v>
       </c>
       <c r="C932" t="s">
         <v>28</v>
@@ -83428,58 +83428,58 @@
         <v>45060.77083333334</v>
       </c>
       <c r="F932" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G932" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H932">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I932">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J932" t="s">
         <v>56</v>
       </c>
       <c r="K932">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L932">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M932">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N932">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="O932">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P932">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q932">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R932">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S932">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T932">
         <v>2.25</v>
       </c>
       <c r="U932">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V932">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W932">
-        <v>0.6000000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X932">
         <v>-1</v>
@@ -83488,13 +83488,13 @@
         <v>-1</v>
       </c>
       <c r="Z932">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA932">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB932">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC932">
         <v>-1</v>
@@ -83505,7 +83505,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>6277464</v>
+        <v>6277667</v>
       </c>
       <c r="C933" t="s">
         <v>28</v>
@@ -83517,58 +83517,58 @@
         <v>45060.77083333334</v>
       </c>
       <c r="F933" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G933" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I933">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J933" t="s">
         <v>56</v>
       </c>
       <c r="K933">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L933">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M933">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N933">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="O933">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P933">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q933">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R933">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S933">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T933">
         <v>2.25</v>
       </c>
       <c r="U933">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V933">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W933">
-        <v>2.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X933">
         <v>-1</v>
@@ -83577,13 +83577,13 @@
         <v>-1</v>
       </c>
       <c r="Z933">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA933">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB933">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC933">
         <v>-1</v>
@@ -87154,7 +87154,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6277412</v>
+        <v>6277674</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87166,76 +87166,76 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F974" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G974" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974">
         <v>1</v>
       </c>
       <c r="J974" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K974">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L974">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M974">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N974">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O974">
         <v>3.4</v>
       </c>
       <c r="P974">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q974">
+        <v>-0.75</v>
+      </c>
+      <c r="R974">
+        <v>2.025</v>
+      </c>
+      <c r="S974">
+        <v>1.825</v>
+      </c>
+      <c r="T974">
+        <v>2.25</v>
+      </c>
+      <c r="U974">
+        <v>1.95</v>
+      </c>
+      <c r="V974">
+        <v>1.9</v>
+      </c>
+      <c r="W974">
+        <v>0.8</v>
+      </c>
+      <c r="X974">
+        <v>-1</v>
+      </c>
+      <c r="Y974">
+        <v>-1</v>
+      </c>
+      <c r="Z974">
+        <v>0.5125</v>
+      </c>
+      <c r="AA974">
         <v>-0.5</v>
       </c>
-      <c r="R974">
-        <v>1.925</v>
-      </c>
-      <c r="S974">
-        <v>1.925</v>
-      </c>
-      <c r="T974">
-        <v>2.5</v>
-      </c>
-      <c r="U974">
-        <v>1.975</v>
-      </c>
-      <c r="V974">
-        <v>1.875</v>
-      </c>
-      <c r="W974">
-        <v>-1</v>
-      </c>
-      <c r="X974">
-        <v>-1</v>
-      </c>
-      <c r="Y974">
-        <v>3.2</v>
-      </c>
-      <c r="Z974">
-        <v>-1</v>
-      </c>
-      <c r="AA974">
-        <v>0.925</v>
-      </c>
       <c r="AB974">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC974">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="975" spans="1:29">
@@ -87243,7 +87243,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>6277674</v>
+        <v>6277412</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87255,76 +87255,76 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F975" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G975" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975">
         <v>1</v>
       </c>
       <c r="J975" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K975">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L975">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M975">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N975">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O975">
         <v>3.4</v>
       </c>
       <c r="P975">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q975">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R975">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S975">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T975">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U975">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V975">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W975">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X975">
         <v>-1</v>
       </c>
       <c r="Y975">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z975">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA975">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB975">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC975">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="976" spans="1:29">
@@ -87421,7 +87421,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>6277914</v>
+        <v>6277869</v>
       </c>
       <c r="C977" t="s">
         <v>28</v>
@@ -87433,40 +87433,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F977" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G977" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H977">
         <v>1</v>
       </c>
       <c r="I977">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J977" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K977">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L977">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M977">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N977">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O977">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P977">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q977">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R977">
         <v>2.025</v>
@@ -87475,34 +87475,34 @@
         <v>1.825</v>
       </c>
       <c r="T977">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U977">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V977">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W977">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X977">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y977">
         <v>-1</v>
       </c>
       <c r="Z977">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA977">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB977">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC977">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="978" spans="1:29">
@@ -87510,7 +87510,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>6277869</v>
+        <v>6277914</v>
       </c>
       <c r="C978" t="s">
         <v>28</v>
@@ -87522,40 +87522,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F978" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G978" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H978">
         <v>1</v>
       </c>
       <c r="I978">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J978" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K978">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="L978">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M978">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N978">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O978">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P978">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q978">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R978">
         <v>2.025</v>
@@ -87564,34 +87564,34 @@
         <v>1.825</v>
       </c>
       <c r="T978">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U978">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V978">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W978">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X978">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y978">
         <v>-1</v>
       </c>
       <c r="Z978">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA978">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB978">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC978">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="979" spans="1:29">
@@ -88578,7 +88578,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>6277470</v>
+        <v>6277414</v>
       </c>
       <c r="C990" t="s">
         <v>28</v>
@@ -88590,76 +88590,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F990" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G990" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I990">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J990" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K990">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L990">
+        <v>3.1</v>
+      </c>
+      <c r="M990">
+        <v>2.9</v>
+      </c>
+      <c r="N990">
+        <v>1.95</v>
+      </c>
+      <c r="O990">
+        <v>3.4</v>
+      </c>
+      <c r="P990">
         <v>4</v>
       </c>
-      <c r="M990">
-        <v>5.5</v>
-      </c>
-      <c r="N990">
-        <v>1.4</v>
-      </c>
-      <c r="O990">
-        <v>4.5</v>
-      </c>
-      <c r="P990">
-        <v>7.5</v>
-      </c>
       <c r="Q990">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R990">
+        <v>1.975</v>
+      </c>
+      <c r="S990">
+        <v>1.875</v>
+      </c>
+      <c r="T990">
+        <v>2.25</v>
+      </c>
+      <c r="U990">
         <v>1.925</v>
       </c>
-      <c r="S990">
+      <c r="V990">
         <v>1.925</v>
       </c>
-      <c r="T990">
-        <v>2.75</v>
-      </c>
-      <c r="U990">
-        <v>1.975</v>
-      </c>
-      <c r="V990">
-        <v>1.875</v>
-      </c>
       <c r="W990">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X990">
         <v>-1</v>
       </c>
       <c r="Y990">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z990">
+        <v>-1</v>
+      </c>
+      <c r="AA990">
+        <v>0.875</v>
+      </c>
+      <c r="AB990">
         <v>0.925</v>
       </c>
-      <c r="AA990">
-        <v>-1</v>
-      </c>
-      <c r="AB990">
-        <v>-1</v>
-      </c>
       <c r="AC990">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="991" spans="1:29">
@@ -88756,7 +88756,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>6277414</v>
+        <v>6277470</v>
       </c>
       <c r="C992" t="s">
         <v>28</v>
@@ -88768,76 +88768,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F992" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G992" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I992">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J992" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K992">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L992">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M992">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N992">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O992">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P992">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q992">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R992">
+        <v>1.925</v>
+      </c>
+      <c r="S992">
+        <v>1.925</v>
+      </c>
+      <c r="T992">
+        <v>2.75</v>
+      </c>
+      <c r="U992">
         <v>1.975</v>
       </c>
-      <c r="S992">
+      <c r="V992">
         <v>1.875</v>
       </c>
-      <c r="T992">
-        <v>2.25</v>
-      </c>
-      <c r="U992">
-        <v>1.925</v>
-      </c>
-      <c r="V992">
-        <v>1.925</v>
-      </c>
       <c r="W992">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X992">
         <v>-1</v>
       </c>
       <c r="Y992">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z992">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA992">
+        <v>-1</v>
+      </c>
+      <c r="AB992">
+        <v>-1</v>
+      </c>
+      <c r="AC992">
         <v>0.875</v>
-      </c>
-      <c r="AB992">
-        <v>0.925</v>
-      </c>
-      <c r="AC992">
-        <v>-1</v>
       </c>
     </row>
     <row r="993" spans="1:29">
@@ -89379,7 +89379,7 @@
         <v>997</v>
       </c>
       <c r="B999">
-        <v>6277415</v>
+        <v>6277677</v>
       </c>
       <c r="C999" t="s">
         <v>28</v>
@@ -89391,10 +89391,10 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F999" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G999" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H999">
         <v>2</v>
@@ -89406,58 +89406,58 @@
         <v>57</v>
       </c>
       <c r="K999">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L999">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M999">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N999">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O999">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P999">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q999">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R999">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S999">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T999">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U999">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V999">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W999">
         <v>-1</v>
       </c>
       <c r="X999">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y999">
         <v>-1</v>
       </c>
       <c r="Z999">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA999">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AB999">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC999">
         <v>-1</v>
@@ -89468,7 +89468,7 @@
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>6277677</v>
+        <v>6277415</v>
       </c>
       <c r="C1000" t="s">
         <v>28</v>
@@ -89480,10 +89480,10 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F1000" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1000" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H1000">
         <v>2</v>
@@ -89495,58 +89495,58 @@
         <v>57</v>
       </c>
       <c r="K1000">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L1000">
+        <v>3.75</v>
+      </c>
+      <c r="M1000">
+        <v>4.333</v>
+      </c>
+      <c r="N1000">
+        <v>1.5</v>
+      </c>
+      <c r="O1000">
+        <v>4</v>
+      </c>
+      <c r="P1000">
+        <v>7.5</v>
+      </c>
+      <c r="Q1000">
+        <v>-1</v>
+      </c>
+      <c r="R1000">
+        <v>1.75</v>
+      </c>
+      <c r="S1000">
+        <v>2.05</v>
+      </c>
+      <c r="T1000">
+        <v>2.5</v>
+      </c>
+      <c r="U1000">
+        <v>2.05</v>
+      </c>
+      <c r="V1000">
+        <v>1.8</v>
+      </c>
+      <c r="W1000">
+        <v>-1</v>
+      </c>
+      <c r="X1000">
         <v>3</v>
       </c>
-      <c r="M1000">
-        <v>2.15</v>
-      </c>
-      <c r="N1000">
-        <v>2.25</v>
-      </c>
-      <c r="O1000">
-        <v>3.25</v>
-      </c>
-      <c r="P1000">
-        <v>3.3</v>
-      </c>
-      <c r="Q1000">
-        <v>-0.25</v>
-      </c>
-      <c r="R1000">
-        <v>1.925</v>
-      </c>
-      <c r="S1000">
-        <v>1.925</v>
-      </c>
-      <c r="T1000">
-        <v>2.25</v>
-      </c>
-      <c r="U1000">
-        <v>1.95</v>
-      </c>
-      <c r="V1000">
-        <v>1.9</v>
-      </c>
-      <c r="W1000">
-        <v>-1</v>
-      </c>
-      <c r="X1000">
-        <v>2.25</v>
-      </c>
       <c r="Y1000">
         <v>-1</v>
       </c>
       <c r="Z1000">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1000">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AB1000">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC1000">
         <v>-1</v>
@@ -89824,7 +89824,7 @@
         <v>1002</v>
       </c>
       <c r="B1004">
-        <v>6851050</v>
+        <v>6277417</v>
       </c>
       <c r="C1004" t="s">
         <v>28</v>
@@ -89836,76 +89836,76 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F1004" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G1004" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H1004">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1004">
         <v>1</v>
       </c>
       <c r="J1004" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1004">
+        <v>2.4</v>
+      </c>
+      <c r="L1004">
+        <v>3.25</v>
+      </c>
+      <c r="M1004">
+        <v>2.875</v>
+      </c>
+      <c r="N1004">
+        <v>2.9</v>
+      </c>
+      <c r="O1004">
+        <v>3.2</v>
+      </c>
+      <c r="P1004">
+        <v>2.5</v>
+      </c>
+      <c r="Q1004">
+        <v>0</v>
+      </c>
+      <c r="R1004">
+        <v>2.05</v>
+      </c>
+      <c r="S1004">
+        <v>1.8</v>
+      </c>
+      <c r="T1004">
         <v>2.25</v>
       </c>
-      <c r="L1004">
-        <v>3.2</v>
-      </c>
-      <c r="M1004">
-        <v>3.2</v>
-      </c>
-      <c r="N1004">
-        <v>1.75</v>
-      </c>
-      <c r="O1004">
-        <v>3.6</v>
-      </c>
-      <c r="P1004">
-        <v>5</v>
-      </c>
-      <c r="Q1004">
-        <v>-0.75</v>
-      </c>
-      <c r="R1004">
-        <v>2.025</v>
-      </c>
-      <c r="S1004">
-        <v>1.825</v>
-      </c>
-      <c r="T1004">
-        <v>2</v>
-      </c>
       <c r="U1004">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V1004">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W1004">
         <v>-1</v>
       </c>
       <c r="X1004">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1004">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z1004">
         <v>-1</v>
       </c>
       <c r="AA1004">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB1004">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1004">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1005" spans="1:29">
@@ -89913,7 +89913,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>6277417</v>
+        <v>6851050</v>
       </c>
       <c r="C1005" t="s">
         <v>28</v>
@@ -89925,76 +89925,76 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F1005" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G1005" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1005">
         <v>1</v>
       </c>
       <c r="J1005" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1005">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1005">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M1005">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N1005">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O1005">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P1005">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q1005">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1005">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S1005">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T1005">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1005">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1005">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W1005">
         <v>-1</v>
       </c>
       <c r="X1005">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1005">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1005">
         <v>-1</v>
       </c>
       <c r="AA1005">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB1005">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1005">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1006" spans="1:29">
@@ -91426,7 +91426,7 @@
         <v>1020</v>
       </c>
       <c r="B1022">
-        <v>6277421</v>
+        <v>6278693</v>
       </c>
       <c r="C1022" t="s">
         <v>28</v>
@@ -91438,76 +91438,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F1022" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G1022" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H1022">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1022">
         <v>1</v>
       </c>
       <c r="J1022" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1022">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L1022">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M1022">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1022">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O1022">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P1022">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q1022">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R1022">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S1022">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T1022">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1022">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V1022">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W1022">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X1022">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y1022">
         <v>-1</v>
       </c>
       <c r="Z1022">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA1022">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1022">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1022">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1023" spans="1:29">
@@ -91515,7 +91515,7 @@
         <v>1021</v>
       </c>
       <c r="B1023">
-        <v>6278693</v>
+        <v>6277421</v>
       </c>
       <c r="C1023" t="s">
         <v>28</v>
@@ -91527,76 +91527,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F1023" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G1023" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H1023">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1023">
         <v>1</v>
       </c>
       <c r="J1023" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1023">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L1023">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M1023">
+        <v>8</v>
+      </c>
+      <c r="N1023">
+        <v>1.333</v>
+      </c>
+      <c r="O1023">
         <v>5</v>
       </c>
-      <c r="N1023">
-        <v>1.55</v>
-      </c>
-      <c r="O1023">
+      <c r="P1023">
+        <v>8.5</v>
+      </c>
+      <c r="Q1023">
+        <v>-1.5</v>
+      </c>
+      <c r="R1023">
+        <v>2.05</v>
+      </c>
+      <c r="S1023">
+        <v>1.8</v>
+      </c>
+      <c r="T1023">
+        <v>2.75</v>
+      </c>
+      <c r="U1023">
+        <v>1.825</v>
+      </c>
+      <c r="V1023">
+        <v>2.025</v>
+      </c>
+      <c r="W1023">
+        <v>-1</v>
+      </c>
+      <c r="X1023">
         <v>4</v>
       </c>
-      <c r="P1023">
-        <v>6.5</v>
-      </c>
-      <c r="Q1023">
-        <v>-1</v>
-      </c>
-      <c r="R1023">
-        <v>1.925</v>
-      </c>
-      <c r="S1023">
-        <v>1.925</v>
-      </c>
-      <c r="T1023">
-        <v>2.5</v>
-      </c>
-      <c r="U1023">
-        <v>1.975</v>
-      </c>
-      <c r="V1023">
-        <v>1.875</v>
-      </c>
-      <c r="W1023">
-        <v>0.55</v>
-      </c>
-      <c r="X1023">
-        <v>-1</v>
-      </c>
       <c r="Y1023">
         <v>-1</v>
       </c>
       <c r="Z1023">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA1023">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1023">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1023">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1024" spans="1:29">
@@ -91604,7 +91604,7 @@
         <v>1022</v>
       </c>
       <c r="B1024">
-        <v>6277915</v>
+        <v>6277723</v>
       </c>
       <c r="C1024" t="s">
         <v>28</v>
@@ -91616,76 +91616,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F1024" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1024" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1024" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1024">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L1024">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M1024">
+        <v>2.8</v>
+      </c>
+      <c r="N1024">
+        <v>2.75</v>
+      </c>
+      <c r="O1024">
         <v>3.1</v>
       </c>
-      <c r="N1024">
-        <v>2.2</v>
-      </c>
-      <c r="O1024">
-        <v>3.2</v>
-      </c>
       <c r="P1024">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q1024">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1024">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S1024">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T1024">
         <v>2</v>
       </c>
       <c r="U1024">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V1024">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W1024">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X1024">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1024">
         <v>-1</v>
       </c>
       <c r="Z1024">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA1024">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB1024">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1024">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1025" spans="1:29">
@@ -91693,7 +91693,7 @@
         <v>1023</v>
       </c>
       <c r="B1025">
-        <v>6277723</v>
+        <v>6277915</v>
       </c>
       <c r="C1025" t="s">
         <v>28</v>
@@ -91705,76 +91705,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F1025" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1025" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025">
+        <v>0</v>
+      </c>
+      <c r="J1025" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1025">
+        <v>2.5</v>
+      </c>
+      <c r="L1025">
+        <v>2.875</v>
+      </c>
+      <c r="M1025">
+        <v>3.1</v>
+      </c>
+      <c r="N1025">
+        <v>2.2</v>
+      </c>
+      <c r="O1025">
+        <v>3.2</v>
+      </c>
+      <c r="P1025">
+        <v>3.75</v>
+      </c>
+      <c r="Q1025">
+        <v>-0.25</v>
+      </c>
+      <c r="R1025">
+        <v>1.875</v>
+      </c>
+      <c r="S1025">
+        <v>1.975</v>
+      </c>
+      <c r="T1025">
+        <v>2</v>
+      </c>
+      <c r="U1025">
+        <v>1.85</v>
+      </c>
+      <c r="V1025">
+        <v>2</v>
+      </c>
+      <c r="W1025">
+        <v>-1</v>
+      </c>
+      <c r="X1025">
+        <v>2.2</v>
+      </c>
+      <c r="Y1025">
+        <v>-1</v>
+      </c>
+      <c r="Z1025">
+        <v>-0.5</v>
+      </c>
+      <c r="AA1025">
+        <v>0.4875</v>
+      </c>
+      <c r="AB1025">
+        <v>-1</v>
+      </c>
+      <c r="AC1025">
         <v>1</v>
-      </c>
-      <c r="J1025" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1025">
-        <v>2.55</v>
-      </c>
-      <c r="L1025">
-        <v>3.1</v>
-      </c>
-      <c r="M1025">
-        <v>2.8</v>
-      </c>
-      <c r="N1025">
-        <v>2.75</v>
-      </c>
-      <c r="O1025">
-        <v>3.1</v>
-      </c>
-      <c r="P1025">
-        <v>2.7</v>
-      </c>
-      <c r="Q1025">
-        <v>0</v>
-      </c>
-      <c r="R1025">
-        <v>1.925</v>
-      </c>
-      <c r="S1025">
-        <v>1.925</v>
-      </c>
-      <c r="T1025">
-        <v>2</v>
-      </c>
-      <c r="U1025">
-        <v>1.95</v>
-      </c>
-      <c r="V1025">
-        <v>1.9</v>
-      </c>
-      <c r="W1025">
-        <v>1.75</v>
-      </c>
-      <c r="X1025">
-        <v>-1</v>
-      </c>
-      <c r="Y1025">
-        <v>-1</v>
-      </c>
-      <c r="Z1025">
-        <v>0.925</v>
-      </c>
-      <c r="AA1025">
-        <v>-1</v>
-      </c>
-      <c r="AB1025">
-        <v>0.95</v>
-      </c>
-      <c r="AC1025">
-        <v>-1</v>
       </c>
     </row>
     <row r="1026" spans="1:29">
@@ -91871,7 +91871,7 @@
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>6278730</v>
+        <v>6277881</v>
       </c>
       <c r="C1027" t="s">
         <v>28</v>
@@ -91883,76 +91883,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F1027" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G1027" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1027" t="s">
         <v>57</v>
       </c>
       <c r="K1027">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L1027">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M1027">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N1027">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O1027">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P1027">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q1027">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1027">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="S1027">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="T1027">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1027">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V1027">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W1027">
         <v>-1</v>
       </c>
       <c r="X1027">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y1027">
         <v>-1</v>
       </c>
       <c r="Z1027">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1027">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB1027">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC1027">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1028" spans="1:29">
@@ -91960,7 +91960,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>6277881</v>
+        <v>6278730</v>
       </c>
       <c r="C1028" t="s">
         <v>28</v>
@@ -91972,76 +91972,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F1028" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G1028" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1028" t="s">
         <v>57</v>
       </c>
       <c r="K1028">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L1028">
+        <v>3.25</v>
+      </c>
+      <c r="M1028">
         <v>3.1</v>
       </c>
-      <c r="M1028">
-        <v>2.55</v>
-      </c>
       <c r="N1028">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O1028">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P1028">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q1028">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1028">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="S1028">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="T1028">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1028">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V1028">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W1028">
         <v>-1</v>
       </c>
       <c r="X1028">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y1028">
         <v>-1</v>
       </c>
       <c r="Z1028">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1028">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1028">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC1028">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1029" spans="1:29">
@@ -99614,7 +99614,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>6277318</v>
+        <v>6295861</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99626,61 +99626,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F1114" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G1114" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1114">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L1114">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M1114">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N1114">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O1114">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P1114">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q1114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R1114">
+        <v>1.875</v>
+      </c>
+      <c r="S1114">
+        <v>1.975</v>
+      </c>
+      <c r="T1114">
+        <v>2.75</v>
+      </c>
+      <c r="U1114">
+        <v>2.025</v>
+      </c>
+      <c r="V1114">
         <v>1.825</v>
       </c>
-      <c r="S1114">
-        <v>2.025</v>
-      </c>
-      <c r="T1114">
-        <v>2.25</v>
-      </c>
-      <c r="U1114">
-        <v>1.875</v>
-      </c>
-      <c r="V1114">
-        <v>1.975</v>
-      </c>
       <c r="W1114">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X1114">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1114">
         <v>-1</v>
@@ -99692,10 +99692,10 @@
         <v>-0</v>
       </c>
       <c r="AB1114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1114">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1115" spans="1:29">
@@ -99703,7 +99703,7 @@
         <v>1113</v>
       </c>
       <c r="B1115">
-        <v>6295861</v>
+        <v>6277318</v>
       </c>
       <c r="C1115" t="s">
         <v>28</v>
@@ -99715,61 +99715,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F1115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G1115" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H1115">
         <v>1</v>
       </c>
       <c r="I1115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1115">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L1115">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M1115">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N1115">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O1115">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P1115">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q1115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1115">
+        <v>1.825</v>
+      </c>
+      <c r="S1115">
+        <v>2.025</v>
+      </c>
+      <c r="T1115">
+        <v>2.25</v>
+      </c>
+      <c r="U1115">
         <v>1.875</v>
       </c>
-      <c r="S1115">
+      <c r="V1115">
         <v>1.975</v>
       </c>
-      <c r="T1115">
-        <v>2.75</v>
-      </c>
-      <c r="U1115">
-        <v>2.025</v>
-      </c>
-      <c r="V1115">
-        <v>1.825</v>
-      </c>
       <c r="W1115">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1115">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1115">
         <v>-1</v>
@@ -99781,10 +99781,10 @@
         <v>-0</v>
       </c>
       <c r="AB1115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1115">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="1116" spans="1:29">
@@ -101038,7 +101038,7 @@
         <v>1128</v>
       </c>
       <c r="B1130">
-        <v>6277698</v>
+        <v>6277699</v>
       </c>
       <c r="C1130" t="s">
         <v>28</v>
@@ -101050,76 +101050,76 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F1130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1130">
         <v>1</v>
       </c>
       <c r="I1130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1130" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1130">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L1130">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M1130">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N1130">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O1130">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P1130">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q1130">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R1130">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S1130">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T1130">
         <v>2.25</v>
       </c>
       <c r="U1130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V1130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W1130">
         <v>-1</v>
       </c>
       <c r="X1130">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1130">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1130">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB1130">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1131" spans="1:29">
@@ -101127,7 +101127,7 @@
         <v>1129</v>
       </c>
       <c r="B1131">
-        <v>6277439</v>
+        <v>6277698</v>
       </c>
       <c r="C1131" t="s">
         <v>28</v>
@@ -101139,73 +101139,73 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F1131" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G1131" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H1131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1131">
         <v>2</v>
       </c>
       <c r="J1131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1131">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L1131">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M1131">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N1131">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O1131">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P1131">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q1131">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R1131">
+        <v>1.975</v>
+      </c>
+      <c r="S1131">
         <v>1.875</v>
       </c>
-      <c r="S1131">
-        <v>1.975</v>
-      </c>
       <c r="T1131">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V1131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W1131">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1131">
         <v>-1</v>
       </c>
       <c r="Y1131">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z1131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1131">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB1131">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC1131">
         <v>-1</v>
@@ -101216,7 +101216,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6277699</v>
+        <v>6277439</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101228,49 +101228,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G1132" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1132">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L1132">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M1132">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N1132">
+        <v>1.533</v>
+      </c>
+      <c r="O1132">
+        <v>4.2</v>
+      </c>
+      <c r="P1132">
+        <v>6</v>
+      </c>
+      <c r="Q1132">
+        <v>-1</v>
+      </c>
+      <c r="R1132">
+        <v>1.875</v>
+      </c>
+      <c r="S1132">
+        <v>1.975</v>
+      </c>
+      <c r="T1132">
         <v>2.5</v>
-      </c>
-      <c r="O1132">
-        <v>3.1</v>
-      </c>
-      <c r="P1132">
-        <v>2.9</v>
-      </c>
-      <c r="Q1132">
-        <v>0</v>
-      </c>
-      <c r="R1132">
-        <v>1.825</v>
-      </c>
-      <c r="S1132">
-        <v>2.025</v>
-      </c>
-      <c r="T1132">
-        <v>2.25</v>
       </c>
       <c r="U1132">
         <v>1.85</v>
@@ -101279,10 +101279,10 @@
         <v>2</v>
       </c>
       <c r="W1132">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X1132">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1132">
         <v>-1</v>
@@ -101294,10 +101294,10 @@
         <v>-0</v>
       </c>
       <c r="AB1132">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1132">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -104954,7 +104954,7 @@
         <v>1172</v>
       </c>
       <c r="B1174">
-        <v>6648378</v>
+        <v>6575367</v>
       </c>
       <c r="C1174" t="s">
         <v>28</v>
@@ -104966,10 +104966,10 @@
         <v>45231.83333333334</v>
       </c>
       <c r="F1174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1174" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H1174">
         <v>1</v>
@@ -104981,40 +104981,40 @@
         <v>55</v>
       </c>
       <c r="K1174">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L1174">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M1174">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N1174">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O1174">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P1174">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q1174">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R1174">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S1174">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T1174">
         <v>2.5</v>
       </c>
       <c r="U1174">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V1174">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W1174">
         <v>-1</v>
@@ -105023,16 +105023,16 @@
         <v>-1</v>
       </c>
       <c r="Y1174">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="Z1174">
         <v>-1</v>
       </c>
       <c r="AA1174">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB1174">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC1174">
         <v>-1</v>
@@ -105043,7 +105043,7 @@
         <v>1173</v>
       </c>
       <c r="B1175">
-        <v>6575367</v>
+        <v>6648378</v>
       </c>
       <c r="C1175" t="s">
         <v>28</v>
@@ -105055,10 +105055,10 @@
         <v>45231.83333333334</v>
       </c>
       <c r="F1175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1175" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H1175">
         <v>1</v>
@@ -105070,40 +105070,40 @@
         <v>55</v>
       </c>
       <c r="K1175">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L1175">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M1175">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N1175">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="O1175">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P1175">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q1175">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1175">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S1175">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T1175">
         <v>2.5</v>
       </c>
       <c r="U1175">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V1175">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W1175">
         <v>-1</v>
@@ -105112,16 +105112,16 @@
         <v>-1</v>
       </c>
       <c r="Y1175">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="Z1175">
         <v>-1</v>
       </c>
       <c r="AA1175">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB1175">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1175">
         <v>-1</v>
@@ -108781,7 +108781,7 @@
         <v>1215</v>
       </c>
       <c r="B1217">
-        <v>6665181</v>
+        <v>6707704</v>
       </c>
       <c r="C1217" t="s">
         <v>28</v>
@@ -108793,76 +108793,76 @@
         <v>45256.66666666666</v>
       </c>
       <c r="F1217" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G1217" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H1217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1217" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1217">
         <v>1.8</v>
       </c>
       <c r="L1217">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M1217">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="N1217">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O1217">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P1217">
         <v>4.75</v>
       </c>
       <c r="Q1217">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1217">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S1217">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T1217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1217">
+        <v>1.825</v>
+      </c>
+      <c r="V1217">
         <v>2.025</v>
       </c>
-      <c r="V1217">
-        <v>1.825</v>
-      </c>
       <c r="W1217">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X1217">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1217">
         <v>-1</v>
       </c>
       <c r="Z1217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1217">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB1217">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1217">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="1218" spans="1:29">
@@ -108870,7 +108870,7 @@
         <v>1216</v>
       </c>
       <c r="B1218">
-        <v>6707704</v>
+        <v>6665181</v>
       </c>
       <c r="C1218" t="s">
         <v>28</v>
@@ -108882,76 +108882,76 @@
         <v>45256.66666666666</v>
       </c>
       <c r="F1218" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G1218" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1218" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1218">
         <v>1.8</v>
       </c>
       <c r="L1218">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M1218">
-        <v>4.6</v>
+        <v>4.333</v>
       </c>
       <c r="N1218">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O1218">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P1218">
         <v>4.75</v>
       </c>
       <c r="Q1218">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1218">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S1218">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T1218">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1218">
+        <v>2.025</v>
+      </c>
+      <c r="V1218">
         <v>1.825</v>
       </c>
-      <c r="V1218">
-        <v>2.025</v>
-      </c>
       <c r="W1218">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X1218">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1218">
         <v>-1</v>
       </c>
       <c r="Z1218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1218">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB1218">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC1218">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1219" spans="1:29">
@@ -110650,7 +110650,7 @@
         <v>1236</v>
       </c>
       <c r="B1238">
-        <v>6733768</v>
+        <v>6733112</v>
       </c>
       <c r="C1238" t="s">
         <v>28</v>
@@ -110662,13 +110662,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1238" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G1238" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H1238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1238">
         <v>0</v>
@@ -110677,61 +110677,61 @@
         <v>56</v>
       </c>
       <c r="K1238">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L1238">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1238">
+        <v>4.75</v>
+      </c>
+      <c r="N1238">
+        <v>1.4</v>
+      </c>
+      <c r="O1238">
         <v>4.333</v>
       </c>
-      <c r="N1238">
-        <v>1.95</v>
-      </c>
-      <c r="O1238">
-        <v>3.25</v>
-      </c>
       <c r="P1238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q1238">
+        <v>-1.25</v>
+      </c>
+      <c r="R1238">
+        <v>1.96</v>
+      </c>
+      <c r="S1238">
+        <v>1.94</v>
+      </c>
+      <c r="T1238">
+        <v>2.5</v>
+      </c>
+      <c r="U1238">
+        <v>1.825</v>
+      </c>
+      <c r="V1238">
+        <v>2.025</v>
+      </c>
+      <c r="W1238">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X1238">
+        <v>-1</v>
+      </c>
+      <c r="Y1238">
+        <v>-1</v>
+      </c>
+      <c r="Z1238">
         <v>-0.5</v>
       </c>
-      <c r="R1238">
-        <v>1.975</v>
-      </c>
-      <c r="S1238">
-        <v>1.875</v>
-      </c>
-      <c r="T1238">
-        <v>2.25</v>
-      </c>
-      <c r="U1238">
-        <v>1.875</v>
-      </c>
-      <c r="V1238">
-        <v>1.975</v>
-      </c>
-      <c r="W1238">
-        <v>0.95</v>
-      </c>
-      <c r="X1238">
-        <v>-1</v>
-      </c>
-      <c r="Y1238">
-        <v>-1</v>
-      </c>
-      <c r="Z1238">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA1238">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="AB1238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1238">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1239" spans="1:29">
@@ -110739,7 +110739,7 @@
         <v>1237</v>
       </c>
       <c r="B1239">
-        <v>6707715</v>
+        <v>6677292</v>
       </c>
       <c r="C1239" t="s">
         <v>28</v>
@@ -110751,58 +110751,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1239" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G1239" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H1239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1239" t="s">
         <v>56</v>
       </c>
       <c r="K1239">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L1239">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M1239">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N1239">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="O1239">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P1239">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="Q1239">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R1239">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S1239">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T1239">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U1239">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V1239">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W1239">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="X1239">
         <v>-1</v>
@@ -110811,16 +110811,16 @@
         <v>-1</v>
       </c>
       <c r="Z1239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1239">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1239">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC1239">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1240" spans="1:29">
@@ -110828,7 +110828,7 @@
         <v>1238</v>
       </c>
       <c r="B1240">
-        <v>6677290</v>
+        <v>6705049</v>
       </c>
       <c r="C1240" t="s">
         <v>28</v>
@@ -110840,76 +110840,76 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1240" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1240" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1240">
         <v>0</v>
       </c>
       <c r="J1240" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1240">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L1240">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M1240">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N1240">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O1240">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P1240">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q1240">
         <v>-0.5</v>
       </c>
       <c r="R1240">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="S1240">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="T1240">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1240">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V1240">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W1240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X1240">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1240">
         <v>-1</v>
       </c>
       <c r="Z1240">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA1240">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB1240">
         <v>-1</v>
       </c>
       <c r="AC1240">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1241" spans="1:29">
@@ -110917,7 +110917,7 @@
         <v>1239</v>
       </c>
       <c r="B1241">
-        <v>6705049</v>
+        <v>6733768</v>
       </c>
       <c r="C1241" t="s">
         <v>28</v>
@@ -110929,34 +110929,34 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1241" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G1241" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1241">
         <v>0</v>
       </c>
       <c r="J1241" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1241">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="L1241">
         <v>3.4</v>
       </c>
       <c r="M1241">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N1241">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O1241">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P1241">
         <v>4.2</v>
@@ -110965,40 +110965,40 @@
         <v>-0.5</v>
       </c>
       <c r="R1241">
-        <v>1.96</v>
+        <v>1.975</v>
       </c>
       <c r="S1241">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T1241">
         <v>2.25</v>
       </c>
       <c r="U1241">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V1241">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W1241">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X1241">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1241">
         <v>-1</v>
       </c>
       <c r="Z1241">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1241">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1241">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1241">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1242" spans="1:29">
@@ -111006,7 +111006,7 @@
         <v>1240</v>
       </c>
       <c r="B1242">
-        <v>6677292</v>
+        <v>6707715</v>
       </c>
       <c r="C1242" t="s">
         <v>28</v>
@@ -111018,58 +111018,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1242" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G1242" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1242" t="s">
         <v>56</v>
       </c>
       <c r="K1242">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="L1242">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1242">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N1242">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="O1242">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P1242">
-        <v>12</v>
+        <v>1.909</v>
       </c>
       <c r="Q1242">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R1242">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S1242">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T1242">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1242">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V1242">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W1242">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="X1242">
         <v>-1</v>
@@ -111078,16 +111078,16 @@
         <v>-1</v>
       </c>
       <c r="Z1242">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1242">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1242">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1242">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1243" spans="1:29">
@@ -111095,7 +111095,7 @@
         <v>1241</v>
       </c>
       <c r="B1243">
-        <v>6733112</v>
+        <v>6677290</v>
       </c>
       <c r="C1243" t="s">
         <v>28</v>
@@ -111107,10 +111107,10 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F1243" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G1243" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H1243">
         <v>1</v>
@@ -111122,43 +111122,43 @@
         <v>56</v>
       </c>
       <c r="K1243">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L1243">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M1243">
         <v>4.75</v>
       </c>
       <c r="N1243">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O1243">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P1243">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q1243">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1243">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="S1243">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="T1243">
         <v>2.5</v>
       </c>
       <c r="U1243">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V1243">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W1243">
-        <v>0.3999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X1243">
         <v>-1</v>
@@ -111167,16 +111167,16 @@
         <v>-1</v>
       </c>
       <c r="Z1243">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA1243">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
       <c r="AB1243">
         <v>-1</v>
       </c>
       <c r="AC1243">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1244" spans="1:29">
@@ -111273,7 +111273,7 @@
         <v>1243</v>
       </c>
       <c r="B1245">
-        <v>6723141</v>
+        <v>6745537</v>
       </c>
       <c r="C1245" t="s">
         <v>28</v>
@@ -111285,76 +111285,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1245" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G1245" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1245">
         <v>1</v>
       </c>
       <c r="J1245" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1245">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L1245">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M1245">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N1245">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O1245">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P1245">
+        <v>3.8</v>
+      </c>
+      <c r="Q1245">
+        <v>-0.5</v>
+      </c>
+      <c r="R1245">
+        <v>2.05</v>
+      </c>
+      <c r="S1245">
+        <v>1.8</v>
+      </c>
+      <c r="T1245">
         <v>2.25</v>
       </c>
-      <c r="Q1245">
-        <v>0.25</v>
-      </c>
-      <c r="R1245">
-        <v>2</v>
-      </c>
-      <c r="S1245">
+      <c r="U1245">
         <v>1.85</v>
       </c>
-      <c r="T1245">
-        <v>2</v>
-      </c>
-      <c r="U1245">
-        <v>1.975</v>
-      </c>
       <c r="V1245">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W1245">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X1245">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y1245">
         <v>-1</v>
       </c>
       <c r="Z1245">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA1245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1245">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1246" spans="1:29">
@@ -111362,7 +111362,7 @@
         <v>1244</v>
       </c>
       <c r="B1246">
-        <v>6721895</v>
+        <v>6764571</v>
       </c>
       <c r="C1246" t="s">
         <v>28</v>
@@ -111374,40 +111374,40 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1246" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G1246" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H1246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1246" t="s">
         <v>56</v>
       </c>
       <c r="K1246">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L1246">
         <v>3.3</v>
       </c>
       <c r="M1246">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N1246">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O1246">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P1246">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q1246">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R1246">
         <v>1.95</v>
@@ -111416,7 +111416,7 @@
         <v>1.9</v>
       </c>
       <c r="T1246">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1246">
         <v>1.975</v>
@@ -111425,7 +111425,7 @@
         <v>1.875</v>
       </c>
       <c r="W1246">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="X1246">
         <v>-1</v>
@@ -111440,10 +111440,10 @@
         <v>-1</v>
       </c>
       <c r="AB1246">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1246">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1247" spans="1:29">
@@ -111451,7 +111451,7 @@
         <v>1245</v>
       </c>
       <c r="B1247">
-        <v>6704083</v>
+        <v>6745222</v>
       </c>
       <c r="C1247" t="s">
         <v>28</v>
@@ -111463,73 +111463,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1247" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G1247" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1247">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L1247">
+        <v>3.4</v>
+      </c>
+      <c r="M1247">
+        <v>4.2</v>
+      </c>
+      <c r="N1247">
+        <v>1.95</v>
+      </c>
+      <c r="O1247">
         <v>3.25</v>
       </c>
-      <c r="M1247">
-        <v>3.6</v>
-      </c>
-      <c r="N1247">
-        <v>2.15</v>
-      </c>
-      <c r="O1247">
-        <v>3.4</v>
-      </c>
       <c r="P1247">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q1247">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1247">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S1247">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T1247">
         <v>2.25</v>
       </c>
       <c r="U1247">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V1247">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W1247">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X1247">
         <v>-1</v>
       </c>
       <c r="Y1247">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z1247">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA1247">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB1247">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC1247">
         <v>-1</v>
@@ -111540,7 +111540,7 @@
         <v>1246</v>
       </c>
       <c r="B1248">
-        <v>6723140</v>
+        <v>6705186</v>
       </c>
       <c r="C1248" t="s">
         <v>28</v>
@@ -111552,73 +111552,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1248" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1248" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H1248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1248">
+        <v>0</v>
+      </c>
+      <c r="J1248" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1248">
+        <v>2.75</v>
+      </c>
+      <c r="L1248">
         <v>3</v>
       </c>
-      <c r="J1248" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1248">
-        <v>2.2</v>
-      </c>
-      <c r="L1248">
+      <c r="M1248">
+        <v>2.7</v>
+      </c>
+      <c r="N1248">
+        <v>2.3</v>
+      </c>
+      <c r="O1248">
+        <v>3.2</v>
+      </c>
+      <c r="P1248">
         <v>3.3</v>
-      </c>
-      <c r="M1248">
-        <v>3.25</v>
-      </c>
-      <c r="N1248">
-        <v>2.15</v>
-      </c>
-      <c r="O1248">
-        <v>3.75</v>
-      </c>
-      <c r="P1248">
-        <v>3.1</v>
       </c>
       <c r="Q1248">
         <v>-0.25</v>
       </c>
       <c r="R1248">
-        <v>1.875</v>
+        <v>2.03</v>
       </c>
       <c r="S1248">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="T1248">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U1248">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="V1248">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="W1248">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X1248">
         <v>-1</v>
       </c>
       <c r="Y1248">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1248">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA1248">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1248">
-        <v>0.8500000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AC1248">
         <v>-1</v>
@@ -111629,7 +111629,7 @@
         <v>1247</v>
       </c>
       <c r="B1249">
-        <v>6745537</v>
+        <v>6705200</v>
       </c>
       <c r="C1249" t="s">
         <v>28</v>
@@ -111641,76 +111641,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1249" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1249" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H1249">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1249">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L1249">
         <v>3.2</v>
       </c>
       <c r="M1249">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N1249">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="O1249">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P1249">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q1249">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1249">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S1249">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T1249">
         <v>2.25</v>
       </c>
       <c r="U1249">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V1249">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W1249">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X1249">
         <v>-1</v>
       </c>
       <c r="Y1249">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z1249">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1249">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB1249">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1249">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="1250" spans="1:29">
@@ -111718,7 +111718,7 @@
         <v>1248</v>
       </c>
       <c r="B1250">
-        <v>6705186</v>
+        <v>6723140</v>
       </c>
       <c r="C1250" t="s">
         <v>28</v>
@@ -111730,73 +111730,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1250" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G1250" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H1250">
+        <v>2</v>
+      </c>
+      <c r="I1250">
         <v>3</v>
       </c>
-      <c r="I1250">
-        <v>0</v>
-      </c>
       <c r="J1250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1250">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L1250">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M1250">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N1250">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O1250">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1250">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q1250">
         <v>-0.25</v>
       </c>
       <c r="R1250">
-        <v>2.03</v>
+        <v>1.875</v>
       </c>
       <c r="S1250">
-        <v>1.87</v>
+        <v>1.975</v>
       </c>
       <c r="T1250">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1250">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="V1250">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="W1250">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X1250">
         <v>-1</v>
       </c>
       <c r="Y1250">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z1250">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA1250">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB1250">
-        <v>0.79</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1250">
         <v>-1</v>
@@ -111807,7 +111807,7 @@
         <v>1249</v>
       </c>
       <c r="B1251">
-        <v>6764571</v>
+        <v>6721895</v>
       </c>
       <c r="C1251" t="s">
         <v>28</v>
@@ -111819,40 +111819,40 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1251" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G1251" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H1251">
+        <v>4</v>
+      </c>
+      <c r="I1251">
         <v>1</v>
-      </c>
-      <c r="I1251">
-        <v>0</v>
       </c>
       <c r="J1251" t="s">
         <v>56</v>
       </c>
       <c r="K1251">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L1251">
         <v>3.3</v>
       </c>
       <c r="M1251">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N1251">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O1251">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P1251">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q1251">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R1251">
         <v>1.95</v>
@@ -111861,7 +111861,7 @@
         <v>1.9</v>
       </c>
       <c r="T1251">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1251">
         <v>1.975</v>
@@ -111870,7 +111870,7 @@
         <v>1.875</v>
       </c>
       <c r="W1251">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="X1251">
         <v>-1</v>
@@ -111885,10 +111885,10 @@
         <v>-1</v>
       </c>
       <c r="AB1251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1251">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1252" spans="1:29">
@@ -111896,7 +111896,7 @@
         <v>1250</v>
       </c>
       <c r="B1252">
-        <v>6705200</v>
+        <v>6723141</v>
       </c>
       <c r="C1252" t="s">
         <v>28</v>
@@ -111908,76 +111908,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1252" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G1252" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1252" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1252">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L1252">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M1252">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N1252">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O1252">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P1252">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q1252">
         <v>0.25</v>
       </c>
       <c r="R1252">
+        <v>2</v>
+      </c>
+      <c r="S1252">
+        <v>1.85</v>
+      </c>
+      <c r="T1252">
+        <v>2</v>
+      </c>
+      <c r="U1252">
+        <v>1.975</v>
+      </c>
+      <c r="V1252">
         <v>1.875</v>
       </c>
-      <c r="S1252">
-        <v>1.975</v>
-      </c>
-      <c r="T1252">
-        <v>2.25</v>
-      </c>
-      <c r="U1252">
-        <v>1.875</v>
-      </c>
-      <c r="V1252">
-        <v>1.975</v>
-      </c>
       <c r="W1252">
         <v>-1</v>
       </c>
       <c r="X1252">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y1252">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z1252">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA1252">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1252">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC1252">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1253" spans="1:29">
@@ -111985,7 +111985,7 @@
         <v>1251</v>
       </c>
       <c r="B1253">
-        <v>6745222</v>
+        <v>6704083</v>
       </c>
       <c r="C1253" t="s">
         <v>28</v>
@@ -111997,73 +111997,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F1253" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1253" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1253">
+        <v>2</v>
+      </c>
+      <c r="I1253">
         <v>1</v>
       </c>
-      <c r="I1253">
-        <v>2</v>
-      </c>
       <c r="J1253" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1253">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L1253">
+        <v>3.25</v>
+      </c>
+      <c r="M1253">
+        <v>3.6</v>
+      </c>
+      <c r="N1253">
+        <v>2.15</v>
+      </c>
+      <c r="O1253">
         <v>3.4</v>
       </c>
-      <c r="M1253">
-        <v>4.2</v>
-      </c>
-      <c r="N1253">
-        <v>1.95</v>
-      </c>
-      <c r="O1253">
-        <v>3.25</v>
-      </c>
       <c r="P1253">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q1253">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1253">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S1253">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T1253">
         <v>2.25</v>
       </c>
       <c r="U1253">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V1253">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W1253">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X1253">
         <v>-1</v>
       </c>
       <c r="Y1253">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1253">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA1253">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB1253">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1253">
         <v>-1</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -49507,7 +49507,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>4643615</v>
+        <v>4643445</v>
       </c>
       <c r="C551" t="s">
         <v>28</v>
@@ -49519,73 +49519,73 @@
         <v>44696.75</v>
       </c>
       <c r="F551" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G551" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H551">
+        <v>3</v>
+      </c>
+      <c r="I551">
         <v>1</v>
       </c>
-      <c r="I551">
-        <v>2</v>
-      </c>
       <c r="J551" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K551">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L551">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M551">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N551">
         <v>2.25</v>
       </c>
       <c r="O551">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P551">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q551">
         <v>-0.25</v>
       </c>
       <c r="R551">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S551">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T551">
         <v>2</v>
       </c>
       <c r="U551">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V551">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W551">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X551">
         <v>-1</v>
       </c>
       <c r="Y551">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z551">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA551">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB551">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC551">
         <v>-1</v>
@@ -49596,7 +49596,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>4643445</v>
+        <v>4643615</v>
       </c>
       <c r="C552" t="s">
         <v>28</v>
@@ -49608,73 +49608,73 @@
         <v>44696.75</v>
       </c>
       <c r="F552" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G552" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H552">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I552">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J552" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K552">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L552">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M552">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N552">
         <v>2.25</v>
       </c>
       <c r="O552">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P552">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q552">
         <v>-0.25</v>
       </c>
       <c r="R552">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S552">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T552">
         <v>2</v>
       </c>
       <c r="U552">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V552">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W552">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X552">
         <v>-1</v>
       </c>
       <c r="Y552">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z552">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA552">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB552">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC552">
         <v>-1</v>
@@ -59208,7 +59208,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>4643477</v>
+        <v>5291157</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59220,10 +59220,10 @@
         <v>44759.75</v>
       </c>
       <c r="F660" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G660" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H660">
         <v>0</v>
@@ -59235,28 +59235,28 @@
         <v>55</v>
       </c>
       <c r="K660">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="L660">
         <v>3.2</v>
       </c>
       <c r="M660">
+        <v>3.4</v>
+      </c>
+      <c r="N660">
         <v>2.05</v>
       </c>
-      <c r="N660">
-        <v>5.25</v>
-      </c>
       <c r="O660">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P660">
+        <v>3.8</v>
+      </c>
+      <c r="Q660">
+        <v>-0.25</v>
+      </c>
+      <c r="R660">
         <v>1.75</v>
-      </c>
-      <c r="Q660">
-        <v>0.75</v>
-      </c>
-      <c r="R660">
-        <v>1.8</v>
       </c>
       <c r="S660">
         <v>2.05</v>
@@ -59265,10 +59265,10 @@
         <v>2.25</v>
       </c>
       <c r="U660">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V660">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W660">
         <v>-1</v>
@@ -59277,19 +59277,19 @@
         <v>-1</v>
       </c>
       <c r="Y660">
-        <v>0.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z660">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA660">
-        <v>0.5249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB660">
         <v>-1</v>
       </c>
       <c r="AC660">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="661" spans="1:29">
@@ -59297,7 +59297,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5291157</v>
+        <v>4643477</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59309,10 +59309,10 @@
         <v>44759.75</v>
       </c>
       <c r="F661" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G661" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H661">
         <v>0</v>
@@ -59324,28 +59324,28 @@
         <v>55</v>
       </c>
       <c r="K661">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="L661">
         <v>3.2</v>
       </c>
       <c r="M661">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N661">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="O661">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P661">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q661">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R661">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S661">
         <v>2.05</v>
@@ -59354,10 +59354,10 @@
         <v>2.25</v>
       </c>
       <c r="U661">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V661">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W661">
         <v>-1</v>
@@ -59366,19 +59366,19 @@
         <v>-1</v>
       </c>
       <c r="Y661">
-        <v>2.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z661">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA661">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB661">
         <v>-1</v>
       </c>
       <c r="AC661">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -60098,7 +60098,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>4643913</v>
+        <v>4643479</v>
       </c>
       <c r="C670" t="s">
         <v>28</v>
@@ -60110,58 +60110,58 @@
         <v>44762.89583333334</v>
       </c>
       <c r="F670" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G670" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H670">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J670" t="s">
         <v>56</v>
       </c>
       <c r="K670">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L670">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M670">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N670">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="O670">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P670">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q670">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R670">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S670">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T670">
         <v>2.25</v>
       </c>
       <c r="U670">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V670">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W670">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X670">
         <v>-1</v>
@@ -60170,16 +60170,16 @@
         <v>-1</v>
       </c>
       <c r="Z670">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA670">
         <v>-1</v>
       </c>
       <c r="AB670">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC670">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="671" spans="1:29">
@@ -60187,7 +60187,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>4643479</v>
+        <v>4643913</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60199,58 +60199,58 @@
         <v>44762.89583333334</v>
       </c>
       <c r="F671" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G671" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J671" t="s">
         <v>56</v>
       </c>
       <c r="K671">
+        <v>1.444</v>
+      </c>
+      <c r="L671">
+        <v>4</v>
+      </c>
+      <c r="M671">
+        <v>7.5</v>
+      </c>
+      <c r="N671">
+        <v>1.615</v>
+      </c>
+      <c r="O671">
+        <v>3.6</v>
+      </c>
+      <c r="P671">
+        <v>6.5</v>
+      </c>
+      <c r="Q671">
+        <v>-0.75</v>
+      </c>
+      <c r="R671">
+        <v>1.9</v>
+      </c>
+      <c r="S671">
         <v>1.95</v>
-      </c>
-      <c r="L671">
-        <v>3.25</v>
-      </c>
-      <c r="M671">
-        <v>3.75</v>
-      </c>
-      <c r="N671">
-        <v>1.85</v>
-      </c>
-      <c r="O671">
-        <v>3.5</v>
-      </c>
-      <c r="P671">
-        <v>4.2</v>
-      </c>
-      <c r="Q671">
-        <v>-0.5</v>
-      </c>
-      <c r="R671">
-        <v>1.85</v>
-      </c>
-      <c r="S671">
-        <v>2</v>
       </c>
       <c r="T671">
         <v>2.25</v>
       </c>
       <c r="U671">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V671">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W671">
-        <v>0.8500000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X671">
         <v>-1</v>
@@ -60259,16 +60259,16 @@
         <v>-1</v>
       </c>
       <c r="Z671">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA671">
         <v>-1</v>
       </c>
       <c r="AB671">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC671">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="672" spans="1:29">
@@ -64548,7 +64548,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>4671892</v>
+        <v>4650312</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64560,10 +64560,10 @@
         <v>44794.75</v>
       </c>
       <c r="F720" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G720" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H720">
         <v>1</v>
@@ -64575,46 +64575,46 @@
         <v>57</v>
       </c>
       <c r="K720">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L720">
         <v>3.3</v>
       </c>
       <c r="M720">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N720">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O720">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P720">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q720">
         <v>-0.5</v>
       </c>
       <c r="R720">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S720">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T720">
         <v>2.25</v>
       </c>
       <c r="U720">
+        <v>2.025</v>
+      </c>
+      <c r="V720">
         <v>1.825</v>
       </c>
-      <c r="V720">
-        <v>2.025</v>
-      </c>
       <c r="W720">
         <v>-1</v>
       </c>
       <c r="X720">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y720">
         <v>-1</v>
@@ -64623,13 +64623,13 @@
         <v>-1</v>
       </c>
       <c r="AA720">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB720">
         <v>-0.5</v>
       </c>
       <c r="AC720">
-        <v>0.5125</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="721" spans="1:29">
@@ -64637,7 +64637,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>4650312</v>
+        <v>4671892</v>
       </c>
       <c r="C721" t="s">
         <v>28</v>
@@ -64649,10 +64649,10 @@
         <v>44794.75</v>
       </c>
       <c r="F721" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G721" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H721">
         <v>1</v>
@@ -64664,46 +64664,46 @@
         <v>57</v>
       </c>
       <c r="K721">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L721">
         <v>3.3</v>
       </c>
       <c r="M721">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N721">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O721">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P721">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q721">
         <v>-0.5</v>
       </c>
       <c r="R721">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S721">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T721">
         <v>2.25</v>
       </c>
       <c r="U721">
+        <v>1.825</v>
+      </c>
+      <c r="V721">
         <v>2.025</v>
       </c>
-      <c r="V721">
-        <v>1.825</v>
-      </c>
       <c r="W721">
         <v>-1</v>
       </c>
       <c r="X721">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y721">
         <v>-1</v>
@@ -64712,13 +64712,13 @@
         <v>-1</v>
       </c>
       <c r="AA721">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB721">
         <v>-0.5</v>
       </c>
       <c r="AC721">
-        <v>0.4125</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="722" spans="1:29">
@@ -65260,7 +65260,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>4644008</v>
+        <v>4681291</v>
       </c>
       <c r="C728" t="s">
         <v>28</v>
@@ -65272,76 +65272,76 @@
         <v>44801.66666666666</v>
       </c>
       <c r="F728" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G728" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I728">
         <v>1</v>
       </c>
       <c r="J728" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K728">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L728">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M728">
+        <v>1.75</v>
+      </c>
+      <c r="N728">
+        <v>6</v>
+      </c>
+      <c r="O728">
         <v>3.75</v>
       </c>
-      <c r="N728">
+      <c r="P728">
+        <v>1.65</v>
+      </c>
+      <c r="Q728">
+        <v>0.75</v>
+      </c>
+      <c r="R728">
+        <v>2</v>
+      </c>
+      <c r="S728">
         <v>1.85</v>
       </c>
-      <c r="O728">
-        <v>3.5</v>
-      </c>
-      <c r="P728">
-        <v>4.2</v>
-      </c>
-      <c r="Q728">
+      <c r="T728">
+        <v>2.25</v>
+      </c>
+      <c r="U728">
+        <v>1.9</v>
+      </c>
+      <c r="V728">
+        <v>1.95</v>
+      </c>
+      <c r="W728">
+        <v>-1</v>
+      </c>
+      <c r="X728">
+        <v>2.75</v>
+      </c>
+      <c r="Y728">
+        <v>-1</v>
+      </c>
+      <c r="Z728">
+        <v>1</v>
+      </c>
+      <c r="AA728">
+        <v>-1</v>
+      </c>
+      <c r="AB728">
         <v>-0.5</v>
       </c>
-      <c r="R728">
-        <v>1.925</v>
-      </c>
-      <c r="S728">
-        <v>1.925</v>
-      </c>
-      <c r="T728">
-        <v>2</v>
-      </c>
-      <c r="U728">
-        <v>1.75</v>
-      </c>
-      <c r="V728">
-        <v>2.05</v>
-      </c>
-      <c r="W728">
-        <v>-1</v>
-      </c>
-      <c r="X728">
-        <v>-1</v>
-      </c>
-      <c r="Y728">
-        <v>3.2</v>
-      </c>
-      <c r="Z728">
-        <v>-1</v>
-      </c>
-      <c r="AA728">
-        <v>0.925</v>
-      </c>
-      <c r="AB728">
-        <v>-1</v>
-      </c>
       <c r="AC728">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="729" spans="1:29">
@@ -65349,7 +65349,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>4681291</v>
+        <v>4644008</v>
       </c>
       <c r="C729" t="s">
         <v>28</v>
@@ -65361,76 +65361,76 @@
         <v>44801.66666666666</v>
       </c>
       <c r="F729" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G729" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729">
         <v>1</v>
       </c>
       <c r="J729" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K729">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L729">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M729">
+        <v>3.75</v>
+      </c>
+      <c r="N729">
+        <v>1.85</v>
+      </c>
+      <c r="O729">
+        <v>3.5</v>
+      </c>
+      <c r="P729">
+        <v>4.2</v>
+      </c>
+      <c r="Q729">
+        <v>-0.5</v>
+      </c>
+      <c r="R729">
+        <v>1.925</v>
+      </c>
+      <c r="S729">
+        <v>1.925</v>
+      </c>
+      <c r="T729">
+        <v>2</v>
+      </c>
+      <c r="U729">
         <v>1.75</v>
       </c>
-      <c r="N729">
-        <v>6</v>
-      </c>
-      <c r="O729">
-        <v>3.75</v>
-      </c>
-      <c r="P729">
-        <v>1.65</v>
-      </c>
-      <c r="Q729">
-        <v>0.75</v>
-      </c>
-      <c r="R729">
-        <v>2</v>
-      </c>
-      <c r="S729">
-        <v>1.85</v>
-      </c>
-      <c r="T729">
-        <v>2.25</v>
-      </c>
-      <c r="U729">
-        <v>1.9</v>
-      </c>
       <c r="V729">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W729">
         <v>-1</v>
       </c>
       <c r="X729">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y729">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z729">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA729">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB729">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC729">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="730" spans="1:29">
@@ -65438,7 +65438,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>5506780</v>
+        <v>4643968</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65450,49 +65450,49 @@
         <v>44801.75</v>
       </c>
       <c r="F730" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G730" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H730">
         <v>0</v>
       </c>
       <c r="I730">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J730" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K730">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="L730">
+        <v>3</v>
+      </c>
+      <c r="M730">
+        <v>2.875</v>
+      </c>
+      <c r="N730">
+        <v>2.3</v>
+      </c>
+      <c r="O730">
+        <v>2.9</v>
+      </c>
+      <c r="P730">
         <v>3.5</v>
       </c>
-      <c r="M730">
-        <v>1.7</v>
-      </c>
-      <c r="N730">
-        <v>4.75</v>
-      </c>
-      <c r="O730">
-        <v>3.75</v>
-      </c>
-      <c r="P730">
-        <v>1.727</v>
-      </c>
       <c r="Q730">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R730">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S730">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T730">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U730">
         <v>1.85</v>
@@ -65504,16 +65504,16 @@
         <v>-1</v>
       </c>
       <c r="X730">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y730">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z730">
         <v>-0.5</v>
       </c>
       <c r="AA730">
-        <v>0.5125</v>
+        <v>0.425</v>
       </c>
       <c r="AB730">
         <v>-1</v>
@@ -65527,7 +65527,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>4643968</v>
+        <v>5506780</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65539,49 +65539,49 @@
         <v>44801.75</v>
       </c>
       <c r="F731" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G731" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H731">
         <v>0</v>
       </c>
       <c r="I731">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J731" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K731">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="L731">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M731">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="N731">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O731">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P731">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q731">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R731">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S731">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T731">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U731">
         <v>1.85</v>
@@ -65593,16 +65593,16 @@
         <v>-1</v>
       </c>
       <c r="X731">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y731">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z731">
         <v>-0.5</v>
       </c>
       <c r="AA731">
-        <v>0.425</v>
+        <v>0.5125</v>
       </c>
       <c r="AB731">
         <v>-1</v>
@@ -68642,7 +68642,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>4729753</v>
+        <v>4729911</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68654,58 +68654,58 @@
         <v>44832.79166666666</v>
       </c>
       <c r="F766" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G766" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H766">
+        <v>2</v>
+      </c>
+      <c r="I766">
         <v>1</v>
-      </c>
-      <c r="I766">
-        <v>0</v>
       </c>
       <c r="J766" t="s">
         <v>56</v>
       </c>
       <c r="K766">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L766">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M766">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="N766">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O766">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P766">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q766">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R766">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S766">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T766">
         <v>2.25</v>
       </c>
       <c r="U766">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V766">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W766">
-        <v>1.2</v>
+        <v>0.615</v>
       </c>
       <c r="X766">
         <v>-1</v>
@@ -68714,16 +68714,16 @@
         <v>-1</v>
       </c>
       <c r="Z766">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA766">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB766">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC766">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>4729911</v>
+        <v>4729753</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,58 +68743,58 @@
         <v>44832.79166666666</v>
       </c>
       <c r="F767" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G767" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J767" t="s">
         <v>56</v>
       </c>
       <c r="K767">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L767">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M767">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N767">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O767">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P767">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q767">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R767">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S767">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T767">
         <v>2.25</v>
       </c>
       <c r="U767">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V767">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W767">
-        <v>0.615</v>
+        <v>1.2</v>
       </c>
       <c r="X767">
         <v>-1</v>
@@ -68803,16 +68803,16 @@
         <v>-1</v>
       </c>
       <c r="Z767">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA767">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB767">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC767">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -69621,7 +69621,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>4761194</v>
+        <v>4735858</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69633,73 +69633,73 @@
         <v>44835.79166666666</v>
       </c>
       <c r="F777" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G777" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H777">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J777" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K777">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="L777">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M777">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N777">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O777">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P777">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q777">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R777">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S777">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T777">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U777">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V777">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W777">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z777">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA777">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB777">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -69799,7 +69799,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>4735858</v>
+        <v>4749134</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69811,76 +69811,76 @@
         <v>44835.79166666666</v>
       </c>
       <c r="F779" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G779" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I779">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J779" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K779">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="L779">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M779">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N779">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O779">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P779">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q779">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R779">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S779">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T779">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U779">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V779">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W779">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X779">
         <v>-1</v>
       </c>
       <c r="Y779">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z779">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA779">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB779">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC779">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -69888,7 +69888,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>4749134</v>
+        <v>4761194</v>
       </c>
       <c r="C780" t="s">
         <v>28</v>
@@ -69900,43 +69900,43 @@
         <v>44835.79166666666</v>
       </c>
       <c r="F780" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G780" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I780">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J780" t="s">
         <v>56</v>
       </c>
       <c r="K780">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="L780">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M780">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N780">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O780">
         <v>4.5</v>
       </c>
       <c r="P780">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Q780">
         <v>-1</v>
       </c>
       <c r="R780">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S780">
         <v>2.05</v>
@@ -69945,13 +69945,13 @@
         <v>2.5</v>
       </c>
       <c r="U780">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V780">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W780">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X780">
         <v>-1</v>
@@ -69960,16 +69960,16 @@
         <v>-1</v>
       </c>
       <c r="Z780">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA780">
         <v>-1</v>
       </c>
       <c r="AB780">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC780">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="781" spans="1:29">
@@ -70244,7 +70244,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>4816247</v>
+        <v>4805744</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70256,76 +70256,76 @@
         <v>44839.79166666666</v>
       </c>
       <c r="F784" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G784" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H784">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I784">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J784" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K784">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="L784">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M784">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N784">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O784">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P784">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q784">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R784">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S784">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T784">
         <v>2.25</v>
       </c>
       <c r="U784">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V784">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W784">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X784">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y784">
         <v>-1</v>
       </c>
       <c r="Z784">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA784">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB784">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC784">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70333,7 +70333,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>4805744</v>
+        <v>4726216</v>
       </c>
       <c r="C785" t="s">
         <v>28</v>
@@ -70345,76 +70345,76 @@
         <v>44839.79166666666</v>
       </c>
       <c r="F785" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G785" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I785">
         <v>1</v>
       </c>
       <c r="J785" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K785">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L785">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M785">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N785">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O785">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P785">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q785">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R785">
+        <v>1.95</v>
+      </c>
+      <c r="S785">
         <v>1.9</v>
       </c>
-      <c r="S785">
-        <v>1.95</v>
-      </c>
       <c r="T785">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U785">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V785">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W785">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X785">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y785">
         <v>-1</v>
       </c>
       <c r="Z785">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA785">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB785">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC785">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="786" spans="1:29">
@@ -70422,7 +70422,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>4726216</v>
+        <v>4816247</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70434,58 +70434,58 @@
         <v>44839.79166666666</v>
       </c>
       <c r="F786" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G786" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I786">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J786" t="s">
         <v>56</v>
       </c>
       <c r="K786">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="L786">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M786">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="N786">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O786">
         <v>3.3</v>
       </c>
       <c r="P786">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q786">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R786">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S786">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T786">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U786">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V786">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W786">
-        <v>0.909</v>
+        <v>2.1</v>
       </c>
       <c r="X786">
         <v>-1</v>
@@ -70494,13 +70494,13 @@
         <v>-1</v>
       </c>
       <c r="Z786">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA786">
         <v>-1</v>
       </c>
       <c r="AB786">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC786">
         <v>-1</v>
@@ -71490,7 +71490,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>4984443</v>
+        <v>4984444</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71502,76 +71502,76 @@
         <v>44843.75</v>
       </c>
       <c r="F798" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G798" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H798">
         <v>0</v>
       </c>
       <c r="I798">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J798" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K798">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="L798">
+        <v>3.75</v>
+      </c>
+      <c r="M798">
+        <v>5.5</v>
+      </c>
+      <c r="N798">
+        <v>1.615</v>
+      </c>
+      <c r="O798">
         <v>4</v>
       </c>
-      <c r="M798">
+      <c r="P798">
         <v>6</v>
       </c>
-      <c r="N798">
-        <v>1.45</v>
-      </c>
-      <c r="O798">
-        <v>4.2</v>
-      </c>
-      <c r="P798">
-        <v>8</v>
-      </c>
       <c r="Q798">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R798">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S798">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T798">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U798">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V798">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W798">
         <v>-1</v>
       </c>
       <c r="X798">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y798">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z798">
         <v>-1</v>
       </c>
       <c r="AA798">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AB798">
         <v>-1</v>
       </c>
       <c r="AC798">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71579,7 +71579,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>4984444</v>
+        <v>4984443</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71591,76 +71591,76 @@
         <v>44843.75</v>
       </c>
       <c r="F799" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G799" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H799">
         <v>0</v>
       </c>
       <c r="I799">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J799" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K799">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="L799">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M799">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N799">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O799">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P799">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q799">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R799">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S799">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T799">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U799">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V799">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W799">
         <v>-1</v>
       </c>
       <c r="X799">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y799">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z799">
         <v>-1</v>
       </c>
       <c r="AA799">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AB799">
         <v>-1</v>
       </c>
       <c r="AC799">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -72469,7 +72469,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>4945738</v>
+        <v>4918674</v>
       </c>
       <c r="C809" t="s">
         <v>28</v>
@@ -72481,76 +72481,76 @@
         <v>44850.79166666666</v>
       </c>
       <c r="F809" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G809" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J809" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K809">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L809">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M809">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N809">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="O809">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P809">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q809">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R809">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S809">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T809">
         <v>2.25</v>
       </c>
       <c r="U809">
+        <v>2</v>
+      </c>
+      <c r="V809">
         <v>1.85</v>
       </c>
-      <c r="V809">
-        <v>2</v>
-      </c>
       <c r="W809">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X809">
         <v>-1</v>
       </c>
       <c r="Y809">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z809">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA809">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB809">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC809">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="810" spans="1:29">
@@ -72558,7 +72558,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>4918674</v>
+        <v>4945738</v>
       </c>
       <c r="C810" t="s">
         <v>28</v>
@@ -72570,76 +72570,76 @@
         <v>44850.79166666666</v>
       </c>
       <c r="F810" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G810" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I810">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J810" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K810">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="L810">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M810">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N810">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="O810">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P810">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q810">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R810">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S810">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T810">
         <v>2.25</v>
       </c>
       <c r="U810">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V810">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W810">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X810">
         <v>-1</v>
       </c>
       <c r="Y810">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z810">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA810">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB810">
+        <v>-1</v>
+      </c>
+      <c r="AC810">
         <v>1</v>
-      </c>
-      <c r="AC810">
-        <v>-1</v>
       </c>
     </row>
     <row r="811" spans="1:29">
@@ -74961,7 +74961,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>5032708</v>
+        <v>5041328</v>
       </c>
       <c r="C837" t="s">
         <v>28</v>
@@ -74973,58 +74973,58 @@
         <v>44867.66666666666</v>
       </c>
       <c r="F837" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G837" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H837">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I837">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J837" t="s">
         <v>56</v>
       </c>
       <c r="K837">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L837">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M837">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N837">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O837">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P837">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q837">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R837">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S837">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T837">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U837">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V837">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W837">
-        <v>0.615</v>
+        <v>1.375</v>
       </c>
       <c r="X837">
         <v>-1</v>
@@ -75033,16 +75033,16 @@
         <v>-1</v>
       </c>
       <c r="Z837">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA837">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB837">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC837">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:29">
@@ -75050,7 +75050,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>5041328</v>
+        <v>5032708</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75062,58 +75062,58 @@
         <v>44867.66666666666</v>
       </c>
       <c r="F838" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G838" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I838">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J838" t="s">
         <v>56</v>
       </c>
       <c r="K838">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L838">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M838">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N838">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O838">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P838">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q838">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R838">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S838">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T838">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U838">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V838">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W838">
-        <v>1.375</v>
+        <v>0.615</v>
       </c>
       <c r="X838">
         <v>-1</v>
@@ -75122,16 +75122,16 @@
         <v>-1</v>
       </c>
       <c r="Z838">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA838">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB838">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC838">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -75584,7 +75584,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>5032709</v>
+        <v>5060683</v>
       </c>
       <c r="C844" t="s">
         <v>28</v>
@@ -75596,46 +75596,46 @@
         <v>44870.6875</v>
       </c>
       <c r="F844" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G844" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I844">
         <v>1</v>
       </c>
       <c r="J844" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K844">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L844">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M844">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N844">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O844">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P844">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q844">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R844">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S844">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T844">
         <v>2.5</v>
@@ -75647,25 +75647,25 @@
         <v>1.825</v>
       </c>
       <c r="W844">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X844">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y844">
         <v>-1</v>
       </c>
       <c r="Z844">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA844">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB844">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC844">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="845" spans="1:29">
@@ -75673,7 +75673,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>5060683</v>
+        <v>5032709</v>
       </c>
       <c r="C845" t="s">
         <v>28</v>
@@ -75685,46 +75685,46 @@
         <v>44870.6875</v>
       </c>
       <c r="F845" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G845" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H845">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I845">
         <v>1</v>
       </c>
       <c r="J845" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K845">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L845">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M845">
+        <v>7.5</v>
+      </c>
+      <c r="N845">
+        <v>1.4</v>
+      </c>
+      <c r="O845">
         <v>4.333</v>
       </c>
-      <c r="N845">
-        <v>2.1</v>
-      </c>
-      <c r="O845">
-        <v>3.5</v>
-      </c>
       <c r="P845">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="Q845">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R845">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S845">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T845">
         <v>2.5</v>
@@ -75736,25 +75736,25 @@
         <v>1.825</v>
       </c>
       <c r="W845">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X845">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y845">
         <v>-1</v>
       </c>
       <c r="Z845">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA845">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB845">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC845">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="846" spans="1:29">
@@ -77186,7 +77186,7 @@
         <v>860</v>
       </c>
       <c r="B862">
-        <v>5057970</v>
+        <v>5073778</v>
       </c>
       <c r="C862" t="s">
         <v>28</v>
@@ -77198,10 +77198,10 @@
         <v>44875.83333333334</v>
       </c>
       <c r="F862" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G862" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H862">
         <v>3</v>
@@ -77213,43 +77213,43 @@
         <v>56</v>
       </c>
       <c r="K862">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L862">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M862">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N862">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O862">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P862">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q862">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R862">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S862">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="T862">
         <v>2.25</v>
       </c>
       <c r="U862">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V862">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W862">
-        <v>1.2</v>
+        <v>0.45</v>
       </c>
       <c r="X862">
         <v>-1</v>
@@ -77258,13 +77258,13 @@
         <v>-1</v>
       </c>
       <c r="Z862">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA862">
         <v>-1</v>
       </c>
       <c r="AB862">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC862">
         <v>-1</v>
@@ -77275,7 +77275,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>5073778</v>
+        <v>5057970</v>
       </c>
       <c r="C863" t="s">
         <v>28</v>
@@ -77287,10 +77287,10 @@
         <v>44875.83333333334</v>
       </c>
       <c r="F863" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G863" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H863">
         <v>3</v>
@@ -77302,43 +77302,43 @@
         <v>56</v>
       </c>
       <c r="K863">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L863">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M863">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N863">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O863">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P863">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q863">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R863">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S863">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="T863">
         <v>2.25</v>
       </c>
       <c r="U863">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V863">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W863">
-        <v>0.45</v>
+        <v>1.2</v>
       </c>
       <c r="X863">
         <v>-1</v>
@@ -77347,13 +77347,13 @@
         <v>-1</v>
       </c>
       <c r="Z863">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA863">
         <v>-1</v>
       </c>
       <c r="AB863">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC863">
         <v>-1</v>
@@ -77898,7 +77898,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>5127233</v>
+        <v>5090917</v>
       </c>
       <c r="C870" t="s">
         <v>28</v>
@@ -77910,10 +77910,10 @@
         <v>44878.66666666666</v>
       </c>
       <c r="F870" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G870" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H870">
         <v>0</v>
@@ -77925,61 +77925,61 @@
         <v>55</v>
       </c>
       <c r="K870">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L870">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M870">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N870">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O870">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P870">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q870">
         <v>0</v>
       </c>
       <c r="R870">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="S870">
+        <v>2.05</v>
+      </c>
+      <c r="T870">
+        <v>2.75</v>
+      </c>
+      <c r="U870">
+        <v>1.925</v>
+      </c>
+      <c r="V870">
+        <v>1.925</v>
+      </c>
+      <c r="W870">
+        <v>-1</v>
+      </c>
+      <c r="X870">
+        <v>-1</v>
+      </c>
+      <c r="Y870">
         <v>1.75</v>
       </c>
-      <c r="T870">
-        <v>2</v>
-      </c>
-      <c r="U870">
-        <v>1.825</v>
-      </c>
-      <c r="V870">
-        <v>2.025</v>
-      </c>
-      <c r="W870">
-        <v>-1</v>
-      </c>
-      <c r="X870">
-        <v>-1</v>
-      </c>
-      <c r="Y870">
-        <v>1.5</v>
-      </c>
       <c r="Z870">
         <v>-1</v>
       </c>
       <c r="AA870">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AB870">
         <v>-1</v>
       </c>
       <c r="AC870">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="871" spans="1:29">
@@ -77987,7 +77987,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>5131733</v>
+        <v>5127233</v>
       </c>
       <c r="C871" t="s">
         <v>28</v>
@@ -77999,76 +77999,76 @@
         <v>44878.66666666666</v>
       </c>
       <c r="F871" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G871" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H871">
+        <v>0</v>
+      </c>
+      <c r="I871">
+        <v>1</v>
+      </c>
+      <c r="J871" t="s">
+        <v>55</v>
+      </c>
+      <c r="K871">
+        <v>3.2</v>
+      </c>
+      <c r="L871">
         <v>3</v>
       </c>
-      <c r="I871">
-        <v>0</v>
-      </c>
-      <c r="J871" t="s">
-        <v>56</v>
-      </c>
-      <c r="K871">
+      <c r="M871">
         <v>2.4</v>
       </c>
-      <c r="L871">
-        <v>3.4</v>
-      </c>
-      <c r="M871">
-        <v>2.8</v>
-      </c>
       <c r="N871">
+        <v>3.1</v>
+      </c>
+      <c r="O871">
+        <v>3.1</v>
+      </c>
+      <c r="P871">
         <v>2.5</v>
       </c>
-      <c r="O871">
-        <v>3.5</v>
-      </c>
-      <c r="P871">
-        <v>2.8</v>
-      </c>
       <c r="Q871">
         <v>0</v>
       </c>
       <c r="R871">
+        <v>2.125</v>
+      </c>
+      <c r="S871">
+        <v>1.75</v>
+      </c>
+      <c r="T871">
+        <v>2</v>
+      </c>
+      <c r="U871">
         <v>1.825</v>
       </c>
-      <c r="S871">
+      <c r="V871">
         <v>2.025</v>
       </c>
-      <c r="T871">
-        <v>2.75</v>
-      </c>
-      <c r="U871">
-        <v>2</v>
-      </c>
-      <c r="V871">
-        <v>1.85</v>
-      </c>
       <c r="W871">
+        <v>-1</v>
+      </c>
+      <c r="X871">
+        <v>-1</v>
+      </c>
+      <c r="Y871">
         <v>1.5</v>
       </c>
-      <c r="X871">
-        <v>-1</v>
-      </c>
-      <c r="Y871">
-        <v>-1</v>
-      </c>
       <c r="Z871">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA871">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB871">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC871">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="872" spans="1:29">
@@ -78076,7 +78076,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>5158065</v>
+        <v>5131733</v>
       </c>
       <c r="C872" t="s">
         <v>28</v>
@@ -78088,76 +78088,76 @@
         <v>44878.66666666666</v>
       </c>
       <c r="F872" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G872" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I872">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J872" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K872">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L872">
         <v>3.4</v>
       </c>
       <c r="M872">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N872">
+        <v>2.5</v>
+      </c>
+      <c r="O872">
         <v>3.5</v>
       </c>
-      <c r="O872">
-        <v>3.2</v>
-      </c>
       <c r="P872">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q872">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R872">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S872">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T872">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U872">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V872">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W872">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X872">
         <v>-1</v>
       </c>
       <c r="Y872">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z872">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA872">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB872">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC872">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="873" spans="1:29">
@@ -78165,7 +78165,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>5090917</v>
+        <v>5158065</v>
       </c>
       <c r="C873" t="s">
         <v>28</v>
@@ -78177,55 +78177,55 @@
         <v>44878.66666666666</v>
       </c>
       <c r="F873" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G873" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H873">
         <v>0</v>
       </c>
       <c r="I873">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J873" t="s">
         <v>55</v>
       </c>
       <c r="K873">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L873">
         <v>3.4</v>
       </c>
       <c r="M873">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N873">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="O873">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P873">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q873">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R873">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S873">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T873">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U873">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V873">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W873">
         <v>-1</v>
@@ -78234,19 +78234,19 @@
         <v>-1</v>
       </c>
       <c r="Y873">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Z873">
         <v>-1</v>
       </c>
       <c r="AA873">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB873">
         <v>-1</v>
       </c>
       <c r="AC873">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="874" spans="1:29">
@@ -90002,7 +90002,7 @@
         <v>1004</v>
       </c>
       <c r="B1006">
-        <v>6277953</v>
+        <v>6277418</v>
       </c>
       <c r="C1006" t="s">
         <v>28</v>
@@ -90014,76 +90014,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F1006" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G1006" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1006">
         <v>1</v>
       </c>
       <c r="J1006" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1006">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L1006">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M1006">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="N1006">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O1006">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P1006">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q1006">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1006">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S1006">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T1006">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1006">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V1006">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W1006">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X1006">
         <v>-1</v>
       </c>
       <c r="Y1006">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1006">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA1006">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB1006">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1006">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1007" spans="1:29">
@@ -90091,7 +90091,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>6277418</v>
+        <v>6277953</v>
       </c>
       <c r="C1007" t="s">
         <v>28</v>
@@ -90103,76 +90103,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F1007" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G1007" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H1007">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1007">
         <v>1</v>
       </c>
       <c r="J1007" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1007">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L1007">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M1007">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N1007">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O1007">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P1007">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q1007">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1007">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S1007">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T1007">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1007">
+        <v>2</v>
+      </c>
+      <c r="V1007">
         <v>1.85</v>
       </c>
-      <c r="V1007">
-        <v>2</v>
-      </c>
       <c r="W1007">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X1007">
         <v>-1</v>
       </c>
       <c r="Y1007">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z1007">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA1007">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB1007">
+        <v>-1</v>
+      </c>
+      <c r="AC1007">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC1007">
-        <v>-1</v>
       </c>
     </row>
     <row r="1008" spans="1:29">
@@ -91426,7 +91426,7 @@
         <v>1020</v>
       </c>
       <c r="B1022">
-        <v>6278693</v>
+        <v>6277421</v>
       </c>
       <c r="C1022" t="s">
         <v>28</v>
@@ -91438,76 +91438,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F1022" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G1022" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H1022">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1022">
         <v>1</v>
       </c>
       <c r="J1022" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1022">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L1022">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M1022">
+        <v>8</v>
+      </c>
+      <c r="N1022">
+        <v>1.333</v>
+      </c>
+      <c r="O1022">
         <v>5</v>
       </c>
-      <c r="N1022">
-        <v>1.55</v>
-      </c>
-      <c r="O1022">
+      <c r="P1022">
+        <v>8.5</v>
+      </c>
+      <c r="Q1022">
+        <v>-1.5</v>
+      </c>
+      <c r="R1022">
+        <v>2.05</v>
+      </c>
+      <c r="S1022">
+        <v>1.8</v>
+      </c>
+      <c r="T1022">
+        <v>2.75</v>
+      </c>
+      <c r="U1022">
+        <v>1.825</v>
+      </c>
+      <c r="V1022">
+        <v>2.025</v>
+      </c>
+      <c r="W1022">
+        <v>-1</v>
+      </c>
+      <c r="X1022">
         <v>4</v>
       </c>
-      <c r="P1022">
-        <v>6.5</v>
-      </c>
-      <c r="Q1022">
-        <v>-1</v>
-      </c>
-      <c r="R1022">
-        <v>1.925</v>
-      </c>
-      <c r="S1022">
-        <v>1.925</v>
-      </c>
-      <c r="T1022">
-        <v>2.5</v>
-      </c>
-      <c r="U1022">
-        <v>1.975</v>
-      </c>
-      <c r="V1022">
-        <v>1.875</v>
-      </c>
-      <c r="W1022">
-        <v>0.55</v>
-      </c>
-      <c r="X1022">
-        <v>-1</v>
-      </c>
       <c r="Y1022">
         <v>-1</v>
       </c>
       <c r="Z1022">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA1022">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1022">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1022">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1023" spans="1:29">
@@ -91515,7 +91515,7 @@
         <v>1021</v>
       </c>
       <c r="B1023">
-        <v>6277421</v>
+        <v>6278693</v>
       </c>
       <c r="C1023" t="s">
         <v>28</v>
@@ -91527,76 +91527,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F1023" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G1023" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1023">
         <v>1</v>
       </c>
       <c r="J1023" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1023">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L1023">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M1023">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1023">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O1023">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P1023">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q1023">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R1023">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S1023">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T1023">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1023">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V1023">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W1023">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X1023">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y1023">
         <v>-1</v>
       </c>
       <c r="Z1023">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA1023">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1023">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1023">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1024" spans="1:29">
@@ -91604,7 +91604,7 @@
         <v>1022</v>
       </c>
       <c r="B1024">
-        <v>6277723</v>
+        <v>6277915</v>
       </c>
       <c r="C1024" t="s">
         <v>28</v>
@@ -91616,76 +91616,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F1024" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1024" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024">
+        <v>0</v>
+      </c>
+      <c r="J1024" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1024">
+        <v>2.5</v>
+      </c>
+      <c r="L1024">
+        <v>2.875</v>
+      </c>
+      <c r="M1024">
+        <v>3.1</v>
+      </c>
+      <c r="N1024">
+        <v>2.2</v>
+      </c>
+      <c r="O1024">
+        <v>3.2</v>
+      </c>
+      <c r="P1024">
+        <v>3.75</v>
+      </c>
+      <c r="Q1024">
+        <v>-0.25</v>
+      </c>
+      <c r="R1024">
+        <v>1.875</v>
+      </c>
+      <c r="S1024">
+        <v>1.975</v>
+      </c>
+      <c r="T1024">
+        <v>2</v>
+      </c>
+      <c r="U1024">
+        <v>1.85</v>
+      </c>
+      <c r="V1024">
+        <v>2</v>
+      </c>
+      <c r="W1024">
+        <v>-1</v>
+      </c>
+      <c r="X1024">
+        <v>2.2</v>
+      </c>
+      <c r="Y1024">
+        <v>-1</v>
+      </c>
+      <c r="Z1024">
+        <v>-0.5</v>
+      </c>
+      <c r="AA1024">
+        <v>0.4875</v>
+      </c>
+      <c r="AB1024">
+        <v>-1</v>
+      </c>
+      <c r="AC1024">
         <v>1</v>
-      </c>
-      <c r="J1024" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1024">
-        <v>2.55</v>
-      </c>
-      <c r="L1024">
-        <v>3.1</v>
-      </c>
-      <c r="M1024">
-        <v>2.8</v>
-      </c>
-      <c r="N1024">
-        <v>2.75</v>
-      </c>
-      <c r="O1024">
-        <v>3.1</v>
-      </c>
-      <c r="P1024">
-        <v>2.7</v>
-      </c>
-      <c r="Q1024">
-        <v>0</v>
-      </c>
-      <c r="R1024">
-        <v>1.925</v>
-      </c>
-      <c r="S1024">
-        <v>1.925</v>
-      </c>
-      <c r="T1024">
-        <v>2</v>
-      </c>
-      <c r="U1024">
-        <v>1.95</v>
-      </c>
-      <c r="V1024">
-        <v>1.9</v>
-      </c>
-      <c r="W1024">
-        <v>1.75</v>
-      </c>
-      <c r="X1024">
-        <v>-1</v>
-      </c>
-      <c r="Y1024">
-        <v>-1</v>
-      </c>
-      <c r="Z1024">
-        <v>0.925</v>
-      </c>
-      <c r="AA1024">
-        <v>-1</v>
-      </c>
-      <c r="AB1024">
-        <v>0.95</v>
-      </c>
-      <c r="AC1024">
-        <v>-1</v>
       </c>
     </row>
     <row r="1025" spans="1:29">
@@ -91693,7 +91693,7 @@
         <v>1023</v>
       </c>
       <c r="B1025">
-        <v>6277915</v>
+        <v>6277723</v>
       </c>
       <c r="C1025" t="s">
         <v>28</v>
@@ -91705,76 +91705,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F1025" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1025" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1025" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1025">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L1025">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M1025">
+        <v>2.8</v>
+      </c>
+      <c r="N1025">
+        <v>2.75</v>
+      </c>
+      <c r="O1025">
         <v>3.1</v>
       </c>
-      <c r="N1025">
-        <v>2.2</v>
-      </c>
-      <c r="O1025">
-        <v>3.2</v>
-      </c>
       <c r="P1025">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q1025">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1025">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S1025">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T1025">
         <v>2</v>
       </c>
       <c r="U1025">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V1025">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W1025">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X1025">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1025">
         <v>-1</v>
       </c>
       <c r="Z1025">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA1025">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB1025">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1025">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1026" spans="1:29">
@@ -105132,7 +105132,7 @@
         <v>1174</v>
       </c>
       <c r="B1176">
-        <v>6649149</v>
+        <v>6648764</v>
       </c>
       <c r="C1176" t="s">
         <v>28</v>
@@ -105144,73 +105144,73 @@
         <v>45231.89583333334</v>
       </c>
       <c r="F1176" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G1176" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H1176">
         <v>3</v>
       </c>
       <c r="I1176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1176">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L1176">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M1176">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N1176">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O1176">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1176">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q1176">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1176">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S1176">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T1176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1176">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V1176">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W1176">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X1176">
         <v>-1</v>
       </c>
       <c r="Y1176">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z1176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1176">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1176">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AC1176">
         <v>-1</v>
@@ -105221,7 +105221,7 @@
         <v>1175</v>
       </c>
       <c r="B1177">
-        <v>6648764</v>
+        <v>6649149</v>
       </c>
       <c r="C1177" t="s">
         <v>28</v>
@@ -105233,73 +105233,73 @@
         <v>45231.89583333334</v>
       </c>
       <c r="F1177" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G1177" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H1177">
         <v>3</v>
       </c>
       <c r="I1177">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1177">
+        <v>1.65</v>
+      </c>
+      <c r="L1177">
         <v>4</v>
       </c>
-      <c r="J1177" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1177">
-        <v>2.5</v>
-      </c>
-      <c r="L1177">
-        <v>3.3</v>
-      </c>
       <c r="M1177">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N1177">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O1177">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P1177">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q1177">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1177">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S1177">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T1177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1177">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V1177">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W1177">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X1177">
         <v>-1</v>
       </c>
       <c r="Y1177">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1177">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1177">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AC1177">
         <v>-1</v>
@@ -105577,7 +105577,7 @@
         <v>1179</v>
       </c>
       <c r="B1181">
-        <v>6665146</v>
+        <v>6582507</v>
       </c>
       <c r="C1181" t="s">
         <v>28</v>
@@ -105589,76 +105589,76 @@
         <v>45234.8125</v>
       </c>
       <c r="F1181" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G1181" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1181">
         <v>1</v>
       </c>
       <c r="I1181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1181" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1181">
-        <v>4.2</v>
+        <v>1.533</v>
       </c>
       <c r="L1181">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M1181">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="N1181">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O1181">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P1181">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q1181">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R1181">
-        <v>1.825</v>
+        <v>1.99</v>
       </c>
       <c r="S1181">
-        <v>2.025</v>
+        <v>1.91</v>
       </c>
       <c r="T1181">
         <v>2.5</v>
       </c>
       <c r="U1181">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V1181">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="W1181">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X1181">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1181">
         <v>-1</v>
       </c>
       <c r="Z1181">
-        <v>0.825</v>
+        <v>0.495</v>
       </c>
       <c r="AA1181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1181">
         <v>-1</v>
       </c>
       <c r="AC1181">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="1182" spans="1:29">
@@ -105666,7 +105666,7 @@
         <v>1180</v>
       </c>
       <c r="B1182">
-        <v>6582507</v>
+        <v>6665146</v>
       </c>
       <c r="C1182" t="s">
         <v>28</v>
@@ -105678,76 +105678,76 @@
         <v>45234.8125</v>
       </c>
       <c r="F1182" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G1182" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H1182">
         <v>1</v>
       </c>
       <c r="I1182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1182">
-        <v>1.533</v>
+        <v>4.2</v>
       </c>
       <c r="L1182">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M1182">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N1182">
+        <v>4.5</v>
+      </c>
+      <c r="O1182">
+        <v>3.6</v>
+      </c>
+      <c r="P1182">
         <v>1.75</v>
       </c>
-      <c r="O1182">
-        <v>3.8</v>
-      </c>
-      <c r="P1182">
-        <v>4.75</v>
-      </c>
       <c r="Q1182">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R1182">
-        <v>1.99</v>
+        <v>1.825</v>
       </c>
       <c r="S1182">
-        <v>1.91</v>
+        <v>2.025</v>
       </c>
       <c r="T1182">
         <v>2.5</v>
       </c>
       <c r="U1182">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V1182">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W1182">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X1182">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1182">
         <v>-1</v>
       </c>
       <c r="Z1182">
-        <v>0.495</v>
+        <v>0.825</v>
       </c>
       <c r="AA1182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1182">
         <v>-1</v>
       </c>
       <c r="AC1182">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="1183" spans="1:29">
@@ -105844,7 +105844,7 @@
         <v>1182</v>
       </c>
       <c r="B1184">
-        <v>6665176</v>
+        <v>6661664</v>
       </c>
       <c r="C1184" t="s">
         <v>28</v>
@@ -105856,76 +105856,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F1184" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G1184" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1184">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="L1184">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M1184">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N1184">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="O1184">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P1184">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q1184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1184">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S1184">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T1184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1184">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V1184">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W1184">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X1184">
         <v>-1</v>
       </c>
       <c r="Y1184">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z1184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1184">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB1184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1184">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="1185" spans="1:29">
@@ -106022,7 +106022,7 @@
         <v>1184</v>
       </c>
       <c r="B1186">
-        <v>6661664</v>
+        <v>6665176</v>
       </c>
       <c r="C1186" t="s">
         <v>28</v>
@@ -106034,76 +106034,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F1186" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G1186" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1186">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="L1186">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M1186">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N1186">
+        <v>1.55</v>
+      </c>
+      <c r="O1186">
+        <v>4.333</v>
+      </c>
+      <c r="P1186">
+        <v>5.5</v>
+      </c>
+      <c r="Q1186">
+        <v>-1</v>
+      </c>
+      <c r="R1186">
+        <v>2</v>
+      </c>
+      <c r="S1186">
+        <v>1.85</v>
+      </c>
+      <c r="T1186">
         <v>2.5</v>
       </c>
-      <c r="O1186">
-        <v>3.1</v>
-      </c>
-      <c r="P1186">
-        <v>3</v>
-      </c>
-      <c r="Q1186">
-        <v>0</v>
-      </c>
-      <c r="R1186">
-        <v>1.775</v>
-      </c>
-      <c r="S1186">
-        <v>2.1</v>
-      </c>
-      <c r="T1186">
-        <v>2.25</v>
-      </c>
       <c r="U1186">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V1186">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W1186">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X1186">
         <v>-1</v>
       </c>
       <c r="Y1186">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z1186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1186">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB1186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1186">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="1187" spans="1:29">
@@ -106556,7 +106556,7 @@
         <v>1190</v>
       </c>
       <c r="B1192">
-        <v>6677088</v>
+        <v>6677091</v>
       </c>
       <c r="C1192" t="s">
         <v>28</v>
@@ -106568,76 +106568,76 @@
         <v>45238.83333333334</v>
       </c>
       <c r="F1192" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G1192" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1192">
         <v>1</v>
       </c>
       <c r="I1192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1192" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1192">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L1192">
         <v>3.3</v>
       </c>
       <c r="M1192">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N1192">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O1192">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P1192">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q1192">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1192">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S1192">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T1192">
         <v>2.25</v>
       </c>
       <c r="U1192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V1192">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W1192">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X1192">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y1192">
         <v>-1</v>
       </c>
       <c r="Z1192">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA1192">
+        <v>-1</v>
+      </c>
+      <c r="AB1192">
+        <v>-1</v>
+      </c>
+      <c r="AC1192">
         <v>0.875</v>
-      </c>
-      <c r="AB1192">
-        <v>-0.5</v>
-      </c>
-      <c r="AC1192">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="1193" spans="1:29">
@@ -106645,7 +106645,7 @@
         <v>1191</v>
       </c>
       <c r="B1193">
-        <v>6677091</v>
+        <v>6677088</v>
       </c>
       <c r="C1193" t="s">
         <v>28</v>
@@ -106657,76 +106657,76 @@
         <v>45238.83333333334</v>
       </c>
       <c r="F1193" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G1193" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1193">
         <v>1</v>
       </c>
       <c r="I1193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1193" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1193">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L1193">
         <v>3.3</v>
       </c>
       <c r="M1193">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N1193">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O1193">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P1193">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q1193">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1193">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S1193">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T1193">
         <v>2.25</v>
       </c>
       <c r="U1193">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V1193">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W1193">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X1193">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y1193">
         <v>-1</v>
       </c>
       <c r="Z1193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA1193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB1193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1193">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="1194" spans="1:29">
@@ -107713,7 +107713,7 @@
         <v>1203</v>
       </c>
       <c r="B1205">
-        <v>6648522</v>
+        <v>6622499</v>
       </c>
       <c r="C1205" t="s">
         <v>28</v>
@@ -107725,76 +107725,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F1205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1205" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1205">
         <v>1</v>
       </c>
       <c r="J1205" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1205">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L1205">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M1205">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N1205">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O1205">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P1205">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q1205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1205">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S1205">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T1205">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U1205">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V1205">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W1205">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X1205">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1205">
         <v>-1</v>
       </c>
       <c r="Z1205">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA1205">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB1205">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC1205">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1206" spans="1:29">
@@ -107802,7 +107802,7 @@
         <v>1204</v>
       </c>
       <c r="B1206">
-        <v>6619639</v>
+        <v>6648522</v>
       </c>
       <c r="C1206" t="s">
         <v>28</v>
@@ -107814,76 +107814,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F1206" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G1206" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H1206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1206">
         <v>1</v>
       </c>
       <c r="J1206" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1206">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L1206">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1206">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N1206">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O1206">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P1206">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q1206">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1206">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S1206">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T1206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1206">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V1206">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W1206">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X1206">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1206">
         <v>-1</v>
       </c>
       <c r="Z1206">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1206">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB1206">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1206">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1207" spans="1:29">
@@ -107891,7 +107891,7 @@
         <v>1205</v>
       </c>
       <c r="B1207">
-        <v>6689151</v>
+        <v>6619639</v>
       </c>
       <c r="C1207" t="s">
         <v>28</v>
@@ -107903,61 +107903,61 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F1207" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1207" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1207" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1207">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L1207">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M1207">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N1207">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O1207">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P1207">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="Q1207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R1207">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S1207">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T1207">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U1207">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V1207">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W1207">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X1207">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1207">
         <v>-1</v>
@@ -107969,10 +107969,10 @@
         <v>-0</v>
       </c>
       <c r="AB1207">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC1207">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1208" spans="1:29">
@@ -107980,7 +107980,7 @@
         <v>1206</v>
       </c>
       <c r="B1208">
-        <v>6622499</v>
+        <v>6689151</v>
       </c>
       <c r="C1208" t="s">
         <v>28</v>
@@ -107992,76 +107992,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F1208" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G1208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1208" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1208">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L1208">
         <v>3.3</v>
       </c>
       <c r="M1208">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N1208">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O1208">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P1208">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q1208">
         <v>0</v>
       </c>
       <c r="R1208">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S1208">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T1208">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U1208">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V1208">
+        <v>1.9</v>
+      </c>
+      <c r="W1208">
+        <v>-1</v>
+      </c>
+      <c r="X1208">
         <v>2.1</v>
       </c>
-      <c r="W1208">
-        <v>1.75</v>
-      </c>
-      <c r="X1208">
-        <v>-1</v>
-      </c>
       <c r="Y1208">
         <v>-1</v>
       </c>
       <c r="Z1208">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA1208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1208">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="1209" spans="1:29">
@@ -108781,7 +108781,7 @@
         <v>1215</v>
       </c>
       <c r="B1217">
-        <v>6707704</v>
+        <v>6665181</v>
       </c>
       <c r="C1217" t="s">
         <v>28</v>
@@ -108793,76 +108793,76 @@
         <v>45256.66666666666</v>
       </c>
       <c r="F1217" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G1217" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H1217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1217" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1217">
         <v>1.8</v>
       </c>
       <c r="L1217">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M1217">
-        <v>4.6</v>
+        <v>4.333</v>
       </c>
       <c r="N1217">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O1217">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P1217">
         <v>4.75</v>
       </c>
       <c r="Q1217">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S1217">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T1217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1217">
+        <v>2.025</v>
+      </c>
+      <c r="V1217">
         <v>1.825</v>
       </c>
-      <c r="V1217">
-        <v>2.025</v>
-      </c>
       <c r="W1217">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X1217">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1217">
         <v>-1</v>
       </c>
       <c r="Z1217">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB1217">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC1217">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1218" spans="1:29">
@@ -108870,7 +108870,7 @@
         <v>1216</v>
       </c>
       <c r="B1218">
-        <v>6665181</v>
+        <v>6707704</v>
       </c>
       <c r="C1218" t="s">
         <v>28</v>
@@ -108882,76 +108882,76 @@
         <v>45256.66666666666</v>
       </c>
       <c r="F1218" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G1218" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H1218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1218" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1218">
         <v>1.8</v>
       </c>
       <c r="L1218">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M1218">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="N1218">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O1218">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P1218">
         <v>4.75</v>
       </c>
       <c r="Q1218">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1218">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S1218">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T1218">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1218">
+        <v>1.825</v>
+      </c>
+      <c r="V1218">
         <v>2.025</v>
       </c>
-      <c r="V1218">
-        <v>1.825</v>
-      </c>
       <c r="W1218">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X1218">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1218">
         <v>-1</v>
       </c>
       <c r="Z1218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1218">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB1218">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1218">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="1219" spans="1:29">

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -68019,7 +68019,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>4692707</v>
+        <v>4749252</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68031,40 +68031,40 @@
         <v>44822.75</v>
       </c>
       <c r="F759" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G759" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H759">
         <v>1</v>
       </c>
       <c r="I759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J759" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K759">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L759">
         <v>3</v>
       </c>
       <c r="M759">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N759">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O759">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P759">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q759">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R759">
         <v>1.875</v>
@@ -68073,34 +68073,34 @@
         <v>1.975</v>
       </c>
       <c r="T759">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U759">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V759">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W759">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X759">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y759">
         <v>-1</v>
       </c>
       <c r="Z759">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA759">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB759">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC759">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="760" spans="1:29">
@@ -68108,7 +68108,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>4749252</v>
+        <v>4692707</v>
       </c>
       <c r="C760" t="s">
         <v>28</v>
@@ -68120,40 +68120,40 @@
         <v>44822.75</v>
       </c>
       <c r="F760" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G760" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H760">
         <v>1</v>
       </c>
       <c r="I760">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J760" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K760">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L760">
         <v>3</v>
       </c>
       <c r="M760">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="N760">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O760">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P760">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q760">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R760">
         <v>1.875</v>
@@ -68162,34 +68162,34 @@
         <v>1.975</v>
       </c>
       <c r="T760">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U760">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V760">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W760">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X760">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y760">
         <v>-1</v>
       </c>
       <c r="Z760">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA760">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB760">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC760">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="761" spans="1:29">
@@ -68642,7 +68642,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>4729911</v>
+        <v>4729753</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68654,58 +68654,58 @@
         <v>44832.79166666666</v>
       </c>
       <c r="F766" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G766" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J766" t="s">
         <v>56</v>
       </c>
       <c r="K766">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L766">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M766">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N766">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O766">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P766">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q766">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R766">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S766">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T766">
         <v>2.25</v>
       </c>
       <c r="U766">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V766">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W766">
-        <v>0.615</v>
+        <v>1.2</v>
       </c>
       <c r="X766">
         <v>-1</v>
@@ -68714,16 +68714,16 @@
         <v>-1</v>
       </c>
       <c r="Z766">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA766">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB766">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC766">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>4729753</v>
+        <v>4729911</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,58 +68743,58 @@
         <v>44832.79166666666</v>
       </c>
       <c r="F767" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G767" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767">
         <v>1</v>
-      </c>
-      <c r="I767">
-        <v>0</v>
       </c>
       <c r="J767" t="s">
         <v>56</v>
       </c>
       <c r="K767">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="L767">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M767">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="N767">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O767">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P767">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q767">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R767">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S767">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T767">
         <v>2.25</v>
       </c>
       <c r="U767">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V767">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W767">
-        <v>1.2</v>
+        <v>0.615</v>
       </c>
       <c r="X767">
         <v>-1</v>
@@ -68803,16 +68803,16 @@
         <v>-1</v>
       </c>
       <c r="Z767">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA767">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB767">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC767">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -69087,7 +69087,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>4729912</v>
+        <v>4761252</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69099,40 +69099,40 @@
         <v>44832.90625</v>
       </c>
       <c r="F771" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G771" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H771">
         <v>0</v>
       </c>
       <c r="I771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J771" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K771">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L771">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M771">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N771">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="O771">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P771">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q771">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R771">
         <v>1.9</v>
@@ -69144,19 +69144,19 @@
         <v>2.25</v>
       </c>
       <c r="U771">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V771">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W771">
         <v>-1</v>
       </c>
       <c r="X771">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y771">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z771">
         <v>-1</v>
@@ -69168,7 +69168,7 @@
         <v>-1</v>
       </c>
       <c r="AC771">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:29">
@@ -69176,7 +69176,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>4761048</v>
+        <v>4729912</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69188,10 +69188,10 @@
         <v>44832.90625</v>
       </c>
       <c r="F772" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G772" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H772">
         <v>0</v>
@@ -69206,37 +69206,37 @@
         <v>2.375</v>
       </c>
       <c r="L772">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M772">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N772">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="O772">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P772">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q772">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R772">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S772">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T772">
         <v>2.25</v>
       </c>
       <c r="U772">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V772">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W772">
         <v>-1</v>
@@ -69245,19 +69245,19 @@
         <v>-1</v>
       </c>
       <c r="Y772">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="Z772">
         <v>-1</v>
       </c>
       <c r="AA772">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB772">
         <v>-1</v>
       </c>
       <c r="AC772">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69265,7 +69265,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>4761252</v>
+        <v>4761048</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69277,76 +69277,76 @@
         <v>44832.90625</v>
       </c>
       <c r="F773" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G773" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H773">
         <v>0</v>
       </c>
       <c r="I773">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J773" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K773">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L773">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M773">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N773">
         <v>1.85</v>
       </c>
       <c r="O773">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P773">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q773">
         <v>-0.5</v>
       </c>
       <c r="R773">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S773">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T773">
         <v>2.25</v>
       </c>
       <c r="U773">
+        <v>2</v>
+      </c>
+      <c r="V773">
         <v>1.85</v>
       </c>
-      <c r="V773">
-        <v>2</v>
-      </c>
       <c r="W773">
         <v>-1</v>
       </c>
       <c r="X773">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y773">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z773">
         <v>-1</v>
       </c>
       <c r="AA773">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB773">
         <v>-1</v>
       </c>
       <c r="AC773">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -78521,7 +78521,7 @@
         <v>875</v>
       </c>
       <c r="B877">
-        <v>6278690</v>
+        <v>6277910</v>
       </c>
       <c r="C877" t="s">
         <v>28</v>
@@ -78533,76 +78533,76 @@
         <v>45031.77083333334</v>
       </c>
       <c r="F877" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G877" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I877">
         <v>1</v>
       </c>
       <c r="J877" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K877">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L877">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M877">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N877">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O877">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P877">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q877">
         <v>-0.5</v>
       </c>
       <c r="R877">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S877">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T877">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U877">
+        <v>2</v>
+      </c>
+      <c r="V877">
         <v>1.85</v>
       </c>
-      <c r="V877">
-        <v>2</v>
-      </c>
       <c r="W877">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X877">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y877">
         <v>-1</v>
       </c>
       <c r="Z877">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA877">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB877">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC877">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="878" spans="1:29">
@@ -78610,7 +78610,7 @@
         <v>876</v>
       </c>
       <c r="B878">
-        <v>6277848</v>
+        <v>6278690</v>
       </c>
       <c r="C878" t="s">
         <v>28</v>
@@ -78622,76 +78622,76 @@
         <v>45031.77083333334</v>
       </c>
       <c r="F878" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G878" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I878">
         <v>1</v>
       </c>
       <c r="J878" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K878">
+        <v>2.3</v>
+      </c>
+      <c r="L878">
+        <v>3.3</v>
+      </c>
+      <c r="M878">
+        <v>3.1</v>
+      </c>
+      <c r="N878">
+        <v>1.909</v>
+      </c>
+      <c r="O878">
+        <v>3.6</v>
+      </c>
+      <c r="P878">
+        <v>4</v>
+      </c>
+      <c r="Q878">
+        <v>-0.5</v>
+      </c>
+      <c r="R878">
+        <v>1.925</v>
+      </c>
+      <c r="S878">
+        <v>1.925</v>
+      </c>
+      <c r="T878">
+        <v>2.25</v>
+      </c>
+      <c r="U878">
+        <v>1.85</v>
+      </c>
+      <c r="V878">
+        <v>2</v>
+      </c>
+      <c r="W878">
+        <v>-1</v>
+      </c>
+      <c r="X878">
         <v>2.6</v>
       </c>
-      <c r="L878">
-        <v>3.2</v>
-      </c>
-      <c r="M878">
-        <v>2.75</v>
-      </c>
-      <c r="N878">
-        <v>2.375</v>
-      </c>
-      <c r="O878">
-        <v>3.2</v>
-      </c>
-      <c r="P878">
-        <v>3.1</v>
-      </c>
-      <c r="Q878">
-        <v>-0.25</v>
-      </c>
-      <c r="R878">
-        <v>2.05</v>
-      </c>
-      <c r="S878">
-        <v>1.8</v>
-      </c>
-      <c r="T878">
-        <v>2</v>
-      </c>
-      <c r="U878">
-        <v>1.75</v>
-      </c>
-      <c r="V878">
-        <v>2.05</v>
-      </c>
-      <c r="W878">
-        <v>1.375</v>
-      </c>
-      <c r="X878">
-        <v>-1</v>
-      </c>
       <c r="Y878">
         <v>-1</v>
       </c>
       <c r="Z878">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA878">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB878">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC878">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="879" spans="1:29">
@@ -78699,7 +78699,7 @@
         <v>877</v>
       </c>
       <c r="B879">
-        <v>6277910</v>
+        <v>6277848</v>
       </c>
       <c r="C879" t="s">
         <v>28</v>
@@ -78711,10 +78711,10 @@
         <v>45031.77083333334</v>
       </c>
       <c r="F879" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G879" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H879">
         <v>2</v>
@@ -78726,43 +78726,43 @@
         <v>56</v>
       </c>
       <c r="K879">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L879">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M879">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N879">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O879">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P879">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q879">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R879">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S879">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T879">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U879">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V879">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W879">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="X879">
         <v>-1</v>
@@ -78771,13 +78771,13 @@
         <v>-1</v>
       </c>
       <c r="Z879">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA879">
         <v>-1</v>
       </c>
       <c r="AB879">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC879">
         <v>-1</v>
@@ -80212,7 +80212,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>6278717</v>
+        <v>6277397</v>
       </c>
       <c r="C896" t="s">
         <v>28</v>
@@ -80224,58 +80224,58 @@
         <v>45045.77083333334</v>
       </c>
       <c r="F896" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G896" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I896">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J896" t="s">
         <v>56</v>
       </c>
       <c r="K896">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L896">
+        <v>3.2</v>
+      </c>
+      <c r="M896">
         <v>3.4</v>
       </c>
-      <c r="M896">
-        <v>5</v>
-      </c>
       <c r="N896">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O896">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P896">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q896">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R896">
+        <v>2</v>
+      </c>
+      <c r="S896">
         <v>1.85</v>
       </c>
-      <c r="S896">
-        <v>2</v>
-      </c>
       <c r="T896">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U896">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V896">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W896">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="X896">
         <v>-1</v>
@@ -80284,13 +80284,13 @@
         <v>-1</v>
       </c>
       <c r="Z896">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA896">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB896">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC896">
         <v>-1</v>
@@ -80301,7 +80301,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>6277397</v>
+        <v>6278717</v>
       </c>
       <c r="C897" t="s">
         <v>28</v>
@@ -80313,58 +80313,58 @@
         <v>45045.77083333334</v>
       </c>
       <c r="F897" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G897" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H897">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I897">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J897" t="s">
         <v>56</v>
       </c>
       <c r="K897">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L897">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M897">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N897">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O897">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P897">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Q897">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R897">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S897">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T897">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U897">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V897">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W897">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="X897">
         <v>-1</v>
@@ -80373,13 +80373,13 @@
         <v>-1</v>
       </c>
       <c r="Z897">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA897">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB897">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC897">
         <v>-1</v>
@@ -80657,7 +80657,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>6277461</v>
+        <v>6277296</v>
       </c>
       <c r="C901" t="s">
         <v>28</v>
@@ -80669,76 +80669,76 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F901" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G901" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H901">
         <v>1</v>
       </c>
       <c r="I901">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J901" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K901">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L901">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M901">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N901">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O901">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P901">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q901">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R901">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S901">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T901">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U901">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V901">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W901">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X901">
         <v>-1</v>
       </c>
       <c r="Y901">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z901">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA901">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB901">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC901">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="902" spans="1:29">
@@ -80746,7 +80746,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>6277296</v>
+        <v>6277461</v>
       </c>
       <c r="C902" t="s">
         <v>28</v>
@@ -80758,76 +80758,76 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F902" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G902" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H902">
         <v>1</v>
       </c>
       <c r="I902">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J902" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K902">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L902">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M902">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N902">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O902">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P902">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q902">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R902">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S902">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T902">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U902">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V902">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W902">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X902">
         <v>-1</v>
       </c>
       <c r="Y902">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z902">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA902">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB902">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC902">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="903" spans="1:29">
@@ -81280,7 +81280,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>6277664</v>
+        <v>6277663</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81292,13 +81292,13 @@
         <v>45053.66666666666</v>
       </c>
       <c r="F908" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G908" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H908">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I908">
         <v>1</v>
@@ -81307,43 +81307,43 @@
         <v>56</v>
       </c>
       <c r="K908">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L908">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M908">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N908">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O908">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P908">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q908">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R908">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S908">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T908">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U908">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V908">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W908">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X908">
         <v>-1</v>
@@ -81352,13 +81352,13 @@
         <v>-1</v>
       </c>
       <c r="Z908">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA908">
         <v>-1</v>
       </c>
       <c r="AB908">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC908">
         <v>-1</v>
@@ -81369,7 +81369,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>6277663</v>
+        <v>6277664</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81381,13 +81381,13 @@
         <v>45053.66666666666</v>
       </c>
       <c r="F909" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G909" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I909">
         <v>1</v>
@@ -81396,43 +81396,43 @@
         <v>56</v>
       </c>
       <c r="K909">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L909">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M909">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N909">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O909">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P909">
+        <v>4.75</v>
+      </c>
+      <c r="Q909">
+        <v>-0.75</v>
+      </c>
+      <c r="R909">
+        <v>1.95</v>
+      </c>
+      <c r="S909">
+        <v>1.9</v>
+      </c>
+      <c r="T909">
         <v>2.5</v>
       </c>
-      <c r="Q909">
-        <v>0</v>
-      </c>
-      <c r="R909">
-        <v>2.05</v>
-      </c>
-      <c r="S909">
-        <v>1.8</v>
-      </c>
-      <c r="T909">
-        <v>2.25</v>
-      </c>
       <c r="U909">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V909">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W909">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X909">
         <v>-1</v>
@@ -81441,13 +81441,13 @@
         <v>-1</v>
       </c>
       <c r="Z909">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA909">
         <v>-1</v>
       </c>
       <c r="AB909">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC909">
         <v>-1</v>
@@ -81458,7 +81458,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>6277856</v>
+        <v>6277462</v>
       </c>
       <c r="C910" t="s">
         <v>28</v>
@@ -81470,49 +81470,49 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F910" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G910" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J910" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K910">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="L910">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M910">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N910">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O910">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P910">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q910">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R910">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S910">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T910">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U910">
         <v>2</v>
@@ -81521,25 +81521,25 @@
         <v>1.85</v>
       </c>
       <c r="W910">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X910">
         <v>-1</v>
       </c>
       <c r="Y910">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z910">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA910">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB910">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC910">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="911" spans="1:29">
@@ -81547,7 +81547,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>6277462</v>
+        <v>6277297</v>
       </c>
       <c r="C911" t="s">
         <v>28</v>
@@ -81559,40 +81559,40 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F911" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G911" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I911">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J911" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K911">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L911">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M911">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N911">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="O911">
+        <v>3.5</v>
+      </c>
+      <c r="P911">
         <v>4</v>
       </c>
-      <c r="P911">
-        <v>1.666</v>
-      </c>
       <c r="Q911">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R911">
         <v>1.95</v>
@@ -81601,22 +81601,22 @@
         <v>1.9</v>
       </c>
       <c r="T911">
+        <v>2.25</v>
+      </c>
+      <c r="U911">
+        <v>1.8</v>
+      </c>
+      <c r="V911">
+        <v>2.05</v>
+      </c>
+      <c r="W911">
+        <v>-1</v>
+      </c>
+      <c r="X911">
         <v>2.5</v>
       </c>
-      <c r="U911">
-        <v>2</v>
-      </c>
-      <c r="V911">
-        <v>1.85</v>
-      </c>
-      <c r="W911">
-        <v>-1</v>
-      </c>
-      <c r="X911">
-        <v>-1</v>
-      </c>
       <c r="Y911">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z911">
         <v>-1</v>
@@ -81625,7 +81625,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB911">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC911">
         <v>-1</v>
@@ -81636,7 +81636,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>6277297</v>
+        <v>6277856</v>
       </c>
       <c r="C912" t="s">
         <v>28</v>
@@ -81648,76 +81648,76 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F912" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G912" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H912">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I912">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J912" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K912">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L912">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M912">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N912">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O912">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P912">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q912">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R912">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S912">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T912">
         <v>2.25</v>
       </c>
       <c r="U912">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V912">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W912">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X912">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y912">
         <v>-1</v>
       </c>
       <c r="Z912">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA912">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB912">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC912">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="913" spans="1:29">
@@ -82259,7 +82259,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>6277298</v>
+        <v>6277402</v>
       </c>
       <c r="C919" t="s">
         <v>28</v>
@@ -82271,76 +82271,76 @@
         <v>45056.89583333334</v>
       </c>
       <c r="F919" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G919" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H919">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I919">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J919" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K919">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L919">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M919">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N919">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O919">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P919">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q919">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R919">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S919">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T919">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U919">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V919">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W919">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X919">
         <v>-1</v>
       </c>
       <c r="Y919">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z919">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA919">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB919">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC919">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="920" spans="1:29">
@@ -82348,7 +82348,7 @@
         <v>918</v>
       </c>
       <c r="B920">
-        <v>6277402</v>
+        <v>6277298</v>
       </c>
       <c r="C920" t="s">
         <v>28</v>
@@ -82360,76 +82360,76 @@
         <v>45056.89583333334</v>
       </c>
       <c r="F920" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G920" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I920">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J920" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K920">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L920">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M920">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N920">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O920">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P920">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q920">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R920">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S920">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T920">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U920">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V920">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W920">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X920">
         <v>-1</v>
       </c>
       <c r="Y920">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z920">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA920">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB920">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC920">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="921" spans="1:29">
@@ -82793,7 +82793,7 @@
         <v>923</v>
       </c>
       <c r="B925">
-        <v>6277716</v>
+        <v>6278719</v>
       </c>
       <c r="C925" t="s">
         <v>28</v>
@@ -82805,19 +82805,19 @@
         <v>45059.77083333334</v>
       </c>
       <c r="F925" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G925" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I925">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J925" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K925">
         <v>1.4</v>
@@ -82826,55 +82826,55 @@
         <v>4.333</v>
       </c>
       <c r="M925">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N925">
-        <v>1.363</v>
+        <v>1.6</v>
       </c>
       <c r="O925">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P925">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="Q925">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R925">
+        <v>2</v>
+      </c>
+      <c r="S925">
         <v>1.85</v>
-      </c>
-      <c r="S925">
-        <v>2</v>
       </c>
       <c r="T925">
         <v>2.75</v>
       </c>
       <c r="U925">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V925">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W925">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X925">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y925">
         <v>-1</v>
       </c>
       <c r="Z925">
+        <v>-1</v>
+      </c>
+      <c r="AA925">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA925">
-        <v>-1</v>
-      </c>
       <c r="AB925">
         <v>-1</v>
       </c>
       <c r="AC925">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="926" spans="1:29">
@@ -82882,7 +82882,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>6278719</v>
+        <v>6277716</v>
       </c>
       <c r="C926" t="s">
         <v>28</v>
@@ -82894,19 +82894,19 @@
         <v>45059.77083333334</v>
       </c>
       <c r="F926" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G926" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I926">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J926" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K926">
         <v>1.4</v>
@@ -82915,55 +82915,55 @@
         <v>4.333</v>
       </c>
       <c r="M926">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N926">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="O926">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P926">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Q926">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R926">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S926">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T926">
         <v>2.75</v>
       </c>
       <c r="U926">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V926">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W926">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X926">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y926">
         <v>-1</v>
       </c>
       <c r="Z926">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA926">
+        <v>-1</v>
+      </c>
+      <c r="AB926">
+        <v>-1</v>
+      </c>
+      <c r="AC926">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB926">
-        <v>-1</v>
-      </c>
-      <c r="AC926">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="927" spans="1:29">
@@ -83060,7 +83060,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>6277858</v>
+        <v>6277299</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83072,49 +83072,49 @@
         <v>45060.66666666666</v>
       </c>
       <c r="F928" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G928" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H928">
         <v>0</v>
       </c>
       <c r="I928">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J928" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K928">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L928">
         <v>3.25</v>
       </c>
       <c r="M928">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N928">
         <v>1.909</v>
       </c>
       <c r="O928">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P928">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q928">
         <v>-0.5</v>
       </c>
       <c r="R928">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S928">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T928">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U928">
         <v>1.925</v>
@@ -83126,16 +83126,16 @@
         <v>-1</v>
       </c>
       <c r="X928">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y928">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z928">
         <v>-1</v>
       </c>
       <c r="AA928">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB928">
         <v>-1</v>
@@ -83149,7 +83149,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>6278720</v>
+        <v>6277858</v>
       </c>
       <c r="C929" t="s">
         <v>28</v>
@@ -83161,76 +83161,76 @@
         <v>45060.66666666666</v>
       </c>
       <c r="F929" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G929" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I929">
         <v>1</v>
       </c>
       <c r="J929" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K929">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L929">
+        <v>3.25</v>
+      </c>
+      <c r="M929">
+        <v>3.75</v>
+      </c>
+      <c r="N929">
+        <v>1.909</v>
+      </c>
+      <c r="O929">
         <v>3.2</v>
       </c>
-      <c r="M929">
-        <v>3.25</v>
-      </c>
-      <c r="N929">
-        <v>2.5</v>
-      </c>
-      <c r="O929">
-        <v>3</v>
-      </c>
       <c r="P929">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q929">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R929">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="S929">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T929">
         <v>2</v>
       </c>
       <c r="U929">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V929">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W929">
         <v>-1</v>
       </c>
       <c r="X929">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y929">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z929">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA929">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB929">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC929">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="930" spans="1:29">
@@ -83238,7 +83238,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>6277299</v>
+        <v>6278720</v>
       </c>
       <c r="C930" t="s">
         <v>28</v>
@@ -83250,16 +83250,16 @@
         <v>45060.66666666666</v>
       </c>
       <c r="F930" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G930" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I930">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J930" t="s">
         <v>57</v>
@@ -83268,58 +83268,58 @@
         <v>2.1</v>
       </c>
       <c r="L930">
+        <v>3.2</v>
+      </c>
+      <c r="M930">
         <v>3.25</v>
       </c>
-      <c r="M930">
-        <v>3.2</v>
-      </c>
       <c r="N930">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O930">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P930">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q930">
+        <v>-0.25</v>
+      </c>
+      <c r="R930">
+        <v>2.125</v>
+      </c>
+      <c r="S930">
+        <v>1.75</v>
+      </c>
+      <c r="T930">
+        <v>2</v>
+      </c>
+      <c r="U930">
+        <v>2</v>
+      </c>
+      <c r="V930">
+        <v>1.85</v>
+      </c>
+      <c r="W930">
+        <v>-1</v>
+      </c>
+      <c r="X930">
+        <v>2</v>
+      </c>
+      <c r="Y930">
+        <v>-1</v>
+      </c>
+      <c r="Z930">
         <v>-0.5</v>
       </c>
-      <c r="R930">
-        <v>1.85</v>
-      </c>
-      <c r="S930">
-        <v>2</v>
-      </c>
-      <c r="T930">
-        <v>2.5</v>
-      </c>
-      <c r="U930">
-        <v>1.925</v>
-      </c>
-      <c r="V930">
-        <v>1.925</v>
-      </c>
-      <c r="W930">
-        <v>-1</v>
-      </c>
-      <c r="X930">
-        <v>2.5</v>
-      </c>
-      <c r="Y930">
-        <v>-1</v>
-      </c>
-      <c r="Z930">
-        <v>-1</v>
-      </c>
       <c r="AA930">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB930">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC930">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="931" spans="1:29">
@@ -83416,7 +83416,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>6277464</v>
+        <v>6277667</v>
       </c>
       <c r="C932" t="s">
         <v>28</v>
@@ -83428,58 +83428,58 @@
         <v>45060.77083333334</v>
       </c>
       <c r="F932" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G932" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I932">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J932" t="s">
         <v>56</v>
       </c>
       <c r="K932">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L932">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M932">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N932">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="O932">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P932">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q932">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R932">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S932">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T932">
         <v>2.25</v>
       </c>
       <c r="U932">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V932">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W932">
-        <v>2.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X932">
         <v>-1</v>
@@ -83488,13 +83488,13 @@
         <v>-1</v>
       </c>
       <c r="Z932">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA932">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB932">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC932">
         <v>-1</v>
@@ -83505,7 +83505,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>6277667</v>
+        <v>6277464</v>
       </c>
       <c r="C933" t="s">
         <v>28</v>
@@ -83517,58 +83517,58 @@
         <v>45060.77083333334</v>
       </c>
       <c r="F933" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G933" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H933">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I933">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J933" t="s">
         <v>56</v>
       </c>
       <c r="K933">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L933">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M933">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N933">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="O933">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P933">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q933">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R933">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S933">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T933">
         <v>2.25</v>
       </c>
       <c r="U933">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V933">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W933">
-        <v>0.6000000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X933">
         <v>-1</v>
@@ -83577,13 +83577,13 @@
         <v>-1</v>
       </c>
       <c r="Z933">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA933">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB933">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC933">
         <v>-1</v>
@@ -83772,7 +83772,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>6277862</v>
+        <v>6277669</v>
       </c>
       <c r="C936" t="s">
         <v>28</v>
@@ -83784,73 +83784,73 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F936" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G936" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H936">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I936">
         <v>2</v>
       </c>
       <c r="J936" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K936">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="L936">
         <v>3.3</v>
       </c>
       <c r="M936">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N936">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="O936">
         <v>3.4</v>
       </c>
       <c r="P936">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q936">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R936">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S936">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T936">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U936">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V936">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W936">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X936">
         <v>-1</v>
       </c>
       <c r="Y936">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z936">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA936">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB936">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC936">
         <v>-1</v>
@@ -83861,7 +83861,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>6277861</v>
+        <v>6277668</v>
       </c>
       <c r="C937" t="s">
         <v>28</v>
@@ -83873,13 +83873,13 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F937" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G937" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I937">
         <v>0</v>
@@ -83888,43 +83888,43 @@
         <v>56</v>
       </c>
       <c r="K937">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L937">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M937">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N937">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="O937">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P937">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q937">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R937">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S937">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T937">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U937">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V937">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W937">
-        <v>1.75</v>
+        <v>0.833</v>
       </c>
       <c r="X937">
         <v>-1</v>
@@ -83933,7 +83933,7 @@
         <v>-1</v>
       </c>
       <c r="Z937">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA937">
         <v>-1</v>
@@ -83942,7 +83942,7 @@
         <v>-1</v>
       </c>
       <c r="AC937">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="938" spans="1:29">
@@ -83950,7 +83950,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>6277669</v>
+        <v>6277862</v>
       </c>
       <c r="C938" t="s">
         <v>28</v>
@@ -83962,73 +83962,73 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F938" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G938" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I938">
         <v>2</v>
       </c>
       <c r="J938" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K938">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="L938">
         <v>3.3</v>
       </c>
       <c r="M938">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="N938">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="O938">
         <v>3.4</v>
       </c>
       <c r="P938">
+        <v>4.5</v>
+      </c>
+      <c r="Q938">
+        <v>-0.5</v>
+      </c>
+      <c r="R938">
         <v>1.85</v>
       </c>
-      <c r="Q938">
-        <v>0.5</v>
-      </c>
-      <c r="R938">
-        <v>2.025</v>
-      </c>
       <c r="S938">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T938">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U938">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V938">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W938">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X938">
         <v>-1</v>
       </c>
       <c r="Y938">
+        <v>-1</v>
+      </c>
+      <c r="Z938">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z938">
-        <v>-1</v>
-      </c>
       <c r="AA938">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB938">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC938">
         <v>-1</v>
@@ -84039,7 +84039,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>6277668</v>
+        <v>6277861</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84051,13 +84051,13 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F939" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G939" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939">
         <v>0</v>
@@ -84066,43 +84066,43 @@
         <v>56</v>
       </c>
       <c r="K939">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L939">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M939">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N939">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="O939">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P939">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q939">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R939">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S939">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T939">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U939">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V939">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W939">
-        <v>0.833</v>
+        <v>1.75</v>
       </c>
       <c r="X939">
         <v>-1</v>
@@ -84111,7 +84111,7 @@
         <v>-1</v>
       </c>
       <c r="Z939">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA939">
         <v>-1</v>
@@ -84120,7 +84120,7 @@
         <v>-1</v>
       </c>
       <c r="AC939">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="940" spans="1:29">
@@ -84929,7 +84929,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>6277863</v>
+        <v>6277912</v>
       </c>
       <c r="C949" t="s">
         <v>28</v>
@@ -84941,10 +84941,10 @@
         <v>45074.66666666666</v>
       </c>
       <c r="F949" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G949" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H949">
         <v>2</v>
@@ -84956,43 +84956,43 @@
         <v>56</v>
       </c>
       <c r="K949">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L949">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M949">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N949">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O949">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P949">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q949">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R949">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S949">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T949">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U949">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V949">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W949">
-        <v>1.625</v>
+        <v>1.05</v>
       </c>
       <c r="X949">
         <v>-1</v>
@@ -85001,16 +85001,16 @@
         <v>-1</v>
       </c>
       <c r="Z949">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA949">
         <v>-1</v>
       </c>
       <c r="AB949">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC949">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="950" spans="1:29">
@@ -85018,7 +85018,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>6277912</v>
+        <v>6277863</v>
       </c>
       <c r="C950" t="s">
         <v>28</v>
@@ -85030,10 +85030,10 @@
         <v>45074.66666666666</v>
       </c>
       <c r="F950" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G950" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H950">
         <v>2</v>
@@ -85045,43 +85045,43 @@
         <v>56</v>
       </c>
       <c r="K950">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L950">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M950">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N950">
+        <v>2.625</v>
+      </c>
+      <c r="O950">
+        <v>3.2</v>
+      </c>
+      <c r="P950">
+        <v>2.7</v>
+      </c>
+      <c r="Q950">
+        <v>0</v>
+      </c>
+      <c r="R950">
+        <v>1.9</v>
+      </c>
+      <c r="S950">
+        <v>1.95</v>
+      </c>
+      <c r="T950">
+        <v>2.25</v>
+      </c>
+      <c r="U950">
         <v>2.05</v>
       </c>
-      <c r="O950">
-        <v>3.6</v>
-      </c>
-      <c r="P950">
-        <v>3.5</v>
-      </c>
-      <c r="Q950">
-        <v>-0.25</v>
-      </c>
-      <c r="R950">
+      <c r="V950">
         <v>1.8</v>
       </c>
-      <c r="S950">
-        <v>2.05</v>
-      </c>
-      <c r="T950">
-        <v>2.5</v>
-      </c>
-      <c r="U950">
-        <v>2</v>
-      </c>
-      <c r="V950">
-        <v>1.85</v>
-      </c>
       <c r="W950">
-        <v>1.05</v>
+        <v>1.625</v>
       </c>
       <c r="X950">
         <v>-1</v>
@@ -85090,16 +85090,16 @@
         <v>-1</v>
       </c>
       <c r="Z950">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA950">
         <v>-1</v>
       </c>
       <c r="AB950">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC950">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="951" spans="1:29">
@@ -85997,7 +85997,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>6277467</v>
+        <v>6277671</v>
       </c>
       <c r="C961" t="s">
         <v>28</v>
@@ -86009,76 +86009,76 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F961" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G961" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I961">
         <v>1</v>
       </c>
       <c r="J961" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K961">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L961">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M961">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="N961">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O961">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P961">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="Q961">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R961">
+        <v>1.875</v>
+      </c>
+      <c r="S961">
+        <v>1.975</v>
+      </c>
+      <c r="T961">
+        <v>2.75</v>
+      </c>
+      <c r="U961">
         <v>1.925</v>
       </c>
-      <c r="S961">
+      <c r="V961">
         <v>1.925</v>
       </c>
-      <c r="T961">
-        <v>2</v>
-      </c>
-      <c r="U961">
-        <v>2</v>
-      </c>
-      <c r="V961">
-        <v>1.85</v>
-      </c>
       <c r="W961">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X961">
         <v>-1</v>
       </c>
       <c r="Y961">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z961">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA961">
+        <v>-1</v>
+      </c>
+      <c r="AB961">
         <v>0.925</v>
       </c>
-      <c r="AB961">
-        <v>-1</v>
-      </c>
       <c r="AC961">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="962" spans="1:29">
@@ -86086,7 +86086,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>6277671</v>
+        <v>6277467</v>
       </c>
       <c r="C962" t="s">
         <v>28</v>
@@ -86098,76 +86098,76 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F962" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G962" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H962">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962">
         <v>1</v>
       </c>
       <c r="J962" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K962">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L962">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M962">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="N962">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="O962">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P962">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="Q962">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R962">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S962">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T962">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U962">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V962">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W962">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X962">
         <v>-1</v>
       </c>
       <c r="Y962">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z962">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA962">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB962">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC962">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="963" spans="1:29">
@@ -86353,7 +86353,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>6277410</v>
+        <v>6277951</v>
       </c>
       <c r="C965" t="s">
         <v>28</v>
@@ -86365,76 +86365,76 @@
         <v>45087.77083333334</v>
       </c>
       <c r="F965" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G965" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I965">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J965" t="s">
         <v>57</v>
       </c>
       <c r="K965">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L965">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M965">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N965">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O965">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P965">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q965">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R965">
+        <v>1.825</v>
+      </c>
+      <c r="S965">
         <v>2.025</v>
-      </c>
-      <c r="S965">
-        <v>1.825</v>
       </c>
       <c r="T965">
         <v>2.25</v>
       </c>
       <c r="U965">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V965">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W965">
         <v>-1</v>
       </c>
       <c r="X965">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y965">
         <v>-1</v>
       </c>
       <c r="Z965">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA965">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB965">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC965">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="966" spans="1:29">
@@ -86442,7 +86442,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>6277951</v>
+        <v>6655761</v>
       </c>
       <c r="C966" t="s">
         <v>28</v>
@@ -86454,10 +86454,10 @@
         <v>45087.77083333334</v>
       </c>
       <c r="F966" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G966" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H966">
         <v>1</v>
@@ -86469,47 +86469,47 @@
         <v>57</v>
       </c>
       <c r="K966">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L966">
         <v>3.5</v>
       </c>
       <c r="M966">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N966">
+        <v>1.75</v>
+      </c>
+      <c r="O966">
+        <v>3.25</v>
+      </c>
+      <c r="P966">
+        <v>5.25</v>
+      </c>
+      <c r="Q966">
+        <v>-0.75</v>
+      </c>
+      <c r="R966">
+        <v>2</v>
+      </c>
+      <c r="S966">
+        <v>1.85</v>
+      </c>
+      <c r="T966">
+        <v>2</v>
+      </c>
+      <c r="U966">
+        <v>2.05</v>
+      </c>
+      <c r="V966">
         <v>1.8</v>
       </c>
-      <c r="O966">
-        <v>3.3</v>
-      </c>
-      <c r="P966">
-        <v>5</v>
-      </c>
-      <c r="Q966">
-        <v>-0.5</v>
-      </c>
-      <c r="R966">
-        <v>1.825</v>
-      </c>
-      <c r="S966">
-        <v>2.025</v>
-      </c>
-      <c r="T966">
+      <c r="W966">
+        <v>-1</v>
+      </c>
+      <c r="X966">
         <v>2.25</v>
       </c>
-      <c r="U966">
-        <v>1.95</v>
-      </c>
-      <c r="V966">
-        <v>1.9</v>
-      </c>
-      <c r="W966">
-        <v>-1</v>
-      </c>
-      <c r="X966">
-        <v>2.3</v>
-      </c>
       <c r="Y966">
         <v>-1</v>
       </c>
@@ -86517,13 +86517,13 @@
         <v>-1</v>
       </c>
       <c r="AA966">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB966">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC966">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="967" spans="1:29">
@@ -86531,7 +86531,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>6655761</v>
+        <v>6277410</v>
       </c>
       <c r="C967" t="s">
         <v>28</v>
@@ -86543,55 +86543,55 @@
         <v>45087.77083333334</v>
       </c>
       <c r="F967" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G967" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I967">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J967" t="s">
         <v>57</v>
       </c>
       <c r="K967">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L967">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M967">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N967">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O967">
         <v>3.25</v>
       </c>
       <c r="P967">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q967">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R967">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S967">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T967">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U967">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V967">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W967">
         <v>-1</v>
@@ -86603,16 +86603,16 @@
         <v>-1</v>
       </c>
       <c r="Z967">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA967">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB967">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC967">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="968" spans="1:29">
@@ -87154,7 +87154,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6277674</v>
+        <v>6277412</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87166,76 +87166,76 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F974" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G974" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974">
         <v>1</v>
       </c>
       <c r="J974" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K974">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L974">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M974">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N974">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O974">
         <v>3.4</v>
       </c>
       <c r="P974">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q974">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R974">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S974">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T974">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U974">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V974">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W974">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X974">
         <v>-1</v>
       </c>
       <c r="Y974">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z974">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA974">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB974">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC974">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="975" spans="1:29">
@@ -87243,7 +87243,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>6277412</v>
+        <v>6277674</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87255,76 +87255,76 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F975" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G975" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975">
         <v>1</v>
       </c>
       <c r="J975" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K975">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L975">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M975">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N975">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O975">
         <v>3.4</v>
       </c>
       <c r="P975">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q975">
+        <v>-0.75</v>
+      </c>
+      <c r="R975">
+        <v>2.025</v>
+      </c>
+      <c r="S975">
+        <v>1.825</v>
+      </c>
+      <c r="T975">
+        <v>2.25</v>
+      </c>
+      <c r="U975">
+        <v>1.95</v>
+      </c>
+      <c r="V975">
+        <v>1.9</v>
+      </c>
+      <c r="W975">
+        <v>0.8</v>
+      </c>
+      <c r="X975">
+        <v>-1</v>
+      </c>
+      <c r="Y975">
+        <v>-1</v>
+      </c>
+      <c r="Z975">
+        <v>0.5125</v>
+      </c>
+      <c r="AA975">
         <v>-0.5</v>
       </c>
-      <c r="R975">
-        <v>1.925</v>
-      </c>
-      <c r="S975">
-        <v>1.925</v>
-      </c>
-      <c r="T975">
-        <v>2.5</v>
-      </c>
-      <c r="U975">
-        <v>1.975</v>
-      </c>
-      <c r="V975">
-        <v>1.875</v>
-      </c>
-      <c r="W975">
-        <v>-1</v>
-      </c>
-      <c r="X975">
-        <v>-1</v>
-      </c>
-      <c r="Y975">
-        <v>3.2</v>
-      </c>
-      <c r="Z975">
-        <v>-1</v>
-      </c>
-      <c r="AA975">
-        <v>0.925</v>
-      </c>
       <c r="AB975">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC975">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="976" spans="1:29">
@@ -87421,7 +87421,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>6277869</v>
+        <v>6277914</v>
       </c>
       <c r="C977" t="s">
         <v>28</v>
@@ -87433,40 +87433,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F977" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G977" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H977">
         <v>1</v>
       </c>
       <c r="I977">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J977" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K977">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="L977">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M977">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N977">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O977">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P977">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q977">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R977">
         <v>2.025</v>
@@ -87475,34 +87475,34 @@
         <v>1.825</v>
       </c>
       <c r="T977">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U977">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V977">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W977">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X977">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y977">
         <v>-1</v>
       </c>
       <c r="Z977">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA977">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB977">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC977">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="978" spans="1:29">
@@ -87510,7 +87510,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>6277914</v>
+        <v>6277869</v>
       </c>
       <c r="C978" t="s">
         <v>28</v>
@@ -87522,40 +87522,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F978" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G978" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H978">
         <v>1</v>
       </c>
       <c r="I978">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J978" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K978">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L978">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M978">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N978">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O978">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P978">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q978">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R978">
         <v>2.025</v>
@@ -87564,34 +87564,34 @@
         <v>1.825</v>
       </c>
       <c r="T978">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U978">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V978">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W978">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X978">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y978">
         <v>-1</v>
       </c>
       <c r="Z978">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA978">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB978">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC978">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="979" spans="1:29">
@@ -89379,7 +89379,7 @@
         <v>997</v>
       </c>
       <c r="B999">
-        <v>6277677</v>
+        <v>6277415</v>
       </c>
       <c r="C999" t="s">
         <v>28</v>
@@ -89391,10 +89391,10 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F999" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G999" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H999">
         <v>2</v>
@@ -89406,58 +89406,58 @@
         <v>57</v>
       </c>
       <c r="K999">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L999">
+        <v>3.75</v>
+      </c>
+      <c r="M999">
+        <v>4.333</v>
+      </c>
+      <c r="N999">
+        <v>1.5</v>
+      </c>
+      <c r="O999">
+        <v>4</v>
+      </c>
+      <c r="P999">
+        <v>7.5</v>
+      </c>
+      <c r="Q999">
+        <v>-1</v>
+      </c>
+      <c r="R999">
+        <v>1.75</v>
+      </c>
+      <c r="S999">
+        <v>2.05</v>
+      </c>
+      <c r="T999">
+        <v>2.5</v>
+      </c>
+      <c r="U999">
+        <v>2.05</v>
+      </c>
+      <c r="V999">
+        <v>1.8</v>
+      </c>
+      <c r="W999">
+        <v>-1</v>
+      </c>
+      <c r="X999">
         <v>3</v>
       </c>
-      <c r="M999">
-        <v>2.15</v>
-      </c>
-      <c r="N999">
-        <v>2.25</v>
-      </c>
-      <c r="O999">
-        <v>3.25</v>
-      </c>
-      <c r="P999">
-        <v>3.3</v>
-      </c>
-      <c r="Q999">
-        <v>-0.25</v>
-      </c>
-      <c r="R999">
-        <v>1.925</v>
-      </c>
-      <c r="S999">
-        <v>1.925</v>
-      </c>
-      <c r="T999">
-        <v>2.25</v>
-      </c>
-      <c r="U999">
-        <v>1.95</v>
-      </c>
-      <c r="V999">
-        <v>1.9</v>
-      </c>
-      <c r="W999">
-        <v>-1</v>
-      </c>
-      <c r="X999">
-        <v>2.25</v>
-      </c>
       <c r="Y999">
         <v>-1</v>
       </c>
       <c r="Z999">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA999">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AB999">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC999">
         <v>-1</v>
@@ -89468,7 +89468,7 @@
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>6277415</v>
+        <v>6277677</v>
       </c>
       <c r="C1000" t="s">
         <v>28</v>
@@ -89480,10 +89480,10 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F1000" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1000" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H1000">
         <v>2</v>
@@ -89495,58 +89495,58 @@
         <v>57</v>
       </c>
       <c r="K1000">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L1000">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M1000">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N1000">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O1000">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P1000">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q1000">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1000">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S1000">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T1000">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1000">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V1000">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W1000">
         <v>-1</v>
       </c>
       <c r="X1000">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y1000">
         <v>-1</v>
       </c>
       <c r="Z1000">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1000">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1000">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC1000">
         <v>-1</v>
@@ -89824,7 +89824,7 @@
         <v>1002</v>
       </c>
       <c r="B1004">
-        <v>6277417</v>
+        <v>6851050</v>
       </c>
       <c r="C1004" t="s">
         <v>28</v>
@@ -89836,76 +89836,76 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F1004" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G1004" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1004">
         <v>1</v>
       </c>
       <c r="J1004" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1004">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1004">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M1004">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N1004">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O1004">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P1004">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q1004">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1004">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S1004">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T1004">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1004">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1004">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W1004">
         <v>-1</v>
       </c>
       <c r="X1004">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1004">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1004">
         <v>-1</v>
       </c>
       <c r="AA1004">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB1004">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1004">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1005" spans="1:29">
@@ -89913,7 +89913,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>6851050</v>
+        <v>6277417</v>
       </c>
       <c r="C1005" t="s">
         <v>28</v>
@@ -89925,76 +89925,76 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F1005" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G1005" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1005">
         <v>1</v>
       </c>
       <c r="J1005" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1005">
+        <v>2.4</v>
+      </c>
+      <c r="L1005">
+        <v>3.25</v>
+      </c>
+      <c r="M1005">
+        <v>2.875</v>
+      </c>
+      <c r="N1005">
+        <v>2.9</v>
+      </c>
+      <c r="O1005">
+        <v>3.2</v>
+      </c>
+      <c r="P1005">
+        <v>2.5</v>
+      </c>
+      <c r="Q1005">
+        <v>0</v>
+      </c>
+      <c r="R1005">
+        <v>2.05</v>
+      </c>
+      <c r="S1005">
+        <v>1.8</v>
+      </c>
+      <c r="T1005">
         <v>2.25</v>
       </c>
-      <c r="L1005">
-        <v>3.2</v>
-      </c>
-      <c r="M1005">
-        <v>3.2</v>
-      </c>
-      <c r="N1005">
-        <v>1.75</v>
-      </c>
-      <c r="O1005">
-        <v>3.6</v>
-      </c>
-      <c r="P1005">
-        <v>5</v>
-      </c>
-      <c r="Q1005">
-        <v>-0.75</v>
-      </c>
-      <c r="R1005">
-        <v>2.025</v>
-      </c>
-      <c r="S1005">
-        <v>1.825</v>
-      </c>
-      <c r="T1005">
-        <v>2</v>
-      </c>
       <c r="U1005">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V1005">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W1005">
         <v>-1</v>
       </c>
       <c r="X1005">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1005">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z1005">
         <v>-1</v>
       </c>
       <c r="AA1005">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB1005">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1005">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1006" spans="1:29">
@@ -90002,7 +90002,7 @@
         <v>1004</v>
       </c>
       <c r="B1006">
-        <v>6277418</v>
+        <v>6277953</v>
       </c>
       <c r="C1006" t="s">
         <v>28</v>
@@ -90014,76 +90014,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F1006" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G1006" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H1006">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1006">
         <v>1</v>
       </c>
       <c r="J1006" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1006">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L1006">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M1006">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N1006">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O1006">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P1006">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q1006">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1006">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S1006">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T1006">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1006">
+        <v>2</v>
+      </c>
+      <c r="V1006">
         <v>1.85</v>
       </c>
-      <c r="V1006">
-        <v>2</v>
-      </c>
       <c r="W1006">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X1006">
         <v>-1</v>
       </c>
       <c r="Y1006">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z1006">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA1006">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB1006">
+        <v>-1</v>
+      </c>
+      <c r="AC1006">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC1006">
-        <v>-1</v>
       </c>
     </row>
     <row r="1007" spans="1:29">
@@ -90091,7 +90091,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>6277953</v>
+        <v>6277418</v>
       </c>
       <c r="C1007" t="s">
         <v>28</v>
@@ -90103,76 +90103,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F1007" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G1007" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1007">
         <v>1</v>
       </c>
       <c r="J1007" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1007">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L1007">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M1007">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="N1007">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O1007">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P1007">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q1007">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1007">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S1007">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T1007">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1007">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V1007">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W1007">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X1007">
         <v>-1</v>
       </c>
       <c r="Y1007">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1007">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA1007">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB1007">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1007">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1008" spans="1:29">
@@ -90536,7 +90536,7 @@
         <v>1010</v>
       </c>
       <c r="B1012">
-        <v>6277307</v>
+        <v>6277678</v>
       </c>
       <c r="C1012" t="s">
         <v>28</v>
@@ -90548,19 +90548,19 @@
         <v>45116.77083333334</v>
       </c>
       <c r="F1012" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G1012" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1012">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1012" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1012">
         <v>2.1</v>
@@ -90572,52 +90572,52 @@
         <v>3.4</v>
       </c>
       <c r="N1012">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O1012">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P1012">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q1012">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R1012">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S1012">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T1012">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1012">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V1012">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W1012">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X1012">
         <v>-1</v>
       </c>
       <c r="Y1012">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1012">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1012">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB1012">
         <v>-1</v>
       </c>
       <c r="AC1012">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:29">
@@ -90625,7 +90625,7 @@
         <v>1011</v>
       </c>
       <c r="B1013">
-        <v>6277678</v>
+        <v>6277307</v>
       </c>
       <c r="C1013" t="s">
         <v>28</v>
@@ -90637,19 +90637,19 @@
         <v>45116.77083333334</v>
       </c>
       <c r="F1013" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G1013" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H1013">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1013">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1013" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1013">
         <v>2.1</v>
@@ -90661,52 +90661,52 @@
         <v>3.4</v>
       </c>
       <c r="N1013">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O1013">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P1013">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q1013">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R1013">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S1013">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T1013">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1013">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V1013">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W1013">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1013">
         <v>-1</v>
       </c>
       <c r="Y1013">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z1013">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1013">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB1013">
         <v>-1</v>
       </c>
       <c r="AC1013">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1014" spans="1:29">
@@ -90892,7 +90892,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>6278728</v>
+        <v>6277879</v>
       </c>
       <c r="C1016" t="s">
         <v>28</v>
@@ -90904,76 +90904,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F1016" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G1016" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H1016">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I1016">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1016" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1016">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L1016">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M1016">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N1016">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O1016">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P1016">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q1016">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1016">
+        <v>2</v>
+      </c>
+      <c r="S1016">
         <v>1.85</v>
       </c>
-      <c r="S1016">
+      <c r="T1016">
+        <v>2.25</v>
+      </c>
+      <c r="U1016">
+        <v>1.8</v>
+      </c>
+      <c r="V1016">
         <v>2.05</v>
       </c>
-      <c r="T1016">
-        <v>2</v>
-      </c>
-      <c r="U1016">
-        <v>1.875</v>
-      </c>
-      <c r="V1016">
-        <v>1.975</v>
-      </c>
       <c r="W1016">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X1016">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y1016">
         <v>-1</v>
       </c>
       <c r="Z1016">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA1016">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1016">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1016">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1017" spans="1:29">
@@ -90981,7 +90981,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>6277722</v>
+        <v>6278728</v>
       </c>
       <c r="C1017" t="s">
         <v>28</v>
@@ -90993,76 +90993,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F1017" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1017" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I1017">
         <v>1</v>
       </c>
       <c r="J1017" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1017">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L1017">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M1017">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N1017">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O1017">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P1017">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q1017">
         <v>-0.75</v>
       </c>
       <c r="R1017">
+        <v>1.85</v>
+      </c>
+      <c r="S1017">
         <v>2.05</v>
       </c>
-      <c r="S1017">
-        <v>1.8</v>
-      </c>
       <c r="T1017">
         <v>2</v>
       </c>
       <c r="U1017">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V1017">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W1017">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X1017">
         <v>-1</v>
       </c>
       <c r="Y1017">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1017">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1017">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1017">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1017">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1018" spans="1:29">
@@ -91070,7 +91070,7 @@
         <v>1016</v>
       </c>
       <c r="B1018">
-        <v>6277879</v>
+        <v>6277722</v>
       </c>
       <c r="C1018" t="s">
         <v>28</v>
@@ -91082,52 +91082,52 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F1018" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G1018" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H1018">
         <v>0</v>
       </c>
       <c r="I1018">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1018" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1018">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L1018">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M1018">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="N1018">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O1018">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P1018">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q1018">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1018">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S1018">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T1018">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1018">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V1018">
         <v>2.05</v>
@@ -91136,16 +91136,16 @@
         <v>-1</v>
       </c>
       <c r="X1018">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y1018">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z1018">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1018">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB1018">
         <v>-1</v>
@@ -91159,7 +91159,7 @@
         <v>1017</v>
       </c>
       <c r="B1019">
-        <v>6278729</v>
+        <v>6277679</v>
       </c>
       <c r="C1019" t="s">
         <v>28</v>
@@ -91171,76 +91171,76 @@
         <v>45123.77083333334</v>
       </c>
       <c r="F1019" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G1019" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019">
         <v>0</v>
       </c>
       <c r="J1019" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1019">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L1019">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M1019">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N1019">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O1019">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P1019">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q1019">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R1019">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="S1019">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="T1019">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U1019">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V1019">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W1019">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X1019">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1019">
         <v>-1</v>
       </c>
       <c r="Z1019">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AA1019">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1019">
         <v>-1</v>
       </c>
       <c r="AC1019">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="1020" spans="1:29">
@@ -91248,7 +91248,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>6277679</v>
+        <v>6278729</v>
       </c>
       <c r="C1020" t="s">
         <v>28</v>
@@ -91260,76 +91260,76 @@
         <v>45123.77083333334</v>
       </c>
       <c r="F1020" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G1020" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020">
         <v>0</v>
       </c>
       <c r="J1020" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1020">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L1020">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M1020">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N1020">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O1020">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P1020">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q1020">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1020">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="S1020">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="T1020">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1020">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V1020">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="W1020">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X1020">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1020">
         <v>-1</v>
       </c>
       <c r="Z1020">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AA1020">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1020">
         <v>-1</v>
       </c>
       <c r="AC1020">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="1021" spans="1:29">
@@ -91426,7 +91426,7 @@
         <v>1020</v>
       </c>
       <c r="B1022">
-        <v>6277421</v>
+        <v>6278693</v>
       </c>
       <c r="C1022" t="s">
         <v>28</v>
@@ -91438,76 +91438,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F1022" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G1022" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H1022">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1022">
         <v>1</v>
       </c>
       <c r="J1022" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1022">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L1022">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M1022">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1022">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O1022">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P1022">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q1022">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R1022">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S1022">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T1022">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1022">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V1022">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W1022">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X1022">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y1022">
         <v>-1</v>
       </c>
       <c r="Z1022">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA1022">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1022">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1022">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1023" spans="1:29">
@@ -91515,7 +91515,7 @@
         <v>1021</v>
       </c>
       <c r="B1023">
-        <v>6278693</v>
+        <v>6277421</v>
       </c>
       <c r="C1023" t="s">
         <v>28</v>
@@ -91527,76 +91527,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F1023" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G1023" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H1023">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1023">
         <v>1</v>
       </c>
       <c r="J1023" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1023">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L1023">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M1023">
+        <v>8</v>
+      </c>
+      <c r="N1023">
+        <v>1.333</v>
+      </c>
+      <c r="O1023">
         <v>5</v>
       </c>
-      <c r="N1023">
-        <v>1.55</v>
-      </c>
-      <c r="O1023">
+      <c r="P1023">
+        <v>8.5</v>
+      </c>
+      <c r="Q1023">
+        <v>-1.5</v>
+      </c>
+      <c r="R1023">
+        <v>2.05</v>
+      </c>
+      <c r="S1023">
+        <v>1.8</v>
+      </c>
+      <c r="T1023">
+        <v>2.75</v>
+      </c>
+      <c r="U1023">
+        <v>1.825</v>
+      </c>
+      <c r="V1023">
+        <v>2.025</v>
+      </c>
+      <c r="W1023">
+        <v>-1</v>
+      </c>
+      <c r="X1023">
         <v>4</v>
       </c>
-      <c r="P1023">
-        <v>6.5</v>
-      </c>
-      <c r="Q1023">
-        <v>-1</v>
-      </c>
-      <c r="R1023">
-        <v>1.925</v>
-      </c>
-      <c r="S1023">
-        <v>1.925</v>
-      </c>
-      <c r="T1023">
-        <v>2.5</v>
-      </c>
-      <c r="U1023">
-        <v>1.975</v>
-      </c>
-      <c r="V1023">
-        <v>1.875</v>
-      </c>
-      <c r="W1023">
-        <v>0.55</v>
-      </c>
-      <c r="X1023">
-        <v>-1</v>
-      </c>
       <c r="Y1023">
         <v>-1</v>
       </c>
       <c r="Z1023">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA1023">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1023">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1023">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1024" spans="1:29">
@@ -91871,7 +91871,7 @@
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>6277881</v>
+        <v>6278730</v>
       </c>
       <c r="C1027" t="s">
         <v>28</v>
@@ -91883,76 +91883,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F1027" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G1027" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1027" t="s">
         <v>57</v>
       </c>
       <c r="K1027">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L1027">
+        <v>3.25</v>
+      </c>
+      <c r="M1027">
         <v>3.1</v>
       </c>
-      <c r="M1027">
-        <v>2.55</v>
-      </c>
       <c r="N1027">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O1027">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P1027">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q1027">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1027">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="S1027">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="T1027">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1027">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V1027">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W1027">
         <v>-1</v>
       </c>
       <c r="X1027">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y1027">
         <v>-1</v>
       </c>
       <c r="Z1027">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1027">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1027">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC1027">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1028" spans="1:29">
@@ -91960,7 +91960,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>6278730</v>
+        <v>6277881</v>
       </c>
       <c r="C1028" t="s">
         <v>28</v>
@@ -91972,76 +91972,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F1028" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G1028" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1028" t="s">
         <v>57</v>
       </c>
       <c r="K1028">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L1028">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M1028">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N1028">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O1028">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P1028">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q1028">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1028">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="S1028">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="T1028">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1028">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V1028">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W1028">
         <v>-1</v>
       </c>
       <c r="X1028">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y1028">
         <v>-1</v>
       </c>
       <c r="Z1028">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1028">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB1028">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC1028">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1029" spans="1:29">
@@ -93740,7 +93740,7 @@
         <v>1046</v>
       </c>
       <c r="B1048">
-        <v>6277425</v>
+        <v>6277684</v>
       </c>
       <c r="C1048" t="s">
         <v>28</v>
@@ -93752,76 +93752,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F1048" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G1048" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1048">
         <v>0</v>
       </c>
       <c r="I1048">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1048" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1048">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L1048">
         <v>3.2</v>
       </c>
       <c r="M1048">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N1048">
+        <v>3.3</v>
+      </c>
+      <c r="O1048">
+        <v>3.3</v>
+      </c>
+      <c r="P1048">
+        <v>2.2</v>
+      </c>
+      <c r="Q1048">
+        <v>0.25</v>
+      </c>
+      <c r="R1048">
+        <v>2</v>
+      </c>
+      <c r="S1048">
+        <v>1.9</v>
+      </c>
+      <c r="T1048">
         <v>2.25</v>
       </c>
-      <c r="O1048">
-        <v>3.2</v>
-      </c>
-      <c r="P1048">
-        <v>3.3</v>
-      </c>
-      <c r="Q1048">
-        <v>-0.25</v>
-      </c>
-      <c r="R1048">
-        <v>1.975</v>
-      </c>
-      <c r="S1048">
-        <v>1.875</v>
-      </c>
-      <c r="T1048">
-        <v>2</v>
-      </c>
       <c r="U1048">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="V1048">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="W1048">
         <v>-1</v>
       </c>
       <c r="X1048">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1048">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z1048">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1048">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1048">
         <v>-1</v>
       </c>
       <c r="AC1048">
-        <v>1.05</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="1049" spans="1:29">
@@ -93829,7 +93829,7 @@
         <v>1047</v>
       </c>
       <c r="B1049">
-        <v>6277684</v>
+        <v>6277426</v>
       </c>
       <c r="C1049" t="s">
         <v>28</v>
@@ -93841,76 +93841,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F1049" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G1049" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1049">
         <v>1</v>
       </c>
       <c r="J1049" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1049">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L1049">
+        <v>3.25</v>
+      </c>
+      <c r="M1049">
         <v>3.2</v>
       </c>
-      <c r="M1049">
-        <v>2.3</v>
-      </c>
       <c r="N1049">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O1049">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P1049">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q1049">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1049">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S1049">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T1049">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1049">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="V1049">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="W1049">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1049">
         <v>-1</v>
       </c>
       <c r="Y1049">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z1049">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1049">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1049">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC1049">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1050" spans="1:29">
@@ -93918,7 +93918,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6277426</v>
+        <v>6277425</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93930,76 +93930,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F1050" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G1050" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H1050">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1050">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1050" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1050">
+        <v>2.25</v>
+      </c>
+      <c r="L1050">
+        <v>3.2</v>
+      </c>
+      <c r="M1050">
+        <v>3.1</v>
+      </c>
+      <c r="N1050">
+        <v>2.25</v>
+      </c>
+      <c r="O1050">
+        <v>3.2</v>
+      </c>
+      <c r="P1050">
+        <v>3.3</v>
+      </c>
+      <c r="Q1050">
+        <v>-0.25</v>
+      </c>
+      <c r="R1050">
+        <v>1.975</v>
+      </c>
+      <c r="S1050">
+        <v>1.875</v>
+      </c>
+      <c r="T1050">
+        <v>2</v>
+      </c>
+      <c r="U1050">
+        <v>1.8</v>
+      </c>
+      <c r="V1050">
+        <v>2.05</v>
+      </c>
+      <c r="W1050">
+        <v>-1</v>
+      </c>
+      <c r="X1050">
         <v>2.2</v>
       </c>
-      <c r="L1050">
-        <v>3.25</v>
-      </c>
-      <c r="M1050">
-        <v>3.2</v>
-      </c>
-      <c r="N1050">
-        <v>1.909</v>
-      </c>
-      <c r="O1050">
-        <v>3.6</v>
-      </c>
-      <c r="P1050">
-        <v>4</v>
-      </c>
-      <c r="Q1050">
+      <c r="Y1050">
+        <v>-1</v>
+      </c>
+      <c r="Z1050">
         <v>-0.5</v>
       </c>
-      <c r="R1050">
-        <v>1.85</v>
-      </c>
-      <c r="S1050">
-        <v>2</v>
-      </c>
-      <c r="T1050">
-        <v>2.5</v>
-      </c>
-      <c r="U1050">
-        <v>1.875</v>
-      </c>
-      <c r="V1050">
-        <v>1.975</v>
-      </c>
-      <c r="W1050">
-        <v>0.909</v>
-      </c>
-      <c r="X1050">
-        <v>-1</v>
-      </c>
-      <c r="Y1050">
-        <v>-1</v>
-      </c>
-      <c r="Z1050">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA1050">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB1050">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94986,7 +94986,7 @@
         <v>1060</v>
       </c>
       <c r="B1062">
-        <v>6277890</v>
+        <v>6278696</v>
       </c>
       <c r="C1062" t="s">
         <v>28</v>
@@ -94998,76 +94998,76 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F1062" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1062" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H1062">
         <v>0</v>
       </c>
       <c r="I1062">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1062" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1062">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L1062">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M1062">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N1062">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O1062">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P1062">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q1062">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1062">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S1062">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T1062">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1062">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V1062">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W1062">
         <v>-1</v>
       </c>
       <c r="X1062">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1062">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z1062">
         <v>-1</v>
       </c>
       <c r="AA1062">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB1062">
         <v>-1</v>
       </c>
       <c r="AC1062">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="1063" spans="1:29">
@@ -95075,7 +95075,7 @@
         <v>1061</v>
       </c>
       <c r="B1063">
-        <v>6278696</v>
+        <v>6277890</v>
       </c>
       <c r="C1063" t="s">
         <v>28</v>
@@ -95087,76 +95087,76 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F1063" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1063" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H1063">
         <v>0</v>
       </c>
       <c r="I1063">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1063" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1063">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L1063">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1063">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N1063">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O1063">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P1063">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q1063">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1063">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S1063">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T1063">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1063">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V1063">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W1063">
         <v>-1</v>
       </c>
       <c r="X1063">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1063">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z1063">
         <v>-1</v>
       </c>
       <c r="AA1063">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB1063">
         <v>-1</v>
       </c>
       <c r="AC1063">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1064" spans="1:29">
@@ -98813,7 +98813,7 @@
         <v>1103</v>
       </c>
       <c r="B1105">
-        <v>6277436</v>
+        <v>6278698</v>
       </c>
       <c r="C1105" t="s">
         <v>28</v>
@@ -98825,76 +98825,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F1105" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G1105" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H1105">
         <v>1</v>
       </c>
       <c r="I1105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1105">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L1105">
+        <v>3.4</v>
+      </c>
+      <c r="M1105">
         <v>3.5</v>
       </c>
-      <c r="M1105">
-        <v>4.5</v>
-      </c>
       <c r="N1105">
+        <v>2.375</v>
+      </c>
+      <c r="O1105">
+        <v>3.2</v>
+      </c>
+      <c r="P1105">
+        <v>3.1</v>
+      </c>
+      <c r="Q1105">
+        <v>-0.25</v>
+      </c>
+      <c r="R1105">
+        <v>2</v>
+      </c>
+      <c r="S1105">
         <v>1.85</v>
-      </c>
-      <c r="O1105">
-        <v>3.3</v>
-      </c>
-      <c r="P1105">
-        <v>4.5</v>
-      </c>
-      <c r="Q1105">
-        <v>-0.75</v>
-      </c>
-      <c r="R1105">
-        <v>2.025</v>
-      </c>
-      <c r="S1105">
-        <v>1.825</v>
       </c>
       <c r="T1105">
         <v>2.25</v>
       </c>
       <c r="U1105">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V1105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W1105">
+        <v>-1</v>
+      </c>
+      <c r="X1105">
+        <v>-1</v>
+      </c>
+      <c r="Y1105">
+        <v>2.1</v>
+      </c>
+      <c r="Z1105">
+        <v>-1</v>
+      </c>
+      <c r="AA1105">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X1105">
-        <v>-1</v>
-      </c>
-      <c r="Y1105">
-        <v>-1</v>
-      </c>
-      <c r="Z1105">
-        <v>0.5125</v>
-      </c>
-      <c r="AA1105">
-        <v>-0.5</v>
-      </c>
       <c r="AB1105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC1105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1106" spans="1:29">
@@ -98902,7 +98902,7 @@
         <v>1104</v>
       </c>
       <c r="B1106">
-        <v>6278698</v>
+        <v>6277436</v>
       </c>
       <c r="C1106" t="s">
         <v>28</v>
@@ -98914,76 +98914,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F1106" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G1106" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1106">
         <v>1</v>
       </c>
       <c r="I1106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1106">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L1106">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1106">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N1106">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O1106">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P1106">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q1106">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S1106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T1106">
         <v>2.25</v>
       </c>
       <c r="U1106">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V1106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W1106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X1106">
         <v>-1</v>
       </c>
       <c r="Y1106">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1106">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA1106">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1106">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC1106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1107" spans="1:29">
@@ -99614,7 +99614,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>6295861</v>
+        <v>6277318</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99626,61 +99626,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F1114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G1114" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1114">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L1114">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M1114">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N1114">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O1114">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P1114">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q1114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1114">
+        <v>1.825</v>
+      </c>
+      <c r="S1114">
+        <v>2.025</v>
+      </c>
+      <c r="T1114">
+        <v>2.25</v>
+      </c>
+      <c r="U1114">
         <v>1.875</v>
       </c>
-      <c r="S1114">
+      <c r="V1114">
         <v>1.975</v>
       </c>
-      <c r="T1114">
-        <v>2.75</v>
-      </c>
-      <c r="U1114">
-        <v>2.025</v>
-      </c>
-      <c r="V1114">
-        <v>1.825</v>
-      </c>
       <c r="W1114">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1114">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1114">
         <v>-1</v>
@@ -99692,10 +99692,10 @@
         <v>-0</v>
       </c>
       <c r="AB1114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1114">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="1115" spans="1:29">
@@ -99703,7 +99703,7 @@
         <v>1113</v>
       </c>
       <c r="B1115">
-        <v>6277318</v>
+        <v>6295861</v>
       </c>
       <c r="C1115" t="s">
         <v>28</v>
@@ -99715,61 +99715,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F1115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G1115" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H1115">
         <v>1</v>
       </c>
       <c r="I1115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1115">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L1115">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M1115">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N1115">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O1115">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P1115">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q1115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R1115">
+        <v>1.875</v>
+      </c>
+      <c r="S1115">
+        <v>1.975</v>
+      </c>
+      <c r="T1115">
+        <v>2.75</v>
+      </c>
+      <c r="U1115">
+        <v>2.025</v>
+      </c>
+      <c r="V1115">
         <v>1.825</v>
       </c>
-      <c r="S1115">
-        <v>2.025</v>
-      </c>
-      <c r="T1115">
-        <v>2.25</v>
-      </c>
-      <c r="U1115">
-        <v>1.875</v>
-      </c>
-      <c r="V1115">
-        <v>1.975</v>
-      </c>
       <c r="W1115">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X1115">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1115">
         <v>-1</v>
@@ -99781,10 +99781,10 @@
         <v>-0</v>
       </c>
       <c r="AB1115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1115">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1116" spans="1:29">
@@ -101661,7 +101661,7 @@
         <v>1135</v>
       </c>
       <c r="B1137">
-        <v>6281058</v>
+        <v>6277482</v>
       </c>
       <c r="C1137" t="s">
         <v>28</v>
@@ -101673,13 +101673,13 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F1137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1137">
         <v>0</v>
@@ -101688,43 +101688,43 @@
         <v>56</v>
       </c>
       <c r="K1137">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L1137">
         <v>3</v>
       </c>
       <c r="M1137">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N1137">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O1137">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P1137">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q1137">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1137">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S1137">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T1137">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1137">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V1137">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W1137">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="X1137">
         <v>-1</v>
@@ -101733,16 +101733,16 @@
         <v>-1</v>
       </c>
       <c r="Z1137">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA1137">
         <v>-1</v>
       </c>
       <c r="AB1137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1137">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1138" spans="1:29">
@@ -101750,7 +101750,7 @@
         <v>1136</v>
       </c>
       <c r="B1138">
-        <v>6277482</v>
+        <v>6319573</v>
       </c>
       <c r="C1138" t="s">
         <v>28</v>
@@ -101762,13 +101762,13 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F1138" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G1138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1138">
         <v>0</v>
@@ -101777,25 +101777,25 @@
         <v>56</v>
       </c>
       <c r="K1138">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L1138">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M1138">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N1138">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O1138">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P1138">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q1138">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1138">
         <v>1.925</v>
@@ -101804,16 +101804,16 @@
         <v>1.925</v>
       </c>
       <c r="T1138">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1138">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V1138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W1138">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="X1138">
         <v>-1</v>
@@ -101828,10 +101828,10 @@
         <v>-1</v>
       </c>
       <c r="AB1138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1138">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1139" spans="1:29">
@@ -101839,7 +101839,7 @@
         <v>1137</v>
       </c>
       <c r="B1139">
-        <v>6319573</v>
+        <v>6281058</v>
       </c>
       <c r="C1139" t="s">
         <v>28</v>
@@ -101851,10 +101851,10 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F1139" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G1139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1139">
         <v>1</v>
@@ -101866,43 +101866,43 @@
         <v>56</v>
       </c>
       <c r="K1139">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L1139">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M1139">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N1139">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O1139">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P1139">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q1139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1139">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S1139">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T1139">
         <v>2.25</v>
       </c>
       <c r="U1139">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V1139">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W1139">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X1139">
         <v>-1</v>
@@ -101911,16 +101911,16 @@
         <v>-1</v>
       </c>
       <c r="Z1139">
+        <v>1.05</v>
+      </c>
+      <c r="AA1139">
+        <v>-1</v>
+      </c>
+      <c r="AB1139">
+        <v>-1</v>
+      </c>
+      <c r="AC1139">
         <v>0.925</v>
-      </c>
-      <c r="AA1139">
-        <v>-1</v>
-      </c>
-      <c r="AB1139">
-        <v>-1</v>
-      </c>
-      <c r="AC1139">
-        <v>0.825</v>
       </c>
     </row>
     <row r="1140" spans="1:29">
@@ -102907,7 +102907,7 @@
         <v>1149</v>
       </c>
       <c r="B1151">
-        <v>6301327</v>
+        <v>7323303</v>
       </c>
       <c r="C1151" t="s">
         <v>28</v>
@@ -102919,76 +102919,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F1151" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G1151" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1151" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1151">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="L1151">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M1151">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="N1151">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="O1151">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P1151">
+        <v>3.8</v>
+      </c>
+      <c r="Q1151">
+        <v>-0.5</v>
+      </c>
+      <c r="R1151">
+        <v>2.05</v>
+      </c>
+      <c r="S1151">
         <v>1.8</v>
-      </c>
-      <c r="Q1151">
-        <v>0.75</v>
-      </c>
-      <c r="R1151">
-        <v>1.825</v>
-      </c>
-      <c r="S1151">
-        <v>2.025</v>
       </c>
       <c r="T1151">
         <v>2.25</v>
       </c>
       <c r="U1151">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V1151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W1151">
         <v>-1</v>
       </c>
       <c r="X1151">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1151">
+        <v>-1</v>
+      </c>
+      <c r="Z1151">
+        <v>-1</v>
+      </c>
+      <c r="AA1151">
         <v>0.8</v>
-      </c>
-      <c r="Z1151">
-        <v>-1</v>
-      </c>
-      <c r="AA1151">
-        <v>1.025</v>
       </c>
       <c r="AB1151">
         <v>-0.5</v>
       </c>
       <c r="AC1151">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1152" spans="1:29">
@@ -102996,7 +102996,7 @@
         <v>1150</v>
       </c>
       <c r="B1152">
-        <v>7323303</v>
+        <v>6327088</v>
       </c>
       <c r="C1152" t="s">
         <v>28</v>
@@ -103008,49 +103008,49 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F1152" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G1152" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H1152">
         <v>1</v>
       </c>
       <c r="I1152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1152">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L1152">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1152">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N1152">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O1152">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P1152">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q1152">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1152">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S1152">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T1152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1152">
         <v>1.85</v>
@@ -103059,25 +103059,25 @@
         <v>2</v>
       </c>
       <c r="W1152">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X1152">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1152">
         <v>-1</v>
       </c>
       <c r="Z1152">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA1152">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1152">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:29">
@@ -103085,7 +103085,7 @@
         <v>1151</v>
       </c>
       <c r="B1153">
-        <v>6327088</v>
+        <v>6301327</v>
       </c>
       <c r="C1153" t="s">
         <v>28</v>
@@ -103097,76 +103097,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F1153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1153">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L1153">
+        <v>3.5</v>
+      </c>
+      <c r="M1153">
+        <v>1.833</v>
+      </c>
+      <c r="N1153">
+        <v>5</v>
+      </c>
+      <c r="O1153">
         <v>3.4</v>
       </c>
-      <c r="M1153">
-        <v>4</v>
-      </c>
-      <c r="N1153">
-        <v>1.75</v>
-      </c>
-      <c r="O1153">
-        <v>3.8</v>
-      </c>
       <c r="P1153">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q1153">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R1153">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S1153">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T1153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1153">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V1153">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W1153">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X1153">
         <v>-1</v>
       </c>
       <c r="Y1153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z1153">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA1153">
+        <v>1.025</v>
+      </c>
+      <c r="AB1153">
         <v>-0.5</v>
       </c>
-      <c r="AB1153">
-        <v>-1</v>
-      </c>
       <c r="AC1153">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="1154" spans="1:29">
@@ -103174,7 +103174,7 @@
         <v>1152</v>
       </c>
       <c r="B1154">
-        <v>6280312</v>
+        <v>6343770</v>
       </c>
       <c r="C1154" t="s">
         <v>28</v>
@@ -103186,49 +103186,49 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F1154" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G1154" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H1154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1154">
         <v>2</v>
       </c>
       <c r="J1154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1154">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L1154">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1154">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N1154">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O1154">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P1154">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q1154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R1154">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S1154">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T1154">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1154">
         <v>2.025</v>
@@ -103237,19 +103237,19 @@
         <v>1.825</v>
       </c>
       <c r="W1154">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X1154">
         <v>-1</v>
       </c>
       <c r="Y1154">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z1154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1154">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB1154">
         <v>1.025</v>
@@ -103352,7 +103352,7 @@
         <v>1154</v>
       </c>
       <c r="B1156">
-        <v>6343770</v>
+        <v>6280312</v>
       </c>
       <c r="C1156" t="s">
         <v>28</v>
@@ -103364,49 +103364,49 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F1156" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G1156" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1156">
         <v>2</v>
       </c>
       <c r="J1156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1156">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L1156">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M1156">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N1156">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O1156">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P1156">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q1156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R1156">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S1156">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T1156">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1156">
         <v>2.025</v>
@@ -103415,19 +103415,19 @@
         <v>1.825</v>
       </c>
       <c r="W1156">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X1156">
         <v>-1</v>
       </c>
       <c r="Y1156">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z1156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB1156">
         <v>1.025</v>
@@ -104420,7 +104420,7 @@
         <v>1166</v>
       </c>
       <c r="B1168">
-        <v>7370710</v>
+        <v>6330706</v>
       </c>
       <c r="C1168" t="s">
         <v>28</v>
@@ -104432,76 +104432,76 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F1168" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1168" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H1168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1168" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1168">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L1168">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M1168">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N1168">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O1168">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P1168">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q1168">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1168">
+        <v>1.925</v>
+      </c>
+      <c r="S1168">
+        <v>1.925</v>
+      </c>
+      <c r="T1168">
+        <v>2.5</v>
+      </c>
+      <c r="U1168">
         <v>1.825</v>
       </c>
-      <c r="S1168">
+      <c r="V1168">
         <v>2.025</v>
       </c>
-      <c r="T1168">
-        <v>2.25</v>
-      </c>
-      <c r="U1168">
-        <v>2</v>
-      </c>
-      <c r="V1168">
-        <v>1.85</v>
-      </c>
       <c r="W1168">
         <v>-1</v>
       </c>
       <c r="X1168">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1168">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z1168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1168">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AB1168">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC1168">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1169" spans="1:29">
@@ -104509,7 +104509,7 @@
         <v>1167</v>
       </c>
       <c r="B1169">
-        <v>6330706</v>
+        <v>7370710</v>
       </c>
       <c r="C1169" t="s">
         <v>28</v>
@@ -104521,76 +104521,76 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F1169" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1169" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H1169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1169" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1169">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L1169">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M1169">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N1169">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O1169">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P1169">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q1169">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1169">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S1169">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T1169">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1169">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V1169">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W1169">
         <v>-1</v>
       </c>
       <c r="X1169">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y1169">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1169">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AB1169">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1169">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1170" spans="1:29">
@@ -105132,7 +105132,7 @@
         <v>1174</v>
       </c>
       <c r="B1176">
-        <v>6648764</v>
+        <v>6649149</v>
       </c>
       <c r="C1176" t="s">
         <v>28</v>
@@ -105144,73 +105144,73 @@
         <v>45231.89583333334</v>
       </c>
       <c r="F1176" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G1176" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H1176">
         <v>3</v>
       </c>
       <c r="I1176">
+        <v>1</v>
+      </c>
+      <c r="J1176" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1176">
+        <v>1.65</v>
+      </c>
+      <c r="L1176">
         <v>4</v>
       </c>
-      <c r="J1176" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1176">
-        <v>2.5</v>
-      </c>
-      <c r="L1176">
-        <v>3.3</v>
-      </c>
       <c r="M1176">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N1176">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O1176">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P1176">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q1176">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1176">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S1176">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T1176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1176">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V1176">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W1176">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X1176">
         <v>-1</v>
       </c>
       <c r="Y1176">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1176">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1176">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AC1176">
         <v>-1</v>
@@ -105221,7 +105221,7 @@
         <v>1175</v>
       </c>
       <c r="B1177">
-        <v>6649149</v>
+        <v>6648764</v>
       </c>
       <c r="C1177" t="s">
         <v>28</v>
@@ -105233,73 +105233,73 @@
         <v>45231.89583333334</v>
       </c>
       <c r="F1177" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G1177" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H1177">
         <v>3</v>
       </c>
       <c r="I1177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1177">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L1177">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M1177">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N1177">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O1177">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1177">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q1177">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1177">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S1177">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T1177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1177">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V1177">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W1177">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X1177">
         <v>-1</v>
       </c>
       <c r="Y1177">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z1177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1177">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1177">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AC1177">
         <v>-1</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -109,10 +109,10 @@
     <t>Palmeiras</t>
   </si>
   <si>
-    <t>Athletico Paranaense</t>
+    <t>Bragantino</t>
   </si>
   <si>
-    <t>Bragantino</t>
+    <t>Athletico Paranaense</t>
   </si>
   <si>
     <t>Botafogo</t>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6277459</v>
+        <v>6277910</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,37 +821,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
         <v>1.825</v>
@@ -860,16 +860,16 @@
         <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.6000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -884,10 +884,10 @@
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6277910</v>
+        <v>6277459</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,37 +910,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>50</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N5">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
         <v>1.825</v>
@@ -949,16 +949,16 @@
         <v>2.025</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W5">
-        <v>0.8500000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -973,10 +973,10 @@
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6278717</v>
+        <v>6277397</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,58 +2598,58 @@
         <v>45045.77083333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>50</v>
       </c>
       <c r="K24">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L24">
+        <v>3.2</v>
+      </c>
+      <c r="M24">
         <v>3.4</v>
       </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
       <c r="N24">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
         <v>1.85</v>
       </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2658,13 +2658,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2687,7 +2687,7 @@
         <v>45045.77083333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6277397</v>
+        <v>6278717</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,58 +2776,58 @@
         <v>45045.77083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>50</v>
       </c>
       <c r="K26">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2836,13 +2836,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2868,7 +2868,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6277296</v>
+        <v>6277461</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N29">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6277461</v>
+        <v>6277296</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N30">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z30">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3666,7 +3666,7 @@
         <v>45053.66666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3847,7 +3847,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6277462</v>
+        <v>6277856</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,49 +3933,49 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>2</v>
@@ -3984,25 +3984,25 @@
         <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6277856</v>
+        <v>6277462</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,49 +4022,49 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N40">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
         <v>2</v>
@@ -4073,25 +4073,25 @@
         <v>1.85</v>
       </c>
       <c r="W40">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4203,7 +4203,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>45056.79166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6277402</v>
+        <v>6277298</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,76 +4645,76 @@
         <v>45056.89583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L47">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N47">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O47">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6277298</v>
+        <v>6277402</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,76 +4734,76 @@
         <v>45056.89583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L48">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M48">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N48">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P48">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5271,7 +5271,7 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5891,7 +5891,7 @@
         <v>45060.77083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6277668</v>
+        <v>6277405</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,59 +6158,59 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>50</v>
       </c>
       <c r="K64">
+        <v>2.5</v>
+      </c>
+      <c r="L64">
+        <v>3.4</v>
+      </c>
+      <c r="M64">
+        <v>2.55</v>
+      </c>
+      <c r="N64">
+        <v>2.875</v>
+      </c>
+      <c r="O64">
+        <v>3.3</v>
+      </c>
+      <c r="P64">
         <v>2.375</v>
       </c>
-      <c r="L64">
-        <v>3.2</v>
-      </c>
-      <c r="M64">
-        <v>2.875</v>
-      </c>
-      <c r="N64">
-        <v>1.833</v>
-      </c>
-      <c r="O64">
-        <v>3.6</v>
-      </c>
-      <c r="P64">
-        <v>4.2</v>
-      </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
+        <v>1.95</v>
+      </c>
+      <c r="W64">
         <v>1.875</v>
       </c>
-      <c r="W64">
-        <v>0.833</v>
-      </c>
       <c r="X64">
         <v>-1</v>
       </c>
@@ -6218,16 +6218,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6277861</v>
+        <v>6277668</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,13 +6247,13 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6262,43 +6262,43 @@
         <v>50</v>
       </c>
       <c r="K65">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N65">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>1.75</v>
+        <v>0.833</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6307,7 +6307,7 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6316,7 +6316,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6277405</v>
+        <v>6277861</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,58 +6336,58 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>50</v>
       </c>
       <c r="K66">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M66">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N66">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W66">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6396,16 +6396,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6870,7 +6870,7 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>38</v>
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6277912</v>
+        <v>6277863</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,10 +7315,10 @@
         <v>45074.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7330,43 +7330,43 @@
         <v>50</v>
       </c>
       <c r="K77">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M77">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N77">
+        <v>2.625</v>
+      </c>
+      <c r="O77">
+        <v>3.2</v>
+      </c>
+      <c r="P77">
+        <v>2.7</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>1.9</v>
+      </c>
+      <c r="S77">
+        <v>1.95</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
         <v>2.05</v>
       </c>
-      <c r="O77">
-        <v>3.6</v>
-      </c>
-      <c r="P77">
-        <v>3.5</v>
-      </c>
-      <c r="Q77">
-        <v>-0.25</v>
-      </c>
-      <c r="R77">
+      <c r="V77">
         <v>1.8</v>
       </c>
-      <c r="S77">
-        <v>2.05</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>2</v>
-      </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
-        <v>1.05</v>
+        <v>1.625</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7375,16 +7375,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6277863</v>
+        <v>6277912</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,10 +7404,10 @@
         <v>45074.66666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7419,43 +7419,43 @@
         <v>50</v>
       </c>
       <c r="K78">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N78">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O78">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>1.625</v>
+        <v>1.05</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7464,16 +7464,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>45074.77083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>45</v>
@@ -7849,7 +7849,7 @@
         <v>45080.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>33</v>
@@ -8297,7 +8297,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6277671</v>
+        <v>6277467</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,76 +8383,76 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="N89">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="O89">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="Q89">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6277467</v>
+        <v>6277671</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M90">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="N90">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O90">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P90">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R90">
+        <v>1.875</v>
+      </c>
+      <c r="S90">
+        <v>1.975</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
         <v>1.925</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.925</v>
       </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>2</v>
-      </c>
-      <c r="V90">
-        <v>1.85</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>0.925</v>
       </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8831,7 +8831,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9098,7 +9098,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6278724</v>
+        <v>6277868</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45088.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M98">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N98">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T98">
         <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC98">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6277868</v>
+        <v>6278724</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45088.66666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N99">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB99">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9632,7 +9632,7 @@
         <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6277675</v>
+        <v>6277718</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,10 +10074,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10089,19 +10089,19 @@
         <v>49</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L108">
         <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N108">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O108">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P108">
         <v>3</v>
@@ -10110,19 +10110,19 @@
         <v>0</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T108">
         <v>2</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10137,13 +10137,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6277718</v>
+        <v>6277469</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,10 +10163,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10178,61 +10178,61 @@
         <v>49</v>
       </c>
       <c r="K109">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L109">
+        <v>3.5</v>
+      </c>
+      <c r="M109">
+        <v>4.5</v>
+      </c>
+      <c r="N109">
+        <v>1.909</v>
+      </c>
+      <c r="O109">
+        <v>3.4</v>
+      </c>
+      <c r="P109">
+        <v>4.2</v>
+      </c>
+      <c r="Q109">
+        <v>-0.5</v>
+      </c>
+      <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
+        <v>1.875</v>
+      </c>
+      <c r="T109">
+        <v>2.25</v>
+      </c>
+      <c r="U109">
+        <v>1.975</v>
+      </c>
+      <c r="V109">
+        <v>1.875</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
         <v>3.2</v>
       </c>
-      <c r="M109">
-        <v>2.45</v>
-      </c>
-      <c r="N109">
-        <v>2.6</v>
-      </c>
-      <c r="O109">
-        <v>3</v>
-      </c>
-      <c r="P109">
-        <v>3</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>1.8</v>
-      </c>
-      <c r="S109">
-        <v>2.05</v>
-      </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>1.875</v>
-      </c>
-      <c r="V109">
-        <v>1.975</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>2</v>
-      </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6277469</v>
+        <v>6277675</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,10 +10252,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10267,40 +10267,40 @@
         <v>49</v>
       </c>
       <c r="K110">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L110">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N110">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P110">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10309,19 +10309,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10341,7 +10341,7 @@
         <v>45099.89583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>37</v>
@@ -10430,7 +10430,7 @@
         <v>45101.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>36</v>
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6277873</v>
+        <v>6277470</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10964,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N118">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R118">
+        <v>1.925</v>
+      </c>
+      <c r="S118">
+        <v>1.925</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>2.025</v>
-      </c>
-      <c r="V118">
-        <v>1.825</v>
-      </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6277414</v>
+        <v>6277873</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,55 +11053,55 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
         <v>49</v>
       </c>
       <c r="K119">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N119">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
+        <v>1.875</v>
+      </c>
+      <c r="S119">
         <v>1.975</v>
-      </c>
-      <c r="S119">
-        <v>1.875</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11110,16 +11110,16 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB119">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6277470</v>
+        <v>6277414</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L120">
+        <v>3.1</v>
+      </c>
+      <c r="M120">
+        <v>2.9</v>
+      </c>
+      <c r="N120">
+        <v>1.95</v>
+      </c>
+      <c r="O120">
+        <v>3.4</v>
+      </c>
+      <c r="P120">
         <v>4</v>
       </c>
-      <c r="M120">
-        <v>5.5</v>
-      </c>
-      <c r="N120">
-        <v>1.4</v>
-      </c>
-      <c r="O120">
-        <v>4.5</v>
-      </c>
-      <c r="P120">
-        <v>7.5</v>
-      </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
+        <v>1.875</v>
+      </c>
+      <c r="T120">
+        <v>2.25</v>
+      </c>
+      <c r="U120">
         <v>1.925</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.925</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.975</v>
-      </c>
-      <c r="V120">
-        <v>1.875</v>
-      </c>
       <c r="W120">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.875</v>
+      </c>
+      <c r="AB120">
         <v>0.925</v>
       </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
-      </c>
       <c r="AC120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -12833,7 +12833,7 @@
         <v>45116.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>41</v>
@@ -13014,7 +13014,7 @@
         <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13103,7 +13103,7 @@
         <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13545,7 +13545,7 @@
         <v>45123.77083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>48</v>
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6277421</v>
+        <v>6278693</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,76 +13812,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L150">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X150">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC150">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6278693</v>
+        <v>6277421</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,76 +13901,76 @@
         <v>45129.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K151">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L151">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M151">
+        <v>8</v>
+      </c>
+      <c r="N151">
+        <v>1.333</v>
+      </c>
+      <c r="O151">
         <v>5</v>
       </c>
-      <c r="N151">
-        <v>1.55</v>
-      </c>
-      <c r="O151">
+      <c r="P151">
+        <v>8.5</v>
+      </c>
+      <c r="Q151">
+        <v>-1.5</v>
+      </c>
+      <c r="R151">
+        <v>2.05</v>
+      </c>
+      <c r="S151">
+        <v>1.8</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>1.825</v>
+      </c>
+      <c r="V151">
+        <v>2.025</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
         <v>4</v>
       </c>
-      <c r="P151">
-        <v>6.5</v>
-      </c>
-      <c r="Q151">
-        <v>-1</v>
-      </c>
-      <c r="R151">
-        <v>1.925</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.975</v>
-      </c>
-      <c r="V151">
-        <v>1.875</v>
-      </c>
-      <c r="W151">
-        <v>0.55</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6278730</v>
+        <v>6277881</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,76 +14346,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>51</v>
       </c>
       <c r="K156">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L156">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M156">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N156">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P156">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="S156">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6277881</v>
+        <v>6278730</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>51</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L157">
+        <v>3.25</v>
+      </c>
+      <c r="M157">
         <v>3.1</v>
       </c>
-      <c r="M157">
-        <v>2.55</v>
-      </c>
       <c r="N157">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O157">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="S157">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB157">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14527,7 +14527,7 @@
         <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14702,7 +14702,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
         <v>42</v>
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6277882</v>
+        <v>6277724</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,76 +14791,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K161">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L161">
         <v>3.6</v>
       </c>
       <c r="M161">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="N161">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W161">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC161">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6277724</v>
+        <v>6277882</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,76 +14880,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K162">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L162">
         <v>3.6</v>
       </c>
       <c r="M162">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="N162">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O162">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T162">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6278694</v>
+        <v>6277883</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,73 +14969,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K163">
         <v>2</v>
       </c>
       <c r="L163">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
         <v>3.75</v>
       </c>
       <c r="N163">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O163">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
+        <v>1.975</v>
+      </c>
+      <c r="S163">
         <v>1.875</v>
       </c>
-      <c r="S163">
-        <v>1.975</v>
-      </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U163">
+        <v>2.025</v>
+      </c>
+      <c r="V163">
         <v>1.825</v>
       </c>
-      <c r="V163">
-        <v>2.025</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6277883</v>
+        <v>6278694</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,73 +15058,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>3</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K164">
         <v>2</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
         <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
         <v>1.975</v>
       </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
+        <v>1.825</v>
+      </c>
+      <c r="V164">
         <v>2.025</v>
       </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
       <c r="W164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15595,7 +15595,7 @@
         <v>45</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6278731</v>
+        <v>6277474</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45143.77083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N171">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O171">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P171">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>2</v>
+      </c>
+      <c r="U171">
         <v>1.925</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.925</v>
       </c>
-      <c r="T171">
-        <v>1.75</v>
-      </c>
-      <c r="U171">
-        <v>1.9</v>
-      </c>
-      <c r="V171">
-        <v>1.95</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X171">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6277474</v>
+        <v>6278731</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45143.77083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
+        <v>3.75</v>
+      </c>
+      <c r="N172">
         <v>2.25</v>
       </c>
-      <c r="N172">
-        <v>2.7</v>
-      </c>
       <c r="O172">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P172">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC172">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6277684</v>
+        <v>6277426</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K176">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L176">
+        <v>3.25</v>
+      </c>
+      <c r="M176">
         <v>3.2</v>
       </c>
-      <c r="M176">
-        <v>2.3</v>
-      </c>
       <c r="N176">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.92</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6277426</v>
+        <v>6277684</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K178">
+        <v>3.1</v>
+      </c>
+      <c r="L178">
+        <v>3.2</v>
+      </c>
+      <c r="M178">
+        <v>2.3</v>
+      </c>
+      <c r="N178">
+        <v>3.3</v>
+      </c>
+      <c r="O178">
+        <v>3.3</v>
+      </c>
+      <c r="P178">
         <v>2.2</v>
       </c>
-      <c r="L178">
-        <v>3.25</v>
-      </c>
-      <c r="M178">
-        <v>3.2</v>
-      </c>
-      <c r="N178">
-        <v>1.909</v>
-      </c>
-      <c r="O178">
-        <v>3.6</v>
-      </c>
-      <c r="P178">
-        <v>4</v>
-      </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.92</v>
       </c>
       <c r="W178">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6277686</v>
+        <v>7016600</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L183">
+        <v>3.4</v>
+      </c>
+      <c r="M183">
+        <v>3.75</v>
+      </c>
+      <c r="N183">
+        <v>1.95</v>
+      </c>
+      <c r="O183">
         <v>3.5</v>
       </c>
-      <c r="M183">
-        <v>4.333</v>
-      </c>
-      <c r="N183">
-        <v>1.7</v>
-      </c>
-      <c r="O183">
-        <v>3.6</v>
-      </c>
       <c r="P183">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB183">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7016600</v>
+        <v>6277686</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,76 +16838,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K184">
+        <v>1.8</v>
+      </c>
+      <c r="L184">
+        <v>3.5</v>
+      </c>
+      <c r="M184">
+        <v>4.333</v>
+      </c>
+      <c r="N184">
+        <v>1.7</v>
+      </c>
+      <c r="O184">
+        <v>3.6</v>
+      </c>
+      <c r="P184">
+        <v>5.25</v>
+      </c>
+      <c r="Q184">
+        <v>-0.75</v>
+      </c>
+      <c r="R184">
         <v>1.95</v>
       </c>
-      <c r="L184">
-        <v>3.4</v>
-      </c>
-      <c r="M184">
-        <v>3.75</v>
-      </c>
-      <c r="N184">
-        <v>1.95</v>
-      </c>
-      <c r="O184">
-        <v>3.5</v>
-      </c>
-      <c r="P184">
-        <v>3.8</v>
-      </c>
-      <c r="Q184">
-        <v>-0.5</v>
-      </c>
-      <c r="R184">
-        <v>1.975</v>
-      </c>
       <c r="S184">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17194,7 +17194,7 @@
         <v>45152.875</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17283,7 +17283,7 @@
         <v>45153.83333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
         <v>40</v>
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6277726</v>
+        <v>6277429</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,76 +17550,76 @@
         <v>45157.77083333334</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K192">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N192">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O192">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P192">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC192">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6277429</v>
+        <v>6277726</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,76 +17639,76 @@
         <v>45157.77083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193" t="s">
+        <v>49</v>
+      </c>
+      <c r="K193">
         <v>3</v>
       </c>
-      <c r="I193">
-        <v>1</v>
-      </c>
-      <c r="J193" t="s">
-        <v>50</v>
-      </c>
-      <c r="K193">
-        <v>1.571</v>
-      </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N193">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O193">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P193">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q193">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
+        <v>1.95</v>
+      </c>
+      <c r="T193">
+        <v>2</v>
+      </c>
+      <c r="U193">
         <v>2.05</v>
       </c>
-      <c r="T193">
-        <v>2.5</v>
-      </c>
-      <c r="U193">
-        <v>1.975</v>
-      </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z193">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB193">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17998,7 +17998,7 @@
         <v>48</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>4</v>
@@ -18176,7 +18176,7 @@
         <v>47</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18440,7 +18440,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18974,7 +18974,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
         <v>39</v>
@@ -19152,7 +19152,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
         <v>35</v>
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6277895</v>
+        <v>6277432</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>51</v>
       </c>
       <c r="K216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L216">
+        <v>3.1</v>
+      </c>
+      <c r="M216">
+        <v>2.625</v>
+      </c>
+      <c r="N216">
+        <v>2.45</v>
+      </c>
+      <c r="O216">
         <v>3.2</v>
       </c>
-      <c r="M216">
-        <v>3.4</v>
-      </c>
-      <c r="N216">
-        <v>2.05</v>
-      </c>
-      <c r="O216">
-        <v>3.3</v>
-      </c>
       <c r="P216">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="V216">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>0.8</v>
+        <v>0.415</v>
       </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.4625</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19763,7 +19763,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6277433</v>
+        <v>6277895</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19775,76 +19775,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K217">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L217">
         <v>3.2</v>
       </c>
       <c r="M217">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N217">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O217">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P217">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
         <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W217">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB217">
         <v>-0.5</v>
       </c>
       <c r="AC217">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6277432</v>
+        <v>6277433</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,76 +19864,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218">
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K218">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L218">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M218">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N218">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O218">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q218">
         <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>2.07</v>
+        <v>1.825</v>
       </c>
       <c r="S218">
-        <v>1.83</v>
+        <v>2.025</v>
       </c>
       <c r="T218">
         <v>2.25</v>
       </c>
       <c r="U218">
-        <v>2.07</v>
+        <v>2.025</v>
       </c>
       <c r="V218">
-        <v>1.83</v>
+        <v>1.825</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X218">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
+        <v>0.825</v>
+      </c>
+      <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
         <v>-0.5</v>
       </c>
-      <c r="AA218">
-        <v>0.415</v>
-      </c>
-      <c r="AB218">
-        <v>-1</v>
-      </c>
       <c r="AC218">
-        <v>0.8300000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19956,7 +19956,7 @@
         <v>37</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20398,7 +20398,7 @@
         <v>45183.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
         <v>38</v>
@@ -21024,7 +21024,7 @@
         <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6278698</v>
+        <v>6277436</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,76 +21199,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M233">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N233">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O233">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
         <v>2.25</v>
       </c>
       <c r="U233">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA233">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB233">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6277436</v>
+        <v>6278698</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,76 +21288,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K234">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
         <v>3.5</v>
       </c>
-      <c r="M234">
-        <v>4.5</v>
-      </c>
       <c r="N234">
+        <v>2.375</v>
+      </c>
+      <c r="O234">
+        <v>3.2</v>
+      </c>
+      <c r="P234">
+        <v>3.1</v>
+      </c>
+      <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
         <v>1.85</v>
-      </c>
-      <c r="O234">
-        <v>3.3</v>
-      </c>
-      <c r="P234">
-        <v>4.5</v>
-      </c>
-      <c r="Q234">
-        <v>-0.75</v>
-      </c>
-      <c r="R234">
-        <v>2.025</v>
-      </c>
-      <c r="S234">
-        <v>1.825</v>
       </c>
       <c r="T234">
         <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>2.1</v>
+      </c>
+      <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X234">
-        <v>-1</v>
-      </c>
-      <c r="Y234">
-        <v>-1</v>
-      </c>
-      <c r="Z234">
-        <v>0.5125</v>
-      </c>
-      <c r="AA234">
-        <v>-0.5</v>
-      </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21466,7 +21466,7 @@
         <v>45190.8125</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G236" t="s">
         <v>43</v>
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6277697</v>
+        <v>7160408</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,58 +22445,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>50</v>
       </c>
       <c r="K247">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L247">
+        <v>3.25</v>
+      </c>
+      <c r="M247">
+        <v>3.9</v>
+      </c>
+      <c r="N247">
+        <v>2.5</v>
+      </c>
+      <c r="O247">
         <v>3.2</v>
       </c>
-      <c r="M247">
-        <v>2.6</v>
-      </c>
-      <c r="N247">
-        <v>3.4</v>
-      </c>
-      <c r="O247">
-        <v>3.3</v>
-      </c>
       <c r="P247">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S247">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W247">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22505,16 +22505,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC247">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22522,7 +22522,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7160408</v>
+        <v>6277697</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22534,58 +22534,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
         <v>50</v>
       </c>
       <c r="K248">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L248">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="N248">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P248">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T248">
         <v>2.25</v>
       </c>
       <c r="U248">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V248">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W248">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22594,16 +22594,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22712,7 +22712,7 @@
         <v>45200.77083333334</v>
       </c>
       <c r="F250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G250" t="s">
         <v>30</v>
@@ -23234,7 +23234,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6277900</v>
+        <v>6278738</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23246,13 +23246,13 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G256" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -23261,40 +23261,40 @@
         <v>49</v>
       </c>
       <c r="K256">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M256">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N256">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O256">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P256">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R256">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S256">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T256">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -23303,19 +23303,19 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB256">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC256">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23323,7 +23323,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6278738</v>
+        <v>6277900</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23335,13 +23335,13 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>2</v>
@@ -23350,40 +23350,40 @@
         <v>49</v>
       </c>
       <c r="K257">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L257">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M257">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N257">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O257">
+        <v>3.4</v>
+      </c>
+      <c r="P257">
         <v>4.2</v>
       </c>
-      <c r="P257">
-        <v>9</v>
-      </c>
       <c r="Q257">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R257">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S257">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T257">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U257">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23392,19 +23392,19 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB257">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23412,7 +23412,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6277698</v>
+        <v>6277439</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23424,73 +23424,73 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G258" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I258">
         <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K258">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L258">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M258">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N258">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O258">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P258">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q258">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R258">
+        <v>1.875</v>
+      </c>
+      <c r="S258">
         <v>1.975</v>
       </c>
-      <c r="S258">
-        <v>1.875</v>
-      </c>
       <c r="T258">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V258">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA258">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB258">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC258">
         <v>-1</v>
@@ -23501,7 +23501,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6277699</v>
+        <v>6277698</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23513,76 +23513,76 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H259">
         <v>1</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K259">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L259">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M259">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N259">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O259">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P259">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q259">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R259">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S259">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T259">
         <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V259">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB259">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC259">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23590,7 +23590,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6277439</v>
+        <v>6277699</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23602,49 +23602,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G260" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K260">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L260">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M260">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N260">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O260">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P260">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q260">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S260">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T260">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U260">
         <v>1.85</v>
@@ -23653,10 +23653,10 @@
         <v>2</v>
       </c>
       <c r="W260">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
@@ -23668,10 +23668,10 @@
         <v>-0</v>
       </c>
       <c r="AB260">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23783,7 +23783,7 @@
         <v>38</v>
       </c>
       <c r="G262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6319573</v>
+        <v>6277482</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,13 +24047,13 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F265" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -24062,25 +24062,25 @@
         <v>50</v>
       </c>
       <c r="K265">
+        <v>2.875</v>
+      </c>
+      <c r="L265">
+        <v>3</v>
+      </c>
+      <c r="M265">
+        <v>2.6</v>
+      </c>
+      <c r="N265">
+        <v>3.4</v>
+      </c>
+      <c r="O265">
+        <v>3.1</v>
+      </c>
+      <c r="P265">
         <v>2.3</v>
       </c>
-      <c r="L265">
-        <v>3.2</v>
-      </c>
-      <c r="M265">
-        <v>3.2</v>
-      </c>
-      <c r="N265">
-        <v>2.25</v>
-      </c>
-      <c r="O265">
-        <v>3.2</v>
-      </c>
-      <c r="P265">
-        <v>3.3</v>
-      </c>
       <c r="Q265">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
         <v>1.925</v>
@@ -24089,16 +24089,16 @@
         <v>1.925</v>
       </c>
       <c r="T265">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U265">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W265">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24113,10 +24113,10 @@
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24213,7 +24213,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6277482</v>
+        <v>6319573</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24225,13 +24225,13 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F267" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G267" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -24240,25 +24240,25 @@
         <v>50</v>
       </c>
       <c r="K267">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M267">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N267">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O267">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P267">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q267">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
         <v>1.925</v>
@@ -24267,16 +24267,16 @@
         <v>1.925</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V267">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W267">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24291,10 +24291,10 @@
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24302,7 +24302,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6277441</v>
+        <v>6280878</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24314,10 +24314,10 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F268" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G268" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24329,40 +24329,40 @@
         <v>49</v>
       </c>
       <c r="K268">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L268">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N268">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O268">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P268">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q268">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R268">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S268">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V268">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -24371,19 +24371,19 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB268">
         <v>-0.5</v>
       </c>
       <c r="AC268">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24391,7 +24391,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6280878</v>
+        <v>6277441</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24403,10 +24403,10 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G269" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -24418,40 +24418,40 @@
         <v>49</v>
       </c>
       <c r="K269">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L269">
+        <v>3.2</v>
+      </c>
+      <c r="M269">
+        <v>2.4</v>
+      </c>
+      <c r="N269">
         <v>3.4</v>
       </c>
-      <c r="M269">
-        <v>4.5</v>
-      </c>
-      <c r="N269">
-        <v>1.7</v>
-      </c>
       <c r="O269">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q269">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R269">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S269">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V269">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W269">
         <v>-1</v>
@@ -24460,19 +24460,19 @@
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB269">
         <v>-0.5</v>
       </c>
       <c r="AC269">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24495,7 +24495,7 @@
         <v>45</v>
       </c>
       <c r="G270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -24940,7 +24940,7 @@
         <v>33</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6301327</v>
+        <v>6327088</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,76 +25293,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G279" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K279">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L279">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M279">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N279">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="O279">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P279">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q279">
+        <v>-0.75</v>
+      </c>
+      <c r="R279">
+        <v>1.975</v>
+      </c>
+      <c r="S279">
+        <v>1.875</v>
+      </c>
+      <c r="T279">
+        <v>2.5</v>
+      </c>
+      <c r="U279">
+        <v>1.85</v>
+      </c>
+      <c r="V279">
+        <v>2</v>
+      </c>
+      <c r="W279">
         <v>0.75</v>
       </c>
-      <c r="R279">
-        <v>1.825</v>
-      </c>
-      <c r="S279">
-        <v>2.025</v>
-      </c>
-      <c r="T279">
-        <v>2.25</v>
-      </c>
-      <c r="U279">
-        <v>1.9</v>
-      </c>
-      <c r="V279">
-        <v>1.95</v>
-      </c>
-      <c r="W279">
-        <v>-1</v>
-      </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA279">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7323303</v>
+        <v>6301327</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,76 +25382,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F280" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G280" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J280" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K280">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="L280">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M280">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="N280">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O280">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P280">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q280">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R280">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S280">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T280">
         <v>2.25</v>
       </c>
       <c r="U280">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V280">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W280">
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB280">
         <v>-0.5</v>
       </c>
       <c r="AC280">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6327088</v>
+        <v>7323303</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,49 +25471,49 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F281" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H281">
         <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K281">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M281">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N281">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O281">
+        <v>3.3</v>
+      </c>
+      <c r="P281">
         <v>3.8</v>
       </c>
-      <c r="P281">
-        <v>4.5</v>
-      </c>
       <c r="Q281">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S281">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
         <v>1.85</v>
@@ -25522,25 +25522,25 @@
         <v>2</v>
       </c>
       <c r="W281">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
+        <v>0.8</v>
+      </c>
+      <c r="AB281">
         <v>-0.5</v>
       </c>
-      <c r="AB281">
-        <v>-1</v>
-      </c>
       <c r="AC281">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25560,7 +25560,7 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F282" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G282" t="s">
         <v>29</v>
@@ -25649,7 +25649,7 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
         <v>35</v>
@@ -26349,7 +26349,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6359263</v>
+        <v>6421297</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26361,76 +26361,76 @@
         <v>45227.79166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G291" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J291" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K291">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M291">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N291">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O291">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P291">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="Q291">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S291">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T291">
         <v>2.75</v>
       </c>
       <c r="U291">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V291">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W291">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC291">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26438,7 +26438,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6421297</v>
+        <v>6359263</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26450,76 +26450,76 @@
         <v>45227.79166666666</v>
       </c>
       <c r="F292" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G292" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292" t="s">
+        <v>50</v>
+      </c>
+      <c r="K292">
+        <v>1.533</v>
+      </c>
+      <c r="L292">
         <v>4</v>
       </c>
-      <c r="J292" t="s">
-        <v>49</v>
-      </c>
-      <c r="K292">
-        <v>2.5</v>
-      </c>
-      <c r="L292">
-        <v>3.3</v>
-      </c>
       <c r="M292">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N292">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O292">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P292">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R292">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S292">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T292">
         <v>2.75</v>
       </c>
       <c r="U292">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V292">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB292">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26717,7 +26717,7 @@
         <v>45228.66666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G295" t="s">
         <v>41</v>
@@ -26794,7 +26794,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7370710</v>
+        <v>6330706</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26806,76 +26806,76 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G296" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J296" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K296">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L296">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M296">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N296">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O296">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P296">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R296">
+        <v>1.925</v>
+      </c>
+      <c r="S296">
+        <v>1.925</v>
+      </c>
+      <c r="T296">
+        <v>2.5</v>
+      </c>
+      <c r="U296">
         <v>1.825</v>
       </c>
-      <c r="S296">
+      <c r="V296">
         <v>2.025</v>
       </c>
-      <c r="T296">
-        <v>2.25</v>
-      </c>
-      <c r="U296">
-        <v>2</v>
-      </c>
-      <c r="V296">
-        <v>1.85</v>
-      </c>
       <c r="W296">
         <v>-1</v>
       </c>
       <c r="X296">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z296">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AB296">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC296">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26883,7 +26883,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6330706</v>
+        <v>7370710</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26895,76 +26895,76 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F297" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G297" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K297">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L297">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M297">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N297">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O297">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P297">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q297">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T297">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V297">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y297">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA297">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AB297">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27254,7 +27254,7 @@
         <v>36</v>
       </c>
       <c r="G301" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27788,7 +27788,7 @@
         <v>47</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>30</v>
       </c>
       <c r="G311" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -28230,7 +28230,7 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G312" t="s">
         <v>36</v>
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6590138</v>
+        <v>6677106</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45238.79166666666</v>
       </c>
       <c r="F318" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G318" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H318">
         <v>0</v>
       </c>
       <c r="I318">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K318">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L318">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M318">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N318">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O318">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P318">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q318">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S318">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T318">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U318">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="V318">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y318">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-0</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6677106</v>
+        <v>6590138</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28853,76 +28853,76 @@
         <v>45238.79166666666</v>
       </c>
       <c r="F319" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G319" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J319" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K319">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L319">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M319">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N319">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P319">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q319">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R319">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S319">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T319">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U319">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="V319">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC319">
-        <v>1.02</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28930,7 +28930,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6677091</v>
+        <v>6677088</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28942,76 +28942,76 @@
         <v>45238.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G320" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K320">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L320">
         <v>3.3</v>
       </c>
       <c r="M320">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N320">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O320">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P320">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q320">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S320">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T320">
         <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W320">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC320">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29019,7 +29019,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6677088</v>
+        <v>6677091</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29031,76 +29031,76 @@
         <v>45238.83333333334</v>
       </c>
       <c r="F321" t="s">
+        <v>41</v>
+      </c>
+      <c r="G321" t="s">
         <v>31</v>
-      </c>
-      <c r="G321" t="s">
-        <v>34</v>
       </c>
       <c r="H321">
         <v>1</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K321">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L321">
         <v>3.3</v>
       </c>
       <c r="M321">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N321">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O321">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P321">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R321">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S321">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T321">
         <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W321">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X321">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA321">
+        <v>-1</v>
+      </c>
+      <c r="AB321">
+        <v>-1</v>
+      </c>
+      <c r="AC321">
         <v>0.875</v>
-      </c>
-      <c r="AB321">
-        <v>-0.5</v>
-      </c>
-      <c r="AC321">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29375,7 +29375,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7428388</v>
+        <v>6594708</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29387,55 +29387,55 @@
         <v>45239.83333333334</v>
       </c>
       <c r="F325" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G325" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I325">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J325" t="s">
         <v>49</v>
       </c>
       <c r="K325">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L325">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M325">
+        <v>3.9</v>
+      </c>
+      <c r="N325">
+        <v>1.85</v>
+      </c>
+      <c r="O325">
+        <v>3.75</v>
+      </c>
+      <c r="P325">
         <v>4</v>
-      </c>
-      <c r="N325">
-        <v>1.833</v>
-      </c>
-      <c r="O325">
-        <v>3.4</v>
-      </c>
-      <c r="P325">
-        <v>4.75</v>
       </c>
       <c r="Q325">
         <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S325">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T325">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U325">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V325">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W325">
         <v>-1</v>
@@ -29444,16 +29444,16 @@
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z325">
         <v>-1</v>
       </c>
       <c r="AA325">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB325">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC325">
         <v>-1</v>
@@ -29464,7 +29464,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6594708</v>
+        <v>7428388</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29476,55 +29476,55 @@
         <v>45239.83333333334</v>
       </c>
       <c r="F326" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G326" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
         <v>3</v>
-      </c>
-      <c r="I326">
-        <v>4</v>
       </c>
       <c r="J326" t="s">
         <v>49</v>
       </c>
       <c r="K326">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L326">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M326">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N326">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O326">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P326">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q326">
         <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T326">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U326">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V326">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W326">
         <v>-1</v>
@@ -29533,16 +29533,16 @@
         <v>-1</v>
       </c>
       <c r="Y326">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z326">
         <v>-1</v>
       </c>
       <c r="AA326">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB326">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC326">
         <v>-1</v>
@@ -29921,7 +29921,7 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F331" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G331" t="s">
         <v>33</v>
@@ -29998,7 +29998,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6688997</v>
+        <v>6648522</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30010,76 +30010,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F332" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G332" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332">
         <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K332">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L332">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M332">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N332">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O332">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P332">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q332">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R332">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S332">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA332">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB332">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30087,7 +30087,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6648522</v>
+        <v>6688997</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30099,76 +30099,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F333" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G333" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333">
         <v>1</v>
       </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K333">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L333">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M333">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N333">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P333">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q333">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R333">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S333">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T333">
         <v>2.25</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X333">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA333">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB333">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC333">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30814,7 +30814,7 @@
         <v>37</v>
       </c>
       <c r="G341" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H341">
         <v>1</v>
@@ -30989,7 +30989,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F343" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
         <v>44</v>
@@ -31348,7 +31348,7 @@
         <v>43</v>
       </c>
       <c r="G347" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H347">
         <v>1</v>
@@ -32505,7 +32505,7 @@
         <v>42</v>
       </c>
       <c r="G360" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -32591,7 +32591,7 @@
         <v>45260.85416666666</v>
       </c>
       <c r="F361" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G361" t="s">
         <v>34</v>
@@ -33024,7 +33024,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6677292</v>
+        <v>6733112</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33036,10 +33036,10 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F366" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G366" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H366">
         <v>1</v>
@@ -33051,43 +33051,43 @@
         <v>50</v>
       </c>
       <c r="K366">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="L366">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M366">
+        <v>4.75</v>
+      </c>
+      <c r="N366">
+        <v>1.4</v>
+      </c>
+      <c r="O366">
+        <v>4.333</v>
+      </c>
+      <c r="P366">
         <v>9</v>
       </c>
-      <c r="N366">
-        <v>1.2</v>
-      </c>
-      <c r="O366">
-        <v>7.5</v>
-      </c>
-      <c r="P366">
-        <v>12</v>
-      </c>
       <c r="Q366">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R366">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="S366">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T366">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U366">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V366">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W366">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X366">
         <v>-1</v>
@@ -33096,16 +33096,16 @@
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA366">
-        <v>0.9199999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6733768</v>
+        <v>6705049</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,34 +33125,34 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G367" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H367">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K367">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="L367">
         <v>3.4</v>
       </c>
       <c r="M367">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N367">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O367">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P367">
         <v>4.2</v>
@@ -33161,40 +33161,40 @@
         <v>-0.5</v>
       </c>
       <c r="R367">
-        <v>1.975</v>
+        <v>1.96</v>
       </c>
       <c r="S367">
-        <v>1.875</v>
+        <v>1.94</v>
       </c>
       <c r="T367">
         <v>2.25</v>
       </c>
       <c r="U367">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V367">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W367">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB367">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33202,7 +33202,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6677290</v>
+        <v>6707715</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33214,58 +33214,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F368" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G368" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J368" t="s">
         <v>50</v>
       </c>
       <c r="K368">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L368">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M368">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N368">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O368">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P368">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q368">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R368">
+        <v>1.9</v>
+      </c>
+      <c r="S368">
+        <v>1.95</v>
+      </c>
+      <c r="T368">
+        <v>2.75</v>
+      </c>
+      <c r="U368">
+        <v>2.025</v>
+      </c>
+      <c r="V368">
         <v>1.825</v>
       </c>
-      <c r="S368">
-        <v>2.025</v>
-      </c>
-      <c r="T368">
-        <v>2.5</v>
-      </c>
-      <c r="U368">
-        <v>1.9</v>
-      </c>
-      <c r="V368">
-        <v>1.95</v>
-      </c>
       <c r="W368">
-        <v>0.8500000000000001</v>
+        <v>3</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33274,16 +33274,16 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC368">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33291,7 +33291,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6707715</v>
+        <v>6677290</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33303,58 +33303,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F369" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G369" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H369">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I369">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J369" t="s">
         <v>50</v>
       </c>
       <c r="K369">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L369">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M369">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N369">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O369">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P369">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q369">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R369">
+        <v>1.825</v>
+      </c>
+      <c r="S369">
+        <v>2.025</v>
+      </c>
+      <c r="T369">
+        <v>2.5</v>
+      </c>
+      <c r="U369">
         <v>1.9</v>
       </c>
-      <c r="S369">
+      <c r="V369">
         <v>1.95</v>
       </c>
-      <c r="T369">
-        <v>2.75</v>
-      </c>
-      <c r="U369">
-        <v>2.025</v>
-      </c>
-      <c r="V369">
-        <v>1.825</v>
-      </c>
       <c r="W369">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X369">
         <v>-1</v>
@@ -33363,16 +33363,16 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA369">
         <v>-1</v>
       </c>
       <c r="AB369">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC369">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33380,7 +33380,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6705049</v>
+        <v>6677292</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33392,49 +33392,49 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F370" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G370" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370">
         <v>0</v>
       </c>
       <c r="J370" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K370">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="L370">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M370">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N370">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O370">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P370">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q370">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R370">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S370">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T370">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U370">
         <v>1.925</v>
@@ -33443,10 +33443,10 @@
         <v>1.925</v>
       </c>
       <c r="W370">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X370">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y370">
         <v>-1</v>
@@ -33455,7 +33455,7 @@
         <v>-1</v>
       </c>
       <c r="AA370">
-        <v>0.9399999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB370">
         <v>-1</v>
@@ -33469,7 +33469,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6733112</v>
+        <v>6733768</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33481,13 +33481,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F371" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G371" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I371">
         <v>0</v>
@@ -33496,43 +33496,43 @@
         <v>50</v>
       </c>
       <c r="K371">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L371">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M371">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N371">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O371">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P371">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q371">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R371">
-        <v>1.96</v>
+        <v>1.975</v>
       </c>
       <c r="S371">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T371">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U371">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V371">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W371">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X371">
         <v>-1</v>
@@ -33541,16 +33541,16 @@
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA371">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC371">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33662,7 +33662,7 @@
         <v>40</v>
       </c>
       <c r="G373" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H373">
         <v>3</v>
@@ -34018,7 +34018,7 @@
         <v>44</v>
       </c>
       <c r="G377" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H377">
         <v>2</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -136,10 +136,10 @@
     <t>Fluminense</t>
   </si>
   <si>
-    <t>Sao Paulo</t>
+    <t>Cuiaba</t>
   </si>
   <si>
-    <t>Cuiaba</t>
+    <t>Sao Paulo</t>
   </si>
   <si>
     <t>Cruzeiro</t>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6277395</v>
+        <v>6277714</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,73 +1622,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <v>2.375</v>
+      </c>
+      <c r="L13">
+        <v>3.2</v>
+      </c>
+      <c r="M13">
+        <v>3.1</v>
+      </c>
+      <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>3.1</v>
+      </c>
+      <c r="P13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13">
-        <v>1.7</v>
-      </c>
-      <c r="L13">
-        <v>3.6</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>1.909</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
-      <c r="P13">
-        <v>4.5</v>
-      </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6277714</v>
+        <v>6277395</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,73 +1711,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X14">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
@@ -3491,7 +3491,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3666,7 +3666,7 @@
         <v>45053.66666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>43</v>
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6277856</v>
+        <v>6277462</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,49 +3844,49 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N38">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>2</v>
@@ -3895,25 +3895,25 @@
         <v>1.85</v>
       </c>
       <c r="W38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6277462</v>
+        <v>6277856</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,49 +4022,49 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
         <v>2</v>
@@ -4073,25 +4073,25 @@
         <v>1.85</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4467,7 +4467,7 @@
         <v>45056.83333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -5004,7 +5004,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5271,7 +5271,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6278720</v>
+        <v>6277299</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,16 +5535,16 @@
         <v>45060.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>51</v>
@@ -5553,58 +5553,58 @@
         <v>2.1</v>
       </c>
       <c r="L57">
+        <v>3.25</v>
+      </c>
+      <c r="M57">
         <v>3.2</v>
       </c>
-      <c r="M57">
-        <v>3.25</v>
-      </c>
       <c r="N57">
+        <v>1.909</v>
+      </c>
+      <c r="O57">
+        <v>3.5</v>
+      </c>
+      <c r="P57">
+        <v>4.2</v>
+      </c>
+      <c r="Q57">
+        <v>-0.5</v>
+      </c>
+      <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
         <v>2.5</v>
       </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>3.1</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>2.125</v>
-      </c>
-      <c r="S57">
-        <v>1.75</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6277299</v>
+        <v>6278720</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,16 +5624,16 @@
         <v>45060.66666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>51</v>
@@ -5642,58 +5642,58 @@
         <v>2.1</v>
       </c>
       <c r="L58">
+        <v>3.2</v>
+      </c>
+      <c r="M58">
         <v>3.25</v>
       </c>
-      <c r="M58">
-        <v>3.2</v>
-      </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
+        <v>-0.25</v>
+      </c>
+      <c r="R58">
+        <v>2.125</v>
+      </c>
+      <c r="S58">
+        <v>1.75</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>1.85</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>2</v>
+      </c>
+      <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
         <v>-0.5</v>
       </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
-      <c r="S58">
-        <v>2</v>
-      </c>
-      <c r="T58">
-        <v>2.5</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
-      <c r="V58">
-        <v>1.925</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>2.5</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
       <c r="AA58">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6277464</v>
+        <v>6277403</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,73 +5713,73 @@
         <v>45060.77083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.975</v>
+      </c>
+      <c r="V59">
         <v>1.875</v>
       </c>
-      <c r="V59">
-        <v>1.975</v>
-      </c>
       <c r="W59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6277403</v>
+        <v>6277464</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,73 +5891,73 @@
         <v>45060.77083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N61">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
+        <v>1.875</v>
+      </c>
+      <c r="V61">
         <v>1.975</v>
       </c>
-      <c r="V61">
-        <v>1.875</v>
-      </c>
       <c r="W61">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6277405</v>
+        <v>6277668</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,58 +6069,58 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>49</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="N63">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6129,16 +6129,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6277668</v>
+        <v>6277862</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,49 +6158,49 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>49</v>
       </c>
       <c r="K64">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L64">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M64">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N64">
         <v>1.833</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q64">
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
         <v>1.975</v>
@@ -6218,16 +6218,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6277862</v>
+        <v>6277405</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,59 +6247,59 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>49</v>
       </c>
       <c r="K65">
+        <v>2.5</v>
+      </c>
+      <c r="L65">
+        <v>3.4</v>
+      </c>
+      <c r="M65">
+        <v>2.55</v>
+      </c>
+      <c r="N65">
+        <v>2.875</v>
+      </c>
+      <c r="O65">
+        <v>3.3</v>
+      </c>
+      <c r="P65">
+        <v>2.375</v>
+      </c>
+      <c r="Q65">
+        <v>0.25</v>
+      </c>
+      <c r="R65">
+        <v>1.775</v>
+      </c>
+      <c r="S65">
+        <v>2.1</v>
+      </c>
+      <c r="T65">
+        <v>2.5</v>
+      </c>
+      <c r="U65">
+        <v>1.9</v>
+      </c>
+      <c r="V65">
         <v>1.95</v>
       </c>
-      <c r="L65">
-        <v>3.3</v>
-      </c>
-      <c r="M65">
-        <v>3.75</v>
-      </c>
-      <c r="N65">
-        <v>1.833</v>
-      </c>
-      <c r="O65">
-        <v>3.4</v>
-      </c>
-      <c r="P65">
-        <v>4.5</v>
-      </c>
-      <c r="Q65">
-        <v>-0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.85</v>
-      </c>
-      <c r="S65">
-        <v>2</v>
-      </c>
-      <c r="T65">
-        <v>2.25</v>
-      </c>
-      <c r="U65">
-        <v>1.975</v>
-      </c>
-      <c r="V65">
+      <c r="W65">
         <v>1.875</v>
       </c>
-      <c r="W65">
-        <v>0.833</v>
-      </c>
       <c r="X65">
         <v>-1</v>
       </c>
@@ -6307,13 +6307,13 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6277669</v>
+        <v>6277861</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,76 +6336,76 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M66">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N66">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P66">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
         <v>2.05</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6277861</v>
+        <v>6277669</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,76 +6425,76 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L67">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N67">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="O67">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V67">
         <v>2.05</v>
       </c>
       <c r="W67">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6784,7 +6784,7 @@
         <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6277864</v>
+        <v>6277301</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6870,34 +6870,34 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K72">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L72">
         <v>3.3</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N72">
         <v>1.65</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P72">
         <v>5</v>
@@ -6906,40 +6906,40 @@
         <v>-0.75</v>
       </c>
       <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2.05</v>
+      </c>
+      <c r="T72">
+        <v>2.25</v>
+      </c>
+      <c r="U72">
         <v>1.85</v>
       </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>1.925</v>
-      </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
+        <v>1.05</v>
+      </c>
+      <c r="AB72">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>-1</v>
-      </c>
       <c r="AC72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6277301</v>
+        <v>6277864</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,34 +6959,34 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L73">
         <v>3.3</v>
       </c>
       <c r="M73">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N73">
         <v>1.65</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P73">
         <v>5</v>
@@ -6995,40 +6995,40 @@
         <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7048,7 +7048,7 @@
         <v>45073.77083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -7226,7 +7226,7 @@
         <v>45073.875</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
         <v>47</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6277672</v>
+        <v>6277409</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,13 +7849,13 @@
         <v>45080.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7864,43 +7864,43 @@
         <v>49</v>
       </c>
       <c r="K83">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M83">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N83">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P83">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>0.95</v>
+        <v>1.75</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7909,16 +7909,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6277409</v>
+        <v>6277672</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,13 +7938,13 @@
         <v>45080.77083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7953,43 +7953,43 @@
         <v>49</v>
       </c>
       <c r="K84">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L84">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N84">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O84">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>1.75</v>
+        <v>0.95</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7998,16 +7998,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8208,7 +8208,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8386,7 +8386,7 @@
         <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6655761</v>
+        <v>6277410</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,55 +8739,55 @@
         <v>45087.77083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>51</v>
       </c>
       <c r="K93">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O93">
         <v>3.25</v>
       </c>
       <c r="P93">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8799,16 +8799,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6277410</v>
+        <v>6655761</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,55 +8917,55 @@
         <v>45087.77083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>51</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N95">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O95">
         <v>3.25</v>
       </c>
       <c r="P95">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8977,16 +8977,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
         <v>-0</v>
-      </c>
-      <c r="AB95">
-        <v>0.925</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9184,7 +9184,7 @@
         <v>45088.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9629,7 +9629,7 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6277469</v>
+        <v>6277718</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,10 +10074,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10089,41 +10089,41 @@
         <v>50</v>
       </c>
       <c r="K108">
+        <v>2.875</v>
+      </c>
+      <c r="L108">
+        <v>3.2</v>
+      </c>
+      <c r="M108">
+        <v>2.45</v>
+      </c>
+      <c r="N108">
+        <v>2.6</v>
+      </c>
+      <c r="O108">
+        <v>3</v>
+      </c>
+      <c r="P108">
+        <v>3</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
         <v>1.8</v>
       </c>
-      <c r="L108">
-        <v>3.5</v>
-      </c>
-      <c r="M108">
-        <v>4.5</v>
-      </c>
-      <c r="N108">
-        <v>1.909</v>
-      </c>
-      <c r="O108">
-        <v>3.4</v>
-      </c>
-      <c r="P108">
-        <v>4.2</v>
-      </c>
-      <c r="Q108">
-        <v>-0.5</v>
-      </c>
-      <c r="R108">
+      <c r="S108">
+        <v>2.05</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.875</v>
+      </c>
+      <c r="V108">
         <v>1.975</v>
       </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.875</v>
-      </c>
       <c r="W108">
         <v>-1</v>
       </c>
@@ -10131,19 +10131,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6277718</v>
+        <v>6277469</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,10 +10252,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10267,61 +10267,61 @@
         <v>50</v>
       </c>
       <c r="K110">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L110">
+        <v>3.5</v>
+      </c>
+      <c r="M110">
+        <v>4.5</v>
+      </c>
+      <c r="N110">
+        <v>1.909</v>
+      </c>
+      <c r="O110">
+        <v>3.4</v>
+      </c>
+      <c r="P110">
+        <v>4.2</v>
+      </c>
+      <c r="Q110">
+        <v>-0.5</v>
+      </c>
+      <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
+        <v>1.875</v>
+      </c>
+      <c r="T110">
+        <v>2.25</v>
+      </c>
+      <c r="U110">
+        <v>1.975</v>
+      </c>
+      <c r="V110">
+        <v>1.875</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>3.2</v>
       </c>
-      <c r="M110">
-        <v>2.45</v>
-      </c>
-      <c r="N110">
-        <v>2.6</v>
-      </c>
-      <c r="O110">
-        <v>3</v>
-      </c>
-      <c r="P110">
-        <v>3</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>1.8</v>
-      </c>
-      <c r="S110">
-        <v>2.05</v>
-      </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.975</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>2</v>
-      </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6277952</v>
+        <v>6277871</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,10 +10519,10 @@
         <v>45101.77083333334</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10534,25 +10534,25 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L113">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="O113">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R113">
         <v>1.925</v>
@@ -10561,7 +10561,7 @@
         <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
         <v>2.025</v>
@@ -10570,7 +10570,7 @@
         <v>1.825</v>
       </c>
       <c r="W113">
-        <v>1.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6277871</v>
+        <v>6277952</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,10 +10608,10 @@
         <v>45101.77083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10623,25 +10623,25 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N114">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P114">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R114">
         <v>1.925</v>
@@ -10650,7 +10650,7 @@
         <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
         <v>2.025</v>
@@ -10659,7 +10659,7 @@
         <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0.5329999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10700,7 +10700,7 @@
         <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11234,7 +11234,7 @@
         <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11320,7 +11320,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
         <v>39</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6277875</v>
+        <v>6277415</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
+        <v>4.333</v>
+      </c>
+      <c r="N127">
+        <v>1.5</v>
+      </c>
+      <c r="O127">
         <v>4</v>
       </c>
-      <c r="N127">
-        <v>1.85</v>
-      </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
       <c r="P127">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC127">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6277415</v>
+        <v>6277875</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,76 +11854,76 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N128">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X128">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>45109.77083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
@@ -12299,7 +12299,7 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
         <v>48</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6277953</v>
+        <v>6277418</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M134">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="N134">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6277418</v>
+        <v>6277953</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L135">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
         <v>1.85</v>
       </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
       <c r="W135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12747,7 +12747,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
         <v>44</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6277915</v>
+        <v>6277723</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L152">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
+        <v>2.8</v>
+      </c>
+      <c r="N152">
+        <v>2.75</v>
+      </c>
+      <c r="O152">
         <v>3.1</v>
       </c>
-      <c r="N152">
-        <v>2.2</v>
-      </c>
-      <c r="O152">
-        <v>3.2</v>
-      </c>
       <c r="P152">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
         <v>2</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6277723</v>
+        <v>6277915</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>51</v>
+      </c>
+      <c r="K153">
+        <v>2.5</v>
+      </c>
+      <c r="L153">
+        <v>2.875</v>
+      </c>
+      <c r="M153">
+        <v>3.1</v>
+      </c>
+      <c r="N153">
+        <v>2.2</v>
+      </c>
+      <c r="O153">
+        <v>3.2</v>
+      </c>
+      <c r="P153">
+        <v>3.75</v>
+      </c>
+      <c r="Q153">
+        <v>-0.25</v>
+      </c>
+      <c r="R153">
+        <v>1.875</v>
+      </c>
+      <c r="S153">
+        <v>1.975</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>1.85</v>
+      </c>
+      <c r="V153">
+        <v>2</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>2.2</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>-0.5</v>
+      </c>
+      <c r="AA153">
+        <v>0.4875</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
         <v>1</v>
-      </c>
-      <c r="J153" t="s">
-        <v>49</v>
-      </c>
-      <c r="K153">
-        <v>2.55</v>
-      </c>
-      <c r="L153">
-        <v>3.1</v>
-      </c>
-      <c r="M153">
-        <v>2.8</v>
-      </c>
-      <c r="N153">
-        <v>2.75</v>
-      </c>
-      <c r="O153">
-        <v>3.1</v>
-      </c>
-      <c r="P153">
-        <v>2.7</v>
-      </c>
-      <c r="Q153">
-        <v>0</v>
-      </c>
-      <c r="R153">
-        <v>1.925</v>
-      </c>
-      <c r="S153">
-        <v>1.925</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>1.95</v>
-      </c>
-      <c r="V153">
-        <v>1.9</v>
-      </c>
-      <c r="W153">
-        <v>1.75</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.925</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0.95</v>
-      </c>
-      <c r="AC153">
-        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6277422</v>
+        <v>6277881</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,76 +14257,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K155">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M155">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N155">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="O155">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P155">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>2.01</v>
       </c>
       <c r="S155">
-        <v>1.925</v>
+        <v>1.89</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U155">
-        <v>1.875</v>
+        <v>2.04</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.86</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y155">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6277881</v>
+        <v>6277422</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="O157">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>2.01</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.89</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>2.04</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.86</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14883,7 +14883,7 @@
         <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15236,7 +15236,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
         <v>48</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6277311</v>
+        <v>6277954</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K174">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N174">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O174">
+        <v>3.3</v>
+      </c>
+      <c r="P174">
+        <v>4.2</v>
+      </c>
+      <c r="Q174">
+        <v>-0.5</v>
+      </c>
+      <c r="R174">
+        <v>1.925</v>
+      </c>
+      <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
+        <v>2</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
         <v>3.2</v>
       </c>
-      <c r="P174">
-        <v>2.75</v>
-      </c>
-      <c r="Q174">
-        <v>0</v>
-      </c>
-      <c r="R174">
-        <v>1.85</v>
-      </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>2</v>
-      </c>
-      <c r="V174">
-        <v>1.85</v>
-      </c>
-      <c r="W174">
-        <v>1.6</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6277954</v>
+        <v>6277311</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L175">
+        <v>3.25</v>
+      </c>
+      <c r="M175">
+        <v>2.4</v>
+      </c>
+      <c r="N175">
+        <v>2.6</v>
+      </c>
+      <c r="O175">
         <v>3.2</v>
       </c>
-      <c r="M175">
+      <c r="P175">
         <v>2.75</v>
       </c>
-      <c r="N175">
-        <v>1.95</v>
-      </c>
-      <c r="O175">
-        <v>3.3</v>
-      </c>
-      <c r="P175">
-        <v>4.2</v>
-      </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
         <v>1.85</v>
       </c>
-      <c r="V175">
-        <v>2</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>45144.83333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
         <v>37</v>
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6277886</v>
+        <v>6278695</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,76 +16927,76 @@
         <v>45151.77083333334</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L185">
         <v>3.5</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N185">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P185">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R185">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X185">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC185">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6278695</v>
+        <v>6277886</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,76 +17016,76 @@
         <v>45151.77083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L186">
         <v>3.5</v>
       </c>
       <c r="M186">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N186">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O186">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q186">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W186">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17286,7 +17286,7 @@
         <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17461,7 +17461,7 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -17639,7 +17639,7 @@
         <v>45157.77083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
         <v>29</v>
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6277313</v>
+        <v>6277918</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17906,58 +17906,58 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>49</v>
       </c>
       <c r="K196">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L196">
         <v>3.25</v>
       </c>
       <c r="M196">
+        <v>2.45</v>
+      </c>
+      <c r="N196">
+        <v>2.375</v>
+      </c>
+      <c r="O196">
+        <v>3.3</v>
+      </c>
+      <c r="P196">
+        <v>3.1</v>
+      </c>
+      <c r="Q196">
+        <v>-0.25</v>
+      </c>
+      <c r="R196">
+        <v>2.05</v>
+      </c>
+      <c r="S196">
+        <v>1.8</v>
+      </c>
+      <c r="T196">
         <v>2.5</v>
       </c>
-      <c r="N196">
-        <v>2.5</v>
-      </c>
-      <c r="O196">
-        <v>3.25</v>
-      </c>
-      <c r="P196">
-        <v>2.8</v>
-      </c>
-      <c r="Q196">
-        <v>0</v>
-      </c>
-      <c r="R196">
-        <v>1.8</v>
-      </c>
-      <c r="S196">
-        <v>2.05</v>
-      </c>
-      <c r="T196">
-        <v>2.25</v>
-      </c>
       <c r="U196">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V196">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17966,13 +17966,13 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17983,7 +17983,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6277918</v>
+        <v>6277688</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17995,73 +17995,73 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K197">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N197">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P197">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z197">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB197">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18072,7 +18072,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6277688</v>
+        <v>6277313</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18084,49 +18084,49 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L198">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N198">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P198">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q198">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
         <v>2.025</v>
@@ -18135,19 +18135,19 @@
         <v>1.825</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>1.025</v>
@@ -18443,7 +18443,7 @@
         <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -18532,7 +18532,7 @@
         <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -19422,7 +19422,7 @@
         <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -20045,7 +20045,7 @@
         <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7140132</v>
+        <v>7140135</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,73 +20131,73 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L221">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N221">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O221">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA221">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7140135</v>
+        <v>7140132</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,73 +20220,73 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" t="s">
+        <v>50</v>
+      </c>
+      <c r="K222">
+        <v>2.75</v>
+      </c>
+      <c r="L222">
+        <v>3.25</v>
+      </c>
+      <c r="M222">
+        <v>2.55</v>
+      </c>
+      <c r="N222">
+        <v>2.375</v>
+      </c>
+      <c r="O222">
+        <v>3</v>
+      </c>
+      <c r="P222">
+        <v>3.3</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>2</v>
+      </c>
+      <c r="S222">
+        <v>1.85</v>
+      </c>
+      <c r="T222">
+        <v>2</v>
+      </c>
+      <c r="U222">
+        <v>2</v>
+      </c>
+      <c r="V222">
+        <v>1.85</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>2.3</v>
+      </c>
+      <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB222">
         <v>1</v>
-      </c>
-      <c r="J222" t="s">
-        <v>49</v>
-      </c>
-      <c r="K222">
-        <v>1.727</v>
-      </c>
-      <c r="L222">
-        <v>3.6</v>
-      </c>
-      <c r="M222">
-        <v>4.75</v>
-      </c>
-      <c r="N222">
-        <v>1.571</v>
-      </c>
-      <c r="O222">
-        <v>3.8</v>
-      </c>
-      <c r="P222">
-        <v>6.5</v>
-      </c>
-      <c r="Q222">
-        <v>-0.75</v>
-      </c>
-      <c r="R222">
-        <v>1.75</v>
-      </c>
-      <c r="S222">
-        <v>2.05</v>
-      </c>
-      <c r="T222">
-        <v>2.25</v>
-      </c>
-      <c r="U222">
-        <v>1.975</v>
-      </c>
-      <c r="V222">
-        <v>1.875</v>
-      </c>
-      <c r="W222">
-        <v>0.571</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
-      <c r="Y222">
-        <v>-1</v>
-      </c>
-      <c r="Z222">
-        <v>0.375</v>
-      </c>
-      <c r="AA222">
-        <v>-0.5</v>
-      </c>
-      <c r="AB222">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20487,7 +20487,7 @@
         <v>45184.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
         <v>30</v>
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6278698</v>
+        <v>6277436</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,76 +21199,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M233">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N233">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O233">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
         <v>2.25</v>
       </c>
       <c r="U233">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA233">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB233">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6277436</v>
+        <v>6278698</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,76 +21288,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K234">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
         <v>3.5</v>
       </c>
-      <c r="M234">
-        <v>4.5</v>
-      </c>
       <c r="N234">
+        <v>2.375</v>
+      </c>
+      <c r="O234">
+        <v>3.2</v>
+      </c>
+      <c r="P234">
+        <v>3.1</v>
+      </c>
+      <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
         <v>1.85</v>
-      </c>
-      <c r="O234">
-        <v>3.3</v>
-      </c>
-      <c r="P234">
-        <v>4.5</v>
-      </c>
-      <c r="Q234">
-        <v>-0.75</v>
-      </c>
-      <c r="R234">
-        <v>2.025</v>
-      </c>
-      <c r="S234">
-        <v>1.825</v>
       </c>
       <c r="T234">
         <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>2.1</v>
+      </c>
+      <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X234">
-        <v>-1</v>
-      </c>
-      <c r="Y234">
-        <v>-1</v>
-      </c>
-      <c r="Z234">
-        <v>0.5125</v>
-      </c>
-      <c r="AA234">
-        <v>-0.5</v>
-      </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21736,7 +21736,7 @@
         <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>45196.79166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
         <v>46</v>
@@ -21988,7 +21988,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6295861</v>
+        <v>6277318</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22000,61 +22000,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G242" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K242">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L242">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N242">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O242">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P242">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R242">
+        <v>1.825</v>
+      </c>
+      <c r="S242">
+        <v>2.025</v>
+      </c>
+      <c r="T242">
+        <v>2.25</v>
+      </c>
+      <c r="U242">
         <v>1.875</v>
       </c>
-      <c r="S242">
+      <c r="V242">
         <v>1.975</v>
       </c>
-      <c r="T242">
-        <v>2.75</v>
-      </c>
-      <c r="U242">
-        <v>2.025</v>
-      </c>
-      <c r="V242">
-        <v>1.825</v>
-      </c>
       <c r="W242">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y242">
         <v>-1</v>
@@ -22066,10 +22066,10 @@
         <v>-0</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC242">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22077,7 +22077,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6277318</v>
+        <v>6295861</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22089,61 +22089,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L243">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M243">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N243">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O243">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P243">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R243">
+        <v>1.875</v>
+      </c>
+      <c r="S243">
+        <v>1.975</v>
+      </c>
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>2.025</v>
+      </c>
+      <c r="V243">
         <v>1.825</v>
       </c>
-      <c r="S243">
-        <v>2.025</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>1.875</v>
-      </c>
-      <c r="V243">
-        <v>1.975</v>
-      </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X243">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
@@ -22155,10 +22155,10 @@
         <v>-0</v>
       </c>
       <c r="AB243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6277729</v>
+        <v>6278735</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22181,37 +22181,37 @@
         <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
         <v>49</v>
       </c>
       <c r="K244">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L244">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="N244">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O244">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P244">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q244">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R244">
         <v>1.925</v>
@@ -22223,13 +22223,13 @@
         <v>2</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W244">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22238,13 +22238,13 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22255,7 +22255,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6278735</v>
+        <v>6277729</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22270,37 +22270,37 @@
         <v>40</v>
       </c>
       <c r="G245" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>49</v>
       </c>
       <c r="K245">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M245">
-        <v>4.6</v>
+        <v>2.75</v>
       </c>
       <c r="N245">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O245">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P245">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q245">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
         <v>1.925</v>
@@ -22312,13 +22312,13 @@
         <v>2</v>
       </c>
       <c r="U245">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V245">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W245">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22327,13 +22327,13 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC245">
         <v>-1</v>
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6277438</v>
+        <v>6277697</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,76 +22445,76 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L247">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M247">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N247">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="O247">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P247">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q247">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R247">
+        <v>1.975</v>
+      </c>
+      <c r="S247">
         <v>1.875</v>
       </c>
-      <c r="S247">
-        <v>1.975</v>
-      </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U247">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V247">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X247">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA247">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC247">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22522,7 +22522,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6277697</v>
+        <v>6277438</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22534,76 +22534,76 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L248">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M248">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N248">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="O248">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P248">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q248">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R248">
+        <v>1.875</v>
+      </c>
+      <c r="S248">
         <v>1.975</v>
       </c>
-      <c r="S248">
-        <v>1.875</v>
-      </c>
       <c r="T248">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W248">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
+        <v>-1</v>
+      </c>
+      <c r="AA248">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA248">
-        <v>-1</v>
-      </c>
       <c r="AB248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22982,7 +22982,7 @@
         <v>45</v>
       </c>
       <c r="G253" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6278738</v>
+        <v>6277900</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23157,13 +23157,13 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G255" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255">
         <v>2</v>
@@ -23172,40 +23172,40 @@
         <v>50</v>
       </c>
       <c r="K255">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L255">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M255">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N255">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O255">
+        <v>3.4</v>
+      </c>
+      <c r="P255">
         <v>4.2</v>
       </c>
-      <c r="P255">
-        <v>9</v>
-      </c>
       <c r="Q255">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U255">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V255">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -23214,19 +23214,19 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB255">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23234,7 +23234,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6277900</v>
+        <v>6278738</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23246,13 +23246,13 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G256" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -23261,40 +23261,40 @@
         <v>50</v>
       </c>
       <c r="K256">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M256">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N256">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O256">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P256">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R256">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S256">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T256">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -23303,19 +23303,19 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB256">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC256">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23691,7 +23691,7 @@
         <v>45213.875</v>
       </c>
       <c r="F261" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G261" t="s">
         <v>42</v>
@@ -23961,7 +23961,7 @@
         <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6319573</v>
+        <v>6277482</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24136,13 +24136,13 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G266" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -24151,25 +24151,25 @@
         <v>49</v>
       </c>
       <c r="K266">
+        <v>2.875</v>
+      </c>
+      <c r="L266">
+        <v>3</v>
+      </c>
+      <c r="M266">
+        <v>2.6</v>
+      </c>
+      <c r="N266">
+        <v>3.4</v>
+      </c>
+      <c r="O266">
+        <v>3.1</v>
+      </c>
+      <c r="P266">
         <v>2.3</v>
       </c>
-      <c r="L266">
-        <v>3.2</v>
-      </c>
-      <c r="M266">
-        <v>3.2</v>
-      </c>
-      <c r="N266">
-        <v>2.25</v>
-      </c>
-      <c r="O266">
-        <v>3.2</v>
-      </c>
-      <c r="P266">
-        <v>3.3</v>
-      </c>
       <c r="Q266">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R266">
         <v>1.925</v>
@@ -24178,16 +24178,16 @@
         <v>1.925</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U266">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V266">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W266">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24202,10 +24202,10 @@
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC266">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24213,7 +24213,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6277482</v>
+        <v>6319573</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24225,13 +24225,13 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F267" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -24240,25 +24240,25 @@
         <v>49</v>
       </c>
       <c r="K267">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M267">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N267">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O267">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P267">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q267">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
         <v>1.925</v>
@@ -24267,16 +24267,16 @@
         <v>1.925</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V267">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W267">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24291,10 +24291,10 @@
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24670,7 +24670,7 @@
         <v>45220.77083333334</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G272" t="s">
         <v>38</v>
@@ -24759,7 +24759,7 @@
         <v>45220.77083333334</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G273" t="s">
         <v>47</v>
@@ -25830,7 +25830,7 @@
         <v>29</v>
       </c>
       <c r="G285" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H285">
         <v>5</v>
@@ -26005,7 +26005,7 @@
         <v>45224.89583333334</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G287" t="s">
         <v>36</v>
@@ -26631,7 +26631,7 @@
         <v>34</v>
       </c>
       <c r="G294" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -26987,7 +26987,7 @@
         <v>31</v>
       </c>
       <c r="G298" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6652314</v>
+        <v>6648975</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27162,76 +27162,76 @@
         <v>45231.79166666666</v>
       </c>
       <c r="F300" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G300" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H300">
         <v>1</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K300">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="L300">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M300">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N300">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="O300">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P300">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R300">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S300">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T300">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U300">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V300">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W300">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB300">
         <v>-1</v>
       </c>
       <c r="AC300">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27239,7 +27239,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6648975</v>
+        <v>6652314</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27251,76 +27251,76 @@
         <v>45231.79166666666</v>
       </c>
       <c r="F301" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H301">
         <v>1</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L301">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M301">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N301">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="O301">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P301">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q301">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R301">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S301">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T301">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U301">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X301">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA301">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
         <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27328,7 +27328,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6648378</v>
+        <v>6575367</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27340,10 +27340,10 @@
         <v>45231.83333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -27355,40 +27355,40 @@
         <v>50</v>
       </c>
       <c r="K302">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L302">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M302">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N302">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O302">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P302">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q302">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R302">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S302">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T302">
         <v>2.5</v>
       </c>
       <c r="U302">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V302">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W302">
         <v>-1</v>
@@ -27397,16 +27397,16 @@
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="Z302">
         <v>-1</v>
       </c>
       <c r="AA302">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB302">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27417,7 +27417,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6575367</v>
+        <v>6648378</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27429,10 +27429,10 @@
         <v>45231.83333333334</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G303" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -27444,40 +27444,40 @@
         <v>50</v>
       </c>
       <c r="K303">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L303">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M303">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N303">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="O303">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P303">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q303">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R303">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S303">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T303">
         <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W303">
         <v>-1</v>
@@ -27486,16 +27486,16 @@
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="Z303">
         <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB303">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27696,7 +27696,7 @@
         <v>45232.70833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
         <v>45</v>
@@ -27874,7 +27874,7 @@
         <v>45232.83333333334</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G308" t="s">
         <v>42</v>
@@ -28218,7 +28218,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6661664</v>
+        <v>6576738</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28230,13 +28230,13 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312">
         <v>2</v>
@@ -28245,40 +28245,40 @@
         <v>50</v>
       </c>
       <c r="K312">
+        <v>2.6</v>
+      </c>
+      <c r="L312">
         <v>3.3</v>
       </c>
-      <c r="L312">
-        <v>3.2</v>
-      </c>
       <c r="M312">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N312">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O312">
         <v>3.1</v>
       </c>
       <c r="P312">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S312">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T312">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U312">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V312">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28287,19 +28287,19 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AB312">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC312">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6665176</v>
+        <v>6661664</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,76 +28319,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K313">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="L313">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M313">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N313">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="O313">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P313">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q313">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R313">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S313">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T313">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U313">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V313">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W313">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z313">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA313">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB313">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC313">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28396,7 +28396,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6576738</v>
+        <v>6665176</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28408,76 +28408,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G314" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K314">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L314">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M314">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N314">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O314">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P314">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R314">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S314">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T314">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V314">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA314">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB314">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28678,7 +28678,7 @@
         <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -28942,7 +28942,7 @@
         <v>45238.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G320" t="s">
         <v>32</v>
@@ -29390,7 +29390,7 @@
         <v>48</v>
       </c>
       <c r="G325" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -30087,7 +30087,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6619639</v>
+        <v>6648522</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30099,76 +30099,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F333" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G333" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333">
         <v>1</v>
       </c>
       <c r="J333" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K333">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L333">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M333">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N333">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O333">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P333">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q333">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R333">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S333">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T333">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V333">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X333">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA333">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB333">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6689151</v>
+        <v>6619639</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,61 +30188,61 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F334" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G334" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K334">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L334">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M334">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N334">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O334">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P334">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="Q334">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R334">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S334">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T334">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U334">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X334">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
         <v>-1</v>
@@ -30254,10 +30254,10 @@
         <v>-0</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC334">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6622499</v>
+        <v>6689151</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,76 +30277,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F335" t="s">
+        <v>44</v>
+      </c>
+      <c r="G335" t="s">
         <v>41</v>
       </c>
-      <c r="G335" t="s">
-        <v>33</v>
-      </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K335">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L335">
         <v>3.3</v>
       </c>
       <c r="M335">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N335">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O335">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P335">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q335">
         <v>0</v>
       </c>
       <c r="R335">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S335">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T335">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U335">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V335">
+        <v>1.9</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
         <v>2.1</v>
       </c>
-      <c r="W335">
-        <v>1.75</v>
-      </c>
-      <c r="X335">
-        <v>-1</v>
-      </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA335">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB335">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6648522</v>
+        <v>6622499</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,76 +30366,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F336" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G336" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336">
         <v>1</v>
       </c>
       <c r="J336" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K336">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L336">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M336">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N336">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O336">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P336">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q336">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R336">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S336">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T336">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U336">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V336">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X336">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA336">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC336">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30636,7 +30636,7 @@
         <v>39</v>
       </c>
       <c r="G339" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -31333,7 +31333,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6704396</v>
+        <v>6704082</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31345,76 +31345,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F347" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G347" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K347">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="L347">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M347">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N347">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O347">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P347">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q347">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R347">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S347">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U347">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V347">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y347">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA347">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AC347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31422,7 +31422,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6707529</v>
+        <v>6704396</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31434,76 +31434,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F348" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G348" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J348" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K348">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="L348">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M348">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="N348">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="O348">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P348">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q348">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R348">
+        <v>1.95</v>
+      </c>
+      <c r="S348">
+        <v>1.9</v>
+      </c>
+      <c r="T348">
+        <v>2.75</v>
+      </c>
+      <c r="U348">
+        <v>1.8</v>
+      </c>
+      <c r="V348">
         <v>2.05</v>
       </c>
-      <c r="S348">
-        <v>1.8</v>
-      </c>
-      <c r="T348">
-        <v>2.25</v>
-      </c>
-      <c r="U348">
-        <v>1.875</v>
-      </c>
-      <c r="V348">
-        <v>1.975</v>
-      </c>
       <c r="W348">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X348">
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z348">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC348">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31511,7 +31511,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6637300</v>
+        <v>6707529</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31523,76 +31523,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F349" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G349" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349">
         <v>0</v>
       </c>
       <c r="J349" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K349">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L349">
+        <v>3.3</v>
+      </c>
+      <c r="M349">
+        <v>2.625</v>
+      </c>
+      <c r="N349">
+        <v>2.4</v>
+      </c>
+      <c r="O349">
         <v>3.4</v>
       </c>
-      <c r="M349">
-        <v>5.25</v>
-      </c>
-      <c r="N349">
-        <v>1.615</v>
-      </c>
-      <c r="O349">
-        <v>3.6</v>
-      </c>
       <c r="P349">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q349">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R349">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S349">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T349">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U349">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X349">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y349">
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA349">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB349">
         <v>-1</v>
       </c>
       <c r="AC349">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31600,7 +31600,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6704082</v>
+        <v>6637300</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31612,76 +31612,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F350" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G350" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J350" t="s">
         <v>51</v>
       </c>
       <c r="K350">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="L350">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M350">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="N350">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O350">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P350">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q350">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R350">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S350">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T350">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U350">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V350">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W350">
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y350">
         <v>-1</v>
       </c>
       <c r="Z350">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB350">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -32057,7 +32057,7 @@
         <v>45259.83333333334</v>
       </c>
       <c r="F355" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G355" t="s">
         <v>43</v>
@@ -32149,7 +32149,7 @@
         <v>48</v>
       </c>
       <c r="G356" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H356">
         <v>0</v>
@@ -32772,7 +32772,7 @@
         <v>35</v>
       </c>
       <c r="G363" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H363">
         <v>2</v>
@@ -32861,7 +32861,7 @@
         <v>37</v>
       </c>
       <c r="G364" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H364">
         <v>2</v>
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6705200</v>
+        <v>6723141</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,76 +33659,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G373" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J373" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K373">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L373">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M373">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N373">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O373">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P373">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q373">
         <v>0.25</v>
       </c>
       <c r="R373">
+        <v>2</v>
+      </c>
+      <c r="S373">
+        <v>1.85</v>
+      </c>
+      <c r="T373">
+        <v>2</v>
+      </c>
+      <c r="U373">
+        <v>1.975</v>
+      </c>
+      <c r="V373">
         <v>1.875</v>
       </c>
-      <c r="S373">
-        <v>1.975</v>
-      </c>
-      <c r="T373">
-        <v>2.25</v>
-      </c>
-      <c r="U373">
-        <v>1.875</v>
-      </c>
-      <c r="V373">
-        <v>1.975</v>
-      </c>
       <c r="W373">
         <v>-1</v>
       </c>
       <c r="X373">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y373">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA373">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB373">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC373">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6705186</v>
+        <v>6745537</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,58 +33748,58 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F374" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G374" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H374">
         <v>3</v>
       </c>
       <c r="I374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J374" t="s">
         <v>49</v>
       </c>
       <c r="K374">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L374">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M374">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N374">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O374">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P374">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R374">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S374">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T374">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="V374">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="W374">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33808,13 +33808,13 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0.79</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC374">
         <v>-1</v>
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6721895</v>
+        <v>6745222</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,73 +33837,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F375" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G375" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H375">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J375" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K375">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="L375">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M375">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N375">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O375">
+        <v>3.25</v>
+      </c>
+      <c r="P375">
+        <v>4.5</v>
+      </c>
+      <c r="Q375">
+        <v>-0.5</v>
+      </c>
+      <c r="R375">
+        <v>1.925</v>
+      </c>
+      <c r="S375">
+        <v>1.925</v>
+      </c>
+      <c r="T375">
+        <v>2.25</v>
+      </c>
+      <c r="U375">
+        <v>2.05</v>
+      </c>
+      <c r="V375">
+        <v>1.75</v>
+      </c>
+      <c r="W375">
+        <v>-1</v>
+      </c>
+      <c r="X375">
+        <v>-1</v>
+      </c>
+      <c r="Y375">
         <v>3.5</v>
       </c>
-      <c r="P375">
-        <v>2.5</v>
-      </c>
-      <c r="Q375">
-        <v>0</v>
-      </c>
-      <c r="R375">
-        <v>1.95</v>
-      </c>
-      <c r="S375">
-        <v>1.9</v>
-      </c>
-      <c r="T375">
-        <v>2.5</v>
-      </c>
-      <c r="U375">
-        <v>1.975</v>
-      </c>
-      <c r="V375">
-        <v>1.875</v>
-      </c>
-      <c r="W375">
-        <v>1.55</v>
-      </c>
-      <c r="X375">
-        <v>-1</v>
-      </c>
-      <c r="Y375">
-        <v>-1</v>
-      </c>
       <c r="Z375">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB375">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC375">
         <v>-1</v>
@@ -33914,7 +33914,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6764571</v>
+        <v>6704083</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33926,58 +33926,58 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F376" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G376" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H376">
+        <v>2</v>
+      </c>
+      <c r="I376">
         <v>1</v>
-      </c>
-      <c r="I376">
-        <v>0</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
+        <v>2.05</v>
+      </c>
+      <c r="L376">
         <v>3.25</v>
       </c>
-      <c r="L376">
-        <v>3.3</v>
-      </c>
       <c r="M376">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N376">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O376">
         <v>3.4</v>
       </c>
       <c r="P376">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q376">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S376">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T376">
         <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V376">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W376">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33986,16 +33986,16 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC376">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6723140</v>
+        <v>6705200</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,40 +34015,40 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F377" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G377" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J377" t="s">
         <v>50</v>
       </c>
       <c r="K377">
+        <v>3.5</v>
+      </c>
+      <c r="L377">
+        <v>3.2</v>
+      </c>
+      <c r="M377">
         <v>2.2</v>
       </c>
-      <c r="L377">
-        <v>3.3</v>
-      </c>
-      <c r="M377">
+      <c r="N377">
         <v>3.25</v>
       </c>
-      <c r="N377">
-        <v>2.15</v>
-      </c>
       <c r="O377">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P377">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R377">
         <v>1.875</v>
@@ -34057,13 +34057,13 @@
         <v>1.975</v>
       </c>
       <c r="T377">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U377">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V377">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W377">
         <v>-1</v>
@@ -34072,7 +34072,7 @@
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z377">
         <v>-1</v>
@@ -34081,10 +34081,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB377">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC377">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34092,7 +34092,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6704083</v>
+        <v>6764571</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34104,58 +34104,58 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F378" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G378" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
         <v>49</v>
       </c>
       <c r="K378">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="L378">
+        <v>3.3</v>
+      </c>
+      <c r="M378">
+        <v>2.2</v>
+      </c>
+      <c r="N378">
         <v>3.25</v>
-      </c>
-      <c r="M378">
-        <v>3.6</v>
-      </c>
-      <c r="N378">
-        <v>2.15</v>
       </c>
       <c r="O378">
         <v>3.4</v>
       </c>
       <c r="P378">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q378">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R378">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S378">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T378">
         <v>2.25</v>
       </c>
       <c r="U378">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V378">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W378">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="X378">
         <v>-1</v>
@@ -34164,16 +34164,16 @@
         <v>-1</v>
       </c>
       <c r="Z378">
+        <v>0.95</v>
+      </c>
+      <c r="AA378">
+        <v>-1</v>
+      </c>
+      <c r="AB378">
+        <v>-1</v>
+      </c>
+      <c r="AC378">
         <v>0.875</v>
-      </c>
-      <c r="AA378">
-        <v>-1</v>
-      </c>
-      <c r="AB378">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC378">
-        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6723141</v>
+        <v>6721895</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,49 +34193,49 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F379" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G379" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I379">
         <v>1</v>
       </c>
       <c r="J379" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K379">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L379">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M379">
         <v>2.1</v>
       </c>
       <c r="N379">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O379">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P379">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q379">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R379">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S379">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T379">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U379">
         <v>1.975</v>
@@ -34244,25 +34244,25 @@
         <v>1.875</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X379">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA379">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC379">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6745222</v>
+        <v>6705186</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,73 +34282,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F380" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G380" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K380">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L380">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M380">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N380">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O380">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P380">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q380">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R380">
-        <v>1.925</v>
+        <v>2.03</v>
       </c>
       <c r="S380">
-        <v>1.925</v>
+        <v>1.87</v>
       </c>
       <c r="T380">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U380">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="V380">
-        <v>1.75</v>
+        <v>2.11</v>
       </c>
       <c r="W380">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA380">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -34359,7 +34359,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6745537</v>
+        <v>6723140</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34371,49 +34371,49 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F381" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G381" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H381">
+        <v>2</v>
+      </c>
+      <c r="I381">
         <v>3</v>
       </c>
-      <c r="I381">
-        <v>1</v>
-      </c>
       <c r="J381" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K381">
         <v>2.2</v>
       </c>
       <c r="L381">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M381">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N381">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O381">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P381">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q381">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R381">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S381">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U381">
         <v>1.85</v>
@@ -34422,19 +34422,19 @@
         <v>2</v>
       </c>
       <c r="W381">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z381">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA381">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB381">
         <v>0.8500000000000001</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -136,10 +136,10 @@
     <t>Fluminense</t>
   </si>
   <si>
-    <t>Cuiaba</t>
+    <t>Sao Paulo</t>
   </si>
   <si>
-    <t>Sao Paulo</t>
+    <t>Cuiaba</t>
   </si>
   <si>
     <t>Cruzeiro</t>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6277714</v>
+        <v>6277395</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,73 +1622,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O13">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X13">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA13">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6277395</v>
+        <v>6277714</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,73 +1711,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14">
+        <v>2.375</v>
+      </c>
+      <c r="L14">
+        <v>3.2</v>
+      </c>
+      <c r="M14">
+        <v>3.1</v>
+      </c>
+      <c r="N14">
+        <v>2.5</v>
+      </c>
+      <c r="O14">
+        <v>3.1</v>
+      </c>
+      <c r="P14">
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14">
-        <v>1.7</v>
-      </c>
-      <c r="L14">
-        <v>3.6</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>1.909</v>
-      </c>
-      <c r="O14">
-        <v>3.5</v>
-      </c>
-      <c r="P14">
-        <v>4.5</v>
-      </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S14">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T14">
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
@@ -3491,7 +3491,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3666,7 +3666,7 @@
         <v>45053.66666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>43</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6277297</v>
+        <v>6277856</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,76 +3933,76 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6277856</v>
+        <v>6277297</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N40">
+        <v>1.95</v>
+      </c>
+      <c r="O40">
         <v>3.5</v>
       </c>
-      <c r="O40">
-        <v>3.25</v>
-      </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>2.5</v>
       </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4467,7 +4467,7 @@
         <v>45056.83333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6277402</v>
+        <v>6277298</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,76 +4645,76 @@
         <v>45056.89583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L47">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N47">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O47">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6277298</v>
+        <v>6277402</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,76 +4734,76 @@
         <v>45056.89583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L48">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M48">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N48">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P48">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5271,7 +5271,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5627,7 +5627,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6277668</v>
+        <v>6277862</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,49 +6069,49 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>49</v>
       </c>
       <c r="K63">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N63">
         <v>1.833</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q63">
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.975</v>
@@ -6129,16 +6129,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6277862</v>
+        <v>6277405</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,59 +6158,59 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>49</v>
       </c>
       <c r="K64">
+        <v>2.5</v>
+      </c>
+      <c r="L64">
+        <v>3.4</v>
+      </c>
+      <c r="M64">
+        <v>2.55</v>
+      </c>
+      <c r="N64">
+        <v>2.875</v>
+      </c>
+      <c r="O64">
+        <v>3.3</v>
+      </c>
+      <c r="P64">
+        <v>2.375</v>
+      </c>
+      <c r="Q64">
+        <v>0.25</v>
+      </c>
+      <c r="R64">
+        <v>1.775</v>
+      </c>
+      <c r="S64">
+        <v>2.1</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
+        <v>1.9</v>
+      </c>
+      <c r="V64">
         <v>1.95</v>
       </c>
-      <c r="L64">
-        <v>3.3</v>
-      </c>
-      <c r="M64">
-        <v>3.75</v>
-      </c>
-      <c r="N64">
-        <v>1.833</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>4.5</v>
-      </c>
-      <c r="Q64">
-        <v>-0.5</v>
-      </c>
-      <c r="R64">
-        <v>1.85</v>
-      </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.975</v>
-      </c>
-      <c r="V64">
+      <c r="W64">
         <v>1.875</v>
       </c>
-      <c r="W64">
-        <v>0.833</v>
-      </c>
       <c r="X64">
         <v>-1</v>
       </c>
@@ -6218,13 +6218,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6277405</v>
+        <v>6277668</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,58 +6247,58 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>49</v>
       </c>
       <c r="K65">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="N65">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O65">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T65">
         <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6307,16 +6307,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6277861</v>
+        <v>6277669</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,76 +6336,76 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L66">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N66">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="O66">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V66">
         <v>2.05</v>
       </c>
       <c r="W66">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC66">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6277669</v>
+        <v>6277861</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,76 +6425,76 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M67">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N67">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P67">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
         <v>2.05</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6784,7 +6784,7 @@
         <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>45073.77083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -7226,7 +7226,7 @@
         <v>45073.875</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
         <v>47</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6277302</v>
+        <v>6277865</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,10 +8205,10 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8220,43 +8220,43 @@
         <v>49</v>
       </c>
       <c r="K87">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8265,13 +8265,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6277865</v>
+        <v>6277302</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,10 +8294,10 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8309,43 +8309,43 @@
         <v>49</v>
       </c>
       <c r="K88">
+        <v>2.15</v>
+      </c>
+      <c r="L88">
+        <v>3.2</v>
+      </c>
+      <c r="M88">
+        <v>3.3</v>
+      </c>
+      <c r="N88">
+        <v>2.1</v>
+      </c>
+      <c r="O88">
+        <v>3.3</v>
+      </c>
+      <c r="P88">
+        <v>3.6</v>
+      </c>
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
         <v>1.75</v>
       </c>
-      <c r="L88">
-        <v>3.5</v>
-      </c>
-      <c r="M88">
-        <v>4.333</v>
-      </c>
-      <c r="N88">
-        <v>1.8</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>4.75</v>
-      </c>
-      <c r="Q88">
-        <v>-0.75</v>
-      </c>
-      <c r="R88">
-        <v>2.025</v>
-      </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8354,13 +8354,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8386,7 +8386,7 @@
         <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6277410</v>
+        <v>6655761</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,55 +8739,55 @@
         <v>45087.77083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>51</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
         <v>3.25</v>
       </c>
       <c r="P93">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8799,16 +8799,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
         <v>-0</v>
-      </c>
-      <c r="AB93">
-        <v>0.925</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6655761</v>
+        <v>6277410</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,55 +8917,55 @@
         <v>45087.77083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>51</v>
       </c>
       <c r="K95">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O95">
         <v>3.25</v>
       </c>
       <c r="P95">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8977,16 +8977,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9184,7 +9184,7 @@
         <v>45088.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9629,7 +9629,7 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6277718</v>
+        <v>6277675</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,10 +10074,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10089,19 +10089,19 @@
         <v>50</v>
       </c>
       <c r="K108">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L108">
         <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N108">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P108">
         <v>3</v>
@@ -10110,19 +10110,19 @@
         <v>0</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>2</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10137,13 +10137,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6277675</v>
+        <v>6277718</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,10 +10163,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10178,19 +10178,19 @@
         <v>50</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L109">
         <v>3.2</v>
       </c>
       <c r="M109">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O109">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P109">
         <v>3</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T109">
         <v>2</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10226,13 +10226,13 @@
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6277871</v>
+        <v>6277952</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,10 +10519,10 @@
         <v>45101.77083333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10534,25 +10534,25 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N113">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R113">
         <v>1.925</v>
@@ -10561,7 +10561,7 @@
         <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
         <v>2.025</v>
@@ -10570,7 +10570,7 @@
         <v>1.825</v>
       </c>
       <c r="W113">
-        <v>0.5329999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6277952</v>
+        <v>6277871</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,10 +10608,10 @@
         <v>45101.77083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10623,25 +10623,25 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N114">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="O114">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R114">
         <v>1.925</v>
@@ -10650,7 +10650,7 @@
         <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
         <v>2.025</v>
@@ -10659,7 +10659,7 @@
         <v>1.825</v>
       </c>
       <c r="W114">
-        <v>1.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10700,7 +10700,7 @@
         <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11234,7 +11234,7 @@
         <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11320,7 +11320,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
         <v>39</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6277415</v>
+        <v>6277875</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S127">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X127">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA127">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6277875</v>
+        <v>6277415</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,76 +11854,76 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K128">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
+        <v>4.333</v>
+      </c>
+      <c r="N128">
+        <v>1.5</v>
+      </c>
+      <c r="O128">
         <v>4</v>
       </c>
-      <c r="N128">
-        <v>1.85</v>
-      </c>
-      <c r="O128">
-        <v>3.4</v>
-      </c>
       <c r="P128">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC128">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>45109.77083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
@@ -12299,7 +12299,7 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
         <v>48</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6277418</v>
+        <v>6277953</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N134">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
       <c r="W134">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6277953</v>
+        <v>6277418</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M135">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="N135">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12747,7 +12747,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6277879</v>
+        <v>6278728</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N144">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X144">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6277722</v>
+        <v>6277879</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,52 +13367,52 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S145">
+        <v>1.85</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
         <v>1.8</v>
-      </c>
-      <c r="T145">
-        <v>2</v>
-      </c>
-      <c r="U145">
-        <v>1.75</v>
       </c>
       <c r="V145">
         <v>2.05</v>
@@ -13421,16 +13421,16 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y145">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
         <v>-1</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6278728</v>
+        <v>6277722</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F146" t="s">
+        <v>33</v>
+      </c>
+      <c r="G146" t="s">
         <v>41</v>
       </c>
-      <c r="G146" t="s">
-        <v>44</v>
-      </c>
       <c r="H146">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K146">
+        <v>1.533</v>
+      </c>
+      <c r="L146">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>5.75</v>
+      </c>
+      <c r="N146">
         <v>1.75</v>
       </c>
-      <c r="L146">
-        <v>3.5</v>
-      </c>
-      <c r="M146">
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
         <v>4.5</v>
-      </c>
-      <c r="N146">
-        <v>1.615</v>
-      </c>
-      <c r="O146">
-        <v>3.75</v>
-      </c>
-      <c r="P146">
-        <v>6.5</v>
       </c>
       <c r="Q146">
         <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2</v>
+      </c>
+      <c r="U146">
+        <v>1.75</v>
+      </c>
+      <c r="V146">
         <v>2.05</v>
       </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
-      <c r="U146">
-        <v>1.875</v>
-      </c>
-      <c r="V146">
-        <v>1.975</v>
-      </c>
       <c r="W146">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13990,10 +13990,10 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F152" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" t="s">
         <v>40</v>
-      </c>
-      <c r="G152" t="s">
-        <v>41</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6277882</v>
+        <v>6277423</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,76 +14702,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M160">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="N160">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T160">
         <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC160">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6277423</v>
+        <v>6277882</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,76 +14791,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K161">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L161">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="N161">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
         <v>1.85</v>
-      </c>
-      <c r="S161">
-        <v>2</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X161">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14883,7 +14883,7 @@
         <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15236,7 +15236,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
         <v>48</v>
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6278731</v>
+        <v>6277474</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45143.77083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N171">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O171">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P171">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>2</v>
+      </c>
+      <c r="U171">
         <v>1.925</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.925</v>
       </c>
-      <c r="T171">
-        <v>1.75</v>
-      </c>
-      <c r="U171">
-        <v>1.9</v>
-      </c>
-      <c r="V171">
-        <v>1.95</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X171">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6277474</v>
+        <v>6278731</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45143.77083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
+        <v>3.75</v>
+      </c>
+      <c r="N172">
         <v>2.25</v>
       </c>
-      <c r="N172">
-        <v>2.7</v>
-      </c>
       <c r="O172">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P172">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC172">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15948,7 +15948,7 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
         <v>35</v>
@@ -16393,7 +16393,7 @@
         <v>45144.83333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
         <v>37</v>
@@ -17019,7 +17019,7 @@
         <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17286,7 +17286,7 @@
         <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17461,7 +17461,7 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -17639,7 +17639,7 @@
         <v>45157.77083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
         <v>29</v>
@@ -18443,7 +18443,7 @@
         <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -18532,7 +18532,7 @@
         <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6277690</v>
+        <v>6277689</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,73 +18796,73 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K206">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N206">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O206">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
+        <v>1.875</v>
+      </c>
+      <c r="V206">
+        <v>1.975</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
         <v>2.5</v>
       </c>
-      <c r="U206">
-        <v>1.925</v>
-      </c>
-      <c r="V206">
-        <v>1.925</v>
-      </c>
-      <c r="W206">
-        <v>0.5</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6277689</v>
+        <v>6277690</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,73 +18885,73 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K207">
+        <v>1.615</v>
+      </c>
+      <c r="L207">
+        <v>3.6</v>
+      </c>
+      <c r="M207">
+        <v>5.5</v>
+      </c>
+      <c r="N207">
+        <v>1.5</v>
+      </c>
+      <c r="O207">
+        <v>4</v>
+      </c>
+      <c r="P207">
+        <v>7.5</v>
+      </c>
+      <c r="Q207">
+        <v>-1</v>
+      </c>
+      <c r="R207">
+        <v>1.85</v>
+      </c>
+      <c r="S207">
+        <v>2</v>
+      </c>
+      <c r="T207">
         <v>2.5</v>
       </c>
-      <c r="L207">
-        <v>3.25</v>
-      </c>
-      <c r="M207">
-        <v>2.75</v>
-      </c>
-      <c r="N207">
-        <v>1.75</v>
-      </c>
-      <c r="O207">
-        <v>3.5</v>
-      </c>
-      <c r="P207">
-        <v>4.75</v>
-      </c>
-      <c r="Q207">
-        <v>-0.75</v>
-      </c>
-      <c r="R207">
-        <v>2.025</v>
-      </c>
-      <c r="S207">
-        <v>1.825</v>
-      </c>
-      <c r="T207">
-        <v>2.25</v>
-      </c>
       <c r="U207">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X207">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA207">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -19422,7 +19422,7 @@
         <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -20045,7 +20045,7 @@
         <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7140135</v>
+        <v>7140132</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,73 +20131,73 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221" t="s">
+        <v>50</v>
+      </c>
+      <c r="K221">
+        <v>2.75</v>
+      </c>
+      <c r="L221">
+        <v>3.25</v>
+      </c>
+      <c r="M221">
+        <v>2.55</v>
+      </c>
+      <c r="N221">
+        <v>2.375</v>
+      </c>
+      <c r="O221">
+        <v>3</v>
+      </c>
+      <c r="P221">
+        <v>3.3</v>
+      </c>
+      <c r="Q221">
+        <v>-0.25</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>1.85</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
+        <v>2</v>
+      </c>
+      <c r="V221">
+        <v>1.85</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>2.3</v>
+      </c>
+      <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB221">
         <v>1</v>
-      </c>
-      <c r="J221" t="s">
-        <v>49</v>
-      </c>
-      <c r="K221">
-        <v>1.727</v>
-      </c>
-      <c r="L221">
-        <v>3.6</v>
-      </c>
-      <c r="M221">
-        <v>4.75</v>
-      </c>
-      <c r="N221">
-        <v>1.571</v>
-      </c>
-      <c r="O221">
-        <v>3.8</v>
-      </c>
-      <c r="P221">
-        <v>6.5</v>
-      </c>
-      <c r="Q221">
-        <v>-0.75</v>
-      </c>
-      <c r="R221">
-        <v>1.75</v>
-      </c>
-      <c r="S221">
-        <v>2.05</v>
-      </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
-        <v>1.975</v>
-      </c>
-      <c r="V221">
-        <v>1.875</v>
-      </c>
-      <c r="W221">
-        <v>0.571</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
-      <c r="Y221">
-        <v>-1</v>
-      </c>
-      <c r="Z221">
-        <v>0.375</v>
-      </c>
-      <c r="AA221">
-        <v>-0.5</v>
-      </c>
-      <c r="AB221">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7140132</v>
+        <v>7140135</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,73 +20220,73 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L222">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N222">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O222">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S222">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA222">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20487,7 +20487,7 @@
         <v>45184.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
         <v>30</v>
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6277436</v>
+        <v>6278698</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,76 +21199,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K233">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
         <v>3.5</v>
       </c>
-      <c r="M233">
-        <v>4.5</v>
-      </c>
       <c r="N233">
+        <v>2.375</v>
+      </c>
+      <c r="O233">
+        <v>3.2</v>
+      </c>
+      <c r="P233">
+        <v>3.1</v>
+      </c>
+      <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
+        <v>2</v>
+      </c>
+      <c r="S233">
         <v>1.85</v>
-      </c>
-      <c r="O233">
-        <v>3.3</v>
-      </c>
-      <c r="P233">
-        <v>4.5</v>
-      </c>
-      <c r="Q233">
-        <v>-0.75</v>
-      </c>
-      <c r="R233">
-        <v>2.025</v>
-      </c>
-      <c r="S233">
-        <v>1.825</v>
       </c>
       <c r="T233">
         <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>2.1</v>
+      </c>
+      <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X233">
-        <v>-1</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>0.5125</v>
-      </c>
-      <c r="AA233">
-        <v>-0.5</v>
-      </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6278698</v>
+        <v>6277436</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,76 +21288,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K234">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M234">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N234">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O234">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S234">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T234">
         <v>2.25</v>
       </c>
       <c r="U234">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA234">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB234">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21736,7 +21736,7 @@
         <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>45196.79166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
         <v>46</v>
@@ -21988,7 +21988,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6277318</v>
+        <v>6295861</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22000,61 +22000,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M242">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N242">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O242">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P242">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R242">
+        <v>1.875</v>
+      </c>
+      <c r="S242">
+        <v>1.975</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>2.025</v>
+      </c>
+      <c r="V242">
         <v>1.825</v>
       </c>
-      <c r="S242">
-        <v>2.025</v>
-      </c>
-      <c r="T242">
-        <v>2.25</v>
-      </c>
-      <c r="U242">
-        <v>1.875</v>
-      </c>
-      <c r="V242">
-        <v>1.975</v>
-      </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X242">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
         <v>-1</v>
@@ -22066,10 +22066,10 @@
         <v>-0</v>
       </c>
       <c r="AB242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22077,7 +22077,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6295861</v>
+        <v>6277318</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22089,61 +22089,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G243" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K243">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L243">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M243">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N243">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O243">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P243">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R243">
+        <v>1.825</v>
+      </c>
+      <c r="S243">
+        <v>2.025</v>
+      </c>
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
         <v>1.875</v>
       </c>
-      <c r="S243">
+      <c r="V243">
         <v>1.975</v>
       </c>
-      <c r="T243">
-        <v>2.75</v>
-      </c>
-      <c r="U243">
-        <v>2.025</v>
-      </c>
-      <c r="V243">
-        <v>1.825</v>
-      </c>
       <c r="W243">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y243">
         <v>-1</v>
@@ -22155,10 +22155,10 @@
         <v>-0</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC243">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6278735</v>
+        <v>6277729</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22181,37 +22181,37 @@
         <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
         <v>49</v>
       </c>
       <c r="K244">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M244">
-        <v>4.6</v>
+        <v>2.75</v>
       </c>
       <c r="N244">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O244">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P244">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R244">
         <v>1.925</v>
@@ -22223,13 +22223,13 @@
         <v>2</v>
       </c>
       <c r="U244">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22238,13 +22238,13 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22255,7 +22255,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6277729</v>
+        <v>6278735</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22270,37 +22270,37 @@
         <v>40</v>
       </c>
       <c r="G245" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="s">
         <v>49</v>
       </c>
       <c r="K245">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L245">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M245">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="N245">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O245">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P245">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R245">
         <v>1.925</v>
@@ -22312,13 +22312,13 @@
         <v>2</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W245">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22327,13 +22327,13 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC245">
         <v>-1</v>
@@ -22982,7 +22982,7 @@
         <v>45</v>
       </c>
       <c r="G253" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6277900</v>
+        <v>6279397</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23157,76 +23157,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G255" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I255">
         <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K255">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L255">
+        <v>3.2</v>
+      </c>
+      <c r="M255">
+        <v>2.7</v>
+      </c>
+      <c r="N255">
+        <v>2.25</v>
+      </c>
+      <c r="O255">
+        <v>3.25</v>
+      </c>
+      <c r="P255">
         <v>3.4</v>
       </c>
-      <c r="M255">
-        <v>3.75</v>
-      </c>
-      <c r="N255">
-        <v>1.909</v>
-      </c>
-      <c r="O255">
-        <v>3.4</v>
-      </c>
-      <c r="P255">
-        <v>4.2</v>
-      </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T255">
         <v>2.25</v>
       </c>
       <c r="U255">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA255">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC255">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23323,7 +23323,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6279397</v>
+        <v>6277900</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23335,76 +23335,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G257" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H257">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K257">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L257">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M257">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N257">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O257">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P257">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q257">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S257">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T257">
         <v>2.25</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W257">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB257">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23412,7 +23412,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6277439</v>
+        <v>6277699</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23424,49 +23424,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G258" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K258">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L258">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M258">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N258">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O258">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P258">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q258">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R258">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S258">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T258">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U258">
         <v>1.85</v>
@@ -23475,10 +23475,10 @@
         <v>2</v>
       </c>
       <c r="W258">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
@@ -23490,10 +23490,10 @@
         <v>-0</v>
       </c>
       <c r="AB258">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23501,7 +23501,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6277698</v>
+        <v>6277439</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23513,73 +23513,73 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G259" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I259">
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K259">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L259">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M259">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N259">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O259">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P259">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q259">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R259">
+        <v>1.875</v>
+      </c>
+      <c r="S259">
         <v>1.975</v>
       </c>
-      <c r="S259">
-        <v>1.875</v>
-      </c>
       <c r="T259">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U259">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V259">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA259">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB259">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC259">
         <v>-1</v>
@@ -23590,7 +23590,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6277699</v>
+        <v>6277698</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23602,76 +23602,76 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H260">
         <v>1</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K260">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L260">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M260">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N260">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O260">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P260">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R260">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S260">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T260">
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V260">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W260">
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB260">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC260">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23691,7 +23691,7 @@
         <v>45213.875</v>
       </c>
       <c r="F261" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G261" t="s">
         <v>42</v>
@@ -23961,7 +23961,7 @@
         <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>47</v>
       </c>
       <c r="G266" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H266">
         <v>2</v>
@@ -24302,7 +24302,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6280878</v>
+        <v>6277441</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24314,10 +24314,10 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F268" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G268" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24329,40 +24329,40 @@
         <v>50</v>
       </c>
       <c r="K268">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L268">
+        <v>3.2</v>
+      </c>
+      <c r="M268">
+        <v>2.4</v>
+      </c>
+      <c r="N268">
         <v>3.4</v>
       </c>
-      <c r="M268">
-        <v>4.5</v>
-      </c>
-      <c r="N268">
-        <v>1.7</v>
-      </c>
       <c r="O268">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P268">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q268">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R268">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S268">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -24371,19 +24371,19 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB268">
         <v>-0.5</v>
       </c>
       <c r="AC268">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24391,7 +24391,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6277441</v>
+        <v>6280878</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24403,10 +24403,10 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G269" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -24418,40 +24418,40 @@
         <v>50</v>
       </c>
       <c r="K269">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L269">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N269">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P269">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q269">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R269">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S269">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V269">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W269">
         <v>-1</v>
@@ -24460,19 +24460,19 @@
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB269">
         <v>-0.5</v>
       </c>
       <c r="AC269">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24670,7 +24670,7 @@
         <v>45220.77083333334</v>
       </c>
       <c r="F272" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G272" t="s">
         <v>38</v>
@@ -24759,7 +24759,7 @@
         <v>45220.77083333334</v>
       </c>
       <c r="F273" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G273" t="s">
         <v>47</v>
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7323303</v>
+        <v>6327088</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,49 +25293,49 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G279" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K279">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L279">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M279">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N279">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O279">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P279">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R279">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S279">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T279">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U279">
         <v>1.85</v>
@@ -25344,25 +25344,25 @@
         <v>2</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X279">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA279">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6327088</v>
+        <v>7323303</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,49 +25471,49 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F281" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H281">
         <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K281">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M281">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N281">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O281">
+        <v>3.3</v>
+      </c>
+      <c r="P281">
         <v>3.8</v>
       </c>
-      <c r="P281">
-        <v>4.5</v>
-      </c>
       <c r="Q281">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S281">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
         <v>1.85</v>
@@ -25522,25 +25522,25 @@
         <v>2</v>
       </c>
       <c r="W281">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
+        <v>0.8</v>
+      </c>
+      <c r="AB281">
         <v>-0.5</v>
       </c>
-      <c r="AB281">
-        <v>-1</v>
-      </c>
       <c r="AC281">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25830,7 +25830,7 @@
         <v>29</v>
       </c>
       <c r="G285" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H285">
         <v>5</v>
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7376047</v>
+        <v>6359567</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,40 +26005,40 @@
         <v>45224.89583333334</v>
       </c>
       <c r="F287" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G287" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K287">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L287">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M287">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N287">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="O287">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P287">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q287">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R287">
         <v>1.85</v>
@@ -26047,34 +26047,34 @@
         <v>2</v>
       </c>
       <c r="T287">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U287">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V287">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA287">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC287">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26082,7 +26082,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6359567</v>
+        <v>7376047</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26094,40 +26094,40 @@
         <v>45224.89583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G288" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H288">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K288">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L288">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M288">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N288">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="O288">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P288">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Q288">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R288">
         <v>1.85</v>
@@ -26136,34 +26136,34 @@
         <v>2</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U288">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V288">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W288">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z288">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB288">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26631,7 +26631,7 @@
         <v>34</v>
       </c>
       <c r="G294" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -26987,7 +26987,7 @@
         <v>31</v>
       </c>
       <c r="G298" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6648975</v>
+        <v>6652314</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27162,76 +27162,76 @@
         <v>45231.79166666666</v>
       </c>
       <c r="F300" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G300" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H300">
         <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K300">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L300">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M300">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N300">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="O300">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P300">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q300">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S300">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T300">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U300">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V300">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W300">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X300">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA300">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
         <v>-1</v>
       </c>
       <c r="AC300">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27239,7 +27239,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6652314</v>
+        <v>6648975</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27251,76 +27251,76 @@
         <v>45231.79166666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G301" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H301">
         <v>1</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K301">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="L301">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M301">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N301">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="O301">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P301">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R301">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S301">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T301">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V301">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W301">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X301">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y301">
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB301">
         <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27696,7 +27696,7 @@
         <v>45232.70833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G306" t="s">
         <v>45</v>
@@ -27874,7 +27874,7 @@
         <v>45232.83333333334</v>
       </c>
       <c r="F308" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G308" t="s">
         <v>42</v>
@@ -28218,7 +28218,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6576738</v>
+        <v>6661664</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28230,13 +28230,13 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G312" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312">
         <v>2</v>
@@ -28245,41 +28245,41 @@
         <v>50</v>
       </c>
       <c r="K312">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="L312">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M312">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N312">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O312">
         <v>3.1</v>
       </c>
       <c r="P312">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q312">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R312">
+        <v>1.775</v>
+      </c>
+      <c r="S312">
+        <v>2.1</v>
+      </c>
+      <c r="T312">
+        <v>2.25</v>
+      </c>
+      <c r="U312">
+        <v>2.025</v>
+      </c>
+      <c r="V312">
         <v>1.825</v>
       </c>
-      <c r="S312">
-        <v>2.025</v>
-      </c>
-      <c r="T312">
-        <v>2</v>
-      </c>
-      <c r="U312">
-        <v>1.9</v>
-      </c>
-      <c r="V312">
-        <v>1.95</v>
-      </c>
       <c r="W312">
         <v>-1</v>
       </c>
@@ -28287,19 +28287,19 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AB312">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC312">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6661664</v>
+        <v>6576738</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,13 +28319,13 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G313" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -28334,40 +28334,40 @@
         <v>50</v>
       </c>
       <c r="K313">
+        <v>2.6</v>
+      </c>
+      <c r="L313">
         <v>3.3</v>
       </c>
-      <c r="L313">
-        <v>3.2</v>
-      </c>
       <c r="M313">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N313">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O313">
         <v>3.1</v>
       </c>
       <c r="P313">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q313">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S313">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T313">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U313">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V313">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28376,19 +28376,19 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AB313">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC313">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28678,7 +28678,7 @@
         <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -28942,7 +28942,7 @@
         <v>45238.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G320" t="s">
         <v>32</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6676669</v>
+        <v>6677105</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,76 +29209,76 @@
         <v>45239.79166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G323" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323">
         <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K323">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L323">
         <v>3.1</v>
       </c>
       <c r="M323">
+        <v>2.625</v>
+      </c>
+      <c r="N323">
+        <v>2.8</v>
+      </c>
+      <c r="O323">
+        <v>2.875</v>
+      </c>
+      <c r="P323">
         <v>2.9</v>
       </c>
-      <c r="N323">
-        <v>2.1</v>
-      </c>
-      <c r="O323">
-        <v>3.3</v>
-      </c>
-      <c r="P323">
-        <v>3.6</v>
-      </c>
       <c r="Q323">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R323">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S323">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T323">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U323">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V323">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y323">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA323">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC323">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29286,7 +29286,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6677105</v>
+        <v>6676669</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29298,76 +29298,76 @@
         <v>45239.79166666666</v>
       </c>
       <c r="F324" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G324" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324">
         <v>1</v>
       </c>
       <c r="J324" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K324">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L324">
         <v>3.1</v>
       </c>
       <c r="M324">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N324">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O324">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P324">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q324">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S324">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T324">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U324">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W324">
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB324">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC324">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29390,7 +29390,7 @@
         <v>48</v>
       </c>
       <c r="G325" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6697093</v>
+        <v>6651990</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,76 +29832,76 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F330" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G330" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J330" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K330">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L330">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M330">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N330">
         <v>1.666</v>
       </c>
       <c r="O330">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P330">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q330">
         <v>-0.75</v>
       </c>
       <c r="R330">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S330">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T330">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U330">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V330">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W330">
         <v>-1</v>
       </c>
       <c r="X330">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z330">
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB330">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6651990</v>
+        <v>6697093</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29921,76 +29921,76 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F331" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G331" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K331">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L331">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M331">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N331">
         <v>1.666</v>
       </c>
       <c r="O331">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P331">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q331">
         <v>-0.75</v>
       </c>
       <c r="R331">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S331">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T331">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V331">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W331">
         <v>-1</v>
       </c>
       <c r="X331">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y331">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC331">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30087,7 +30087,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6648522</v>
+        <v>6619639</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30099,76 +30099,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F333" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G333" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333">
         <v>1</v>
       </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K333">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L333">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M333">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N333">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P333">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q333">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R333">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S333">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X333">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA333">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB333">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC333">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6619639</v>
+        <v>6648522</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F334" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G334" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334">
         <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L334">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M334">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N334">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O334">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P334">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q334">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R334">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S334">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T334">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V334">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W334">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA334">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB334">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6689151</v>
+        <v>6622499</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,76 +30277,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F335" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G335" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K335">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L335">
         <v>3.3</v>
       </c>
       <c r="M335">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N335">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O335">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P335">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q335">
         <v>0</v>
       </c>
       <c r="R335">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S335">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T335">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U335">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V335">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W335">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X335">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA335">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC335">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6622499</v>
+        <v>6689151</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,76 +30366,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F336" t="s">
+        <v>44</v>
+      </c>
+      <c r="G336" t="s">
         <v>40</v>
       </c>
-      <c r="G336" t="s">
-        <v>33</v>
-      </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K336">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L336">
         <v>3.3</v>
       </c>
       <c r="M336">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N336">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O336">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P336">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q336">
         <v>0</v>
       </c>
       <c r="R336">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S336">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T336">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U336">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V336">
+        <v>1.9</v>
+      </c>
+      <c r="W336">
+        <v>-1</v>
+      </c>
+      <c r="X336">
         <v>2.1</v>
       </c>
-      <c r="W336">
-        <v>1.75</v>
-      </c>
-      <c r="X336">
-        <v>-1</v>
-      </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA336">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB336">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30636,7 +30636,7 @@
         <v>39</v>
       </c>
       <c r="G339" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -31333,7 +31333,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6704082</v>
+        <v>6704396</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31345,76 +31345,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F347" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G347" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J347" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K347">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="L347">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M347">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N347">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O347">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P347">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q347">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R347">
+        <v>1.95</v>
+      </c>
+      <c r="S347">
+        <v>1.9</v>
+      </c>
+      <c r="T347">
+        <v>2.75</v>
+      </c>
+      <c r="U347">
         <v>1.8</v>
       </c>
-      <c r="S347">
+      <c r="V347">
         <v>2.05</v>
       </c>
-      <c r="T347">
-        <v>2.25</v>
-      </c>
-      <c r="U347">
-        <v>2.025</v>
-      </c>
-      <c r="V347">
-        <v>1.825</v>
-      </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z347">
+        <v>-1</v>
+      </c>
+      <c r="AA347">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB347">
         <v>0.4</v>
       </c>
-      <c r="AA347">
+      <c r="AC347">
         <v>-0.5</v>
-      </c>
-      <c r="AB347">
-        <v>1.025</v>
-      </c>
-      <c r="AC347">
-        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31422,7 +31422,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6704396</v>
+        <v>6707529</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31434,76 +31434,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F348" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G348" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K348">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="L348">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M348">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="N348">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="O348">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P348">
+        <v>2.9</v>
+      </c>
+      <c r="Q348">
+        <v>-0.25</v>
+      </c>
+      <c r="R348">
+        <v>2.05</v>
+      </c>
+      <c r="S348">
+        <v>1.8</v>
+      </c>
+      <c r="T348">
+        <v>2.25</v>
+      </c>
+      <c r="U348">
+        <v>1.875</v>
+      </c>
+      <c r="V348">
+        <v>1.975</v>
+      </c>
+      <c r="W348">
         <v>1.4</v>
       </c>
-      <c r="Q348">
-        <v>1.25</v>
-      </c>
-      <c r="R348">
-        <v>1.95</v>
-      </c>
-      <c r="S348">
-        <v>1.9</v>
-      </c>
-      <c r="T348">
-        <v>2.75</v>
-      </c>
-      <c r="U348">
-        <v>1.8</v>
-      </c>
-      <c r="V348">
-        <v>2.05</v>
-      </c>
-      <c r="W348">
-        <v>-1</v>
-      </c>
       <c r="X348">
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA348">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31511,7 +31511,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6707529</v>
+        <v>6637300</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31523,76 +31523,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F349" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G349" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349">
         <v>0</v>
       </c>
       <c r="J349" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K349">
+        <v>1.727</v>
+      </c>
+      <c r="L349">
+        <v>3.4</v>
+      </c>
+      <c r="M349">
+        <v>5.25</v>
+      </c>
+      <c r="N349">
+        <v>1.615</v>
+      </c>
+      <c r="O349">
+        <v>3.6</v>
+      </c>
+      <c r="P349">
+        <v>7</v>
+      </c>
+      <c r="Q349">
+        <v>-0.75</v>
+      </c>
+      <c r="R349">
+        <v>1.825</v>
+      </c>
+      <c r="S349">
+        <v>2.025</v>
+      </c>
+      <c r="T349">
+        <v>2</v>
+      </c>
+      <c r="U349">
+        <v>1.925</v>
+      </c>
+      <c r="V349">
+        <v>1.925</v>
+      </c>
+      <c r="W349">
+        <v>-1</v>
+      </c>
+      <c r="X349">
         <v>2.6</v>
       </c>
-      <c r="L349">
-        <v>3.3</v>
-      </c>
-      <c r="M349">
-        <v>2.625</v>
-      </c>
-      <c r="N349">
-        <v>2.4</v>
-      </c>
-      <c r="O349">
-        <v>3.4</v>
-      </c>
-      <c r="P349">
-        <v>2.9</v>
-      </c>
-      <c r="Q349">
-        <v>-0.25</v>
-      </c>
-      <c r="R349">
-        <v>2.05</v>
-      </c>
-      <c r="S349">
-        <v>1.8</v>
-      </c>
-      <c r="T349">
-        <v>2.25</v>
-      </c>
-      <c r="U349">
-        <v>1.875</v>
-      </c>
-      <c r="V349">
-        <v>1.975</v>
-      </c>
-      <c r="W349">
-        <v>1.4</v>
-      </c>
-      <c r="X349">
-        <v>-1</v>
-      </c>
       <c r="Y349">
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA349">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB349">
         <v>-1</v>
       </c>
       <c r="AC349">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31600,7 +31600,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6637300</v>
+        <v>6704082</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31612,76 +31612,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F350" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G350" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
         <v>51</v>
       </c>
       <c r="K350">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="L350">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M350">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="N350">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O350">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P350">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q350">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
+        <v>1.8</v>
+      </c>
+      <c r="S350">
+        <v>2.05</v>
+      </c>
+      <c r="T350">
+        <v>2.25</v>
+      </c>
+      <c r="U350">
+        <v>2.025</v>
+      </c>
+      <c r="V350">
         <v>1.825</v>
       </c>
-      <c r="S350">
-        <v>2.025</v>
-      </c>
-      <c r="T350">
-        <v>2</v>
-      </c>
-      <c r="U350">
-        <v>1.925</v>
-      </c>
-      <c r="V350">
-        <v>1.925</v>
-      </c>
       <c r="W350">
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y350">
         <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA350">
+        <v>-0.5</v>
+      </c>
+      <c r="AB350">
         <v>1.025</v>
       </c>
-      <c r="AB350">
-        <v>-1</v>
-      </c>
       <c r="AC350">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -32045,7 +32045,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6648739</v>
+        <v>7526668</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32057,55 +32057,55 @@
         <v>45259.83333333334</v>
       </c>
       <c r="F355" t="s">
+        <v>48</v>
+      </c>
+      <c r="G355" t="s">
         <v>40</v>
       </c>
-      <c r="G355" t="s">
-        <v>43</v>
-      </c>
       <c r="H355">
         <v>0</v>
       </c>
       <c r="I355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J355" t="s">
         <v>50</v>
       </c>
       <c r="K355">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L355">
+        <v>3.2</v>
+      </c>
+      <c r="M355">
+        <v>3.6</v>
+      </c>
+      <c r="N355">
+        <v>2.2</v>
+      </c>
+      <c r="O355">
         <v>3.1</v>
       </c>
-      <c r="M355">
-        <v>3</v>
-      </c>
-      <c r="N355">
-        <v>3.1</v>
-      </c>
-      <c r="O355">
-        <v>2.875</v>
-      </c>
       <c r="P355">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q355">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R355">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S355">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T355">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U355">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V355">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W355">
         <v>-1</v>
@@ -32114,19 +32114,19 @@
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>1.625</v>
+        <v>2.6</v>
       </c>
       <c r="Z355">
         <v>-1</v>
       </c>
       <c r="AA355">
-        <v>0.7</v>
+        <v>0.925</v>
       </c>
       <c r="AB355">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC355">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32134,7 +32134,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7526668</v>
+        <v>6648739</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32146,55 +32146,55 @@
         <v>45259.83333333334</v>
       </c>
       <c r="F356" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G356" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H356">
         <v>0</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J356" t="s">
         <v>50</v>
       </c>
       <c r="K356">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L356">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M356">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N356">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O356">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P356">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q356">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R356">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S356">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T356">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U356">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V356">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W356">
         <v>-1</v>
@@ -32203,19 +32203,19 @@
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>2.6</v>
+        <v>1.625</v>
       </c>
       <c r="Z356">
         <v>-1</v>
       </c>
       <c r="AA356">
-        <v>0.925</v>
+        <v>0.7</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC356">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32772,7 +32772,7 @@
         <v>35</v>
       </c>
       <c r="G363" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H363">
         <v>2</v>
@@ -32861,7 +32861,7 @@
         <v>37</v>
       </c>
       <c r="G364" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H364">
         <v>2</v>
@@ -33024,7 +33024,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6677292</v>
+        <v>6733768</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33036,13 +33036,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F366" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G366" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I366">
         <v>0</v>
@@ -33051,43 +33051,43 @@
         <v>49</v>
       </c>
       <c r="K366">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L366">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M366">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N366">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O366">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P366">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="Q366">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R366">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="S366">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="T366">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U366">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V366">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W366">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="X366">
         <v>-1</v>
@@ -33096,16 +33096,16 @@
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA366">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC366">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6707715</v>
+        <v>6733112</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,58 +33125,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G367" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H367">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
         <v>49</v>
       </c>
       <c r="K367">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="L367">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M367">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N367">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O367">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P367">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="Q367">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R367">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="S367">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T367">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U367">
+        <v>1.825</v>
+      </c>
+      <c r="V367">
         <v>2.025</v>
       </c>
-      <c r="V367">
-        <v>1.825</v>
-      </c>
       <c r="W367">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X367">
         <v>-1</v>
@@ -33185,16 +33185,16 @@
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="AB367">
+        <v>-1</v>
+      </c>
+      <c r="AC367">
         <v>1.025</v>
-      </c>
-      <c r="AC367">
-        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33202,7 +33202,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6705049</v>
+        <v>6677290</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33214,76 +33214,76 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F368" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G368" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K368">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L368">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M368">
+        <v>4.75</v>
+      </c>
+      <c r="N368">
+        <v>1.85</v>
+      </c>
+      <c r="O368">
+        <v>3.5</v>
+      </c>
+      <c r="P368">
         <v>4.5</v>
-      </c>
-      <c r="N368">
-        <v>1.909</v>
-      </c>
-      <c r="O368">
-        <v>3.4</v>
-      </c>
-      <c r="P368">
-        <v>4.2</v>
       </c>
       <c r="Q368">
         <v>-0.5</v>
       </c>
       <c r="R368">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="S368">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="T368">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U368">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V368">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W368">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X368">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA368">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB368">
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33291,7 +33291,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6677290</v>
+        <v>6705049</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33303,76 +33303,76 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F369" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G369" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369">
         <v>0</v>
       </c>
       <c r="J369" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K369">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L369">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M369">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N369">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O369">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P369">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q369">
         <v>-0.5</v>
       </c>
       <c r="R369">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="S369">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="T369">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U369">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V369">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W369">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X369">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y369">
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB369">
         <v>-1</v>
       </c>
       <c r="AC369">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33380,7 +33380,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6733768</v>
+        <v>6707715</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33392,58 +33392,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F370" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G370" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H370">
         <v>3</v>
       </c>
       <c r="I370">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J370" t="s">
         <v>49</v>
       </c>
       <c r="K370">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L370">
         <v>3.4</v>
       </c>
       <c r="M370">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N370">
+        <v>4</v>
+      </c>
+      <c r="O370">
+        <v>3.75</v>
+      </c>
+      <c r="P370">
+        <v>1.909</v>
+      </c>
+      <c r="Q370">
+        <v>0.5</v>
+      </c>
+      <c r="R370">
+        <v>1.9</v>
+      </c>
+      <c r="S370">
         <v>1.95</v>
       </c>
-      <c r="O370">
-        <v>3.25</v>
-      </c>
-      <c r="P370">
-        <v>4.2</v>
-      </c>
-      <c r="Q370">
-        <v>-0.5</v>
-      </c>
-      <c r="R370">
-        <v>1.975</v>
-      </c>
-      <c r="S370">
-        <v>1.875</v>
-      </c>
       <c r="T370">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U370">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V370">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W370">
-        <v>0.95</v>
+        <v>3</v>
       </c>
       <c r="X370">
         <v>-1</v>
@@ -33452,13 +33452,13 @@
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA370">
         <v>-1</v>
       </c>
       <c r="AB370">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC370">
         <v>-1</v>
@@ -33469,7 +33469,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6733112</v>
+        <v>6677292</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33481,10 +33481,10 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G371" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H371">
         <v>1</v>
@@ -33496,43 +33496,43 @@
         <v>49</v>
       </c>
       <c r="K371">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="L371">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M371">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="N371">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O371">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="P371">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q371">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R371">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S371">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T371">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U371">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V371">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W371">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X371">
         <v>-1</v>
@@ -33541,16 +33541,16 @@
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>0.47</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6723141</v>
+        <v>6705200</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,76 +33659,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G373" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J373" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K373">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L373">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M373">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N373">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O373">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P373">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q373">
         <v>0.25</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S373">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T373">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U373">
+        <v>1.875</v>
+      </c>
+      <c r="V373">
         <v>1.975</v>
       </c>
-      <c r="V373">
-        <v>1.875</v>
-      </c>
       <c r="W373">
         <v>-1</v>
       </c>
       <c r="X373">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z373">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB373">
         <v>-0.5</v>
       </c>
-      <c r="AB373">
-        <v>0</v>
-      </c>
       <c r="AC373">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6745537</v>
+        <v>6705186</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,58 +33748,58 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F374" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G374" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H374">
         <v>3</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374" t="s">
         <v>49</v>
       </c>
       <c r="K374">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L374">
+        <v>3</v>
+      </c>
+      <c r="M374">
+        <v>2.7</v>
+      </c>
+      <c r="N374">
+        <v>2.3</v>
+      </c>
+      <c r="O374">
         <v>3.2</v>
       </c>
-      <c r="M374">
-        <v>3.5</v>
-      </c>
-      <c r="N374">
-        <v>2.05</v>
-      </c>
-      <c r="O374">
+      <c r="P374">
         <v>3.3</v>
       </c>
-      <c r="P374">
-        <v>3.8</v>
-      </c>
       <c r="Q374">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R374">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S374">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U374">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="V374">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="W374">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33808,13 +33808,13 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0.8500000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AC374">
         <v>-1</v>
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6745222</v>
+        <v>6721895</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,73 +33837,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F375" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G375" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H375">
+        <v>4</v>
+      </c>
+      <c r="I375">
         <v>1</v>
       </c>
-      <c r="I375">
-        <v>2</v>
-      </c>
       <c r="J375" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K375">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L375">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M375">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N375">
+        <v>2.55</v>
+      </c>
+      <c r="O375">
+        <v>3.5</v>
+      </c>
+      <c r="P375">
+        <v>2.5</v>
+      </c>
+      <c r="Q375">
+        <v>0</v>
+      </c>
+      <c r="R375">
         <v>1.95</v>
       </c>
-      <c r="O375">
-        <v>3.25</v>
-      </c>
-      <c r="P375">
-        <v>4.5</v>
-      </c>
-      <c r="Q375">
-        <v>-0.5</v>
-      </c>
-      <c r="R375">
-        <v>1.925</v>
-      </c>
       <c r="S375">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T375">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U375">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V375">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W375">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X375">
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA375">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB375">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC375">
         <v>-1</v>
@@ -33914,7 +33914,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6704083</v>
+        <v>6764571</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33926,58 +33926,58 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F376" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G376" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="L376">
+        <v>3.3</v>
+      </c>
+      <c r="M376">
+        <v>2.2</v>
+      </c>
+      <c r="N376">
         <v>3.25</v>
-      </c>
-      <c r="M376">
-        <v>3.6</v>
-      </c>
-      <c r="N376">
-        <v>2.15</v>
       </c>
       <c r="O376">
         <v>3.4</v>
       </c>
       <c r="P376">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q376">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R376">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S376">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T376">
         <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V376">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W376">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33986,16 +33986,16 @@
         <v>-1</v>
       </c>
       <c r="Z376">
+        <v>0.95</v>
+      </c>
+      <c r="AA376">
+        <v>-1</v>
+      </c>
+      <c r="AB376">
+        <v>-1</v>
+      </c>
+      <c r="AC376">
         <v>0.875</v>
-      </c>
-      <c r="AA376">
-        <v>-1</v>
-      </c>
-      <c r="AB376">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC376">
-        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6705200</v>
+        <v>6723140</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,40 +34015,40 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F377" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G377" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J377" t="s">
         <v>50</v>
       </c>
       <c r="K377">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L377">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M377">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N377">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O377">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P377">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q377">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R377">
         <v>1.875</v>
@@ -34057,13 +34057,13 @@
         <v>1.975</v>
       </c>
       <c r="T377">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U377">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V377">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W377">
         <v>-1</v>
@@ -34072,7 +34072,7 @@
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z377">
         <v>-1</v>
@@ -34081,10 +34081,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB377">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC377">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34092,7 +34092,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6764571</v>
+        <v>6704083</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34104,58 +34104,58 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F378" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G378" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H378">
+        <v>2</v>
+      </c>
+      <c r="I378">
         <v>1</v>
-      </c>
-      <c r="I378">
-        <v>0</v>
       </c>
       <c r="J378" t="s">
         <v>49</v>
       </c>
       <c r="K378">
+        <v>2.05</v>
+      </c>
+      <c r="L378">
         <v>3.25</v>
       </c>
-      <c r="L378">
-        <v>3.3</v>
-      </c>
       <c r="M378">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N378">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O378">
         <v>3.4</v>
       </c>
       <c r="P378">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q378">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R378">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S378">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T378">
         <v>2.25</v>
       </c>
       <c r="U378">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V378">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W378">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="X378">
         <v>-1</v>
@@ -34164,16 +34164,16 @@
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA378">
         <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC378">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6721895</v>
+        <v>6723141</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,49 +34193,49 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F379" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G379" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H379">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I379">
         <v>1</v>
       </c>
       <c r="J379" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K379">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L379">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M379">
         <v>2.1</v>
       </c>
       <c r="N379">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O379">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P379">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q379">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R379">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S379">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T379">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U379">
         <v>1.975</v>
@@ -34244,25 +34244,25 @@
         <v>1.875</v>
       </c>
       <c r="W379">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X379">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB379">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC379">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6705186</v>
+        <v>6745222</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,73 +34282,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F380" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G380" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J380" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K380">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L380">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M380">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N380">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O380">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P380">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q380">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R380">
-        <v>2.03</v>
+        <v>1.925</v>
       </c>
       <c r="S380">
-        <v>1.87</v>
+        <v>1.925</v>
       </c>
       <c r="T380">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U380">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="V380">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="W380">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z380">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB380">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -34359,7 +34359,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6723140</v>
+        <v>6745537</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34371,49 +34371,49 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F381" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G381" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I381">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J381" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K381">
         <v>2.2</v>
       </c>
       <c r="L381">
+        <v>3.2</v>
+      </c>
+      <c r="M381">
+        <v>3.5</v>
+      </c>
+      <c r="N381">
+        <v>2.05</v>
+      </c>
+      <c r="O381">
         <v>3.3</v>
       </c>
-      <c r="M381">
-        <v>3.25</v>
-      </c>
-      <c r="N381">
-        <v>2.15</v>
-      </c>
-      <c r="O381">
-        <v>3.75</v>
-      </c>
       <c r="P381">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q381">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R381">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S381">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T381">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U381">
         <v>1.85</v>
@@ -34422,19 +34422,19 @@
         <v>2</v>
       </c>
       <c r="W381">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA381">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
         <v>0.8500000000000001</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -136,10 +136,10 @@
     <t>Fluminense</t>
   </si>
   <si>
-    <t>Sao Paulo</t>
+    <t>Cuiaba</t>
   </si>
   <si>
-    <t>Cuiaba</t>
+    <t>Sao Paulo</t>
   </si>
   <si>
     <t>Cruzeiro</t>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6277395</v>
+        <v>6277714</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,73 +1622,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <v>2.375</v>
+      </c>
+      <c r="L13">
+        <v>3.2</v>
+      </c>
+      <c r="M13">
+        <v>3.1</v>
+      </c>
+      <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>3.1</v>
+      </c>
+      <c r="P13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13">
-        <v>1.7</v>
-      </c>
-      <c r="L13">
-        <v>3.6</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>1.909</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
-      <c r="P13">
-        <v>4.5</v>
-      </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6277714</v>
+        <v>6277395</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,73 +1711,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X14">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>45046.77083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
@@ -3491,7 +3491,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6277664</v>
+        <v>6278718</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,58 +3577,58 @@
         <v>45053.66666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>49</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N35">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
+        <v>1.825</v>
+      </c>
+      <c r="V35">
         <v>2.025</v>
       </c>
-      <c r="V35">
-        <v>1.825</v>
-      </c>
       <c r="W35">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,16 +3637,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6278718</v>
+        <v>6277664</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,58 +3666,58 @@
         <v>45053.66666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>49</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
+        <v>2.025</v>
+      </c>
+      <c r="V36">
         <v>1.825</v>
       </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
       <c r="W36">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,16 +3726,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC36">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6277462</v>
+        <v>6277297</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,40 +3844,40 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N38">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
+        <v>3.5</v>
+      </c>
+      <c r="P38">
         <v>4</v>
       </c>
-      <c r="P38">
-        <v>1.666</v>
-      </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
         <v>1.95</v>
@@ -3886,22 +3886,22 @@
         <v>1.9</v>
       </c>
       <c r="T38">
+        <v>2.25</v>
+      </c>
+      <c r="U38">
+        <v>1.8</v>
+      </c>
+      <c r="V38">
+        <v>2.05</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
         <v>2.5</v>
       </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
       <c r="Y38">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
@@ -3910,7 +3910,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6277297</v>
+        <v>6277462</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,40 +3933,40 @@
         <v>45053.77083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N39">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
         <v>1.95</v>
@@ -3975,22 +3975,22 @@
         <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z39">
         <v>-1</v>
@@ -3999,7 +3999,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4467,7 +4467,7 @@
         <v>45056.83333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6277298</v>
+        <v>6277402</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,76 +4645,76 @@
         <v>45056.89583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M47">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N47">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P47">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6277402</v>
+        <v>6277298</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,76 +4734,76 @@
         <v>45056.89583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M48">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N48">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O48">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC48">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5271,7 +5271,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6277299</v>
+        <v>6278720</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,16 +5446,16 @@
         <v>45060.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>51</v>
@@ -5464,58 +5464,58 @@
         <v>2.1</v>
       </c>
       <c r="L56">
+        <v>3.2</v>
+      </c>
+      <c r="M56">
         <v>3.25</v>
       </c>
-      <c r="M56">
-        <v>3.2</v>
-      </c>
       <c r="N56">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q56">
+        <v>-0.25</v>
+      </c>
+      <c r="R56">
+        <v>2.125</v>
+      </c>
+      <c r="S56">
+        <v>1.75</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>1.85</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>2</v>
+      </c>
+      <c r="Y56">
+        <v>-1</v>
+      </c>
+      <c r="Z56">
         <v>-0.5</v>
       </c>
-      <c r="R56">
-        <v>1.85</v>
-      </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.925</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>2.5</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>-1</v>
-      </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6278720</v>
+        <v>6277299</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,16 +5624,16 @@
         <v>45060.66666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>51</v>
@@ -5642,58 +5642,58 @@
         <v>2.1</v>
       </c>
       <c r="L58">
+        <v>3.25</v>
+      </c>
+      <c r="M58">
         <v>3.2</v>
       </c>
-      <c r="M58">
-        <v>3.25</v>
-      </c>
       <c r="N58">
+        <v>1.909</v>
+      </c>
+      <c r="O58">
+        <v>3.5</v>
+      </c>
+      <c r="P58">
+        <v>4.2</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
         <v>2.5</v>
       </c>
-      <c r="O58">
-        <v>3</v>
-      </c>
-      <c r="P58">
-        <v>3.1</v>
-      </c>
-      <c r="Q58">
-        <v>-0.25</v>
-      </c>
-      <c r="R58">
-        <v>2.125</v>
-      </c>
-      <c r="S58">
-        <v>1.75</v>
-      </c>
-      <c r="T58">
-        <v>2</v>
-      </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6336,7 +6336,7 @@
         <v>45066.77083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
         <v>44</v>
@@ -6784,7 +6784,7 @@
         <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>45073.77083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -7226,7 +7226,7 @@
         <v>45073.875</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
         <v>47</v>
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6277950</v>
+        <v>6278722</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,46 +7493,46 @@
         <v>45074.77083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O79">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
         <v>2.25</v>
@@ -7544,19 +7544,19 @@
         <v>1.85</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X79">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA79">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
         <v>-0.5</v>
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6278722</v>
+        <v>6277950</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,46 +7582,46 @@
         <v>45074.77083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L80">
+        <v>3.2</v>
+      </c>
+      <c r="M80">
+        <v>2.75</v>
+      </c>
+      <c r="N80">
+        <v>2.2</v>
+      </c>
+      <c r="O80">
         <v>3.3</v>
       </c>
-      <c r="M80">
-        <v>3.75</v>
-      </c>
-      <c r="N80">
-        <v>1.75</v>
-      </c>
-      <c r="O80">
+      <c r="P80">
         <v>3.4</v>
       </c>
-      <c r="P80">
-        <v>5</v>
-      </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
         <v>2.25</v>
@@ -7633,19 +7633,19 @@
         <v>1.85</v>
       </c>
       <c r="W80">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB80">
         <v>-0.5</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6277409</v>
+        <v>6277408</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45080.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
+        <v>3.4</v>
+      </c>
+      <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.1</v>
+      </c>
+      <c r="N83">
+        <v>3.4</v>
+      </c>
+      <c r="O83">
+        <v>3.1</v>
+      </c>
+      <c r="P83">
         <v>2.3</v>
       </c>
-      <c r="L83">
-        <v>3.25</v>
-      </c>
-      <c r="M83">
-        <v>2.875</v>
-      </c>
-      <c r="N83">
-        <v>2.75</v>
-      </c>
-      <c r="O83">
-        <v>3.25</v>
-      </c>
-      <c r="P83">
-        <v>2.55</v>
-      </c>
       <c r="Q83">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6277408</v>
+        <v>6277409</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45080.77083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>49</v>
+      </c>
+      <c r="K84">
+        <v>2.3</v>
+      </c>
+      <c r="L84">
+        <v>3.25</v>
+      </c>
+      <c r="M84">
+        <v>2.875</v>
+      </c>
+      <c r="N84">
+        <v>2.75</v>
+      </c>
+      <c r="O84">
+        <v>3.25</v>
+      </c>
+      <c r="P84">
+        <v>2.55</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>1.85</v>
+      </c>
+      <c r="T84">
+        <v>2</v>
+      </c>
+      <c r="U84">
+        <v>1.825</v>
+      </c>
+      <c r="V84">
+        <v>2.025</v>
+      </c>
+      <c r="W84">
+        <v>1.75</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
         <v>1</v>
       </c>
-      <c r="J84" t="s">
-        <v>50</v>
-      </c>
-      <c r="K84">
-        <v>3.4</v>
-      </c>
-      <c r="L84">
-        <v>3.2</v>
-      </c>
-      <c r="M84">
-        <v>2.1</v>
-      </c>
-      <c r="N84">
-        <v>3.4</v>
-      </c>
-      <c r="O84">
-        <v>3.1</v>
-      </c>
-      <c r="P84">
-        <v>2.3</v>
-      </c>
-      <c r="Q84">
-        <v>0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.875</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
-      <c r="T84">
-        <v>2</v>
-      </c>
-      <c r="U84">
-        <v>1.9</v>
-      </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
-      <c r="Y84">
-        <v>1.3</v>
-      </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
       <c r="AA84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8208,7 +8208,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6277467</v>
+        <v>6277671</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,76 +8383,76 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M89">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="N89">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P89">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R89">
+        <v>1.875</v>
+      </c>
+      <c r="S89">
+        <v>1.975</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
         <v>1.925</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>1.925</v>
       </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>2</v>
-      </c>
-      <c r="V89">
-        <v>1.85</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
         <v>0.925</v>
       </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6277671</v>
+        <v>6277467</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45081.77083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="N90">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="O90">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8920,7 +8920,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>45088.66666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6277674</v>
+        <v>6277412</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N102">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
         <v>3.4</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z102">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6277412</v>
+        <v>6277674</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,76 +9629,76 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K103">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
         <v>3.4</v>
       </c>
       <c r="P103">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q103">
+        <v>-0.75</v>
+      </c>
+      <c r="R103">
+        <v>2.025</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
+        <v>2.25</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
+        <v>1.9</v>
+      </c>
+      <c r="W103">
+        <v>0.8</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.5125</v>
+      </c>
+      <c r="AA103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>1.925</v>
-      </c>
-      <c r="S103">
-        <v>1.925</v>
-      </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.975</v>
-      </c>
-      <c r="V103">
-        <v>1.875</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>3.2</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
-      <c r="AA103">
-        <v>0.925</v>
-      </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6277675</v>
+        <v>6277718</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,10 +10163,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10178,19 +10178,19 @@
         <v>50</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L109">
         <v>3.2</v>
       </c>
       <c r="M109">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O109">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P109">
         <v>3</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T109">
         <v>2</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10226,13 +10226,13 @@
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6277718</v>
+        <v>6277675</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,10 +10252,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10267,19 +10267,19 @@
         <v>50</v>
       </c>
       <c r="K110">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L110">
         <v>3.2</v>
       </c>
       <c r="M110">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N110">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P110">
         <v>3</v>
@@ -10288,19 +10288,19 @@
         <v>0</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10315,13 +10315,13 @@
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10700,7 +10700,7 @@
         <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11234,7 +11234,7 @@
         <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11320,7 +11320,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
         <v>39</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6277415</v>
+        <v>6277875</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S127">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X127">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA127">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6277875</v>
+        <v>6277677</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,40 +11854,40 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K128">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N128">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P128">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
         <v>1.925</v>
@@ -11899,31 +11899,31 @@
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6277677</v>
+        <v>6277415</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,10 +11943,10 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -11958,58 +11958,58 @@
         <v>51</v>
       </c>
       <c r="K129">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L129">
+        <v>3.75</v>
+      </c>
+      <c r="M129">
+        <v>4.333</v>
+      </c>
+      <c r="N129">
+        <v>1.5</v>
+      </c>
+      <c r="O129">
+        <v>4</v>
+      </c>
+      <c r="P129">
+        <v>7.5</v>
+      </c>
+      <c r="Q129">
+        <v>-1</v>
+      </c>
+      <c r="R129">
+        <v>1.75</v>
+      </c>
+      <c r="S129">
+        <v>2.05</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>2.05</v>
+      </c>
+      <c r="V129">
+        <v>1.8</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
         <v>3</v>
       </c>
-      <c r="M129">
-        <v>2.15</v>
-      </c>
-      <c r="N129">
-        <v>2.25</v>
-      </c>
-      <c r="O129">
-        <v>3.25</v>
-      </c>
-      <c r="P129">
-        <v>3.3</v>
-      </c>
-      <c r="Q129">
-        <v>-0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.925</v>
-      </c>
-      <c r="S129">
-        <v>1.925</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
-      <c r="U129">
-        <v>1.95</v>
-      </c>
-      <c r="V129">
-        <v>1.9</v>
-      </c>
-      <c r="W129">
-        <v>-1</v>
-      </c>
-      <c r="X129">
-        <v>2.25</v>
-      </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12032,7 +12032,7 @@
         <v>45109.77083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
         <v>45</v>
@@ -12299,7 +12299,7 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
         <v>48</v>
@@ -12836,7 +12836,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6277722</v>
+        <v>6278728</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N145">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q145">
         <v>-0.75</v>
       </c>
       <c r="R145">
+        <v>1.85</v>
+      </c>
+      <c r="S145">
         <v>2.05</v>
       </c>
-      <c r="S145">
-        <v>1.8</v>
-      </c>
       <c r="T145">
         <v>2</v>
       </c>
       <c r="U145">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6278728</v>
+        <v>6277722</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F146" t="s">
+        <v>33</v>
+      </c>
+      <c r="G146" t="s">
         <v>40</v>
       </c>
-      <c r="G146" t="s">
-        <v>45</v>
-      </c>
       <c r="H146">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K146">
+        <v>1.533</v>
+      </c>
+      <c r="L146">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>5.75</v>
+      </c>
+      <c r="N146">
         <v>1.75</v>
       </c>
-      <c r="L146">
-        <v>3.5</v>
-      </c>
-      <c r="M146">
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
         <v>4.5</v>
-      </c>
-      <c r="N146">
-        <v>1.615</v>
-      </c>
-      <c r="O146">
-        <v>3.75</v>
-      </c>
-      <c r="P146">
-        <v>6.5</v>
       </c>
       <c r="Q146">
         <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2</v>
+      </c>
+      <c r="U146">
+        <v>1.75</v>
+      </c>
+      <c r="V146">
         <v>2.05</v>
       </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
-      <c r="U146">
-        <v>1.875</v>
-      </c>
-      <c r="V146">
-        <v>1.975</v>
-      </c>
       <c r="W146">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6277723</v>
+        <v>6277915</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>51</v>
+      </c>
+      <c r="K152">
+        <v>2.5</v>
+      </c>
+      <c r="L152">
+        <v>2.875</v>
+      </c>
+      <c r="M152">
+        <v>3.1</v>
+      </c>
+      <c r="N152">
+        <v>2.2</v>
+      </c>
+      <c r="O152">
+        <v>3.2</v>
+      </c>
+      <c r="P152">
+        <v>3.75</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.875</v>
+      </c>
+      <c r="S152">
+        <v>1.975</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>1.85</v>
+      </c>
+      <c r="V152">
+        <v>2</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>2.2</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>-0.5</v>
+      </c>
+      <c r="AA152">
+        <v>0.4875</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>1</v>
-      </c>
-      <c r="J152" t="s">
-        <v>49</v>
-      </c>
-      <c r="K152">
-        <v>2.55</v>
-      </c>
-      <c r="L152">
-        <v>3.1</v>
-      </c>
-      <c r="M152">
-        <v>2.8</v>
-      </c>
-      <c r="N152">
-        <v>2.75</v>
-      </c>
-      <c r="O152">
-        <v>3.1</v>
-      </c>
-      <c r="P152">
-        <v>2.7</v>
-      </c>
-      <c r="Q152">
-        <v>0</v>
-      </c>
-      <c r="R152">
-        <v>1.925</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>2</v>
-      </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.9</v>
-      </c>
-      <c r="W152">
-        <v>1.75</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
-      <c r="Z152">
-        <v>0.925</v>
-      </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
-      <c r="AB152">
-        <v>0.95</v>
-      </c>
-      <c r="AC152">
-        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6277915</v>
+        <v>6277723</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L153">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M153">
+        <v>2.8</v>
+      </c>
+      <c r="N153">
+        <v>2.75</v>
+      </c>
+      <c r="O153">
         <v>3.1</v>
       </c>
-      <c r="N153">
-        <v>2.2</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
       <c r="P153">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
         <v>2</v>
       </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X153">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA153">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14883,7 +14883,7 @@
         <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6278694</v>
+        <v>6277883</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,73 +14969,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>2</v>
       </c>
       <c r="L163">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
         <v>3.75</v>
       </c>
       <c r="N163">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O163">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
+        <v>1.975</v>
+      </c>
+      <c r="S163">
         <v>1.875</v>
       </c>
-      <c r="S163">
-        <v>1.975</v>
-      </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U163">
+        <v>2.025</v>
+      </c>
+      <c r="V163">
         <v>1.825</v>
       </c>
-      <c r="V163">
-        <v>2.025</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6277883</v>
+        <v>6278694</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,73 +15058,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>3</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K164">
         <v>2</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
         <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
         <v>1.975</v>
       </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
+        <v>1.825</v>
+      </c>
+      <c r="V164">
         <v>2.025</v>
       </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
       <c r="W164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15236,7 +15236,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
         <v>48</v>
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6277474</v>
+        <v>6278731</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45143.77083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
+        <v>3.75</v>
+      </c>
+      <c r="N171">
         <v>2.25</v>
       </c>
-      <c r="N171">
-        <v>2.7</v>
-      </c>
       <c r="O171">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P171">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6278731</v>
+        <v>6277474</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45143.77083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N172">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O172">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P172">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
         <v>1.925</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.925</v>
       </c>
-      <c r="T172">
-        <v>1.75</v>
-      </c>
-      <c r="U172">
-        <v>1.9</v>
-      </c>
-      <c r="V172">
-        <v>1.95</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X172">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA172">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15948,7 +15948,7 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
         <v>35</v>
@@ -16393,7 +16393,7 @@
         <v>45144.83333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
         <v>36</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6277312</v>
+        <v>7016600</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L182">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N182">
+        <v>1.95</v>
+      </c>
+      <c r="O182">
+        <v>3.5</v>
+      </c>
+      <c r="P182">
+        <v>3.8</v>
+      </c>
+      <c r="Q182">
+        <v>-0.5</v>
+      </c>
+      <c r="R182">
+        <v>1.975</v>
+      </c>
+      <c r="S182">
+        <v>1.875</v>
+      </c>
+      <c r="T182">
         <v>2.25</v>
       </c>
-      <c r="O182">
-        <v>3.3</v>
-      </c>
-      <c r="P182">
-        <v>3.25</v>
-      </c>
-      <c r="Q182">
-        <v>-0.25</v>
-      </c>
-      <c r="R182">
+      <c r="U182">
         <v>1.925</v>
       </c>
-      <c r="S182">
+      <c r="V182">
         <v>1.925</v>
       </c>
-      <c r="T182">
-        <v>2.5</v>
-      </c>
-      <c r="U182">
-        <v>2.025</v>
-      </c>
-      <c r="V182">
-        <v>1.825</v>
-      </c>
       <c r="W182">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>0.875</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
         <v>0.925</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>1.025</v>
-      </c>
-      <c r="AC182">
-        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7016600</v>
+        <v>6277312</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G183" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M183">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N183">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17019,7 +17019,7 @@
         <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17286,7 +17286,7 @@
         <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17461,7 +17461,7 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -17639,7 +17639,7 @@
         <v>45157.77083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
         <v>29</v>
@@ -18443,7 +18443,7 @@
         <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -18532,7 +18532,7 @@
         <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6277892</v>
+        <v>6277689</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N207">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O207">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P207">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.86</v>
+        <v>2.025</v>
       </c>
       <c r="S207">
-        <v>2.04</v>
+        <v>1.825</v>
       </c>
       <c r="T207">
+        <v>2.25</v>
+      </c>
+      <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
+        <v>1.975</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
         <v>2.5</v>
       </c>
-      <c r="U207">
-        <v>1.825</v>
-      </c>
-      <c r="V207">
-        <v>2.025</v>
-      </c>
-      <c r="W207">
-        <v>0.363</v>
-      </c>
-      <c r="X207">
-        <v>-1</v>
-      </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.52</v>
+        <v>0.825</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC207">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6277689</v>
+        <v>6277892</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K208">
+        <v>1.5</v>
+      </c>
+      <c r="L208">
+        <v>4</v>
+      </c>
+      <c r="M208">
+        <v>6.5</v>
+      </c>
+      <c r="N208">
+        <v>1.363</v>
+      </c>
+      <c r="O208">
+        <v>5</v>
+      </c>
+      <c r="P208">
+        <v>9</v>
+      </c>
+      <c r="Q208">
+        <v>-1.25</v>
+      </c>
+      <c r="R208">
+        <v>1.86</v>
+      </c>
+      <c r="S208">
+        <v>2.04</v>
+      </c>
+      <c r="T208">
         <v>2.5</v>
       </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
-        <v>2.75</v>
-      </c>
-      <c r="N208">
-        <v>1.75</v>
-      </c>
-      <c r="O208">
-        <v>3.5</v>
-      </c>
-      <c r="P208">
-        <v>4.75</v>
-      </c>
-      <c r="Q208">
-        <v>-0.75</v>
-      </c>
-      <c r="R208">
+      <c r="U208">
+        <v>1.825</v>
+      </c>
+      <c r="V208">
         <v>2.025</v>
       </c>
-      <c r="S208">
-        <v>1.825</v>
-      </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
-      <c r="U208">
-        <v>1.875</v>
-      </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X208">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>0.825</v>
+        <v>0.52</v>
       </c>
       <c r="AB208">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19956,7 +19956,7 @@
         <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7140132</v>
+        <v>7140135</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,73 +20131,73 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L221">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N221">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O221">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA221">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7140135</v>
+        <v>7140132</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,73 +20220,73 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" t="s">
+        <v>50</v>
+      </c>
+      <c r="K222">
+        <v>2.75</v>
+      </c>
+      <c r="L222">
+        <v>3.25</v>
+      </c>
+      <c r="M222">
+        <v>2.55</v>
+      </c>
+      <c r="N222">
+        <v>2.375</v>
+      </c>
+      <c r="O222">
+        <v>3</v>
+      </c>
+      <c r="P222">
+        <v>3.3</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>2</v>
+      </c>
+      <c r="S222">
+        <v>1.85</v>
+      </c>
+      <c r="T222">
+        <v>2</v>
+      </c>
+      <c r="U222">
+        <v>2</v>
+      </c>
+      <c r="V222">
+        <v>1.85</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>2.3</v>
+      </c>
+      <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB222">
         <v>1</v>
-      </c>
-      <c r="J222" t="s">
-        <v>49</v>
-      </c>
-      <c r="K222">
-        <v>1.727</v>
-      </c>
-      <c r="L222">
-        <v>3.6</v>
-      </c>
-      <c r="M222">
-        <v>4.75</v>
-      </c>
-      <c r="N222">
-        <v>1.571</v>
-      </c>
-      <c r="O222">
-        <v>3.8</v>
-      </c>
-      <c r="P222">
-        <v>6.5</v>
-      </c>
-      <c r="Q222">
-        <v>-0.75</v>
-      </c>
-      <c r="R222">
-        <v>1.75</v>
-      </c>
-      <c r="S222">
-        <v>2.05</v>
-      </c>
-      <c r="T222">
-        <v>2.25</v>
-      </c>
-      <c r="U222">
-        <v>1.975</v>
-      </c>
-      <c r="V222">
-        <v>1.875</v>
-      </c>
-      <c r="W222">
-        <v>0.571</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
-      <c r="Y222">
-        <v>-1</v>
-      </c>
-      <c r="Z222">
-        <v>0.375</v>
-      </c>
-      <c r="AA222">
-        <v>-0.5</v>
-      </c>
-      <c r="AB222">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20487,7 +20487,7 @@
         <v>45184.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
         <v>30</v>
@@ -21199,7 +21199,7 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G233" t="s">
         <v>33</v>
@@ -21736,7 +21736,7 @@
         <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>45196.79166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
         <v>46</v>
@@ -21988,7 +21988,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6295861</v>
+        <v>6277318</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22000,61 +22000,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G242" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K242">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L242">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N242">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O242">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P242">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R242">
+        <v>1.825</v>
+      </c>
+      <c r="S242">
+        <v>2.025</v>
+      </c>
+      <c r="T242">
+        <v>2.25</v>
+      </c>
+      <c r="U242">
         <v>1.875</v>
       </c>
-      <c r="S242">
+      <c r="V242">
         <v>1.975</v>
       </c>
-      <c r="T242">
-        <v>2.75</v>
-      </c>
-      <c r="U242">
-        <v>2.025</v>
-      </c>
-      <c r="V242">
-        <v>1.825</v>
-      </c>
       <c r="W242">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y242">
         <v>-1</v>
@@ -22066,10 +22066,10 @@
         <v>-0</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC242">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22077,7 +22077,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6277318</v>
+        <v>6295861</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22089,61 +22089,61 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G243" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L243">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M243">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N243">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O243">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P243">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R243">
+        <v>1.875</v>
+      </c>
+      <c r="S243">
+        <v>1.975</v>
+      </c>
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>2.025</v>
+      </c>
+      <c r="V243">
         <v>1.825</v>
       </c>
-      <c r="S243">
-        <v>2.025</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>1.875</v>
-      </c>
-      <c r="V243">
-        <v>1.975</v>
-      </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X243">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
@@ -22155,10 +22155,10 @@
         <v>-0</v>
       </c>
       <c r="AB243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22178,7 +22178,7 @@
         <v>45199.77083333334</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G244" t="s">
         <v>39</v>
@@ -22267,7 +22267,7 @@
         <v>45199.77083333334</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s">
         <v>37</v>
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6277697</v>
+        <v>7160408</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,58 +22445,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>49</v>
       </c>
       <c r="K247">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L247">
+        <v>3.25</v>
+      </c>
+      <c r="M247">
+        <v>3.9</v>
+      </c>
+      <c r="N247">
+        <v>2.5</v>
+      </c>
+      <c r="O247">
         <v>3.2</v>
       </c>
-      <c r="M247">
-        <v>2.6</v>
-      </c>
-      <c r="N247">
-        <v>3.4</v>
-      </c>
-      <c r="O247">
-        <v>3.3</v>
-      </c>
       <c r="P247">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S247">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W247">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22505,16 +22505,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC247">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22522,7 +22522,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7160408</v>
+        <v>6277697</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22534,58 +22534,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
         <v>49</v>
       </c>
       <c r="K248">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L248">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="N248">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P248">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T248">
         <v>2.25</v>
       </c>
       <c r="U248">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V248">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W248">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22594,16 +22594,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22982,7 +22982,7 @@
         <v>44</v>
       </c>
       <c r="G253" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23691,7 +23691,7 @@
         <v>45213.875</v>
       </c>
       <c r="F261" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G261" t="s">
         <v>42</v>
@@ -23961,7 +23961,7 @@
         <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6277482</v>
+        <v>6319573</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,13 +24047,13 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F265" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -24062,25 +24062,25 @@
         <v>49</v>
       </c>
       <c r="K265">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L265">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M265">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N265">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O265">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P265">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q265">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R265">
         <v>1.925</v>
@@ -24089,16 +24089,16 @@
         <v>1.925</v>
       </c>
       <c r="T265">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V265">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W265">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24113,10 +24113,10 @@
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24124,7 +24124,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6281058</v>
+        <v>6277482</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24136,13 +24136,13 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G266" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -24151,43 +24151,43 @@
         <v>49</v>
       </c>
       <c r="K266">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L266">
         <v>3</v>
       </c>
       <c r="M266">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N266">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O266">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P266">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q266">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R266">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S266">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V266">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24196,16 +24196,16 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA266">
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC266">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24213,7 +24213,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6319573</v>
+        <v>6281058</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24225,10 +24225,10 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -24240,43 +24240,43 @@
         <v>49</v>
       </c>
       <c r="K267">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L267">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M267">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N267">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O267">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P267">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S267">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T267">
         <v>2.25</v>
       </c>
       <c r="U267">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24285,16 +24285,16 @@
         <v>-1</v>
       </c>
       <c r="Z267">
+        <v>1.05</v>
+      </c>
+      <c r="AA267">
+        <v>-1</v>
+      </c>
+      <c r="AB267">
+        <v>-1</v>
+      </c>
+      <c r="AC267">
         <v>0.925</v>
-      </c>
-      <c r="AA267">
-        <v>-1</v>
-      </c>
-      <c r="AB267">
-        <v>-1</v>
-      </c>
-      <c r="AC267">
-        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24302,7 +24302,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6277441</v>
+        <v>6280878</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24314,10 +24314,10 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F268" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24329,40 +24329,40 @@
         <v>50</v>
       </c>
       <c r="K268">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L268">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N268">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O268">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P268">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q268">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R268">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S268">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V268">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -24371,19 +24371,19 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB268">
         <v>-0.5</v>
       </c>
       <c r="AC268">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24391,7 +24391,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6280878</v>
+        <v>6277441</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24403,10 +24403,10 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F269" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G269" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -24418,40 +24418,40 @@
         <v>50</v>
       </c>
       <c r="K269">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L269">
+        <v>3.2</v>
+      </c>
+      <c r="M269">
+        <v>2.4</v>
+      </c>
+      <c r="N269">
         <v>3.4</v>
       </c>
-      <c r="M269">
-        <v>4.5</v>
-      </c>
-      <c r="N269">
-        <v>1.7</v>
-      </c>
       <c r="O269">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q269">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R269">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S269">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V269">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W269">
         <v>-1</v>
@@ -24460,19 +24460,19 @@
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB269">
         <v>-0.5</v>
       </c>
       <c r="AC269">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24759,7 +24759,7 @@
         <v>45220.77083333334</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G273" t="s">
         <v>47</v>
@@ -24848,7 +24848,7 @@
         <v>45220.77083333334</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G274" t="s">
         <v>38</v>
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6301327</v>
+        <v>6327088</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,76 +25382,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F280" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G280" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K280">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L280">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N280">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="O280">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P280">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q280">
+        <v>-0.75</v>
+      </c>
+      <c r="R280">
+        <v>1.975</v>
+      </c>
+      <c r="S280">
+        <v>1.875</v>
+      </c>
+      <c r="T280">
+        <v>2.5</v>
+      </c>
+      <c r="U280">
+        <v>1.85</v>
+      </c>
+      <c r="V280">
+        <v>2</v>
+      </c>
+      <c r="W280">
         <v>0.75</v>
       </c>
-      <c r="R280">
-        <v>1.825</v>
-      </c>
-      <c r="S280">
-        <v>2.025</v>
-      </c>
-      <c r="T280">
-        <v>2.25</v>
-      </c>
-      <c r="U280">
-        <v>1.9</v>
-      </c>
-      <c r="V280">
-        <v>1.95</v>
-      </c>
-      <c r="W280">
-        <v>-1</v>
-      </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA280">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB280">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6327088</v>
+        <v>6301327</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,76 +25471,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F281" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G281" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K281">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L281">
+        <v>3.5</v>
+      </c>
+      <c r="M281">
+        <v>1.833</v>
+      </c>
+      <c r="N281">
+        <v>5</v>
+      </c>
+      <c r="O281">
         <v>3.4</v>
       </c>
-      <c r="M281">
-        <v>4</v>
-      </c>
-      <c r="N281">
-        <v>1.75</v>
-      </c>
-      <c r="O281">
-        <v>3.8</v>
-      </c>
       <c r="P281">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q281">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R281">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W281">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z281">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
+        <v>1.025</v>
+      </c>
+      <c r="AB281">
         <v>-0.5</v>
       </c>
-      <c r="AB281">
-        <v>-1</v>
-      </c>
       <c r="AC281">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6280312</v>
+        <v>6277484</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,58 +25560,58 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H282">
+        <v>5</v>
+      </c>
+      <c r="I282">
         <v>3</v>
-      </c>
-      <c r="I282">
-        <v>2</v>
       </c>
       <c r="J282" t="s">
         <v>49</v>
       </c>
       <c r="K282">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L282">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M282">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N282">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O282">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P282">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q282">
         <v>-1</v>
       </c>
       <c r="R282">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S282">
+        <v>1.825</v>
+      </c>
+      <c r="T282">
+        <v>2.5</v>
+      </c>
+      <c r="U282">
         <v>1.85</v>
       </c>
-      <c r="T282">
-        <v>2.75</v>
-      </c>
-      <c r="U282">
-        <v>2.025</v>
-      </c>
       <c r="V282">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W282">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25620,13 +25620,13 @@
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA282">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6277484</v>
+        <v>6280312</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25738,58 +25738,58 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F284" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G284" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H284">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
         <v>49</v>
       </c>
       <c r="K284">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M284">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N284">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O284">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P284">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q284">
         <v>-1</v>
       </c>
       <c r="R284">
+        <v>2</v>
+      </c>
+      <c r="S284">
+        <v>1.85</v>
+      </c>
+      <c r="T284">
+        <v>2.75</v>
+      </c>
+      <c r="U284">
         <v>2.025</v>
       </c>
-      <c r="S284">
+      <c r="V284">
         <v>1.825</v>
       </c>
-      <c r="T284">
-        <v>2.5</v>
-      </c>
-      <c r="U284">
-        <v>1.85</v>
-      </c>
-      <c r="V284">
-        <v>2</v>
-      </c>
       <c r="W284">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X284">
         <v>-1</v>
@@ -25798,13 +25798,13 @@
         <v>-1</v>
       </c>
       <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
+        <v>-0</v>
+      </c>
+      <c r="AB284">
         <v>1.025</v>
-      </c>
-      <c r="AA284">
-        <v>-1</v>
-      </c>
-      <c r="AB284">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC284">
         <v>-1</v>
@@ -25830,7 +25830,7 @@
         <v>29</v>
       </c>
       <c r="G285" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H285">
         <v>5</v>
@@ -26005,7 +26005,7 @@
         <v>45224.89583333334</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G287" t="s">
         <v>37</v>
@@ -26349,7 +26349,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6421297</v>
+        <v>6359263</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26361,76 +26361,76 @@
         <v>45227.79166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G291" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291" t="s">
+        <v>49</v>
+      </c>
+      <c r="K291">
+        <v>1.533</v>
+      </c>
+      <c r="L291">
         <v>4</v>
       </c>
-      <c r="J291" t="s">
-        <v>50</v>
-      </c>
-      <c r="K291">
-        <v>2.5</v>
-      </c>
-      <c r="L291">
-        <v>3.3</v>
-      </c>
       <c r="M291">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N291">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O291">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P291">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R291">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S291">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T291">
         <v>2.75</v>
       </c>
       <c r="U291">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V291">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB291">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC291">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26438,7 +26438,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6359263</v>
+        <v>6421297</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26450,76 +26450,76 @@
         <v>45227.79166666666</v>
       </c>
       <c r="F292" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G292" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J292" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K292">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M292">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N292">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O292">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P292">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="Q292">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S292">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T292">
         <v>2.75</v>
       </c>
       <c r="U292">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V292">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W292">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB292">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC292">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26720,7 +26720,7 @@
         <v>34</v>
       </c>
       <c r="G295" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26987,7 +26987,7 @@
         <v>31</v>
       </c>
       <c r="G298" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -27696,7 +27696,7 @@
         <v>45232.70833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
         <v>44</v>
@@ -27874,7 +27874,7 @@
         <v>45232.83333333334</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G308" t="s">
         <v>42</v>
@@ -28218,7 +28218,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6665176</v>
+        <v>6661664</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28230,76 +28230,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K312">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="L312">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M312">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N312">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="O312">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P312">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q312">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R312">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S312">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T312">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U312">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V312">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W312">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC312">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6661664</v>
+        <v>6665176</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,76 +28319,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K313">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="L313">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M313">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N313">
+        <v>1.55</v>
+      </c>
+      <c r="O313">
+        <v>4.333</v>
+      </c>
+      <c r="P313">
+        <v>5.5</v>
+      </c>
+      <c r="Q313">
+        <v>-1</v>
+      </c>
+      <c r="R313">
+        <v>2</v>
+      </c>
+      <c r="S313">
+        <v>1.85</v>
+      </c>
+      <c r="T313">
         <v>2.5</v>
       </c>
-      <c r="O313">
-        <v>3.1</v>
-      </c>
-      <c r="P313">
-        <v>3</v>
-      </c>
-      <c r="Q313">
-        <v>0</v>
-      </c>
-      <c r="R313">
-        <v>1.775</v>
-      </c>
-      <c r="S313">
-        <v>2.1</v>
-      </c>
-      <c r="T313">
-        <v>2.25</v>
-      </c>
       <c r="U313">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V313">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W313">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA313">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB313">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC313">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28678,7 +28678,7 @@
         <v>45</v>
       </c>
       <c r="G317" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -28930,7 +28930,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6677091</v>
+        <v>6677088</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28942,76 +28942,76 @@
         <v>45238.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G320" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K320">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L320">
         <v>3.3</v>
       </c>
       <c r="M320">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N320">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O320">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P320">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q320">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S320">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T320">
         <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W320">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC320">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29019,7 +29019,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6677088</v>
+        <v>6677091</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29031,76 +29031,76 @@
         <v>45238.83333333334</v>
       </c>
       <c r="F321" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G321" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H321">
         <v>1</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K321">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L321">
         <v>3.3</v>
       </c>
       <c r="M321">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N321">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O321">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P321">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R321">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S321">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T321">
         <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W321">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X321">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA321">
+        <v>-1</v>
+      </c>
+      <c r="AB321">
+        <v>-1</v>
+      </c>
+      <c r="AC321">
         <v>0.875</v>
-      </c>
-      <c r="AB321">
-        <v>-0.5</v>
-      </c>
-      <c r="AC321">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29479,7 +29479,7 @@
         <v>48</v>
       </c>
       <c r="G326" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -30099,7 +30099,7 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F333" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G333" t="s">
         <v>33</v>
@@ -30369,7 +30369,7 @@
         <v>45</v>
       </c>
       <c r="G336" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -30636,7 +30636,7 @@
         <v>39</v>
       </c>
       <c r="G339" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -31155,7 +31155,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6707704</v>
+        <v>6665181</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31167,76 +31167,76 @@
         <v>45256.66666666666</v>
       </c>
       <c r="F345" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G345" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K345">
         <v>1.8</v>
       </c>
       <c r="L345">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M345">
-        <v>4.6</v>
+        <v>4.333</v>
       </c>
       <c r="N345">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O345">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P345">
         <v>4.75</v>
       </c>
       <c r="Q345">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R345">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S345">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T345">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U345">
+        <v>2.025</v>
+      </c>
+      <c r="V345">
         <v>1.825</v>
       </c>
-      <c r="V345">
-        <v>2.025</v>
-      </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X345">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA345">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC345">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31244,7 +31244,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6665181</v>
+        <v>6707704</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31256,76 +31256,76 @@
         <v>45256.66666666666</v>
       </c>
       <c r="F346" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G346" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K346">
         <v>1.8</v>
       </c>
       <c r="L346">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M346">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="N346">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O346">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P346">
         <v>4.75</v>
       </c>
       <c r="Q346">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R346">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S346">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T346">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U346">
+        <v>1.825</v>
+      </c>
+      <c r="V346">
         <v>2.025</v>
       </c>
-      <c r="V346">
-        <v>1.825</v>
-      </c>
       <c r="W346">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB346">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31345,10 +31345,10 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F347" t="s">
+        <v>41</v>
+      </c>
+      <c r="G347" t="s">
         <v>40</v>
-      </c>
-      <c r="G347" t="s">
-        <v>41</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -32057,7 +32057,7 @@
         <v>45259.83333333334</v>
       </c>
       <c r="F355" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G355" t="s">
         <v>43</v>
@@ -32149,7 +32149,7 @@
         <v>48</v>
       </c>
       <c r="G356" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H356">
         <v>0</v>
@@ -32772,7 +32772,7 @@
         <v>35</v>
       </c>
       <c r="G363" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H363">
         <v>2</v>
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7524354</v>
+        <v>6684914</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,58 +32858,58 @@
         <v>45263.66666666666</v>
       </c>
       <c r="F364" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G364" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H364">
+        <v>2</v>
+      </c>
+      <c r="I364">
         <v>1</v>
-      </c>
-      <c r="I364">
-        <v>0</v>
       </c>
       <c r="J364" t="s">
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="L364">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M364">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N364">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="O364">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P364">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Q364">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R364">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S364">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T364">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U364">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V364">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W364">
-        <v>0.25</v>
+        <v>0.363</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32918,16 +32918,16 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA364">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB364">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC364">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32935,7 +32935,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6684914</v>
+        <v>7524354</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32947,58 +32947,58 @@
         <v>45263.66666666666</v>
       </c>
       <c r="F365" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G365" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365" t="s">
         <v>49</v>
       </c>
       <c r="K365">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="L365">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M365">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="N365">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O365">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P365">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q365">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R365">
+        <v>2</v>
+      </c>
+      <c r="S365">
+        <v>1.85</v>
+      </c>
+      <c r="T365">
+        <v>3</v>
+      </c>
+      <c r="U365">
+        <v>1.975</v>
+      </c>
+      <c r="V365">
         <v>1.875</v>
       </c>
-      <c r="S365">
-        <v>1.975</v>
-      </c>
-      <c r="T365">
-        <v>2.5</v>
-      </c>
-      <c r="U365">
-        <v>2.05</v>
-      </c>
-      <c r="V365">
-        <v>1.8</v>
-      </c>
       <c r="W365">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33007,16 +33007,16 @@
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB365">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC365">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33024,7 +33024,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6733768</v>
+        <v>6707715</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33036,58 +33036,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F366" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G366" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H366">
         <v>3</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J366" t="s">
         <v>49</v>
       </c>
       <c r="K366">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L366">
         <v>3.4</v>
       </c>
       <c r="M366">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N366">
+        <v>4</v>
+      </c>
+      <c r="O366">
+        <v>3.75</v>
+      </c>
+      <c r="P366">
+        <v>1.909</v>
+      </c>
+      <c r="Q366">
+        <v>0.5</v>
+      </c>
+      <c r="R366">
+        <v>1.9</v>
+      </c>
+      <c r="S366">
         <v>1.95</v>
       </c>
-      <c r="O366">
-        <v>3.25</v>
-      </c>
-      <c r="P366">
-        <v>4.2</v>
-      </c>
-      <c r="Q366">
-        <v>-0.5</v>
-      </c>
-      <c r="R366">
-        <v>1.975</v>
-      </c>
-      <c r="S366">
-        <v>1.875</v>
-      </c>
       <c r="T366">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U366">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V366">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W366">
-        <v>0.95</v>
+        <v>3</v>
       </c>
       <c r="X366">
         <v>-1</v>
@@ -33096,13 +33096,13 @@
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA366">
         <v>-1</v>
       </c>
       <c r="AB366">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC366">
         <v>-1</v>
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6677290</v>
+        <v>6705049</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,76 +33125,76 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G367" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K367">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L367">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M367">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N367">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O367">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P367">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q367">
         <v>-0.5</v>
       </c>
       <c r="R367">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="S367">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="T367">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U367">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V367">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W367">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33291,7 +33291,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6677292</v>
+        <v>6733768</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33303,13 +33303,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F369" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G369" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I369">
         <v>0</v>
@@ -33318,43 +33318,43 @@
         <v>49</v>
       </c>
       <c r="K369">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L369">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M369">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N369">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O369">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P369">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="Q369">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R369">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="S369">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="T369">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U369">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V369">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W369">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="X369">
         <v>-1</v>
@@ -33363,16 +33363,16 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA369">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB369">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC369">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33380,7 +33380,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6705049</v>
+        <v>6677292</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33392,49 +33392,49 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F370" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G370" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370">
         <v>0</v>
       </c>
       <c r="J370" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K370">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="L370">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M370">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N370">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O370">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P370">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q370">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R370">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S370">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T370">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U370">
         <v>1.925</v>
@@ -33443,10 +33443,10 @@
         <v>1.925</v>
       </c>
       <c r="W370">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X370">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y370">
         <v>-1</v>
@@ -33455,7 +33455,7 @@
         <v>-1</v>
       </c>
       <c r="AA370">
-        <v>0.9399999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB370">
         <v>-1</v>
@@ -33469,7 +33469,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6707715</v>
+        <v>6677290</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33481,58 +33481,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F371" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G371" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H371">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J371" t="s">
         <v>49</v>
       </c>
       <c r="K371">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L371">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M371">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N371">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O371">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P371">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q371">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R371">
+        <v>1.825</v>
+      </c>
+      <c r="S371">
+        <v>2.025</v>
+      </c>
+      <c r="T371">
+        <v>2.5</v>
+      </c>
+      <c r="U371">
         <v>1.9</v>
       </c>
-      <c r="S371">
+      <c r="V371">
         <v>1.95</v>
       </c>
-      <c r="T371">
-        <v>2.75</v>
-      </c>
-      <c r="U371">
-        <v>2.025</v>
-      </c>
-      <c r="V371">
-        <v>1.825</v>
-      </c>
       <c r="W371">
-        <v>3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X371">
         <v>-1</v>
@@ -33541,16 +33541,16 @@
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA371">
         <v>-1</v>
       </c>
       <c r="AB371">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC371">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33659,7 +33659,7 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G373" t="s">
         <v>36</v>
@@ -34104,7 +34104,7 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F378" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G378" t="s">
         <v>34</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -33202,7 +33202,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6733112</v>
+        <v>6733768</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33214,13 +33214,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F368" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G368" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I368">
         <v>0</v>
@@ -33229,43 +33229,43 @@
         <v>49</v>
       </c>
       <c r="K368">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L368">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M368">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N368">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O368">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P368">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q368">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R368">
-        <v>1.96</v>
+        <v>1.975</v>
       </c>
       <c r="S368">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T368">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U368">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V368">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W368">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33274,16 +33274,16 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA368">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
       <c r="AB368">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC368">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33291,7 +33291,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6733768</v>
+        <v>6677292</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33303,13 +33303,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F369" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G369" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H369">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I369">
         <v>0</v>
@@ -33318,43 +33318,43 @@
         <v>49</v>
       </c>
       <c r="K369">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L369">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M369">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N369">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O369">
+        <v>7.5</v>
+      </c>
+      <c r="P369">
+        <v>12</v>
+      </c>
+      <c r="Q369">
+        <v>-2</v>
+      </c>
+      <c r="R369">
+        <v>1.98</v>
+      </c>
+      <c r="S369">
+        <v>1.92</v>
+      </c>
+      <c r="T369">
         <v>3.25</v>
       </c>
-      <c r="P369">
-        <v>4.2</v>
-      </c>
-      <c r="Q369">
-        <v>-0.5</v>
-      </c>
-      <c r="R369">
-        <v>1.975</v>
-      </c>
-      <c r="S369">
-        <v>1.875</v>
-      </c>
-      <c r="T369">
-        <v>2.25</v>
-      </c>
       <c r="U369">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V369">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W369">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="X369">
         <v>-1</v>
@@ -33363,16 +33363,16 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB369">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC369">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33380,7 +33380,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6707715</v>
+        <v>6733112</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33392,58 +33392,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F370" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G370" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H370">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I370">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J370" t="s">
         <v>49</v>
       </c>
       <c r="K370">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="L370">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M370">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N370">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O370">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P370">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="Q370">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R370">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="S370">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T370">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U370">
+        <v>1.825</v>
+      </c>
+      <c r="V370">
         <v>2.025</v>
       </c>
-      <c r="V370">
-        <v>1.825</v>
-      </c>
       <c r="W370">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X370">
         <v>-1</v>
@@ -33452,16 +33452,16 @@
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA370">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="AB370">
+        <v>-1</v>
+      </c>
+      <c r="AC370">
         <v>1.025</v>
-      </c>
-      <c r="AC370">
-        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33469,7 +33469,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6677292</v>
+        <v>6707715</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33481,58 +33481,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F371" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G371" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J371" t="s">
         <v>49</v>
       </c>
       <c r="K371">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="L371">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M371">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N371">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="O371">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P371">
-        <v>12</v>
+        <v>1.909</v>
       </c>
       <c r="Q371">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R371">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S371">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T371">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U371">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V371">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W371">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="X371">
         <v>-1</v>
@@ -33541,16 +33541,16 @@
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA371">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC371">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6764571</v>
+        <v>6723140</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,76 +33659,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G373" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J373" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K373">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L373">
         <v>3.3</v>
       </c>
       <c r="M373">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N373">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O373">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P373">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q373">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S373">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T373">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U373">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V373">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W373">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z373">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB373">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC373">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6705186</v>
+        <v>6764571</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,13 +33748,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F374" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G374" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H374">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I374">
         <v>0</v>
@@ -33763,43 +33763,43 @@
         <v>49</v>
       </c>
       <c r="K374">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L374">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M374">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N374">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O374">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P374">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R374">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S374">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T374">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.79</v>
+        <v>1.975</v>
       </c>
       <c r="V374">
-        <v>2.11</v>
+        <v>1.875</v>
       </c>
       <c r="W374">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33808,16 +33808,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6723140</v>
+        <v>6705186</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,73 +33837,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F375" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G375" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375" t="s">
+        <v>49</v>
+      </c>
+      <c r="K375">
+        <v>2.75</v>
+      </c>
+      <c r="L375">
         <v>3</v>
       </c>
-      <c r="J375" t="s">
-        <v>50</v>
-      </c>
-      <c r="K375">
-        <v>2.2</v>
-      </c>
-      <c r="L375">
+      <c r="M375">
+        <v>2.7</v>
+      </c>
+      <c r="N375">
+        <v>2.3</v>
+      </c>
+      <c r="O375">
+        <v>3.2</v>
+      </c>
+      <c r="P375">
         <v>3.3</v>
-      </c>
-      <c r="M375">
-        <v>3.25</v>
-      </c>
-      <c r="N375">
-        <v>2.15</v>
-      </c>
-      <c r="O375">
-        <v>3.75</v>
-      </c>
-      <c r="P375">
-        <v>3.1</v>
       </c>
       <c r="Q375">
         <v>-0.25</v>
       </c>
       <c r="R375">
-        <v>1.875</v>
+        <v>2.03</v>
       </c>
       <c r="S375">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="T375">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U375">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="V375">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="W375">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X375">
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA375">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.8500000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AC375">
         <v>-1</v>
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6721895</v>
+        <v>6705200</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,76 +34015,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F377" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G377" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H377">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J377" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K377">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L377">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M377">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N377">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P377">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q377">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R377">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S377">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T377">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U377">
+        <v>1.875</v>
+      </c>
+      <c r="V377">
         <v>1.975</v>
       </c>
-      <c r="V377">
-        <v>1.875</v>
-      </c>
       <c r="W377">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z377">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB377">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC377">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34092,7 +34092,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6705200</v>
+        <v>6704083</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34104,40 +34104,40 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F378" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G378" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K378">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L378">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M378">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N378">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O378">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P378">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q378">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R378">
         <v>1.875</v>
@@ -34149,31 +34149,31 @@
         <v>2.25</v>
       </c>
       <c r="U378">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V378">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA378">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC378">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6704083</v>
+        <v>6745222</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,73 +34193,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F379" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G379" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J379" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K379">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L379">
+        <v>3.4</v>
+      </c>
+      <c r="M379">
+        <v>4.2</v>
+      </c>
+      <c r="N379">
+        <v>1.95</v>
+      </c>
+      <c r="O379">
         <v>3.25</v>
       </c>
-      <c r="M379">
-        <v>3.6</v>
-      </c>
-      <c r="N379">
-        <v>2.15</v>
-      </c>
-      <c r="O379">
-        <v>3.4</v>
-      </c>
       <c r="P379">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q379">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R379">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S379">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T379">
         <v>2.25</v>
       </c>
       <c r="U379">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V379">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W379">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z379">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB379">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6745222</v>
+        <v>6745537</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,73 +34282,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F380" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G380" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H380">
+        <v>3</v>
+      </c>
+      <c r="I380">
         <v>1</v>
       </c>
-      <c r="I380">
-        <v>2</v>
-      </c>
       <c r="J380" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K380">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L380">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M380">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N380">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O380">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P380">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q380">
         <v>-0.5</v>
       </c>
       <c r="R380">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S380">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T380">
         <v>2.25</v>
       </c>
       <c r="U380">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V380">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W380">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA380">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -34359,7 +34359,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6745537</v>
+        <v>6721895</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34371,13 +34371,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F381" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G381" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H381">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I381">
         <v>1</v>
@@ -34386,43 +34386,43 @@
         <v>49</v>
       </c>
       <c r="K381">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L381">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M381">
+        <v>2.1</v>
+      </c>
+      <c r="N381">
+        <v>2.55</v>
+      </c>
+      <c r="O381">
         <v>3.5</v>
       </c>
-      <c r="N381">
-        <v>2.05</v>
-      </c>
-      <c r="O381">
-        <v>3.3</v>
-      </c>
       <c r="P381">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q381">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R381">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S381">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T381">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U381">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V381">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W381">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34431,13 +34431,13 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA381">
         <v>-1</v>
       </c>
       <c r="AB381">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC381">
         <v>-1</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -118,10 +118,10 @@
     <t>Santos</t>
   </si>
   <si>
-    <t>Gremio</t>
+    <t>Fluminense</t>
   </si>
   <si>
-    <t>Fluminense</t>
+    <t>Gremio</t>
   </si>
   <si>
     <t>Palmeiras</t>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6277302</v>
+        <v>6277865</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1100,43 +1100,43 @@
         <v>51</v>
       </c>
       <c r="K7">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1145,13 +1145,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6277865</v>
+        <v>6277302</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1189,43 +1189,43 @@
         <v>51</v>
       </c>
       <c r="K8">
+        <v>2.15</v>
+      </c>
+      <c r="L8">
+        <v>3.2</v>
+      </c>
+      <c r="M8">
+        <v>3.3</v>
+      </c>
+      <c r="N8">
+        <v>2.1</v>
+      </c>
+      <c r="O8">
+        <v>3.3</v>
+      </c>
+      <c r="P8">
+        <v>3.6</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
         <v>1.75</v>
       </c>
-      <c r="L8">
-        <v>3.5</v>
-      </c>
-      <c r="M8">
-        <v>4.333</v>
-      </c>
-      <c r="N8">
-        <v>1.8</v>
-      </c>
-      <c r="O8">
-        <v>3.6</v>
-      </c>
-      <c r="P8">
-        <v>4.75</v>
-      </c>
-      <c r="Q8">
-        <v>-0.75</v>
-      </c>
-      <c r="R8">
-        <v>2.025</v>
-      </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1234,13 +1234,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6277468</v>
+        <v>6277303</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,76 +2242,76 @@
         <v>45088.77083333334</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20">
+        <v>1.615</v>
+      </c>
+      <c r="L20">
         <v>3.75</v>
       </c>
-      <c r="L20">
-        <v>3.3</v>
-      </c>
       <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>1.571</v>
+      </c>
+      <c r="O20">
+        <v>4.2</v>
+      </c>
+      <c r="P20">
+        <v>5.25</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>2.05</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
         <v>1.95</v>
       </c>
-      <c r="N20">
-        <v>3.4</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2.2</v>
-      </c>
-      <c r="Q20">
-        <v>0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.925</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X20">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>0.475</v>
+      </c>
+      <c r="AC20">
         <v>-0.5</v>
-      </c>
-      <c r="AB20">
-        <v>0.925</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6277303</v>
+        <v>6277468</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,76 +2331,76 @@
         <v>45088.77083333334</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N21">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2776,7 +2776,7 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -2865,7 +2865,7 @@
         <v>45099.79166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -3488,7 +3488,7 @@
         <v>45101.77083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6277305</v>
+        <v>6277872</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,19 +3666,19 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>1.6</v>
@@ -3690,52 +3690,52 @@
         <v>5</v>
       </c>
       <c r="N36">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6277872</v>
+        <v>6277305</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,19 +3755,19 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>1.6</v>
@@ -3779,52 +3779,52 @@
         <v>5</v>
       </c>
       <c r="N37">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O37">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
+        <v>2.5</v>
+      </c>
+      <c r="U37">
         <v>1.85</v>
       </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>2</v>
-      </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
+        <v>-1</v>
+      </c>
+      <c r="AB37">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6277414</v>
+        <v>6277470</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,76 +3844,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
+        <v>1.925</v>
+      </c>
+      <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
         <v>1.975</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.875</v>
       </c>
-      <c r="T38">
-        <v>2.25</v>
-      </c>
-      <c r="U38">
-        <v>1.925</v>
-      </c>
-      <c r="V38">
-        <v>1.925</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.875</v>
-      </c>
-      <c r="AB38">
-        <v>0.925</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6277873</v>
+        <v>6277414</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,55 +3933,55 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>50</v>
       </c>
       <c r="K39">
-        <v>4.2</v>
+        <v>2.35</v>
       </c>
       <c r="L39">
+        <v>3.1</v>
+      </c>
+      <c r="M39">
+        <v>2.9</v>
+      </c>
+      <c r="N39">
+        <v>1.95</v>
+      </c>
+      <c r="O39">
         <v>3.4</v>
       </c>
-      <c r="M39">
-        <v>1.8</v>
-      </c>
-      <c r="N39">
-        <v>3.4</v>
-      </c>
-      <c r="O39">
-        <v>3.2</v>
-      </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
         <v>1.875</v>
-      </c>
-      <c r="S39">
-        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3990,16 +3990,16 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6277470</v>
+        <v>6277873</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N40">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="O40">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4203,7 +4203,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4292,7 +4292,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6277677</v>
+        <v>6277415</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,10 +4645,10 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4660,58 +4660,58 @@
         <v>49</v>
       </c>
       <c r="K47">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L47">
+        <v>3.75</v>
+      </c>
+      <c r="M47">
+        <v>4.333</v>
+      </c>
+      <c r="N47">
+        <v>1.5</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>7.5</v>
+      </c>
+      <c r="Q47">
+        <v>-1</v>
+      </c>
+      <c r="R47">
+        <v>1.75</v>
+      </c>
+      <c r="S47">
+        <v>2.05</v>
+      </c>
+      <c r="T47">
+        <v>2.5</v>
+      </c>
+      <c r="U47">
+        <v>2.05</v>
+      </c>
+      <c r="V47">
+        <v>1.8</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
         <v>3</v>
       </c>
-      <c r="M47">
-        <v>2.15</v>
-      </c>
-      <c r="N47">
-        <v>2.25</v>
-      </c>
-      <c r="O47">
-        <v>3.25</v>
-      </c>
-      <c r="P47">
-        <v>3.3</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.925</v>
-      </c>
-      <c r="S47">
-        <v>1.925</v>
-      </c>
-      <c r="T47">
-        <v>2.25</v>
-      </c>
-      <c r="U47">
-        <v>1.95</v>
-      </c>
-      <c r="V47">
-        <v>1.9</v>
-      </c>
-      <c r="W47">
-        <v>-1</v>
-      </c>
-      <c r="X47">
-        <v>2.25</v>
-      </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AB47">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6277415</v>
+        <v>6277677</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,10 +4734,10 @@
         <v>45109.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4749,58 +4749,58 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N48">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AB48">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6277418</v>
+        <v>6277953</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="V54">
-        <v>2</v>
-      </c>
       <c r="W54">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6277953</v>
+        <v>6277418</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,76 +5357,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6277877</v>
+        <v>6278727</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,76 +5624,76 @@
         <v>45116.66666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K58">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6278727</v>
+        <v>6277877</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45116.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N59">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V59">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X59">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>45116.77083333334</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -6247,7 +6247,7 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -7048,7 +7048,7 @@
         <v>45129.875</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>41</v>
@@ -7496,7 +7496,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6277423</v>
+        <v>6277724</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,73 +7582,73 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K80">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
         <v>4.75</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7659,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6277724</v>
+        <v>6277882</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7671,76 +7671,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L81">
         <v>3.6</v>
       </c>
       <c r="M81">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="N81">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6277882</v>
+        <v>6277423</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,76 +7760,76 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="N82">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6277883</v>
+        <v>6278694</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,73 +7849,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>3</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K83">
         <v>2</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
         <v>3.75</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
         <v>1.975</v>
       </c>
-      <c r="S83">
-        <v>1.875</v>
-      </c>
       <c r="T83">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
+        <v>1.825</v>
+      </c>
+      <c r="V83">
         <v>2.025</v>
       </c>
-      <c r="V83">
-        <v>1.825</v>
-      </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6278694</v>
+        <v>6277883</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,73 +7938,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K84">
         <v>2</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M84">
         <v>3.75</v>
       </c>
       <c r="N84">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>1.875</v>
       </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U84">
+        <v>2.025</v>
+      </c>
+      <c r="V84">
         <v>1.825</v>
       </c>
-      <c r="V84">
-        <v>2.025</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8386,7 +8386,7 @@
         <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8739,7 +8739,7 @@
         <v>45143.875</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>36</v>
@@ -8831,7 +8831,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6277426</v>
+        <v>6277425</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,76 +9006,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K96">
+        <v>2.25</v>
+      </c>
+      <c r="L96">
+        <v>3.2</v>
+      </c>
+      <c r="M96">
+        <v>3.1</v>
+      </c>
+      <c r="N96">
+        <v>2.25</v>
+      </c>
+      <c r="O96">
+        <v>3.2</v>
+      </c>
+      <c r="P96">
+        <v>3.3</v>
+      </c>
+      <c r="Q96">
+        <v>-0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>1.8</v>
+      </c>
+      <c r="V96">
+        <v>2.05</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>2.2</v>
       </c>
-      <c r="L96">
-        <v>3.25</v>
-      </c>
-      <c r="M96">
-        <v>3.2</v>
-      </c>
-      <c r="N96">
-        <v>1.909</v>
-      </c>
-      <c r="O96">
-        <v>3.6</v>
-      </c>
-      <c r="P96">
-        <v>4</v>
-      </c>
-      <c r="Q96">
+      <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
         <v>-0.5</v>
       </c>
-      <c r="R96">
-        <v>1.85</v>
-      </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
-      <c r="T96">
-        <v>2.5</v>
-      </c>
-      <c r="U96">
-        <v>1.875</v>
-      </c>
-      <c r="V96">
-        <v>1.975</v>
-      </c>
-      <c r="W96">
-        <v>0.909</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6277425</v>
+        <v>6277426</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L98">
+        <v>3.25</v>
+      </c>
+      <c r="M98">
         <v>3.2</v>
       </c>
-      <c r="M98">
-        <v>3.1</v>
-      </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
+        <v>1.875</v>
+      </c>
+      <c r="V98">
         <v>1.975</v>
       </c>
-      <c r="S98">
-        <v>1.875</v>
-      </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>1.8</v>
-      </c>
-      <c r="V98">
-        <v>2.05</v>
-      </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X98">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC98">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6277686</v>
+        <v>7016600</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L102">
+        <v>3.4</v>
+      </c>
+      <c r="M102">
+        <v>3.75</v>
+      </c>
+      <c r="N102">
+        <v>1.95</v>
+      </c>
+      <c r="O102">
         <v>3.5</v>
       </c>
-      <c r="M102">
-        <v>4.333</v>
-      </c>
-      <c r="N102">
-        <v>1.7</v>
-      </c>
-      <c r="O102">
-        <v>3.6</v>
-      </c>
       <c r="P102">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9629,10 +9629,10 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F103" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" t="s">
         <v>34</v>
-      </c>
-      <c r="G103" t="s">
-        <v>35</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7016600</v>
+        <v>6277686</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,76 +9718,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K104">
+        <v>1.8</v>
+      </c>
+      <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
+        <v>4.333</v>
+      </c>
+      <c r="N104">
+        <v>1.7</v>
+      </c>
+      <c r="O104">
+        <v>3.6</v>
+      </c>
+      <c r="P104">
+        <v>5.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.75</v>
+      </c>
+      <c r="R104">
         <v>1.95</v>
       </c>
-      <c r="L104">
-        <v>3.4</v>
-      </c>
-      <c r="M104">
-        <v>3.75</v>
-      </c>
-      <c r="N104">
-        <v>1.95</v>
-      </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>3.8</v>
-      </c>
-      <c r="Q104">
-        <v>-0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.975</v>
-      </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
         <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6277726</v>
+        <v>6277429</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,76 +10430,76 @@
         <v>45157.77083333334</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M112">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P112">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6277429</v>
+        <v>6277726</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,76 +10519,76 @@
         <v>45157.77083333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>50</v>
+      </c>
+      <c r="K113">
         <v>3</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113" t="s">
-        <v>51</v>
-      </c>
-      <c r="K113">
-        <v>1.571</v>
-      </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N113">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
+        <v>1.95</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
         <v>2.05</v>
       </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.975</v>
-      </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10967,7 +10967,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6277955</v>
+        <v>6277891</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,13 +11498,13 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11513,43 +11513,43 @@
         <v>51</v>
       </c>
       <c r="K124">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N124">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O124">
         <v>3.6</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11558,16 +11558,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6277891</v>
+        <v>6277955</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,13 +11587,13 @@
         <v>45165.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11602,43 +11602,43 @@
         <v>51</v>
       </c>
       <c r="K125">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N125">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="O125">
         <v>3.6</v>
       </c>
       <c r="P125">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>0.8500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11647,16 +11647,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11943,7 +11943,7 @@
         <v>45165.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
         <v>30</v>
@@ -12299,7 +12299,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>47</v>
@@ -12388,7 +12388,7 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6277895</v>
+        <v>6277433</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L136">
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X136">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6277433</v>
+        <v>6277895</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N138">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
         <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13281,7 +13281,7 @@
         <v>48</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13548,7 +13548,7 @@
         <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>4</v>
@@ -13815,7 +13815,7 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6277436</v>
+        <v>6278698</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L153">
+        <v>3.4</v>
+      </c>
+      <c r="M153">
         <v>3.5</v>
       </c>
-      <c r="M153">
-        <v>4.5</v>
-      </c>
       <c r="N153">
+        <v>2.375</v>
+      </c>
+      <c r="O153">
+        <v>3.2</v>
+      </c>
+      <c r="P153">
+        <v>3.1</v>
+      </c>
+      <c r="Q153">
+        <v>-0.25</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
         <v>1.85</v>
-      </c>
-      <c r="O153">
-        <v>3.3</v>
-      </c>
-      <c r="P153">
-        <v>4.5</v>
-      </c>
-      <c r="Q153">
-        <v>-0.75</v>
-      </c>
-      <c r="R153">
-        <v>2.025</v>
-      </c>
-      <c r="S153">
-        <v>1.825</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>2.1</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.5125</v>
-      </c>
-      <c r="AA153">
-        <v>-0.5</v>
-      </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6278698</v>
+        <v>6277436</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,76 +14168,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N154">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O154">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P154">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14435,7 +14435,7 @@
         <v>45190.89583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>36</v>
@@ -14972,7 +14972,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15150,7 +15150,7 @@
         <v>47</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -16040,7 +16040,7 @@
         <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16126,7 +16126,7 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>43</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6277699</v>
+        <v>6277439</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,49 +16304,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K178">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M178">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N178">
+        <v>1.533</v>
+      </c>
+      <c r="O178">
+        <v>4.2</v>
+      </c>
+      <c r="P178">
+        <v>6</v>
+      </c>
+      <c r="Q178">
+        <v>-1</v>
+      </c>
+      <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
         <v>2.5</v>
-      </c>
-      <c r="O178">
-        <v>3.1</v>
-      </c>
-      <c r="P178">
-        <v>2.9</v>
-      </c>
-      <c r="Q178">
-        <v>0</v>
-      </c>
-      <c r="R178">
-        <v>1.825</v>
-      </c>
-      <c r="S178">
-        <v>2.025</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
       </c>
       <c r="U178">
         <v>1.85</v>
@@ -16355,10 +16355,10 @@
         <v>2</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16370,10 +16370,10 @@
         <v>-0</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6277439</v>
+        <v>6277699</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,49 +16482,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N180">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
         <v>1.85</v>
@@ -16533,10 +16533,10 @@
         <v>2</v>
       </c>
       <c r="W180">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
@@ -16548,10 +16548,10 @@
         <v>-0</v>
       </c>
       <c r="AB180">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16660,7 +16660,7 @@
         <v>45217.79166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>31</v>
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6281058</v>
+        <v>6319573</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,10 +16927,10 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16942,43 +16942,43 @@
         <v>51</v>
       </c>
       <c r="K185">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N185">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16987,7 +16987,7 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA185">
         <v>-1</v>
@@ -16996,7 +16996,7 @@
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6319573</v>
+        <v>6281058</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,10 +17016,10 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17031,43 +17031,43 @@
         <v>51</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M186">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N186">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O186">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
         <v>2.25</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17076,16 +17076,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
+        <v>1.05</v>
+      </c>
+      <c r="AA186">
+        <v>-1</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
         <v>0.925</v>
-      </c>
-      <c r="AA186">
-        <v>-1</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17461,7 +17461,7 @@
         <v>45218.89583333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
         <v>40</v>
@@ -17642,7 +17642,7 @@
         <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -18265,7 +18265,7 @@
         <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18428,7 +18428,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6277484</v>
+        <v>6280312</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18440,58 +18440,58 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>51</v>
       </c>
       <c r="K202">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M202">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N202">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O202">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P202">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q202">
         <v>-1</v>
       </c>
       <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.85</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
         <v>2.025</v>
       </c>
-      <c r="S202">
+      <c r="V202">
         <v>1.825</v>
       </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>1.85</v>
-      </c>
-      <c r="V202">
-        <v>2</v>
-      </c>
       <c r="W202">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18500,13 +18500,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>-0</v>
+      </c>
+      <c r="AB202">
         <v>1.025</v>
-      </c>
-      <c r="AA202">
-        <v>-1</v>
-      </c>
-      <c r="AB202">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6280312</v>
+        <v>6277484</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,58 +18618,58 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H204">
+        <v>5</v>
+      </c>
+      <c r="I204">
         <v>3</v>
-      </c>
-      <c r="I204">
-        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>51</v>
       </c>
       <c r="K204">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M204">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N204">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O204">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q204">
         <v>-1</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
         <v>1.85</v>
       </c>
-      <c r="T204">
-        <v>2.75</v>
-      </c>
-      <c r="U204">
-        <v>2.025</v>
-      </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18678,13 +18678,13 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7376185</v>
+        <v>6318832</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,13 +18707,13 @@
         <v>45224.83333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18722,43 +18722,43 @@
         <v>51</v>
       </c>
       <c r="K205">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N205">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O205">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P205">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q205">
         <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="V205">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18767,13 +18767,13 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6318832</v>
+        <v>7376185</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,13 +18796,13 @@
         <v>45224.83333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18811,43 +18811,43 @@
         <v>51</v>
       </c>
       <c r="K206">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L206">
+        <v>3.4</v>
+      </c>
+      <c r="M206">
+        <v>4.5</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206">
         <v>3.2</v>
       </c>
-      <c r="M206">
-        <v>3.5</v>
-      </c>
-      <c r="N206">
-        <v>1.909</v>
-      </c>
-      <c r="O206">
-        <v>3.25</v>
-      </c>
       <c r="P206">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q206">
         <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="S206">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U206">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W206">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18856,13 +18856,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>45224.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>46</v>
@@ -19244,7 +19244,7 @@
         <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19422,7 +19422,7 @@
         <v>41</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19956,7 +19956,7 @@
         <v>42</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20312,7 +20312,7 @@
         <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6649149</v>
+        <v>6648764</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,73 +20398,73 @@
         <v>45231.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H224">
         <v>3</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M224">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N224">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S224">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T224">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V224">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB224">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AC224">
         <v>-1</v>
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6648764</v>
+        <v>6649149</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,73 +20487,73 @@
         <v>45231.89583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H225">
         <v>3</v>
       </c>
       <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>51</v>
+      </c>
+      <c r="K225">
+        <v>1.65</v>
+      </c>
+      <c r="L225">
         <v>4</v>
       </c>
-      <c r="J225" t="s">
-        <v>50</v>
-      </c>
-      <c r="K225">
-        <v>2.5</v>
-      </c>
-      <c r="L225">
-        <v>3.3</v>
-      </c>
       <c r="M225">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N225">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O225">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R225">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S225">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T225">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U225">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA225">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AC225">
         <v>-1</v>
@@ -20831,7 +20831,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6665146</v>
+        <v>6582507</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20843,76 +20843,76 @@
         <v>45234.8125</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H229">
         <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>4.2</v>
+        <v>1.533</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="N229">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P229">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q229">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>1.825</v>
+        <v>1.99</v>
       </c>
       <c r="S229">
-        <v>2.025</v>
+        <v>1.91</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X229">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.825</v>
+        <v>0.495</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20920,7 +20920,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6582507</v>
+        <v>6665146</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20932,76 +20932,76 @@
         <v>45234.8125</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>1.533</v>
+        <v>4.2</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N230">
+        <v>4.5</v>
+      </c>
+      <c r="O230">
+        <v>3.6</v>
+      </c>
+      <c r="P230">
         <v>1.75</v>
       </c>
-      <c r="O230">
-        <v>3.8</v>
-      </c>
-      <c r="P230">
-        <v>4.75</v>
-      </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R230">
-        <v>1.99</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.91</v>
+        <v>2.025</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.495</v>
+        <v>0.825</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21647,7 +21647,7 @@
         <v>45</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -22077,7 +22077,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6676669</v>
+        <v>6677105</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22089,76 +22089,76 @@
         <v>45239.79166666666</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L243">
         <v>3.1</v>
       </c>
       <c r="M243">
+        <v>2.625</v>
+      </c>
+      <c r="N243">
+        <v>2.8</v>
+      </c>
+      <c r="O243">
+        <v>2.875</v>
+      </c>
+      <c r="P243">
         <v>2.9</v>
       </c>
-      <c r="N243">
-        <v>2.1</v>
-      </c>
-      <c r="O243">
-        <v>3.3</v>
-      </c>
-      <c r="P243">
-        <v>3.6</v>
-      </c>
       <c r="Q243">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R243">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S243">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T243">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U243">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V243">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y243">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA243">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC243">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6677105</v>
+        <v>6676669</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22178,76 +22178,76 @@
         <v>45239.79166666666</v>
       </c>
       <c r="F244" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K244">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L244">
         <v>3.1</v>
       </c>
       <c r="M244">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N244">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O244">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P244">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S244">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T244">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V244">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB244">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22270,7 +22270,7 @@
         <v>43</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22537,7 +22537,7 @@
         <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -22801,7 +22801,7 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
         <v>40</v>
@@ -22878,7 +22878,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6648522</v>
+        <v>6688997</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22890,76 +22890,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252">
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K252">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L252">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N252">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R252">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X252">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA252">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB252">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC252">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22967,7 +22967,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6688997</v>
+        <v>6648522</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22979,76 +22979,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253">
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K253">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L253">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M253">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N253">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O253">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P253">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q253">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S253">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
         <v>2.25</v>
       </c>
       <c r="U253">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V253">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W253">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA253">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB253">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23513,7 +23513,7 @@
         <v>45252.89583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
         <v>44</v>
@@ -23958,7 +23958,7 @@
         <v>45255.875</v>
       </c>
       <c r="F264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G264" t="s">
         <v>39</v>
@@ -24139,7 +24139,7 @@
         <v>41</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H266">
         <v>3</v>
@@ -24213,7 +24213,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6704082</v>
+        <v>6707529</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24225,76 +24225,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F267" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K267">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L267">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M267">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N267">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O267">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P267">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q267">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
+        <v>2.05</v>
+      </c>
+      <c r="S267">
         <v>1.8</v>
-      </c>
-      <c r="S267">
-        <v>2.05</v>
       </c>
       <c r="T267">
         <v>2.25</v>
       </c>
       <c r="U267">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X267">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AA267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24302,7 +24302,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6637300</v>
+        <v>6704396</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24314,76 +24314,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G268" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H268">
         <v>0</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J268" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K268">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M268">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="N268">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="O268">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P268">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q268">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R268">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S268">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T268">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V268">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC268">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24391,7 +24391,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6707529</v>
+        <v>6637300</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24403,76 +24403,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G269" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K269">
+        <v>1.727</v>
+      </c>
+      <c r="L269">
+        <v>3.4</v>
+      </c>
+      <c r="M269">
+        <v>5.25</v>
+      </c>
+      <c r="N269">
+        <v>1.615</v>
+      </c>
+      <c r="O269">
+        <v>3.6</v>
+      </c>
+      <c r="P269">
+        <v>7</v>
+      </c>
+      <c r="Q269">
+        <v>-0.75</v>
+      </c>
+      <c r="R269">
+        <v>1.825</v>
+      </c>
+      <c r="S269">
+        <v>2.025</v>
+      </c>
+      <c r="T269">
+        <v>2</v>
+      </c>
+      <c r="U269">
+        <v>1.925</v>
+      </c>
+      <c r="V269">
+        <v>1.925</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
         <v>2.6</v>
       </c>
-      <c r="L269">
-        <v>3.3</v>
-      </c>
-      <c r="M269">
-        <v>2.625</v>
-      </c>
-      <c r="N269">
-        <v>2.4</v>
-      </c>
-      <c r="O269">
-        <v>3.4</v>
-      </c>
-      <c r="P269">
-        <v>2.9</v>
-      </c>
-      <c r="Q269">
-        <v>-0.25</v>
-      </c>
-      <c r="R269">
-        <v>2.05</v>
-      </c>
-      <c r="S269">
-        <v>1.8</v>
-      </c>
-      <c r="T269">
-        <v>2.25</v>
-      </c>
-      <c r="U269">
-        <v>1.875</v>
-      </c>
-      <c r="V269">
-        <v>1.975</v>
-      </c>
-      <c r="W269">
-        <v>1.4</v>
-      </c>
-      <c r="X269">
-        <v>-1</v>
-      </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24480,7 +24480,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6704396</v>
+        <v>6704082</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24492,76 +24492,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G270" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K270">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="L270">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M270">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N270">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O270">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P270">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q270">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S270">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T270">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U270">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V270">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y270">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA270">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AC270">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24762,7 +24762,7 @@
         <v>33</v>
       </c>
       <c r="G273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6648739</v>
+        <v>7526668</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24937,55 +24937,55 @@
         <v>45259.83333333334</v>
       </c>
       <c r="F275" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G275" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H275">
         <v>0</v>
       </c>
       <c r="I275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J275" t="s">
         <v>50</v>
       </c>
       <c r="K275">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L275">
+        <v>3.2</v>
+      </c>
+      <c r="M275">
+        <v>3.6</v>
+      </c>
+      <c r="N275">
+        <v>2.2</v>
+      </c>
+      <c r="O275">
         <v>3.1</v>
       </c>
-      <c r="M275">
-        <v>3</v>
-      </c>
-      <c r="N275">
-        <v>3.1</v>
-      </c>
-      <c r="O275">
-        <v>2.875</v>
-      </c>
       <c r="P275">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S275">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T275">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U275">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V275">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W275">
         <v>-1</v>
@@ -24994,19 +24994,19 @@
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>1.625</v>
+        <v>2.6</v>
       </c>
       <c r="Z275">
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.7</v>
+        <v>0.925</v>
       </c>
       <c r="AB275">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7526668</v>
+        <v>6648739</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,55 +25026,55 @@
         <v>45259.83333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
         <v>50</v>
       </c>
       <c r="K276">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L276">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M276">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N276">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P276">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R276">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S276">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T276">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U276">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V276">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W276">
         <v>-1</v>
@@ -25083,19 +25083,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>2.6</v>
+        <v>1.625</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.925</v>
+        <v>0.7</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC276">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25293,7 +25293,7 @@
         <v>45260.79166666666</v>
       </c>
       <c r="F279" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G279" t="s">
         <v>37</v>
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7524354</v>
+        <v>6684914</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25738,58 +25738,58 @@
         <v>45263.66666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H284">
+        <v>2</v>
+      </c>
+      <c r="I284">
         <v>1</v>
-      </c>
-      <c r="I284">
-        <v>0</v>
       </c>
       <c r="J284" t="s">
         <v>51</v>
       </c>
       <c r="K284">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="L284">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M284">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N284">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="O284">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P284">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Q284">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R284">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S284">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T284">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U284">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V284">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W284">
-        <v>0.25</v>
+        <v>0.363</v>
       </c>
       <c r="X284">
         <v>-1</v>
@@ -25798,16 +25798,16 @@
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA284">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC284">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6684914</v>
+        <v>7524354</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25827,58 +25827,58 @@
         <v>45263.66666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G285" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
         <v>51</v>
       </c>
       <c r="K285">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="L285">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M285">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="N285">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O285">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P285">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q285">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R285">
+        <v>2</v>
+      </c>
+      <c r="S285">
+        <v>1.85</v>
+      </c>
+      <c r="T285">
+        <v>3</v>
+      </c>
+      <c r="U285">
+        <v>1.975</v>
+      </c>
+      <c r="V285">
         <v>1.875</v>
       </c>
-      <c r="S285">
-        <v>1.975</v>
-      </c>
-      <c r="T285">
-        <v>2.5</v>
-      </c>
-      <c r="U285">
-        <v>2.05</v>
-      </c>
-      <c r="V285">
-        <v>1.8</v>
-      </c>
       <c r="W285">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X285">
         <v>-1</v>
@@ -25887,16 +25887,16 @@
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB285">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26183,7 +26183,7 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F289" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G289" t="s">
         <v>38</v>
@@ -26527,7 +26527,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6705200</v>
+        <v>6721895</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26539,76 +26539,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F293" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G293" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K293">
+        <v>3.3</v>
+      </c>
+      <c r="L293">
+        <v>3.3</v>
+      </c>
+      <c r="M293">
+        <v>2.1</v>
+      </c>
+      <c r="N293">
+        <v>2.55</v>
+      </c>
+      <c r="O293">
         <v>3.5</v>
       </c>
-      <c r="L293">
-        <v>3.2</v>
-      </c>
-      <c r="M293">
-        <v>2.2</v>
-      </c>
-      <c r="N293">
-        <v>3.25</v>
-      </c>
-      <c r="O293">
-        <v>3.2</v>
-      </c>
       <c r="P293">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q293">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R293">
+        <v>1.95</v>
+      </c>
+      <c r="S293">
+        <v>1.9</v>
+      </c>
+      <c r="T293">
+        <v>2.5</v>
+      </c>
+      <c r="U293">
+        <v>1.975</v>
+      </c>
+      <c r="V293">
         <v>1.875</v>
       </c>
-      <c r="S293">
-        <v>1.975</v>
-      </c>
-      <c r="T293">
-        <v>2.25</v>
-      </c>
-      <c r="U293">
-        <v>1.875</v>
-      </c>
-      <c r="V293">
-        <v>1.975</v>
-      </c>
       <c r="W293">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA293">
+        <v>-1</v>
+      </c>
+      <c r="AB293">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB293">
-        <v>-0.5</v>
-      </c>
       <c r="AC293">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6764571</v>
+        <v>6705186</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,13 +26628,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G294" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -26643,43 +26643,43 @@
         <v>51</v>
       </c>
       <c r="K294">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>2.7</v>
+      </c>
+      <c r="N294">
+        <v>2.3</v>
+      </c>
+      <c r="O294">
+        <v>3.2</v>
+      </c>
+      <c r="P294">
         <v>3.3</v>
       </c>
-      <c r="M294">
-        <v>2.2</v>
-      </c>
-      <c r="N294">
-        <v>3.25</v>
-      </c>
-      <c r="O294">
-        <v>3.4</v>
-      </c>
-      <c r="P294">
-        <v>2.2</v>
-      </c>
       <c r="Q294">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S294">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U294">
-        <v>1.975</v>
+        <v>1.79</v>
       </c>
       <c r="V294">
-        <v>1.875</v>
+        <v>2.11</v>
       </c>
       <c r="W294">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26688,16 +26688,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.79</v>
       </c>
       <c r="AC294">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6704083</v>
+        <v>6745537</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,13 +26717,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G295" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -26732,31 +26732,31 @@
         <v>51</v>
       </c>
       <c r="K295">
+        <v>2.2</v>
+      </c>
+      <c r="L295">
+        <v>3.2</v>
+      </c>
+      <c r="M295">
+        <v>3.5</v>
+      </c>
+      <c r="N295">
         <v>2.05</v>
       </c>
-      <c r="L295">
-        <v>3.25</v>
-      </c>
-      <c r="M295">
-        <v>3.6</v>
-      </c>
-      <c r="N295">
-        <v>2.15</v>
-      </c>
       <c r="O295">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P295">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q295">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S295">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T295">
         <v>2.25</v>
@@ -26768,7 +26768,7 @@
         <v>2</v>
       </c>
       <c r="W295">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X295">
         <v>-1</v>
@@ -26777,7 +26777,7 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA295">
         <v>-1</v>
@@ -26794,7 +26794,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6745222</v>
+        <v>6723140</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26806,55 +26806,55 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F296" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G296" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J296" t="s">
         <v>50</v>
       </c>
       <c r="K296">
+        <v>2.2</v>
+      </c>
+      <c r="L296">
+        <v>3.3</v>
+      </c>
+      <c r="M296">
+        <v>3.25</v>
+      </c>
+      <c r="N296">
+        <v>2.15</v>
+      </c>
+      <c r="O296">
+        <v>3.75</v>
+      </c>
+      <c r="P296">
+        <v>3.1</v>
+      </c>
+      <c r="Q296">
+        <v>-0.25</v>
+      </c>
+      <c r="R296">
+        <v>1.875</v>
+      </c>
+      <c r="S296">
+        <v>1.975</v>
+      </c>
+      <c r="T296">
+        <v>2.75</v>
+      </c>
+      <c r="U296">
         <v>1.85</v>
       </c>
-      <c r="L296">
-        <v>3.4</v>
-      </c>
-      <c r="M296">
-        <v>4.2</v>
-      </c>
-      <c r="N296">
-        <v>1.95</v>
-      </c>
-      <c r="O296">
-        <v>3.25</v>
-      </c>
-      <c r="P296">
-        <v>4.5</v>
-      </c>
-      <c r="Q296">
-        <v>-0.5</v>
-      </c>
-      <c r="R296">
-        <v>1.925</v>
-      </c>
-      <c r="S296">
-        <v>1.925</v>
-      </c>
-      <c r="T296">
-        <v>2.25</v>
-      </c>
-      <c r="U296">
-        <v>2.05</v>
-      </c>
       <c r="V296">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26863,16 +26863,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB296">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26883,7 +26883,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6723141</v>
+        <v>6705200</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26895,76 +26895,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F297" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G297" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K297">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L297">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M297">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N297">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O297">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P297">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q297">
         <v>0.25</v>
       </c>
       <c r="R297">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T297">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
+        <v>1.875</v>
+      </c>
+      <c r="V297">
         <v>1.975</v>
       </c>
-      <c r="V297">
-        <v>1.875</v>
-      </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z297">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB297">
         <v>-0.5</v>
       </c>
-      <c r="AB297">
-        <v>0</v>
-      </c>
       <c r="AC297">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26972,7 +26972,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6723140</v>
+        <v>6745222</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26984,55 +26984,55 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G298" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J298" t="s">
         <v>50</v>
       </c>
       <c r="K298">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L298">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M298">
+        <v>4.2</v>
+      </c>
+      <c r="N298">
+        <v>1.95</v>
+      </c>
+      <c r="O298">
         <v>3.25</v>
       </c>
-      <c r="N298">
-        <v>2.15</v>
-      </c>
-      <c r="O298">
-        <v>3.75</v>
-      </c>
       <c r="P298">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q298">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R298">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S298">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T298">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V298">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27041,16 +27041,16 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB298">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC298">
         <v>-1</v>
@@ -27061,7 +27061,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6705186</v>
+        <v>6764571</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27073,13 +27073,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F299" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G299" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -27088,43 +27088,43 @@
         <v>51</v>
       </c>
       <c r="K299">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L299">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M299">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N299">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O299">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P299">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q299">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R299">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S299">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T299">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U299">
-        <v>1.79</v>
+        <v>1.975</v>
       </c>
       <c r="V299">
-        <v>2.11</v>
+        <v>1.875</v>
       </c>
       <c r="W299">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="X299">
         <v>-1</v>
@@ -27133,16 +27133,16 @@
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="AA299">
         <v>-1</v>
       </c>
       <c r="AB299">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6721895</v>
+        <v>6723141</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27162,49 +27162,49 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F300" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G300" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H300">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I300">
         <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K300">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L300">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M300">
         <v>2.1</v>
       </c>
       <c r="N300">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O300">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P300">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R300">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S300">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T300">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U300">
         <v>1.975</v>
@@ -27213,25 +27213,25 @@
         <v>1.875</v>
       </c>
       <c r="W300">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB300">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27239,7 +27239,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6745537</v>
+        <v>6704083</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27251,13 +27251,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F301" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301">
         <v>1</v>
@@ -27266,31 +27266,31 @@
         <v>51</v>
       </c>
       <c r="K301">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L301">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N301">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O301">
+        <v>3.4</v>
+      </c>
+      <c r="P301">
         <v>3.3</v>
       </c>
-      <c r="P301">
-        <v>3.8</v>
-      </c>
       <c r="Q301">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S301">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T301">
         <v>2.25</v>
@@ -27302,7 +27302,7 @@
         <v>2</v>
       </c>
       <c r="W301">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X301">
         <v>-1</v>
@@ -27311,7 +27311,7 @@
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA301">
         <v>-1</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -118,10 +118,10 @@
     <t>Santos</t>
   </si>
   <si>
-    <t>Fluminense</t>
+    <t>Gremio</t>
   </si>
   <si>
-    <t>Gremio</t>
+    <t>Fluminense</t>
   </si>
   <si>
     <t>Palmeiras</t>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6277865</v>
+        <v>6277302</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1100,43 +1100,43 @@
         <v>51</v>
       </c>
       <c r="K7">
+        <v>2.15</v>
+      </c>
+      <c r="L7">
+        <v>3.2</v>
+      </c>
+      <c r="M7">
+        <v>3.3</v>
+      </c>
+      <c r="N7">
+        <v>2.1</v>
+      </c>
+      <c r="O7">
+        <v>3.3</v>
+      </c>
+      <c r="P7">
+        <v>3.6</v>
+      </c>
+      <c r="Q7">
+        <v>-0.25</v>
+      </c>
+      <c r="R7">
         <v>1.75</v>
       </c>
-      <c r="L7">
-        <v>3.5</v>
-      </c>
-      <c r="M7">
-        <v>4.333</v>
-      </c>
-      <c r="N7">
-        <v>1.8</v>
-      </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
-      <c r="P7">
-        <v>4.75</v>
-      </c>
-      <c r="Q7">
-        <v>-0.75</v>
-      </c>
-      <c r="R7">
-        <v>2.025</v>
-      </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1145,13 +1145,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6277302</v>
+        <v>6277865</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1189,43 +1189,43 @@
         <v>51</v>
       </c>
       <c r="K8">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1234,13 +1234,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6277303</v>
+        <v>6277468</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,76 +2242,76 @@
         <v>45088.77083333334</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N20">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6277468</v>
+        <v>6277303</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,76 +2331,76 @@
         <v>45088.77083333334</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K21">
+        <v>1.615</v>
+      </c>
+      <c r="L21">
         <v>3.75</v>
       </c>
-      <c r="L21">
-        <v>3.3</v>
-      </c>
       <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>1.571</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>5.25</v>
+      </c>
+      <c r="Q21">
+        <v>-1</v>
+      </c>
+      <c r="R21">
+        <v>2.05</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>2.75</v>
+      </c>
+      <c r="U21">
         <v>1.95</v>
       </c>
-      <c r="N21">
-        <v>3.4</v>
-      </c>
-      <c r="O21">
-        <v>3.3</v>
-      </c>
-      <c r="P21">
-        <v>2.2</v>
-      </c>
-      <c r="Q21">
-        <v>0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X21">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>0.475</v>
+      </c>
+      <c r="AC21">
         <v>-0.5</v>
-      </c>
-      <c r="AB21">
-        <v>0.925</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6277914</v>
+        <v>6277869</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,40 +2687,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>2.025</v>
@@ -2729,34 +2729,34 @@
         <v>1.825</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6277869</v>
+        <v>6277914</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,40 +2776,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N26">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
         <v>2.025</v>
@@ -2818,34 +2818,34 @@
         <v>1.825</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2865,7 +2865,7 @@
         <v>45099.79166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6277469</v>
+        <v>6277718</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2954,10 +2954,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2969,41 +2969,41 @@
         <v>50</v>
       </c>
       <c r="K28">
+        <v>2.875</v>
+      </c>
+      <c r="L28">
+        <v>3.2</v>
+      </c>
+      <c r="M28">
+        <v>2.45</v>
+      </c>
+      <c r="N28">
+        <v>2.6</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>1.8</v>
       </c>
-      <c r="L28">
-        <v>3.5</v>
-      </c>
-      <c r="M28">
-        <v>4.5</v>
-      </c>
-      <c r="N28">
-        <v>1.909</v>
-      </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>4.2</v>
-      </c>
-      <c r="Q28">
-        <v>-0.5</v>
-      </c>
-      <c r="R28">
+      <c r="S28">
+        <v>2.05</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>1.875</v>
+      </c>
+      <c r="V28">
         <v>1.975</v>
       </c>
-      <c r="S28">
-        <v>1.875</v>
-      </c>
-      <c r="T28">
-        <v>2.25</v>
-      </c>
-      <c r="U28">
-        <v>1.975</v>
-      </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
@@ -3011,19 +3011,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6277718</v>
+        <v>6277469</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,10 +3132,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3147,61 +3147,61 @@
         <v>50</v>
       </c>
       <c r="K30">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
+        <v>4.5</v>
+      </c>
+      <c r="N30">
+        <v>1.909</v>
+      </c>
+      <c r="O30">
+        <v>3.4</v>
+      </c>
+      <c r="P30">
+        <v>4.2</v>
+      </c>
+      <c r="Q30">
+        <v>-0.5</v>
+      </c>
+      <c r="R30">
+        <v>1.975</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
+        <v>1.875</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
         <v>3.2</v>
       </c>
-      <c r="M30">
-        <v>2.45</v>
-      </c>
-      <c r="N30">
-        <v>2.6</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>1.8</v>
-      </c>
-      <c r="S30">
-        <v>2.05</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.875</v>
-      </c>
-      <c r="V30">
-        <v>1.975</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6277952</v>
+        <v>6277871</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,10 +3399,10 @@
         <v>45101.77083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3414,25 +3414,25 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L33">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R33">
         <v>1.925</v>
@@ -3441,7 +3441,7 @@
         <v>1.925</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
         <v>2.025</v>
@@ -3450,7 +3450,7 @@
         <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,16 +3459,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6277871</v>
+        <v>6277952</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,10 +3488,10 @@
         <v>45101.77083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3503,25 +3503,25 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N34">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>1.925</v>
@@ -3530,7 +3530,7 @@
         <v>1.925</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
         <v>2.025</v>
@@ -3539,7 +3539,7 @@
         <v>1.825</v>
       </c>
       <c r="W34">
-        <v>0.5329999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,16 +3548,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6277872</v>
+        <v>6277305</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,19 +3666,19 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>1.6</v>
@@ -3690,52 +3690,52 @@
         <v>5</v>
       </c>
       <c r="N36">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
         <v>1.85</v>
       </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6277305</v>
+        <v>6277872</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,19 +3755,19 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>1.6</v>
@@ -3779,52 +3779,52 @@
         <v>5</v>
       </c>
       <c r="N37">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6277470</v>
+        <v>6277414</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,76 +3844,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L38">
+        <v>3.1</v>
+      </c>
+      <c r="M38">
+        <v>2.9</v>
+      </c>
+      <c r="N38">
+        <v>1.95</v>
+      </c>
+      <c r="O38">
+        <v>3.4</v>
+      </c>
+      <c r="P38">
         <v>4</v>
       </c>
-      <c r="M38">
-        <v>5.5</v>
-      </c>
-      <c r="N38">
-        <v>1.4</v>
-      </c>
-      <c r="O38">
-        <v>4.5</v>
-      </c>
-      <c r="P38">
-        <v>7.5</v>
-      </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
+        <v>1.875</v>
+      </c>
+      <c r="T38">
+        <v>2.25</v>
+      </c>
+      <c r="U38">
         <v>1.925</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.925</v>
       </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>1.975</v>
-      </c>
-      <c r="V38">
-        <v>1.875</v>
-      </c>
       <c r="W38">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.875</v>
+      </c>
+      <c r="AB38">
         <v>0.925</v>
       </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6277414</v>
+        <v>6277873</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,55 +3933,55 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
         <v>50</v>
       </c>
       <c r="K39">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N39">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
+        <v>1.875</v>
+      </c>
+      <c r="S39">
         <v>1.975</v>
-      </c>
-      <c r="S39">
-        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3990,16 +3990,16 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6277873</v>
+        <v>6277470</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P40">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
+        <v>1.925</v>
+      </c>
+      <c r="S40">
+        <v>1.925</v>
+      </c>
+      <c r="T40">
+        <v>2.75</v>
+      </c>
+      <c r="U40">
+        <v>1.975</v>
+      </c>
+      <c r="V40">
         <v>1.875</v>
       </c>
-      <c r="S40">
-        <v>1.975</v>
-      </c>
-      <c r="T40">
-        <v>2.25</v>
-      </c>
-      <c r="U40">
-        <v>2.025</v>
-      </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4203,7 +4203,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4292,7 +4292,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -5713,7 +5713,7 @@
         <v>45116.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5802,7 +5802,7 @@
         <v>45116.77083333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6277722</v>
+        <v>6277879</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,52 +6158,52 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S64">
+        <v>1.85</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
         <v>1.8</v>
-      </c>
-      <c r="T64">
-        <v>2</v>
-      </c>
-      <c r="U64">
-        <v>1.75</v>
       </c>
       <c r="V64">
         <v>2.05</v>
@@ -6212,16 +6212,16 @@
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y64">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6277879</v>
+        <v>6278728</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,76 +6247,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K65">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N65">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X65">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6278728</v>
+        <v>6277722</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,76 +6336,76 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66">
+        <v>1.533</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>5.75</v>
+      </c>
+      <c r="N66">
         <v>1.75</v>
       </c>
-      <c r="L66">
-        <v>3.5</v>
-      </c>
-      <c r="M66">
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
         <v>4.5</v>
-      </c>
-      <c r="N66">
-        <v>1.615</v>
-      </c>
-      <c r="O66">
-        <v>3.75</v>
-      </c>
-      <c r="P66">
-        <v>6.5</v>
       </c>
       <c r="Q66">
         <v>-0.75</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
+        <v>1.8</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>1.75</v>
+      </c>
+      <c r="V66">
         <v>2.05</v>
       </c>
-      <c r="T66">
-        <v>2</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6277679</v>
+        <v>6278729</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,76 +6425,76 @@
         <v>45123.77083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M67">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N67">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="S67">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V67">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="W67">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6278729</v>
+        <v>6277679</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,76 +6514,76 @@
         <v>45123.77083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K68">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N68">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="S68">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V68">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X68">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6277915</v>
+        <v>6277723</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6870,76 +6870,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L72">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
+        <v>2.8</v>
+      </c>
+      <c r="N72">
+        <v>2.75</v>
+      </c>
+      <c r="O72">
         <v>3.1</v>
       </c>
-      <c r="N72">
-        <v>2.2</v>
-      </c>
-      <c r="O72">
-        <v>3.2</v>
-      </c>
       <c r="P72">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X72">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6277723</v>
+        <v>6277915</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>49</v>
+      </c>
+      <c r="K73">
+        <v>2.5</v>
+      </c>
+      <c r="L73">
+        <v>2.875</v>
+      </c>
+      <c r="M73">
+        <v>3.1</v>
+      </c>
+      <c r="N73">
+        <v>2.2</v>
+      </c>
+      <c r="O73">
+        <v>3.2</v>
+      </c>
+      <c r="P73">
+        <v>3.75</v>
+      </c>
+      <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.875</v>
+      </c>
+      <c r="S73">
+        <v>1.975</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
+        <v>1.85</v>
+      </c>
+      <c r="V73">
+        <v>2</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>2.2</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>-0.5</v>
+      </c>
+      <c r="AA73">
+        <v>0.4875</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>51</v>
-      </c>
-      <c r="K73">
-        <v>2.55</v>
-      </c>
-      <c r="L73">
-        <v>3.1</v>
-      </c>
-      <c r="M73">
-        <v>2.8</v>
-      </c>
-      <c r="N73">
-        <v>2.75</v>
-      </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
-      <c r="P73">
-        <v>2.7</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>1.925</v>
-      </c>
-      <c r="S73">
-        <v>1.925</v>
-      </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.95</v>
-      </c>
-      <c r="V73">
-        <v>1.9</v>
-      </c>
-      <c r="W73">
-        <v>1.75</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.925</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0.95</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7048,7 +7048,7 @@
         <v>45129.875</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>41</v>
@@ -7496,7 +7496,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7671,7 +7671,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>33</v>
@@ -8386,7 +8386,7 @@
         <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8739,7 +8739,7 @@
         <v>45143.875</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>36</v>
@@ -8831,7 +8831,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6277425</v>
+        <v>6277426</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,76 +9006,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K96">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
+        <v>3.25</v>
+      </c>
+      <c r="M96">
         <v>3.2</v>
       </c>
-      <c r="M96">
-        <v>3.1</v>
-      </c>
       <c r="N96">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.85</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
         <v>1.975</v>
       </c>
-      <c r="S96">
-        <v>1.875</v>
-      </c>
-      <c r="T96">
-        <v>2</v>
-      </c>
-      <c r="U96">
-        <v>1.8</v>
-      </c>
-      <c r="V96">
-        <v>2.05</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X96">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA96">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6277426</v>
+        <v>6277425</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K98">
+        <v>2.25</v>
+      </c>
+      <c r="L98">
+        <v>3.2</v>
+      </c>
+      <c r="M98">
+        <v>3.1</v>
+      </c>
+      <c r="N98">
+        <v>2.25</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>3.3</v>
+      </c>
+      <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
+        <v>1.875</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
+        <v>1.8</v>
+      </c>
+      <c r="V98">
+        <v>2.05</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>2.2</v>
       </c>
-      <c r="L98">
-        <v>3.25</v>
-      </c>
-      <c r="M98">
-        <v>3.2</v>
-      </c>
-      <c r="N98">
-        <v>1.909</v>
-      </c>
-      <c r="O98">
-        <v>3.6</v>
-      </c>
-      <c r="P98">
-        <v>4</v>
-      </c>
-      <c r="Q98">
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
         <v>-0.5</v>
       </c>
-      <c r="R98">
-        <v>1.85</v>
-      </c>
-      <c r="S98">
-        <v>2</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.875</v>
-      </c>
-      <c r="V98">
-        <v>1.975</v>
-      </c>
-      <c r="W98">
-        <v>0.909</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7016600</v>
+        <v>6277686</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102">
+        <v>1.8</v>
+      </c>
+      <c r="L102">
+        <v>3.5</v>
+      </c>
+      <c r="M102">
+        <v>4.333</v>
+      </c>
+      <c r="N102">
+        <v>1.7</v>
+      </c>
+      <c r="O102">
+        <v>3.6</v>
+      </c>
+      <c r="P102">
+        <v>5.25</v>
+      </c>
+      <c r="Q102">
+        <v>-0.75</v>
+      </c>
+      <c r="R102">
         <v>1.95</v>
       </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>3.75</v>
-      </c>
-      <c r="N102">
-        <v>1.95</v>
-      </c>
-      <c r="O102">
-        <v>3.5</v>
-      </c>
-      <c r="P102">
-        <v>3.8</v>
-      </c>
-      <c r="Q102">
-        <v>-0.5</v>
-      </c>
-      <c r="R102">
-        <v>1.975</v>
-      </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6277312</v>
+        <v>7016600</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,76 +9629,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
+        <v>1.95</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>3.8</v>
+      </c>
+      <c r="Q103">
+        <v>-0.5</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.875</v>
+      </c>
+      <c r="T103">
         <v>2.25</v>
       </c>
-      <c r="O103">
-        <v>3.3</v>
-      </c>
-      <c r="P103">
-        <v>3.25</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
+      <c r="U103">
         <v>1.925</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.925</v>
       </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.875</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.925</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>1.025</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6277686</v>
+        <v>6277312</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,13 +9718,13 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -9733,43 +9733,43 @@
         <v>51</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M104">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N104">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9778,13 +9778,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10430,7 +10430,7 @@
         <v>45157.77083333334</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>32</v>
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6277918</v>
+        <v>6277688</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,73 +10786,73 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N116">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z116">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6277688</v>
+        <v>6277313</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,49 +10875,49 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N117">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P117">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
         <v>2.025</v>
@@ -10926,19 +10926,19 @@
         <v>1.825</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>1.025</v>
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6277313</v>
+        <v>6277918</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,58 +10964,58 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
       </c>
       <c r="K118">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L118">
         <v>3.25</v>
       </c>
       <c r="M118">
+        <v>2.45</v>
+      </c>
+      <c r="N118">
+        <v>2.375</v>
+      </c>
+      <c r="O118">
+        <v>3.3</v>
+      </c>
+      <c r="P118">
+        <v>3.1</v>
+      </c>
+      <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
+        <v>1.8</v>
+      </c>
+      <c r="T118">
         <v>2.5</v>
       </c>
-      <c r="N118">
-        <v>2.5</v>
-      </c>
-      <c r="O118">
-        <v>3.25</v>
-      </c>
-      <c r="P118">
-        <v>2.8</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>1.8</v>
-      </c>
-      <c r="S118">
-        <v>2.05</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11024,13 +11024,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11679,7 +11679,7 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11943,7 +11943,7 @@
         <v>45165.79166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
         <v>30</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6277692</v>
+        <v>6277477</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,55 +12032,55 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>49</v>
       </c>
       <c r="K130">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N130">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O130">
         <v>3</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12092,16 +12092,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6277477</v>
+        <v>6277692</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,55 +12121,55 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>49</v>
       </c>
       <c r="K131">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L131">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O131">
         <v>3</v>
       </c>
       <c r="P131">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12181,16 +12181,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
+        <v>0.4</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
         <v>-0</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12299,7 +12299,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>47</v>
@@ -12388,7 +12388,7 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6277693</v>
+        <v>7140134</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,73 +12833,73 @@
         <v>45182.89583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>51</v>
+      </c>
+      <c r="K139">
+        <v>2.55</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>2.75</v>
+      </c>
+      <c r="N139">
+        <v>2.625</v>
+      </c>
+      <c r="O139">
+        <v>3.1</v>
+      </c>
+      <c r="P139">
         <v>3</v>
       </c>
-      <c r="J139" t="s">
-        <v>50</v>
-      </c>
-      <c r="K139">
-        <v>1.8</v>
-      </c>
-      <c r="L139">
-        <v>3.6</v>
-      </c>
-      <c r="M139">
-        <v>4.333</v>
-      </c>
-      <c r="N139">
-        <v>1.8</v>
-      </c>
-      <c r="O139">
-        <v>3.5</v>
-      </c>
-      <c r="P139">
-        <v>5</v>
-      </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7140134</v>
+        <v>6277693</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,73 +12922,73 @@
         <v>45182.89583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="V140">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13281,7 +13281,7 @@
         <v>48</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13548,7 +13548,7 @@
         <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>4</v>
@@ -13815,7 +13815,7 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6278698</v>
+        <v>6277436</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N153">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O153">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6277436</v>
+        <v>6278698</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,76 +14168,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L154">
+        <v>3.4</v>
+      </c>
+      <c r="M154">
         <v>3.5</v>
       </c>
-      <c r="M154">
-        <v>4.5</v>
-      </c>
       <c r="N154">
+        <v>2.375</v>
+      </c>
+      <c r="O154">
+        <v>3.2</v>
+      </c>
+      <c r="P154">
+        <v>3.1</v>
+      </c>
+      <c r="Q154">
+        <v>-0.25</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
         <v>1.85</v>
-      </c>
-      <c r="O154">
-        <v>3.3</v>
-      </c>
-      <c r="P154">
-        <v>4.5</v>
-      </c>
-      <c r="Q154">
-        <v>-0.75</v>
-      </c>
-      <c r="R154">
-        <v>2.025</v>
-      </c>
-      <c r="S154">
-        <v>1.825</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>2.1</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.5125</v>
-      </c>
-      <c r="AA154">
-        <v>-0.5</v>
-      </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14435,7 +14435,7 @@
         <v>45190.89583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
         <v>36</v>
@@ -14972,7 +14972,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15150,7 +15150,7 @@
         <v>47</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -16040,7 +16040,7 @@
         <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16126,7 +16126,7 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>43</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6277439</v>
+        <v>6277699</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,49 +16304,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L178">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N178">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O178">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
         <v>1.85</v>
@@ -16355,10 +16355,10 @@
         <v>2</v>
       </c>
       <c r="W178">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16370,10 +16370,10 @@
         <v>-0</v>
       </c>
       <c r="AB178">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6277699</v>
+        <v>6277439</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,49 +16482,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M180">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N180">
+        <v>1.533</v>
+      </c>
+      <c r="O180">
+        <v>4.2</v>
+      </c>
+      <c r="P180">
+        <v>6</v>
+      </c>
+      <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>1.875</v>
+      </c>
+      <c r="S180">
+        <v>1.975</v>
+      </c>
+      <c r="T180">
         <v>2.5</v>
-      </c>
-      <c r="O180">
-        <v>3.1</v>
-      </c>
-      <c r="P180">
-        <v>2.9</v>
-      </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>1.825</v>
-      </c>
-      <c r="S180">
-        <v>2.025</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
       </c>
       <c r="U180">
         <v>1.85</v>
@@ -16533,10 +16533,10 @@
         <v>2</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
@@ -16548,10 +16548,10 @@
         <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16660,7 +16660,7 @@
         <v>45217.79166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
         <v>31</v>
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6319573</v>
+        <v>6281058</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,10 +16927,10 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16942,43 +16942,43 @@
         <v>51</v>
       </c>
       <c r="K185">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M185">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N185">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W185">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16987,16 +16987,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>1.05</v>
+      </c>
+      <c r="AA185">
+        <v>-1</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
         <v>0.925</v>
-      </c>
-      <c r="AA185">
-        <v>-1</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6281058</v>
+        <v>6319573</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,10 +17016,10 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17031,43 +17031,43 @@
         <v>51</v>
       </c>
       <c r="K186">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L186">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M186">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P186">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
         <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17076,7 +17076,7 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA186">
         <v>-1</v>
@@ -17085,7 +17085,7 @@
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17461,7 +17461,7 @@
         <v>45218.89583333334</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
         <v>40</v>
@@ -17642,7 +17642,7 @@
         <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -18265,7 +18265,7 @@
         <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18428,7 +18428,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6280312</v>
+        <v>6277484</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18440,58 +18440,58 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H202">
+        <v>5</v>
+      </c>
+      <c r="I202">
         <v>3</v>
-      </c>
-      <c r="I202">
-        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>51</v>
       </c>
       <c r="K202">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L202">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M202">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N202">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O202">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P202">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q202">
         <v>-1</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
         <v>1.85</v>
       </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
-      <c r="U202">
-        <v>2.025</v>
-      </c>
       <c r="V202">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W202">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18500,13 +18500,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6277484</v>
+        <v>6280312</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,58 +18618,58 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>51</v>
       </c>
       <c r="K204">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N204">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P204">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q204">
         <v>-1</v>
       </c>
       <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.85</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
         <v>2.025</v>
       </c>
-      <c r="S204">
+      <c r="V204">
         <v>1.825</v>
       </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.85</v>
-      </c>
-      <c r="V204">
-        <v>2</v>
-      </c>
       <c r="W204">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18678,13 +18678,13 @@
         <v>-1</v>
       </c>
       <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>-0</v>
+      </c>
+      <c r="AB204">
         <v>1.025</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6318832</v>
+        <v>7376185</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,13 +18707,13 @@
         <v>45224.83333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18722,43 +18722,43 @@
         <v>51</v>
       </c>
       <c r="K205">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L205">
+        <v>3.4</v>
+      </c>
+      <c r="M205">
+        <v>4.5</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205">
         <v>3.2</v>
       </c>
-      <c r="M205">
-        <v>3.5</v>
-      </c>
-      <c r="N205">
-        <v>1.909</v>
-      </c>
-      <c r="O205">
-        <v>3.25</v>
-      </c>
       <c r="P205">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q205">
         <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="S205">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U205">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W205">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18767,13 +18767,13 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7376185</v>
+        <v>6318832</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,13 +18796,13 @@
         <v>45224.83333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18811,43 +18811,43 @@
         <v>51</v>
       </c>
       <c r="K206">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N206">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O206">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P206">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q206">
         <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="V206">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18856,13 +18856,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>45224.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
         <v>46</v>
@@ -19244,7 +19244,7 @@
         <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19422,7 +19422,7 @@
         <v>41</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19956,7 +19956,7 @@
         <v>42</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6652314</v>
+        <v>6648975</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,76 +20042,76 @@
         <v>45231.79166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M220">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N220">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="O220">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P220">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6648975</v>
+        <v>6652314</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,76 +20131,76 @@
         <v>45231.79166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K221">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L221">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M221">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="O221">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P221">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X221">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20312,7 +20312,7 @@
         <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6648764</v>
+        <v>6649149</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,73 +20398,73 @@
         <v>45231.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G224" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H224">
         <v>3</v>
       </c>
       <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224" t="s">
+        <v>51</v>
+      </c>
+      <c r="K224">
+        <v>1.65</v>
+      </c>
+      <c r="L224">
         <v>4</v>
       </c>
-      <c r="J224" t="s">
-        <v>50</v>
-      </c>
-      <c r="K224">
-        <v>2.5</v>
-      </c>
-      <c r="L224">
-        <v>3.3</v>
-      </c>
       <c r="M224">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N224">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S224">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA224">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AC224">
         <v>-1</v>
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6649149</v>
+        <v>6648764</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,73 +20487,73 @@
         <v>45231.89583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H225">
         <v>3</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J225" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K225">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M225">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N225">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P225">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q225">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S225">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W225">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z225">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB225">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AC225">
         <v>-1</v>
@@ -20831,7 +20831,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6582507</v>
+        <v>6665146</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20843,76 +20843,76 @@
         <v>45234.8125</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H229">
         <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K229">
-        <v>1.533</v>
+        <v>4.2</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N229">
+        <v>4.5</v>
+      </c>
+      <c r="O229">
+        <v>3.6</v>
+      </c>
+      <c r="P229">
         <v>1.75</v>
       </c>
-      <c r="O229">
-        <v>3.8</v>
-      </c>
-      <c r="P229">
-        <v>4.75</v>
-      </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R229">
-        <v>1.99</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>1.91</v>
+        <v>2.025</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.495</v>
+        <v>0.825</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20920,7 +20920,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6665146</v>
+        <v>6582507</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20932,76 +20932,76 @@
         <v>45234.8125</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K230">
-        <v>4.2</v>
+        <v>1.533</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M230">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="N230">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P230">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q230">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.99</v>
       </c>
       <c r="S230">
-        <v>2.025</v>
+        <v>1.91</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X230">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.825</v>
+        <v>0.495</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6665176</v>
+        <v>6576738</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,76 +21110,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K232">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L232">
+        <v>3.3</v>
+      </c>
+      <c r="M232">
+        <v>2.625</v>
+      </c>
+      <c r="N232">
+        <v>2.15</v>
+      </c>
+      <c r="O232">
+        <v>3.1</v>
+      </c>
+      <c r="P232">
         <v>3.6</v>
       </c>
-      <c r="M232">
-        <v>4.75</v>
-      </c>
-      <c r="N232">
-        <v>1.55</v>
-      </c>
-      <c r="O232">
-        <v>4.333</v>
-      </c>
-      <c r="P232">
-        <v>5.5</v>
-      </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6576738</v>
+        <v>6665176</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,76 +21288,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G234" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K234">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N234">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O234">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P234">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R234">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA234">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB234">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21647,7 +21647,7 @@
         <v>45</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -22077,7 +22077,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6677105</v>
+        <v>6676669</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22089,76 +22089,76 @@
         <v>45239.79166666666</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K243">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L243">
         <v>3.1</v>
       </c>
       <c r="M243">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N243">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O243">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P243">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S243">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T243">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V243">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB243">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6676669</v>
+        <v>6677105</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22178,76 +22178,76 @@
         <v>45239.79166666666</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L244">
         <v>3.1</v>
       </c>
       <c r="M244">
+        <v>2.625</v>
+      </c>
+      <c r="N244">
+        <v>2.8</v>
+      </c>
+      <c r="O244">
+        <v>2.875</v>
+      </c>
+      <c r="P244">
         <v>2.9</v>
       </c>
-      <c r="N244">
-        <v>2.1</v>
-      </c>
-      <c r="O244">
-        <v>3.3</v>
-      </c>
-      <c r="P244">
-        <v>3.6</v>
-      </c>
       <c r="Q244">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S244">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U244">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V244">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y244">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC244">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22270,7 +22270,7 @@
         <v>43</v>
       </c>
       <c r="G245" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22537,7 +22537,7 @@
         <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -22801,7 +22801,7 @@
         <v>45242.66666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
         <v>40</v>
@@ -23056,7 +23056,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6622499</v>
+        <v>6619639</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23068,10 +23068,10 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F254" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H254">
         <v>2</v>
@@ -23083,43 +23083,43 @@
         <v>51</v>
       </c>
       <c r="K254">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L254">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M254">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N254">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="O254">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P254">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R254">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S254">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T254">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V254">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W254">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23128,13 +23128,13 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB254">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23145,7 +23145,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6689151</v>
+        <v>6622499</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23157,76 +23157,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G255" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K255">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L255">
         <v>3.3</v>
       </c>
       <c r="M255">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N255">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O255">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P255">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q255">
         <v>0</v>
       </c>
       <c r="R255">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S255">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T255">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U255">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X255">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA255">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC255">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23234,7 +23234,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6619639</v>
+        <v>6689151</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23246,61 +23246,61 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F256" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G256" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K256">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L256">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M256">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N256">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="O256">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P256">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R256">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S256">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T256">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U256">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W256">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y256">
         <v>-1</v>
@@ -23312,10 +23312,10 @@
         <v>-0</v>
       </c>
       <c r="AB256">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23513,7 +23513,7 @@
         <v>45252.89583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
         <v>44</v>
@@ -23958,7 +23958,7 @@
         <v>45255.875</v>
       </c>
       <c r="F264" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
         <v>39</v>
@@ -24139,7 +24139,7 @@
         <v>41</v>
       </c>
       <c r="G266" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H266">
         <v>3</v>
@@ -24762,7 +24762,7 @@
         <v>33</v>
       </c>
       <c r="G273" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6721936</v>
+        <v>6652316</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,76 +25115,76 @@
         <v>45259.89583333334</v>
       </c>
       <c r="F277" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G277" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K277">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="L277">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M277">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N277">
-        <v>1.2</v>
+        <v>4.75</v>
       </c>
       <c r="O277">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P277">
-        <v>10</v>
+        <v>1.727</v>
       </c>
       <c r="Q277">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R277">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T277">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.875</v>
+        <v>1.99</v>
       </c>
       <c r="V277">
-        <v>1.975</v>
+        <v>1.91</v>
       </c>
       <c r="W277">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.8999999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6652316</v>
+        <v>6721936</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,76 +25204,76 @@
         <v>45259.89583333334</v>
       </c>
       <c r="F278" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G278" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K278">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="L278">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M278">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N278">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="O278">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P278">
-        <v>1.727</v>
+        <v>10</v>
       </c>
       <c r="Q278">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R278">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S278">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U278">
-        <v>1.99</v>
+        <v>1.875</v>
       </c>
       <c r="V278">
-        <v>1.91</v>
+        <v>1.975</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X278">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.8700000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA278">
         <v>-1</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC278">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25293,7 +25293,7 @@
         <v>45260.79166666666</v>
       </c>
       <c r="F279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G279" t="s">
         <v>37</v>
@@ -25830,7 +25830,7 @@
         <v>36</v>
       </c>
       <c r="G285" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -26183,7 +26183,7 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F289" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G289" t="s">
         <v>38</v>
@@ -26527,7 +26527,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6721895</v>
+        <v>6705200</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26539,76 +26539,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F293" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H293">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K293">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L293">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M293">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N293">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O293">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P293">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R293">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S293">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T293">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
+        <v>1.875</v>
+      </c>
+      <c r="V293">
         <v>1.975</v>
       </c>
-      <c r="V293">
-        <v>1.875</v>
-      </c>
       <c r="W293">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z293">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB293">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6705186</v>
+        <v>6764571</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,13 +26628,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G294" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -26643,43 +26643,43 @@
         <v>51</v>
       </c>
       <c r="K294">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L294">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N294">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O294">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P294">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R294">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T294">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U294">
-        <v>1.79</v>
+        <v>1.975</v>
       </c>
       <c r="V294">
-        <v>2.11</v>
+        <v>1.875</v>
       </c>
       <c r="W294">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26688,16 +26688,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6745537</v>
+        <v>6704083</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,13 +26717,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G295" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -26732,31 +26732,31 @@
         <v>51</v>
       </c>
       <c r="K295">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L295">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M295">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N295">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O295">
+        <v>3.4</v>
+      </c>
+      <c r="P295">
         <v>3.3</v>
       </c>
-      <c r="P295">
-        <v>3.8</v>
-      </c>
       <c r="Q295">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S295">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T295">
         <v>2.25</v>
@@ -26768,7 +26768,7 @@
         <v>2</v>
       </c>
       <c r="W295">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X295">
         <v>-1</v>
@@ -26777,7 +26777,7 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA295">
         <v>-1</v>
@@ -26794,7 +26794,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6723140</v>
+        <v>6745222</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26806,55 +26806,55 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F296" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G296" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J296" t="s">
         <v>50</v>
       </c>
       <c r="K296">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L296">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M296">
+        <v>4.2</v>
+      </c>
+      <c r="N296">
+        <v>1.95</v>
+      </c>
+      <c r="O296">
         <v>3.25</v>
       </c>
-      <c r="N296">
-        <v>2.15</v>
-      </c>
-      <c r="O296">
-        <v>3.75</v>
-      </c>
       <c r="P296">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R296">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S296">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V296">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26863,16 +26863,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB296">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26883,7 +26883,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6705200</v>
+        <v>6723141</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26895,76 +26895,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F297" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K297">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L297">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M297">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N297">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O297">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P297">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q297">
         <v>0.25</v>
       </c>
       <c r="R297">
+        <v>2</v>
+      </c>
+      <c r="S297">
+        <v>1.85</v>
+      </c>
+      <c r="T297">
+        <v>2</v>
+      </c>
+      <c r="U297">
+        <v>1.975</v>
+      </c>
+      <c r="V297">
         <v>1.875</v>
       </c>
-      <c r="S297">
-        <v>1.975</v>
-      </c>
-      <c r="T297">
-        <v>2.25</v>
-      </c>
-      <c r="U297">
-        <v>1.875</v>
-      </c>
-      <c r="V297">
-        <v>1.975</v>
-      </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y297">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA297">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB297">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC297">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26972,7 +26972,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6745222</v>
+        <v>6723140</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26984,55 +26984,55 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F298" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G298" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J298" t="s">
         <v>50</v>
       </c>
       <c r="K298">
+        <v>2.2</v>
+      </c>
+      <c r="L298">
+        <v>3.3</v>
+      </c>
+      <c r="M298">
+        <v>3.25</v>
+      </c>
+      <c r="N298">
+        <v>2.15</v>
+      </c>
+      <c r="O298">
+        <v>3.75</v>
+      </c>
+      <c r="P298">
+        <v>3.1</v>
+      </c>
+      <c r="Q298">
+        <v>-0.25</v>
+      </c>
+      <c r="R298">
+        <v>1.875</v>
+      </c>
+      <c r="S298">
+        <v>1.975</v>
+      </c>
+      <c r="T298">
+        <v>2.75</v>
+      </c>
+      <c r="U298">
         <v>1.85</v>
       </c>
-      <c r="L298">
-        <v>3.4</v>
-      </c>
-      <c r="M298">
-        <v>4.2</v>
-      </c>
-      <c r="N298">
-        <v>1.95</v>
-      </c>
-      <c r="O298">
-        <v>3.25</v>
-      </c>
-      <c r="P298">
-        <v>4.5</v>
-      </c>
-      <c r="Q298">
-        <v>-0.5</v>
-      </c>
-      <c r="R298">
-        <v>1.925</v>
-      </c>
-      <c r="S298">
-        <v>1.925</v>
-      </c>
-      <c r="T298">
-        <v>2.25</v>
-      </c>
-      <c r="U298">
-        <v>2.05</v>
-      </c>
       <c r="V298">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27041,16 +27041,16 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB298">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC298">
         <v>-1</v>
@@ -27061,7 +27061,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6764571</v>
+        <v>6705186</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27073,13 +27073,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F299" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G299" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -27088,43 +27088,43 @@
         <v>51</v>
       </c>
       <c r="K299">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L299">
+        <v>3</v>
+      </c>
+      <c r="M299">
+        <v>2.7</v>
+      </c>
+      <c r="N299">
+        <v>2.3</v>
+      </c>
+      <c r="O299">
+        <v>3.2</v>
+      </c>
+      <c r="P299">
         <v>3.3</v>
       </c>
-      <c r="M299">
-        <v>2.2</v>
-      </c>
-      <c r="N299">
-        <v>3.25</v>
-      </c>
-      <c r="O299">
-        <v>3.4</v>
-      </c>
-      <c r="P299">
-        <v>2.2</v>
-      </c>
       <c r="Q299">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S299">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U299">
-        <v>1.975</v>
+        <v>1.79</v>
       </c>
       <c r="V299">
-        <v>1.875</v>
+        <v>2.11</v>
       </c>
       <c r="W299">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="X299">
         <v>-1</v>
@@ -27133,16 +27133,16 @@
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="AA299">
         <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0.79</v>
       </c>
       <c r="AC299">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6723141</v>
+        <v>6721895</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27162,49 +27162,49 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F300" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G300" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I300">
         <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K300">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L300">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M300">
         <v>2.1</v>
       </c>
       <c r="N300">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O300">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P300">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q300">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S300">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T300">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U300">
         <v>1.975</v>
@@ -27213,25 +27213,25 @@
         <v>1.875</v>
       </c>
       <c r="W300">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X300">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA300">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC300">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27239,7 +27239,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6704083</v>
+        <v>6745537</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27251,13 +27251,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G301" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I301">
         <v>1</v>
@@ -27266,31 +27266,31 @@
         <v>51</v>
       </c>
       <c r="K301">
+        <v>2.2</v>
+      </c>
+      <c r="L301">
+        <v>3.2</v>
+      </c>
+      <c r="M301">
+        <v>3.5</v>
+      </c>
+      <c r="N301">
         <v>2.05</v>
       </c>
-      <c r="L301">
-        <v>3.25</v>
-      </c>
-      <c r="M301">
-        <v>3.6</v>
-      </c>
-      <c r="N301">
-        <v>2.15</v>
-      </c>
       <c r="O301">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P301">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R301">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S301">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T301">
         <v>2.25</v>
@@ -27302,7 +27302,7 @@
         <v>2</v>
       </c>
       <c r="W301">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X301">
         <v>-1</v>
@@ -27311,7 +27311,7 @@
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA301">
         <v>-1</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -24213,7 +24213,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6704396</v>
+        <v>6707529</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24225,76 +24225,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F267" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K267">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="L267">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M267">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="N267">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="O267">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P267">
+        <v>2.9</v>
+      </c>
+      <c r="Q267">
+        <v>-0.25</v>
+      </c>
+      <c r="R267">
+        <v>2.05</v>
+      </c>
+      <c r="S267">
+        <v>1.8</v>
+      </c>
+      <c r="T267">
+        <v>2.25</v>
+      </c>
+      <c r="U267">
+        <v>1.875</v>
+      </c>
+      <c r="V267">
+        <v>1.975</v>
+      </c>
+      <c r="W267">
         <v>1.4</v>
       </c>
-      <c r="Q267">
-        <v>1.25</v>
-      </c>
-      <c r="R267">
-        <v>1.95</v>
-      </c>
-      <c r="S267">
-        <v>1.9</v>
-      </c>
-      <c r="T267">
-        <v>2.75</v>
-      </c>
-      <c r="U267">
-        <v>1.8</v>
-      </c>
-      <c r="V267">
-        <v>2.05</v>
-      </c>
-      <c r="W267">
-        <v>-1</v>
-      </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA267">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24302,7 +24302,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6704082</v>
+        <v>6637300</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24314,76 +24314,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G268" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
         <v>49</v>
       </c>
       <c r="K268">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="L268">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="N268">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O268">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P268">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q268">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R268">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S268">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T268">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U268">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V268">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB268">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24391,7 +24391,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6707529</v>
+        <v>6704082</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24403,76 +24403,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G269" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K269">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L269">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M269">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N269">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O269">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P269">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R269">
+        <v>1.8</v>
+      </c>
+      <c r="S269">
         <v>2.05</v>
-      </c>
-      <c r="S269">
-        <v>1.8</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V269">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W269">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24480,7 +24480,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6637300</v>
+        <v>6704396</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24492,76 +24492,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F270" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G270" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H270">
         <v>0</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J270" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K270">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="L270">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M270">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="N270">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="O270">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P270">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q270">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R270">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S270">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T270">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U270">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V270">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z270">
         <v>-1</v>
       </c>
       <c r="AA270">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC270">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -25904,7 +25904,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6707715</v>
+        <v>6677292</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25916,58 +25916,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F286" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G286" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>50</v>
       </c>
       <c r="K286">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L286">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M286">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N286">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="O286">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P286">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="Q286">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R286">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S286">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T286">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U286">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V286">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W286">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25976,16 +25976,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB286">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6705049</v>
+        <v>6677290</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,76 +26005,76 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F287" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G287" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I287">
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K287">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L287">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M287">
+        <v>4.75</v>
+      </c>
+      <c r="N287">
+        <v>1.85</v>
+      </c>
+      <c r="O287">
+        <v>3.5</v>
+      </c>
+      <c r="P287">
         <v>4.5</v>
-      </c>
-      <c r="N287">
-        <v>1.909</v>
-      </c>
-      <c r="O287">
-        <v>3.4</v>
-      </c>
-      <c r="P287">
-        <v>4.2</v>
       </c>
       <c r="Q287">
         <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="S287">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="T287">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V287">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X287">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA287">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
         <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26082,7 +26082,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6733112</v>
+        <v>6733768</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26094,13 +26094,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F288" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G288" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I288">
         <v>0</v>
@@ -26109,43 +26109,43 @@
         <v>50</v>
       </c>
       <c r="K288">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L288">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M288">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N288">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O288">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P288">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q288">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R288">
-        <v>1.96</v>
+        <v>1.975</v>
       </c>
       <c r="S288">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U288">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V288">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W288">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X288">
         <v>-1</v>
@@ -26154,16 +26154,16 @@
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA288">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC288">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26171,7 +26171,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6677290</v>
+        <v>6733112</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26183,10 +26183,10 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F289" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G289" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26198,43 +26198,43 @@
         <v>50</v>
       </c>
       <c r="K289">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L289">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M289">
         <v>4.75</v>
       </c>
       <c r="N289">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O289">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P289">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q289">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R289">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="S289">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="T289">
         <v>2.5</v>
       </c>
       <c r="U289">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V289">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W289">
-        <v>0.8500000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26243,16 +26243,16 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26260,7 +26260,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6677292</v>
+        <v>6705049</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26272,49 +26272,49 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F290" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G290" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290">
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K290">
-        <v>1.3</v>
+        <v>1.833</v>
       </c>
       <c r="L290">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M290">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N290">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O290">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P290">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="Q290">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R290">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="S290">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T290">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U290">
         <v>1.925</v>
@@ -26323,10 +26323,10 @@
         <v>1.925</v>
       </c>
       <c r="W290">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y290">
         <v>-1</v>
@@ -26335,7 +26335,7 @@
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.9199999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB290">
         <v>-1</v>
@@ -26349,7 +26349,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6733768</v>
+        <v>6707715</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26361,58 +26361,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G291" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H291">
         <v>3</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J291" t="s">
         <v>50</v>
       </c>
       <c r="K291">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L291">
         <v>3.4</v>
       </c>
       <c r="M291">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N291">
+        <v>4</v>
+      </c>
+      <c r="O291">
+        <v>3.75</v>
+      </c>
+      <c r="P291">
+        <v>1.909</v>
+      </c>
+      <c r="Q291">
+        <v>0.5</v>
+      </c>
+      <c r="R291">
+        <v>1.9</v>
+      </c>
+      <c r="S291">
         <v>1.95</v>
       </c>
-      <c r="O291">
-        <v>3.25</v>
-      </c>
-      <c r="P291">
-        <v>4.2</v>
-      </c>
-      <c r="Q291">
-        <v>-0.5</v>
-      </c>
-      <c r="R291">
-        <v>1.975</v>
-      </c>
-      <c r="S291">
-        <v>1.875</v>
-      </c>
       <c r="T291">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U291">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V291">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W291">
-        <v>0.95</v>
+        <v>3</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26421,13 +26421,13 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC291">
         <v>-1</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -24213,7 +24213,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6707529</v>
+        <v>6704396</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24225,76 +24225,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G267" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K267">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="L267">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M267">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="O267">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P267">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R267">
+        <v>1.95</v>
+      </c>
+      <c r="S267">
+        <v>1.9</v>
+      </c>
+      <c r="T267">
+        <v>2.75</v>
+      </c>
+      <c r="U267">
+        <v>1.8</v>
+      </c>
+      <c r="V267">
         <v>2.05</v>
       </c>
-      <c r="S267">
-        <v>1.8</v>
-      </c>
-      <c r="T267">
-        <v>2.25</v>
-      </c>
-      <c r="U267">
-        <v>1.875</v>
-      </c>
-      <c r="V267">
-        <v>1.975</v>
-      </c>
       <c r="W267">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z267">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC267">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24302,7 +24302,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6637300</v>
+        <v>6704082</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24314,76 +24314,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G268" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
         <v>49</v>
       </c>
       <c r="K268">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M268">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="N268">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O268">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P268">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q268">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R268">
+        <v>1.8</v>
+      </c>
+      <c r="S268">
+        <v>2.05</v>
+      </c>
+      <c r="T268">
+        <v>2.25</v>
+      </c>
+      <c r="U268">
+        <v>2.025</v>
+      </c>
+      <c r="V268">
         <v>1.825</v>
       </c>
-      <c r="S268">
-        <v>2.025</v>
-      </c>
-      <c r="T268">
-        <v>2</v>
-      </c>
-      <c r="U268">
-        <v>1.925</v>
-      </c>
-      <c r="V268">
-        <v>1.925</v>
-      </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA268">
+        <v>-0.5</v>
+      </c>
+      <c r="AB268">
         <v>1.025</v>
       </c>
-      <c r="AB268">
-        <v>-1</v>
-      </c>
       <c r="AC268">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24391,7 +24391,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6704082</v>
+        <v>6707529</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24403,76 +24403,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G269" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K269">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L269">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M269">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N269">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O269">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P269">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q269">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
+        <v>2.05</v>
+      </c>
+      <c r="S269">
         <v>1.8</v>
-      </c>
-      <c r="S269">
-        <v>2.05</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V269">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X269">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AA269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24480,7 +24480,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6704396</v>
+        <v>6637300</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24492,76 +24492,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H270">
         <v>0</v>
       </c>
       <c r="I270">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K270">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="L270">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M270">
-        <v>1.533</v>
+        <v>5.25</v>
       </c>
       <c r="N270">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="O270">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P270">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q270">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S270">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T270">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U270">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V270">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y270">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
         <v>-1</v>
       </c>
       <c r="AA270">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB270">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -25904,7 +25904,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6677292</v>
+        <v>6707715</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25916,58 +25916,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F286" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G286" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J286" t="s">
         <v>50</v>
       </c>
       <c r="K286">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="L286">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M286">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N286">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="O286">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P286">
-        <v>12</v>
+        <v>1.909</v>
       </c>
       <c r="Q286">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R286">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S286">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T286">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U286">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V286">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W286">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25976,16 +25976,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA286">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC286">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6677290</v>
+        <v>6705049</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,76 +26005,76 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F287" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G287" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287">
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K287">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L287">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M287">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N287">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O287">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P287">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q287">
         <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="S287">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="T287">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U287">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V287">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W287">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB287">
         <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26082,7 +26082,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6733768</v>
+        <v>6733112</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26094,13 +26094,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F288" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G288" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I288">
         <v>0</v>
@@ -26109,61 +26109,61 @@
         <v>50</v>
       </c>
       <c r="K288">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L288">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M288">
+        <v>4.75</v>
+      </c>
+      <c r="N288">
+        <v>1.4</v>
+      </c>
+      <c r="O288">
         <v>4.333</v>
       </c>
-      <c r="N288">
-        <v>1.95</v>
-      </c>
-      <c r="O288">
-        <v>3.25</v>
-      </c>
       <c r="P288">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q288">
+        <v>-1.25</v>
+      </c>
+      <c r="R288">
+        <v>1.96</v>
+      </c>
+      <c r="S288">
+        <v>1.94</v>
+      </c>
+      <c r="T288">
+        <v>2.5</v>
+      </c>
+      <c r="U288">
+        <v>1.825</v>
+      </c>
+      <c r="V288">
+        <v>2.025</v>
+      </c>
+      <c r="W288">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X288">
+        <v>-1</v>
+      </c>
+      <c r="Y288">
+        <v>-1</v>
+      </c>
+      <c r="Z288">
         <v>-0.5</v>
       </c>
-      <c r="R288">
-        <v>1.975</v>
-      </c>
-      <c r="S288">
-        <v>1.875</v>
-      </c>
-      <c r="T288">
-        <v>2.25</v>
-      </c>
-      <c r="U288">
-        <v>1.875</v>
-      </c>
-      <c r="V288">
-        <v>1.975</v>
-      </c>
-      <c r="W288">
-        <v>0.95</v>
-      </c>
-      <c r="X288">
-        <v>-1</v>
-      </c>
-      <c r="Y288">
-        <v>-1</v>
-      </c>
-      <c r="Z288">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="AB288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26171,7 +26171,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6733112</v>
+        <v>6677290</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26183,10 +26183,10 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F289" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G289" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26198,43 +26198,43 @@
         <v>50</v>
       </c>
       <c r="K289">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L289">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M289">
         <v>4.75</v>
       </c>
       <c r="N289">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O289">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P289">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q289">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="S289">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="T289">
         <v>2.5</v>
       </c>
       <c r="U289">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V289">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W289">
-        <v>0.3999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26243,16 +26243,16 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA289">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26260,7 +26260,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6705049</v>
+        <v>6677292</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26272,49 +26272,49 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F290" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290">
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K290">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="L290">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M290">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N290">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O290">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P290">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R290">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S290">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T290">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U290">
         <v>1.925</v>
@@ -26323,10 +26323,10 @@
         <v>1.925</v>
       </c>
       <c r="W290">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X290">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
         <v>-1</v>
@@ -26335,7 +26335,7 @@
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.9399999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB290">
         <v>-1</v>
@@ -26349,7 +26349,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6707715</v>
+        <v>6733768</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26361,58 +26361,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F291" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G291" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H291">
         <v>3</v>
       </c>
       <c r="I291">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J291" t="s">
         <v>50</v>
       </c>
       <c r="K291">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="L291">
         <v>3.4</v>
       </c>
       <c r="M291">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N291">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O291">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P291">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q291">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S291">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T291">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U291">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V291">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W291">
-        <v>3</v>
+        <v>0.95</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26421,13 +26421,13 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC291">
         <v>-1</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -136,10 +136,10 @@
     <t>Coritiba</t>
   </si>
   <si>
-    <t>Corinthians</t>
+    <t>EC Bahia</t>
   </si>
   <si>
-    <t>EC Bahia</t>
+    <t>Corinthians</t>
   </si>
   <si>
     <t>Atletico Mineiro</t>
@@ -148,10 +148,10 @@
     <t>Botafogo</t>
   </si>
   <si>
-    <t>Internacional</t>
+    <t>Sao Paulo</t>
   </si>
   <si>
-    <t>Sao Paulo</t>
+    <t>Internacional</t>
   </si>
   <si>
     <t>Flamengo</t>
@@ -655,7 +655,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1011,7 +1011,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6655761</v>
+        <v>6277410</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1634,52 +1634,52 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>53</v>
       </c>
       <c r="K13">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N13">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O13">
         <v>3.25</v>
       </c>
       <c r="P13">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1691,16 +1691,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6277410</v>
+        <v>6655761</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1723,52 +1723,52 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>53</v>
       </c>
       <c r="K14">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N14">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O14">
         <v>3.25</v>
       </c>
       <c r="P14">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1780,16 +1780,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
         <v>-0</v>
-      </c>
-      <c r="AB14">
-        <v>0.925</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6277868</v>
+        <v>6278724</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,73 +2079,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB18">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6278724</v>
+        <v>6277868</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,73 +2168,73 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N19">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC19">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2432,7 +2432,7 @@
         <v>45098.79166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -2613,7 +2613,7 @@
         <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -2954,7 +2954,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6277675</v>
+        <v>6277718</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2966,10 +2966,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2981,19 +2981,19 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L28">
         <v>3.2</v>
       </c>
       <c r="M28">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N28">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O28">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P28">
         <v>3</v>
@@ -3002,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
         <v>2</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -3029,13 +3029,13 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3132,7 +3132,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6277718</v>
+        <v>6277675</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3144,10 +3144,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>55</v>
       </c>
       <c r="K30">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>3.2</v>
       </c>
       <c r="M30">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N30">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P30">
         <v>3</v>
@@ -3180,19 +3180,19 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3207,13 +3207,13 @@
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3325,7 +3325,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3414,7 +3414,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3592,7 +3592,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3666,7 +3666,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6277872</v>
+        <v>6277305</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3678,19 +3678,19 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>1.6</v>
@@ -3702,52 +3702,52 @@
         <v>5</v>
       </c>
       <c r="N36">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
         <v>1.85</v>
       </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3755,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6277305</v>
+        <v>6277872</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3767,19 +3767,19 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>1.6</v>
@@ -3791,52 +3791,52 @@
         <v>5</v>
       </c>
       <c r="N37">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6277414</v>
+        <v>6277873</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,55 +3856,55 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
         <v>55</v>
       </c>
       <c r="K38">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
+        <v>1.875</v>
+      </c>
+      <c r="S38">
         <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.875</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6277873</v>
+        <v>6277470</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,76 +3945,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
+        <v>1.925</v>
+      </c>
+      <c r="S39">
+        <v>1.925</v>
+      </c>
+      <c r="T39">
+        <v>2.75</v>
+      </c>
+      <c r="U39">
+        <v>1.975</v>
+      </c>
+      <c r="V39">
         <v>1.875</v>
       </c>
-      <c r="S39">
-        <v>1.975</v>
-      </c>
-      <c r="T39">
-        <v>2.25</v>
-      </c>
-      <c r="U39">
-        <v>2.025</v>
-      </c>
-      <c r="V39">
-        <v>1.825</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6277470</v>
+        <v>6277414</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4034,76 +4034,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L40">
+        <v>3.1</v>
+      </c>
+      <c r="M40">
+        <v>2.9</v>
+      </c>
+      <c r="N40">
+        <v>1.95</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
         <v>4</v>
       </c>
-      <c r="M40">
-        <v>5.5</v>
-      </c>
-      <c r="N40">
-        <v>1.4</v>
-      </c>
-      <c r="O40">
-        <v>4.5</v>
-      </c>
-      <c r="P40">
-        <v>7.5</v>
-      </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
+        <v>1.975</v>
+      </c>
+      <c r="S40">
+        <v>1.875</v>
+      </c>
+      <c r="T40">
+        <v>2.25</v>
+      </c>
+      <c r="U40">
         <v>1.925</v>
       </c>
-      <c r="S40">
+      <c r="V40">
         <v>1.925</v>
       </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.975</v>
-      </c>
-      <c r="V40">
-        <v>1.875</v>
-      </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>0.875</v>
+      </c>
+      <c r="AB40">
         <v>0.925</v>
       </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
-      </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4212,7 +4212,7 @@
         <v>45108.66666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
@@ -4301,7 +4301,7 @@
         <v>45108.77083333334</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -4479,7 +4479,7 @@
         <v>45108.875</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -4568,7 +4568,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -5105,7 +5105,7 @@
         <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5372,7 +5372,7 @@
         <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6278727</v>
+        <v>6277877</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,76 +5636,76 @@
         <v>45116.66666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K58">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L58">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N58">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6277877</v>
+        <v>6278727</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5725,76 +5725,76 @@
         <v>45116.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N59">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W59">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6277307</v>
+        <v>6277678</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5814,19 +5814,19 @@
         <v>45116.77083333334</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K60">
         <v>2.1</v>
@@ -5838,52 +5838,52 @@
         <v>3.4</v>
       </c>
       <c r="N60">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6277678</v>
+        <v>6277307</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5903,19 +5903,19 @@
         <v>45116.77083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K61">
         <v>2.1</v>
@@ -5927,52 +5927,52 @@
         <v>3.4</v>
       </c>
       <c r="N61">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P61">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6259,7 +6259,7 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6437,7 +6437,7 @@
         <v>45123.77083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
         <v>37</v>
@@ -6529,7 +6529,7 @@
         <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6882,10 +6882,10 @@
         <v>45129.77083333334</v>
       </c>
       <c r="F72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" t="s">
         <v>41</v>
-      </c>
-      <c r="G72" t="s">
-        <v>40</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>47</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7152,7 +7152,7 @@
         <v>48</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7594,7 +7594,7 @@
         <v>45136.66666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
         <v>47</v>
@@ -7950,7 +7950,7 @@
         <v>45136.77083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
         <v>38</v>
@@ -8128,10 +8128,10 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8662,10 +8662,10 @@
         <v>45143.77083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8840,7 +8840,7 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s">
         <v>42</v>
@@ -9006,7 +9006,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6277684</v>
+        <v>6277425</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9018,76 +9018,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K96">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L96">
         <v>3.2</v>
       </c>
       <c r="M96">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N96">
+        <v>2.25</v>
+      </c>
+      <c r="O96">
+        <v>3.2</v>
+      </c>
+      <c r="P96">
         <v>3.3</v>
       </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
-      <c r="P96">
+      <c r="Q96">
+        <v>-0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>1.8</v>
+      </c>
+      <c r="V96">
+        <v>2.05</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>2.2</v>
       </c>
-      <c r="Q96">
-        <v>0.25</v>
-      </c>
-      <c r="R96">
-        <v>2</v>
-      </c>
-      <c r="S96">
-        <v>1.9</v>
-      </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
-        <v>1.98</v>
-      </c>
-      <c r="V96">
-        <v>1.92</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.9199999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9095,7 +9095,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6277425</v>
+        <v>6277684</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9107,76 +9107,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K97">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L97">
         <v>3.2</v>
       </c>
       <c r="M97">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N97">
+        <v>3.3</v>
+      </c>
+      <c r="O97">
+        <v>3.3</v>
+      </c>
+      <c r="P97">
+        <v>2.2</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
         <v>2.25</v>
       </c>
-      <c r="O97">
-        <v>3.2</v>
-      </c>
-      <c r="P97">
-        <v>3.3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.875</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="V97">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1.05</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9196,7 +9196,7 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
         <v>30</v>
@@ -9377,7 +9377,7 @@
         <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9466,7 +9466,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9641,7 +9641,7 @@
         <v>45151.66666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
         <v>39</v>
@@ -9807,7 +9807,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6278695</v>
+        <v>6277886</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9819,76 +9819,76 @@
         <v>45151.77083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K105">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
         <v>3.5</v>
       </c>
       <c r="M105">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9896,7 +9896,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6277886</v>
+        <v>6278695</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9908,76 +9908,76 @@
         <v>45151.77083333334</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K106">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L106">
         <v>3.5</v>
       </c>
       <c r="M106">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X106">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10264,7 +10264,7 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G110" t="s">
         <v>43</v>
@@ -10353,7 +10353,7 @@
         <v>45157.66666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -10623,7 +10623,7 @@
         <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
         <v>48</v>
@@ -11157,7 +11157,7 @@
         <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11243,7 +11243,7 @@
         <v>45164.875</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
         <v>36</v>
@@ -11513,7 +11513,7 @@
         <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11602,7 +11602,7 @@
         <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -12047,7 +12047,7 @@
         <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6278732</v>
+        <v>6277893</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,67 +12400,67 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K134">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA134">
         <v>-1</v>
@@ -12469,7 +12469,7 @@
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6277893</v>
+        <v>6278732</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,67 +12489,67 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K135">
+        <v>3.5</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>4.75</v>
+      </c>
+      <c r="O135">
+        <v>3.2</v>
+      </c>
+      <c r="P135">
+        <v>1.909</v>
+      </c>
+      <c r="Q135">
+        <v>0.5</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>1.75</v>
+      </c>
+      <c r="U135">
         <v>1.8</v>
       </c>
-      <c r="L135">
-        <v>3.3</v>
-      </c>
-      <c r="M135">
-        <v>4</v>
-      </c>
-      <c r="N135">
-        <v>1.85</v>
-      </c>
-      <c r="O135">
-        <v>3.4</v>
-      </c>
-      <c r="P135">
-        <v>4.5</v>
-      </c>
-      <c r="Q135">
-        <v>-0.5</v>
-      </c>
-      <c r="R135">
-        <v>1.875</v>
-      </c>
-      <c r="S135">
-        <v>1.975</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12558,7 +12558,7 @@
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12578,7 +12578,7 @@
         <v>45172.77083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
         <v>38</v>
@@ -12934,10 +12934,10 @@
         <v>45182.89583333334</v>
       </c>
       <c r="F140" t="s">
+        <v>45</v>
+      </c>
+      <c r="G140" t="s">
         <v>44</v>
-      </c>
-      <c r="G140" t="s">
-        <v>45</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13115,7 +13115,7 @@
         <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13204,7 +13204,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13735,7 +13735,7 @@
         <v>45187.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
         <v>33</v>
@@ -13824,7 +13824,7 @@
         <v>45187.875</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
         <v>34</v>
@@ -14079,7 +14079,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6278698</v>
+        <v>6277436</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14091,76 +14091,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K153">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N153">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O153">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6277436</v>
+        <v>6278698</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14180,76 +14180,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L154">
+        <v>3.4</v>
+      </c>
+      <c r="M154">
         <v>3.5</v>
       </c>
-      <c r="M154">
-        <v>4.5</v>
-      </c>
       <c r="N154">
+        <v>2.375</v>
+      </c>
+      <c r="O154">
+        <v>3.2</v>
+      </c>
+      <c r="P154">
+        <v>3.1</v>
+      </c>
+      <c r="Q154">
+        <v>-0.25</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
         <v>1.85</v>
-      </c>
-      <c r="O154">
-        <v>3.3</v>
-      </c>
-      <c r="P154">
-        <v>4.5</v>
-      </c>
-      <c r="Q154">
-        <v>-0.75</v>
-      </c>
-      <c r="R154">
-        <v>2.025</v>
-      </c>
-      <c r="S154">
-        <v>1.825</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>2.1</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.5125</v>
-      </c>
-      <c r="AA154">
-        <v>-0.5</v>
-      </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14361,7 +14361,7 @@
         <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14536,7 +14536,7 @@
         <v>45191.83333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
         <v>43</v>
@@ -14803,7 +14803,7 @@
         <v>45196.79166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14984,7 +14984,7 @@
         <v>46</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15070,10 +15070,10 @@
         <v>45199.77083333334</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15248,7 +15248,7 @@
         <v>45199.875</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
         <v>42</v>
@@ -15785,7 +15785,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15874,7 +15874,7 @@
         <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15960,7 +15960,7 @@
         <v>45206.875</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
         <v>46</v>
@@ -16037,7 +16037,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6278738</v>
+        <v>6279397</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16049,73 +16049,73 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H175">
+        <v>3</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175" t="s">
+        <v>54</v>
+      </c>
+      <c r="K175">
+        <v>2.625</v>
+      </c>
+      <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
+        <v>2.7</v>
+      </c>
+      <c r="N175">
+        <v>2.25</v>
+      </c>
+      <c r="O175">
+        <v>3.25</v>
+      </c>
+      <c r="P175">
+        <v>3.4</v>
+      </c>
+      <c r="Q175">
+        <v>-0.25</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.95</v>
+      </c>
+      <c r="T175">
+        <v>2.25</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
+        <v>1.85</v>
+      </c>
+      <c r="W175">
+        <v>1.25</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
         <v>1</v>
-      </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
-      <c r="J175" t="s">
-        <v>55</v>
-      </c>
-      <c r="K175">
-        <v>1.4</v>
-      </c>
-      <c r="L175">
-        <v>4.5</v>
-      </c>
-      <c r="M175">
-        <v>8</v>
-      </c>
-      <c r="N175">
-        <v>1.444</v>
-      </c>
-      <c r="O175">
-        <v>4.2</v>
-      </c>
-      <c r="P175">
-        <v>9</v>
-      </c>
-      <c r="Q175">
-        <v>-1.25</v>
-      </c>
-      <c r="R175">
-        <v>2.05</v>
-      </c>
-      <c r="S175">
-        <v>1.8</v>
-      </c>
-      <c r="T175">
-        <v>2.5</v>
-      </c>
-      <c r="U175">
-        <v>2.025</v>
-      </c>
-      <c r="V175">
-        <v>1.825</v>
-      </c>
-      <c r="W175">
-        <v>-1</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>8</v>
-      </c>
-      <c r="Z175">
-        <v>-1</v>
-      </c>
-      <c r="AA175">
-        <v>0.8</v>
-      </c>
-      <c r="AB175">
-        <v>1.025</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16126,7 +16126,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6277900</v>
+        <v>6278738</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16138,13 +16138,13 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>2</v>
@@ -16153,40 +16153,40 @@
         <v>55</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N176">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P176">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
         <v>-1</v>
@@ -16195,19 +16195,19 @@
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC176">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16215,7 +16215,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6279397</v>
+        <v>6277900</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16227,76 +16227,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K177">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O177">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16304,7 +16304,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6277698</v>
+        <v>6277439</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16316,73 +16316,73 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K178">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L178">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M178">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N178">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O178">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P178">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
         <v>1.975</v>
       </c>
-      <c r="S178">
-        <v>1.875</v>
-      </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6277439</v>
+        <v>6277698</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,73 +16494,73 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K180">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M180">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
+        <v>1.975</v>
+      </c>
+      <c r="S180">
         <v>1.875</v>
       </c>
-      <c r="S180">
-        <v>1.975</v>
-      </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16749,7 +16749,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6277701</v>
+        <v>6290525</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16761,56 +16761,56 @@
         <v>45217.83333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>55</v>
       </c>
       <c r="K183">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M183">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N183">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O183">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P183">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="S183">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
+        <v>1.86</v>
+      </c>
+      <c r="V183">
         <v>2.04</v>
       </c>
-      <c r="V183">
-        <v>1.86</v>
-      </c>
       <c r="W183">
         <v>-1</v>
       </c>
@@ -16818,16 +16818,16 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.4</v>
+        <v>1.625</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.8200000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB183">
-        <v>1.04</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -16838,7 +16838,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6290525</v>
+        <v>6277701</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16850,56 +16850,56 @@
         <v>45217.83333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
         <v>55</v>
       </c>
       <c r="K184">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
         <v>3.25</v>
       </c>
-      <c r="M184">
-        <v>2.3</v>
-      </c>
       <c r="N184">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O184">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P184">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
+        <v>2.08</v>
+      </c>
+      <c r="S184">
+        <v>1.82</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
         <v>2.04</v>
       </c>
-      <c r="S184">
+      <c r="V184">
         <v>1.86</v>
       </c>
-      <c r="T184">
-        <v>2.25</v>
-      </c>
-      <c r="U184">
-        <v>1.86</v>
-      </c>
-      <c r="V184">
-        <v>2.04</v>
-      </c>
       <c r="W184">
         <v>-1</v>
       </c>
@@ -16907,16 +16907,16 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.625</v>
+        <v>2.4</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8600000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB184">
-        <v>0.8600000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16939,10 +16939,10 @@
         <v>45217.89583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17120,7 +17120,7 @@
         <v>36</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17476,7 +17476,7 @@
         <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>3</v>
@@ -17562,7 +17562,7 @@
         <v>45220.77083333334</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G192" t="s">
         <v>34</v>
@@ -17740,7 +17740,7 @@
         <v>45220.77083333334</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
         <v>29</v>
@@ -18007,7 +18007,7 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
         <v>33</v>
@@ -18274,7 +18274,7 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
         <v>30</v>
@@ -18722,7 +18722,7 @@
         <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -18811,7 +18811,7 @@
         <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H206">
         <v>5</v>
@@ -18989,7 +18989,7 @@
         <v>47</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>38</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19345,7 +19345,7 @@
         <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19523,7 +19523,7 @@
         <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19698,7 +19698,7 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
         <v>33</v>
@@ -19787,7 +19787,7 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G217" t="s">
         <v>39</v>
@@ -19965,7 +19965,7 @@
         <v>45230.79166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
         <v>35</v>
@@ -20054,7 +20054,7 @@
         <v>45231.79166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
         <v>32</v>
@@ -20143,7 +20143,7 @@
         <v>45231.79166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
         <v>30</v>
@@ -20766,7 +20766,7 @@
         <v>45232.83333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G228" t="s">
         <v>31</v>
@@ -20858,7 +20858,7 @@
         <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21125,7 +21125,7 @@
         <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21303,7 +21303,7 @@
         <v>48</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21656,7 +21656,7 @@
         <v>45238.79166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G238" t="s">
         <v>35</v>
@@ -21923,7 +21923,7 @@
         <v>45238.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G241" t="s">
         <v>48</v>
@@ -22190,7 +22190,7 @@
         <v>45239.79166666666</v>
       </c>
       <c r="F244" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
         <v>42</v>
@@ -22279,7 +22279,7 @@
         <v>45239.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G245" t="s">
         <v>47</v>
@@ -22638,7 +22638,7 @@
         <v>37</v>
       </c>
       <c r="G249" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H249">
         <v>3</v>
@@ -22727,7 +22727,7 @@
         <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -22979,7 +22979,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6619639</v>
+        <v>6688997</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22991,10 +22991,10 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F253" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H253">
         <v>2</v>
@@ -23006,43 +23006,43 @@
         <v>54</v>
       </c>
       <c r="K253">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L253">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M253">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N253">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O253">
         <v>4</v>
       </c>
       <c r="P253">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q253">
         <v>-1</v>
       </c>
       <c r="R253">
+        <v>2.05</v>
+      </c>
+      <c r="S253">
         <v>1.8</v>
       </c>
-      <c r="S253">
-        <v>2.05</v>
-      </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V253">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W253">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23057,7 +23057,7 @@
         <v>-0</v>
       </c>
       <c r="AB253">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6648522</v>
+        <v>6689151</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,76 +23080,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F254" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
         <v>53</v>
       </c>
       <c r="K254">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M254">
+        <v>2.7</v>
+      </c>
+      <c r="N254">
+        <v>2.6</v>
+      </c>
+      <c r="O254">
+        <v>3.1</v>
+      </c>
+      <c r="P254">
         <v>2.875</v>
       </c>
-      <c r="N254">
-        <v>2.3</v>
-      </c>
-      <c r="O254">
-        <v>3.4</v>
-      </c>
-      <c r="P254">
-        <v>3.1</v>
-      </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R254">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S254">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T254">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U254">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V254">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6688997</v>
+        <v>6648522</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G255" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255">
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K255">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M255">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N255">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O255">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P255">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S255">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T255">
         <v>2.25</v>
       </c>
       <c r="U255">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V255">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W255">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA255">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB255">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6689151</v>
+        <v>6619639</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,61 +23258,61 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F256" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G256" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K256">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L256">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M256">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N256">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O256">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P256">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="Q256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R256">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S256">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T256">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X256">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
         <v>-1</v>
@@ -23324,10 +23324,10 @@
         <v>-0</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC256">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23528,7 +23528,7 @@
         <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H259">
         <v>1</v>
@@ -23792,10 +23792,10 @@
         <v>45254.875</v>
       </c>
       <c r="F262" t="s">
+        <v>41</v>
+      </c>
+      <c r="G262" t="s">
         <v>40</v>
-      </c>
-      <c r="G262" t="s">
-        <v>41</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6707529</v>
+        <v>6704396</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,76 +24237,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G267" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K267">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="L267">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M267">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="O267">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P267">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R267">
+        <v>1.95</v>
+      </c>
+      <c r="S267">
+        <v>1.9</v>
+      </c>
+      <c r="T267">
+        <v>2.75</v>
+      </c>
+      <c r="U267">
+        <v>1.8</v>
+      </c>
+      <c r="V267">
         <v>2.05</v>
       </c>
-      <c r="S267">
-        <v>1.8</v>
-      </c>
-      <c r="T267">
-        <v>2.25</v>
-      </c>
-      <c r="U267">
-        <v>1.875</v>
-      </c>
-      <c r="V267">
-        <v>1.975</v>
-      </c>
       <c r="W267">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z267">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC267">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6704396</v>
+        <v>6637300</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,76 +24326,76 @@
         <v>45256.77083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H268">
         <v>0</v>
       </c>
       <c r="I268">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K268">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="L268">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
-        <v>1.533</v>
+        <v>5.25</v>
       </c>
       <c r="N268">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="O268">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P268">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q268">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R268">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S268">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T268">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U268">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V268">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y268">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB268">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24403,7 +24403,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6637300</v>
+        <v>6707529</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24418,73 +24418,73 @@
         <v>45</v>
       </c>
       <c r="G269" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K269">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L269">
+        <v>3.3</v>
+      </c>
+      <c r="M269">
+        <v>2.625</v>
+      </c>
+      <c r="N269">
+        <v>2.4</v>
+      </c>
+      <c r="O269">
         <v>3.4</v>
       </c>
-      <c r="M269">
-        <v>5.25</v>
-      </c>
-      <c r="N269">
-        <v>1.615</v>
-      </c>
-      <c r="O269">
-        <v>3.6</v>
-      </c>
       <c r="P269">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q269">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S269">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T269">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V269">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X269">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA269">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24685,7 +24685,7 @@
         <v>38</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -24952,7 +24952,7 @@
         <v>47</v>
       </c>
       <c r="G275" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -25038,10 +25038,10 @@
         <v>45259.83333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G276" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -25572,10 +25572,10 @@
         <v>45262.75</v>
       </c>
       <c r="F282" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G282" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -25664,7 +25664,7 @@
         <v>42</v>
       </c>
       <c r="G283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -25916,7 +25916,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6677292</v>
+        <v>6733768</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25928,13 +25928,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F286" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G286" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I286">
         <v>0</v>
@@ -25943,43 +25943,43 @@
         <v>54</v>
       </c>
       <c r="K286">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L286">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M286">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N286">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O286">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P286">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="Q286">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="S286">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="T286">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V286">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W286">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25988,16 +25988,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA286">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC286">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26005,7 +26005,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6677290</v>
+        <v>6733112</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26017,10 +26017,10 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F287" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G287" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26032,43 +26032,43 @@
         <v>54</v>
       </c>
       <c r="K287">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L287">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M287">
         <v>4.75</v>
       </c>
       <c r="N287">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O287">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P287">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q287">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R287">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="S287">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="T287">
         <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V287">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W287">
-        <v>0.8500000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26077,16 +26077,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="AB287">
         <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26094,7 +26094,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6705049</v>
+        <v>6677292</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26106,49 +26106,49 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F288" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288">
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K288">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="L288">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M288">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N288">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O288">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P288">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q288">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R288">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S288">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U288">
         <v>1.925</v>
@@ -26157,10 +26157,10 @@
         <v>1.925</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X288">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
@@ -26169,7 +26169,7 @@
         <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.9399999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB288">
         <v>-1</v>
@@ -26183,7 +26183,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6707715</v>
+        <v>6705049</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26195,76 +26195,76 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G289" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H289">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K289">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L289">
         <v>3.4</v>
       </c>
       <c r="M289">
+        <v>4.5</v>
+      </c>
+      <c r="N289">
         <v>1.909</v>
       </c>
-      <c r="N289">
-        <v>4</v>
-      </c>
       <c r="O289">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P289">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q289">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="S289">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T289">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U289">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W289">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB289">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26272,7 +26272,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6733112</v>
+        <v>6677290</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26284,10 +26284,10 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F290" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G290" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26299,43 +26299,43 @@
         <v>54</v>
       </c>
       <c r="K290">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L290">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M290">
         <v>4.75</v>
       </c>
       <c r="N290">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O290">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P290">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q290">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R290">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="S290">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="T290">
         <v>2.5</v>
       </c>
       <c r="U290">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V290">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W290">
-        <v>0.3999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26344,16 +26344,16 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA290">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26361,7 +26361,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6733768</v>
+        <v>6707715</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26373,58 +26373,58 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F291" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G291" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H291">
         <v>3</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J291" t="s">
         <v>54</v>
       </c>
       <c r="K291">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L291">
         <v>3.4</v>
       </c>
       <c r="M291">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N291">
+        <v>4</v>
+      </c>
+      <c r="O291">
+        <v>3.75</v>
+      </c>
+      <c r="P291">
+        <v>1.909</v>
+      </c>
+      <c r="Q291">
+        <v>0.5</v>
+      </c>
+      <c r="R291">
+        <v>1.9</v>
+      </c>
+      <c r="S291">
         <v>1.95</v>
       </c>
-      <c r="O291">
-        <v>3.25</v>
-      </c>
-      <c r="P291">
-        <v>4.2</v>
-      </c>
-      <c r="Q291">
-        <v>-0.5</v>
-      </c>
-      <c r="R291">
-        <v>1.975</v>
-      </c>
-      <c r="S291">
-        <v>1.875</v>
-      </c>
       <c r="T291">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U291">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V291">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W291">
-        <v>0.95</v>
+        <v>3</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26433,13 +26433,13 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26539,7 +26539,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6705200</v>
+        <v>6745222</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26551,13 +26551,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F293" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G293" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>2</v>
@@ -26566,40 +26566,40 @@
         <v>55</v>
       </c>
       <c r="K293">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L293">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M293">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N293">
+        <v>1.95</v>
+      </c>
+      <c r="O293">
         <v>3.25</v>
       </c>
-      <c r="O293">
-        <v>3.2</v>
-      </c>
       <c r="P293">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q293">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R293">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S293">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T293">
         <v>2.25</v>
       </c>
       <c r="U293">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V293">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W293">
         <v>-1</v>
@@ -26608,19 +26608,19 @@
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB293">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC293">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26628,7 +26628,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6745222</v>
+        <v>6705200</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26640,13 +26640,13 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G294" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
         <v>2</v>
@@ -26655,40 +26655,40 @@
         <v>55</v>
       </c>
       <c r="K294">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L294">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M294">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N294">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="O294">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P294">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q294">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S294">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T294">
         <v>2.25</v>
       </c>
       <c r="U294">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V294">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -26697,19 +26697,19 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB294">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26717,7 +26717,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6721895</v>
+        <v>6723140</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26729,73 +26729,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J295" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K295">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L295">
         <v>3.3</v>
       </c>
       <c r="M295">
+        <v>3.25</v>
+      </c>
+      <c r="N295">
+        <v>2.15</v>
+      </c>
+      <c r="O295">
+        <v>3.75</v>
+      </c>
+      <c r="P295">
+        <v>3.1</v>
+      </c>
+      <c r="Q295">
+        <v>-0.25</v>
+      </c>
+      <c r="R295">
+        <v>1.875</v>
+      </c>
+      <c r="S295">
+        <v>1.975</v>
+      </c>
+      <c r="T295">
+        <v>2.75</v>
+      </c>
+      <c r="U295">
+        <v>1.85</v>
+      </c>
+      <c r="V295">
+        <v>2</v>
+      </c>
+      <c r="W295">
+        <v>-1</v>
+      </c>
+      <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
         <v>2.1</v>
       </c>
-      <c r="N295">
-        <v>2.55</v>
-      </c>
-      <c r="O295">
-        <v>3.5</v>
-      </c>
-      <c r="P295">
-        <v>2.5</v>
-      </c>
-      <c r="Q295">
-        <v>0</v>
-      </c>
-      <c r="R295">
-        <v>1.95</v>
-      </c>
-      <c r="S295">
-        <v>1.9</v>
-      </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
-      <c r="U295">
-        <v>1.975</v>
-      </c>
-      <c r="V295">
-        <v>1.875</v>
-      </c>
-      <c r="W295">
-        <v>1.55</v>
-      </c>
-      <c r="X295">
-        <v>-1</v>
-      </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
       <c r="Z295">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB295">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6723140</v>
+        <v>6721895</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,73 +26907,73 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F297" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G297" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K297">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L297">
         <v>3.3</v>
       </c>
       <c r="M297">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N297">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O297">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P297">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q297">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R297">
+        <v>1.95</v>
+      </c>
+      <c r="S297">
+        <v>1.9</v>
+      </c>
+      <c r="T297">
+        <v>2.5</v>
+      </c>
+      <c r="U297">
+        <v>1.975</v>
+      </c>
+      <c r="V297">
         <v>1.875</v>
       </c>
-      <c r="S297">
-        <v>1.975</v>
-      </c>
-      <c r="T297">
-        <v>2.75</v>
-      </c>
-      <c r="U297">
-        <v>1.85</v>
-      </c>
-      <c r="V297">
-        <v>2</v>
-      </c>
       <c r="W297">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA297">
+        <v>-1</v>
+      </c>
+      <c r="AB297">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB297">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -26984,7 +26984,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6745537</v>
+        <v>6723141</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26996,76 +26996,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F298" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G298" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I298">
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K298">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L298">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M298">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N298">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O298">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P298">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q298">
+        <v>0.25</v>
+      </c>
+      <c r="R298">
+        <v>2</v>
+      </c>
+      <c r="S298">
+        <v>1.85</v>
+      </c>
+      <c r="T298">
+        <v>2</v>
+      </c>
+      <c r="U298">
+        <v>1.975</v>
+      </c>
+      <c r="V298">
+        <v>1.875</v>
+      </c>
+      <c r="W298">
+        <v>-1</v>
+      </c>
+      <c r="X298">
+        <v>2</v>
+      </c>
+      <c r="Y298">
+        <v>-1</v>
+      </c>
+      <c r="Z298">
+        <v>0.5</v>
+      </c>
+      <c r="AA298">
         <v>-0.5</v>
       </c>
-      <c r="R298">
-        <v>2.05</v>
-      </c>
-      <c r="S298">
-        <v>1.8</v>
-      </c>
-      <c r="T298">
-        <v>2.25</v>
-      </c>
-      <c r="U298">
-        <v>1.85</v>
-      </c>
-      <c r="V298">
-        <v>2</v>
-      </c>
-      <c r="W298">
-        <v>1.05</v>
-      </c>
-      <c r="X298">
-        <v>-1</v>
-      </c>
-      <c r="Y298">
-        <v>-1</v>
-      </c>
-      <c r="Z298">
-        <v>1.05</v>
-      </c>
-      <c r="AA298">
-        <v>-1</v>
-      </c>
       <c r="AB298">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27073,7 +27073,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6723141</v>
+        <v>6704083</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27085,76 +27085,76 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G299" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299">
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K299">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L299">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M299">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N299">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="O299">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P299">
+        <v>3.3</v>
+      </c>
+      <c r="Q299">
+        <v>-0.25</v>
+      </c>
+      <c r="R299">
+        <v>1.875</v>
+      </c>
+      <c r="S299">
+        <v>1.975</v>
+      </c>
+      <c r="T299">
         <v>2.25</v>
       </c>
-      <c r="Q299">
-        <v>0.25</v>
-      </c>
-      <c r="R299">
-        <v>2</v>
-      </c>
-      <c r="S299">
+      <c r="U299">
         <v>1.85</v>
       </c>
-      <c r="T299">
-        <v>2</v>
-      </c>
-      <c r="U299">
-        <v>1.975</v>
-      </c>
       <c r="V299">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X299">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA299">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC299">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27162,7 +27162,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6704083</v>
+        <v>6764571</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27174,58 +27174,58 @@
         <v>45266.89583333334</v>
       </c>
       <c r="F300" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G300" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
         <v>54</v>
       </c>
       <c r="K300">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="L300">
+        <v>3.3</v>
+      </c>
+      <c r="M300">
+        <v>2.2</v>
+      </c>
+      <c r="N300">
         <v>3.25</v>
-      </c>
-      <c r="M300">
-        <v>3.6</v>
-      </c>
-      <c r="N300">
-        <v>2.15</v>
       </c>
       <c r="O300">
         <v>3.4</v>
       </c>
       <c r="P300">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R300">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S300">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T300">
         <v>2.25</v>
       </c>
       <c r="U300">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V300">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W300">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27234,16 +27234,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
+        <v>0.95</v>
+      </c>
+      <c r="AA300">
+        <v>-1</v>
+      </c>
+      <c r="AB300">
+        <v>-1</v>
+      </c>
+      <c r="AC300">
         <v>0.875</v>
-      </c>
-      <c r="AA300">
-        <v>-1</v>
-      </c>
-      <c r="AB300">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC300">
-        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27251,7 +27251,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6764571</v>
+        <v>6745537</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27266,55 +27266,55 @@
         <v>45</v>
       </c>
       <c r="G301" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H301">
+        <v>3</v>
+      </c>
+      <c r="I301">
         <v>1</v>
-      </c>
-      <c r="I301">
-        <v>0</v>
       </c>
       <c r="J301" t="s">
         <v>54</v>
       </c>
       <c r="K301">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L301">
+        <v>3.2</v>
+      </c>
+      <c r="M301">
+        <v>3.5</v>
+      </c>
+      <c r="N301">
+        <v>2.05</v>
+      </c>
+      <c r="O301">
         <v>3.3</v>
       </c>
-      <c r="M301">
-        <v>2.2</v>
-      </c>
-      <c r="N301">
-        <v>3.25</v>
-      </c>
-      <c r="O301">
-        <v>3.4</v>
-      </c>
       <c r="P301">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q301">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R301">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S301">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T301">
         <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V301">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W301">
-        <v>2.25</v>
+        <v>1.05</v>
       </c>
       <c r="X301">
         <v>-1</v>
@@ -27323,16 +27323,16 @@
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA301">
         <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC301">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27367,10 +27367,10 @@
         <v>3.6</v>
       </c>
       <c r="N302">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O302">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P302">
         <v>3.6</v>
@@ -27379,10 +27379,10 @@
         <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S302">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="T302">
         <v>2.25</v>
@@ -27426,10 +27426,10 @@
         <v>45395.77083333334</v>
       </c>
       <c r="F303" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G303" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K303">
         <v>1.75</v>
@@ -27444,10 +27444,10 @@
         <v>1.727</v>
       </c>
       <c r="O303">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P303">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q303">
         <v>-0.75</v>
@@ -27488,7 +27488,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7902142</v>
+        <v>7902579</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27500,46 +27500,46 @@
         <v>45395.875</v>
       </c>
       <c r="F304" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G304" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K304">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L304">
         <v>3.5</v>
       </c>
       <c r="M304">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N304">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O304">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P304">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q304">
         <v>-0.5</v>
       </c>
       <c r="R304">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S304">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T304">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V304">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W304">
         <v>0</v>
@@ -27562,7 +27562,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7902579</v>
+        <v>7902142</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27574,46 +27574,46 @@
         <v>45395.875</v>
       </c>
       <c r="F305" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="K305">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L305">
         <v>3.5</v>
       </c>
       <c r="M305">
+        <v>4.2</v>
+      </c>
+      <c r="N305">
+        <v>1.85</v>
+      </c>
+      <c r="O305">
+        <v>3.4</v>
+      </c>
+      <c r="P305">
         <v>4.75</v>
       </c>
-      <c r="N305">
+      <c r="Q305">
+        <v>-0.5</v>
+      </c>
+      <c r="R305">
+        <v>1.875</v>
+      </c>
+      <c r="S305">
+        <v>1.975</v>
+      </c>
+      <c r="T305">
+        <v>2</v>
+      </c>
+      <c r="U305">
+        <v>1.775</v>
+      </c>
+      <c r="V305">
         <v>2.1</v>
-      </c>
-      <c r="O305">
-        <v>3.3</v>
-      </c>
-      <c r="P305">
-        <v>3.75</v>
-      </c>
-      <c r="Q305">
-        <v>-0.25</v>
-      </c>
-      <c r="R305">
-        <v>1.8</v>
-      </c>
-      <c r="S305">
-        <v>2.05</v>
-      </c>
-      <c r="T305">
-        <v>2.25</v>
-      </c>
-      <c r="U305">
-        <v>1.8</v>
-      </c>
-      <c r="V305">
-        <v>2.05</v>
       </c>
       <c r="W305">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7902880</v>
+        <v>7902349</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27648,46 +27648,46 @@
         <v>45396.66666666666</v>
       </c>
       <c r="F306" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G306" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K306">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L306">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M306">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N306">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O306">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P306">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R306">
+        <v>2.06</v>
+      </c>
+      <c r="S306">
         <v>1.84</v>
       </c>
-      <c r="S306">
-        <v>2.06</v>
-      </c>
       <c r="T306">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U306">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W306">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7902604</v>
+        <v>7902400</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27722,46 +27722,46 @@
         <v>45396.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G307" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K307">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L307">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M307">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="N307">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O307">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P307">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R307">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S307">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U307">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V307">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27784,7 +27784,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7902400</v>
+        <v>7902604</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27796,46 +27796,46 @@
         <v>45396.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G308" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K308">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M308">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="N308">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O308">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P308">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q308">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R308">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S308">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V308">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7902349</v>
+        <v>7902880</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27870,43 +27870,43 @@
         <v>45396.66666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G309" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K309">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L309">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M309">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N309">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O309">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P309">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R309">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="S309">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="T309">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U309">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V309">
         <v>1.85</v>
@@ -27959,22 +27959,22 @@
         <v>3.4</v>
       </c>
       <c r="N310">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O310">
         <v>3.1</v>
       </c>
       <c r="P310">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q310">
         <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S310">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T310">
         <v>2</v>
@@ -28039,7 +28039,7 @@
         <v>4</v>
       </c>
       <c r="P311">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q311">
         <v>0.75</v>
@@ -28054,10 +28054,10 @@
         <v>2.5</v>
       </c>
       <c r="U311">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V311">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W311">
         <v>0</v>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC329"/>
+  <dimension ref="A1:AC325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2954,7 +2954,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6277718</v>
+        <v>6277469</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2966,10 +2966,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2981,61 +2981,61 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>4.5</v>
+      </c>
+      <c r="N28">
+        <v>1.909</v>
+      </c>
+      <c r="O28">
+        <v>3.4</v>
+      </c>
+      <c r="P28">
+        <v>4.2</v>
+      </c>
+      <c r="Q28">
+        <v>-0.5</v>
+      </c>
+      <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>2.25</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
+        <v>1.875</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
         <v>3.2</v>
       </c>
-      <c r="M28">
-        <v>2.45</v>
-      </c>
-      <c r="N28">
-        <v>2.6</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="P28">
-        <v>3</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>1.875</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>2</v>
-      </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3043,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6277675</v>
+        <v>6277718</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3055,10 +3055,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3070,19 +3070,19 @@
         <v>55</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L29">
         <v>3.2</v>
       </c>
       <c r="M29">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N29">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O29">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <v>3</v>
@@ -3091,19 +3091,19 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3118,13 +3118,13 @@
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3132,7 +3132,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6277469</v>
+        <v>6277675</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3144,10 +3144,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3159,40 +3159,40 @@
         <v>55</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P30">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3201,19 +3201,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3666,7 +3666,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6277872</v>
+        <v>6277305</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3678,19 +3678,19 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>1.6</v>
@@ -3702,52 +3702,52 @@
         <v>5</v>
       </c>
       <c r="N36">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
         <v>1.85</v>
       </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3755,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6277305</v>
+        <v>6277872</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3767,19 +3767,19 @@
         <v>45102.66666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>1.6</v>
@@ -3791,52 +3791,52 @@
         <v>5</v>
       </c>
       <c r="N37">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6277877</v>
+        <v>6278727</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,76 +5636,76 @@
         <v>45116.66666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K58">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6278727</v>
+        <v>6277877</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5725,76 +5725,76 @@
         <v>45116.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K59">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N59">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V59">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X59">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6277307</v>
+        <v>6277678</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5814,19 +5814,19 @@
         <v>45116.77083333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K60">
         <v>2.1</v>
@@ -5838,52 +5838,52 @@
         <v>3.4</v>
       </c>
       <c r="N60">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6277678</v>
+        <v>6277307</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5903,19 +5903,19 @@
         <v>45116.77083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K61">
         <v>2.1</v>
@@ -5927,52 +5927,52 @@
         <v>3.4</v>
       </c>
       <c r="N61">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P61">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6247,7 +6247,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6277722</v>
+        <v>6277879</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6259,52 +6259,52 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="N65">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P65">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S65">
+        <v>1.85</v>
+      </c>
+      <c r="T65">
+        <v>2.25</v>
+      </c>
+      <c r="U65">
         <v>1.8</v>
-      </c>
-      <c r="T65">
-        <v>2</v>
-      </c>
-      <c r="U65">
-        <v>1.75</v>
       </c>
       <c r="V65">
         <v>2.05</v>
@@ -6313,16 +6313,16 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y65">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6336,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6277879</v>
+        <v>6277722</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6348,52 +6348,52 @@
         <v>45123.66666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K66">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L66">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="N66">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O66">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V66">
         <v>2.05</v>
@@ -6402,16 +6402,16 @@
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -7849,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6277883</v>
+        <v>6278694</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7861,73 +7861,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>3</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>2</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
         <v>3.75</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
         <v>1.975</v>
       </c>
-      <c r="S83">
-        <v>1.875</v>
-      </c>
       <c r="T83">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
+        <v>1.825</v>
+      </c>
+      <c r="V83">
         <v>2.025</v>
       </c>
-      <c r="V83">
-        <v>1.825</v>
-      </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7938,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6278694</v>
+        <v>6277883</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7950,73 +7950,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K84">
         <v>2</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M84">
         <v>3.75</v>
       </c>
       <c r="N84">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>1.875</v>
       </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U84">
+        <v>2.025</v>
+      </c>
+      <c r="V84">
         <v>1.825</v>
       </c>
-      <c r="V84">
-        <v>2.025</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -9006,7 +9006,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6277684</v>
+        <v>6277425</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9018,76 +9018,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K96">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L96">
         <v>3.2</v>
       </c>
       <c r="M96">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N96">
+        <v>2.25</v>
+      </c>
+      <c r="O96">
+        <v>3.2</v>
+      </c>
+      <c r="P96">
         <v>3.3</v>
       </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
-      <c r="P96">
+      <c r="Q96">
+        <v>-0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>1.8</v>
+      </c>
+      <c r="V96">
+        <v>2.05</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>2.2</v>
       </c>
-      <c r="Q96">
-        <v>0.25</v>
-      </c>
-      <c r="R96">
-        <v>2</v>
-      </c>
-      <c r="S96">
-        <v>1.9</v>
-      </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
-        <v>1.98</v>
-      </c>
-      <c r="V96">
-        <v>1.92</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.9199999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9184,7 +9184,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6277425</v>
+        <v>6277684</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9196,76 +9196,76 @@
         <v>45144.77083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K98">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
         <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
+        <v>3.3</v>
+      </c>
+      <c r="O98">
+        <v>3.3</v>
+      </c>
+      <c r="P98">
+        <v>2.2</v>
+      </c>
+      <c r="Q98">
+        <v>0.25</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
         <v>2.25</v>
       </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>3.3</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.875</v>
-      </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="V98">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1.05</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9807,7 +9807,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6277886</v>
+        <v>6278695</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9819,76 +9819,76 @@
         <v>45151.77083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L105">
         <v>3.5</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X105">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9896,7 +9896,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6278695</v>
+        <v>6277886</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9908,76 +9908,76 @@
         <v>45151.77083333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K106">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L106">
         <v>3.5</v>
       </c>
       <c r="M106">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N106">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6277688</v>
+        <v>6277918</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10798,73 +10798,73 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K116">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M116">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N116">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>1.05</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
         <v>1</v>
-      </c>
-      <c r="Z116">
-        <v>-1</v>
-      </c>
-      <c r="AA116">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB116">
-        <v>1.025</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10875,7 +10875,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6277918</v>
+        <v>6277688</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10887,73 +10887,73 @@
         <v>45158.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K117">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M117">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N117">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6277432</v>
+        <v>6277433</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N136">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.07</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.83</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>2.07</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.83</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X136">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>0.825</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.415</v>
-      </c>
-      <c r="AB136">
-        <v>-1</v>
-      </c>
       <c r="AC136">
-        <v>0.8300000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6277895</v>
+        <v>6277432</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>53</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L137">
+        <v>3.1</v>
+      </c>
+      <c r="M137">
+        <v>2.625</v>
+      </c>
+      <c r="N137">
+        <v>2.45</v>
+      </c>
+      <c r="O137">
         <v>3.2</v>
       </c>
-      <c r="M137">
-        <v>3.4</v>
-      </c>
-      <c r="N137">
-        <v>2.05</v>
-      </c>
-      <c r="O137">
-        <v>3.3</v>
-      </c>
       <c r="P137">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>0.415</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.4625</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6277433</v>
+        <v>6277895</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N138">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
         <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7140132</v>
+        <v>7140135</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,73 +13023,73 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K141">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7140135</v>
+        <v>7140132</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,73 +13112,73 @@
         <v>45183.79166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142" t="s">
+        <v>55</v>
+      </c>
+      <c r="K142">
+        <v>2.75</v>
+      </c>
+      <c r="L142">
+        <v>3.25</v>
+      </c>
+      <c r="M142">
+        <v>2.55</v>
+      </c>
+      <c r="N142">
+        <v>2.375</v>
+      </c>
+      <c r="O142">
+        <v>3</v>
+      </c>
+      <c r="P142">
+        <v>3.3</v>
+      </c>
+      <c r="Q142">
+        <v>-0.25</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.85</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>2.3</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB142">
         <v>1</v>
-      </c>
-      <c r="J142" t="s">
-        <v>54</v>
-      </c>
-      <c r="K142">
-        <v>1.727</v>
-      </c>
-      <c r="L142">
-        <v>3.6</v>
-      </c>
-      <c r="M142">
-        <v>4.75</v>
-      </c>
-      <c r="N142">
-        <v>1.571</v>
-      </c>
-      <c r="O142">
-        <v>3.8</v>
-      </c>
-      <c r="P142">
-        <v>6.5</v>
-      </c>
-      <c r="Q142">
-        <v>-0.75</v>
-      </c>
-      <c r="R142">
-        <v>1.75</v>
-      </c>
-      <c r="S142">
-        <v>2.05</v>
-      </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
-      <c r="U142">
-        <v>1.975</v>
-      </c>
-      <c r="V142">
-        <v>1.875</v>
-      </c>
-      <c r="W142">
-        <v>0.571</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>-1</v>
-      </c>
-      <c r="Z142">
-        <v>0.375</v>
-      </c>
-      <c r="AA142">
-        <v>-0.5</v>
-      </c>
-      <c r="AB142">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -15325,7 +15325,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6277697</v>
+        <v>7160408</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15337,58 +15337,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>54</v>
       </c>
       <c r="K167">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L167">
+        <v>3.25</v>
+      </c>
+      <c r="M167">
+        <v>3.9</v>
+      </c>
+      <c r="N167">
+        <v>2.5</v>
+      </c>
+      <c r="O167">
         <v>3.2</v>
       </c>
-      <c r="M167">
-        <v>2.6</v>
-      </c>
-      <c r="N167">
-        <v>3.4</v>
-      </c>
-      <c r="O167">
-        <v>3.3</v>
-      </c>
       <c r="P167">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T167">
         <v>2.25</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W167">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15397,16 +15397,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC167">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7160408</v>
+        <v>6277697</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,58 +15426,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>54</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M168">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="N168">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15486,16 +15486,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16037,7 +16037,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6277900</v>
+        <v>6279397</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16049,76 +16049,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
+        <v>2.7</v>
+      </c>
+      <c r="N175">
+        <v>2.25</v>
+      </c>
+      <c r="O175">
+        <v>3.25</v>
+      </c>
+      <c r="P175">
         <v>3.4</v>
       </c>
-      <c r="M175">
-        <v>3.75</v>
-      </c>
-      <c r="N175">
-        <v>1.909</v>
-      </c>
-      <c r="O175">
-        <v>3.4</v>
-      </c>
-      <c r="P175">
-        <v>4.2</v>
-      </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
         <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC175">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16215,7 +16215,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6279397</v>
+        <v>6277900</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16227,76 +16227,76 @@
         <v>45207.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K177">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O177">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16304,7 +16304,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6277698</v>
+        <v>6277699</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16316,76 +16316,76 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K178">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L178">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N178">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O178">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y178">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6277439</v>
+        <v>6277698</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,73 +16405,73 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M179">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P179">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
+        <v>1.975</v>
+      </c>
+      <c r="S179">
         <v>1.875</v>
       </c>
-      <c r="S179">
-        <v>1.975</v>
-      </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W179">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6277699</v>
+        <v>6277439</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,49 +16494,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M180">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N180">
+        <v>1.533</v>
+      </c>
+      <c r="O180">
+        <v>4.2</v>
+      </c>
+      <c r="P180">
+        <v>6</v>
+      </c>
+      <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>1.875</v>
+      </c>
+      <c r="S180">
+        <v>1.975</v>
+      </c>
+      <c r="T180">
         <v>2.5</v>
-      </c>
-      <c r="O180">
-        <v>3.1</v>
-      </c>
-      <c r="P180">
-        <v>2.9</v>
-      </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>1.825</v>
-      </c>
-      <c r="S180">
-        <v>2.025</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
       </c>
       <c r="U180">
         <v>1.85</v>
@@ -16545,10 +16545,10 @@
         <v>2</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
@@ -16560,10 +16560,10 @@
         <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6296173</v>
+        <v>6319281</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,76 +18007,76 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I197">
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K197">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N197">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="O197">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R197">
+        <v>1.975</v>
+      </c>
+      <c r="S197">
         <v>1.875</v>
       </c>
-      <c r="S197">
-        <v>1.975</v>
-      </c>
       <c r="T197">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6319281</v>
+        <v>6296173</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H198">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K198">
+        <v>1.833</v>
+      </c>
+      <c r="L198">
+        <v>3.4</v>
+      </c>
+      <c r="M198">
+        <v>4.5</v>
+      </c>
+      <c r="N198">
         <v>1.909</v>
       </c>
-      <c r="L198">
-        <v>3.3</v>
-      </c>
-      <c r="M198">
-        <v>4.2</v>
-      </c>
-      <c r="N198">
-        <v>1.533</v>
-      </c>
       <c r="O198">
+        <v>3.25</v>
+      </c>
+      <c r="P198">
+        <v>5</v>
+      </c>
+      <c r="Q198">
+        <v>-0.5</v>
+      </c>
+      <c r="R198">
+        <v>1.875</v>
+      </c>
+      <c r="S198">
+        <v>1.975</v>
+      </c>
+      <c r="T198">
+        <v>2</v>
+      </c>
+      <c r="U198">
+        <v>2.025</v>
+      </c>
+      <c r="V198">
+        <v>1.825</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
         <v>4</v>
       </c>
-      <c r="P198">
-        <v>7</v>
-      </c>
-      <c r="Q198">
-        <v>-1</v>
-      </c>
-      <c r="R198">
-        <v>1.975</v>
-      </c>
-      <c r="S198">
-        <v>1.875</v>
-      </c>
-      <c r="T198">
-        <v>2.25</v>
-      </c>
-      <c r="U198">
-        <v>1.8</v>
-      </c>
-      <c r="V198">
-        <v>2.05</v>
-      </c>
-      <c r="W198">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X198">
-        <v>-1</v>
-      </c>
-      <c r="Y198">
-        <v>-1</v>
-      </c>
       <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA198">
-        <v>-1</v>
-      </c>
       <c r="AB198">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6301327</v>
+        <v>6327088</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,76 +18185,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K199">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P199">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q199">
+        <v>-0.75</v>
+      </c>
+      <c r="R199">
+        <v>1.975</v>
+      </c>
+      <c r="S199">
+        <v>1.875</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
+        <v>2</v>
+      </c>
+      <c r="W199">
         <v>0.75</v>
       </c>
-      <c r="R199">
-        <v>1.825</v>
-      </c>
-      <c r="S199">
-        <v>2.025</v>
-      </c>
-      <c r="T199">
-        <v>2.25</v>
-      </c>
-      <c r="U199">
-        <v>1.9</v>
-      </c>
-      <c r="V199">
-        <v>1.95</v>
-      </c>
-      <c r="W199">
-        <v>-1</v>
-      </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA199">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6327088</v>
+        <v>7323303</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,49 +18274,49 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K200">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N200">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O200">
+        <v>3.3</v>
+      </c>
+      <c r="P200">
         <v>3.8</v>
       </c>
-      <c r="P200">
-        <v>4.5</v>
-      </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S200">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
         <v>1.85</v>
@@ -18325,25 +18325,25 @@
         <v>2</v>
       </c>
       <c r="W200">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
+        <v>0.8</v>
+      </c>
+      <c r="AB200">
         <v>-0.5</v>
       </c>
-      <c r="AB200">
-        <v>-1</v>
-      </c>
       <c r="AC200">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7323303</v>
+        <v>6301327</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,76 +18363,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="N201">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O201">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R201">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
         <v>-0.5</v>
       </c>
       <c r="AC201">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18440,7 +18440,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6280312</v>
+        <v>6277484</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18452,58 +18452,58 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H202">
+        <v>5</v>
+      </c>
+      <c r="I202">
         <v>3</v>
-      </c>
-      <c r="I202">
-        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>54</v>
       </c>
       <c r="K202">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L202">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M202">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N202">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O202">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P202">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q202">
         <v>-1</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
         <v>1.85</v>
       </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
-      <c r="U202">
-        <v>2.025</v>
-      </c>
       <c r="V202">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W202">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18512,13 +18512,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18618,7 +18618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6277484</v>
+        <v>6280312</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18630,58 +18630,58 @@
         <v>45224.79166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>54</v>
       </c>
       <c r="K204">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N204">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P204">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q204">
         <v>-1</v>
       </c>
       <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.85</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
         <v>2.025</v>
       </c>
-      <c r="S204">
+      <c r="V204">
         <v>1.825</v>
       </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.85</v>
-      </c>
-      <c r="V204">
-        <v>2</v>
-      </c>
       <c r="W204">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18690,13 +18690,13 @@
         <v>-1</v>
       </c>
       <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>-0</v>
+      </c>
+      <c r="AB204">
         <v>1.025</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6421268</v>
+        <v>6330707</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,10 +19520,10 @@
         <v>45228.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19535,61 +19535,61 @@
         <v>53</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N214">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O214">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
+        <v>2.025</v>
+      </c>
+      <c r="S214">
+        <v>1.825</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
         <v>2.05</v>
       </c>
-      <c r="S214">
+      <c r="V214">
         <v>1.8</v>
       </c>
-      <c r="T214">
-        <v>2</v>
-      </c>
-      <c r="U214">
-        <v>1.875</v>
-      </c>
-      <c r="V214">
-        <v>1.975</v>
-      </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>0.825</v>
+      </c>
+      <c r="AB214">
         <v>-0.5</v>
       </c>
-      <c r="AA214">
+      <c r="AC214">
         <v>0.4</v>
-      </c>
-      <c r="AB214">
-        <v>0</v>
-      </c>
-      <c r="AC214">
-        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6330707</v>
+        <v>6421268</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,10 +19609,10 @@
         <v>45228.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19624,61 +19624,61 @@
         <v>53</v>
       </c>
       <c r="K215">
+        <v>2.4</v>
+      </c>
+      <c r="L215">
+        <v>3.1</v>
+      </c>
+      <c r="M215">
+        <v>3.1</v>
+      </c>
+      <c r="N215">
+        <v>2.4</v>
+      </c>
+      <c r="O215">
+        <v>3</v>
+      </c>
+      <c r="P215">
+        <v>3.25</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
         <v>2.05</v>
       </c>
-      <c r="L215">
-        <v>3.3</v>
-      </c>
-      <c r="M215">
-        <v>3.6</v>
-      </c>
-      <c r="N215">
-        <v>2</v>
-      </c>
-      <c r="O215">
-        <v>3.2</v>
-      </c>
-      <c r="P215">
-        <v>4</v>
-      </c>
-      <c r="Q215">
+      <c r="S215">
+        <v>1.8</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
+        <v>1.875</v>
+      </c>
+      <c r="V215">
+        <v>1.975</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>2</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
         <v>-0.5</v>
       </c>
-      <c r="R215">
-        <v>2.025</v>
-      </c>
-      <c r="S215">
-        <v>1.825</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>2.05</v>
-      </c>
-      <c r="V215">
-        <v>1.8</v>
-      </c>
-      <c r="W215">
-        <v>-1</v>
-      </c>
-      <c r="X215">
-        <v>2.2</v>
-      </c>
-      <c r="Y215">
-        <v>-1</v>
-      </c>
-      <c r="Z215">
-        <v>-1</v>
-      </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6330706</v>
+        <v>7370710</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,76 +19698,76 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K216">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L216">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N216">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O216">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S216">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y216">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AB216">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7370710</v>
+        <v>6330706</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,76 +19787,76 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K217">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M217">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N217">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P217">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R217">
+        <v>1.925</v>
+      </c>
+      <c r="S217">
+        <v>1.925</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
         <v>1.825</v>
       </c>
-      <c r="S217">
+      <c r="V217">
         <v>2.025</v>
       </c>
-      <c r="T217">
-        <v>2.25</v>
-      </c>
-      <c r="U217">
-        <v>2</v>
-      </c>
-      <c r="V217">
-        <v>1.85</v>
-      </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AB217">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC217">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -22890,7 +22890,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6688997</v>
+        <v>6689151</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22902,61 +22902,61 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K252">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L252">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N252">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O252">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P252">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="Q252">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S252">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T252">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U252">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V252">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W252">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
@@ -22968,10 +22968,10 @@
         <v>-0</v>
       </c>
       <c r="AB252">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22979,7 +22979,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6689151</v>
+        <v>6622499</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22991,76 +22991,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G253" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K253">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L253">
         <v>3.3</v>
       </c>
       <c r="M253">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N253">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O253">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P253">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q253">
         <v>0</v>
       </c>
       <c r="R253">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T253">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U253">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V253">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X253">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA253">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC253">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6648522</v>
+        <v>6688997</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,76 +23080,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G254" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254">
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K254">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M254">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N254">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O254">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P254">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S254">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T254">
         <v>2.25</v>
       </c>
       <c r="U254">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V254">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X254">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB254">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC254">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6622499</v>
+        <v>6648522</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45242.77083333334</v>
       </c>
       <c r="F256" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G256" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K256">
+        <v>2.375</v>
+      </c>
+      <c r="L256">
+        <v>3.4</v>
+      </c>
+      <c r="M256">
+        <v>2.875</v>
+      </c>
+      <c r="N256">
+        <v>2.3</v>
+      </c>
+      <c r="O256">
+        <v>3.4</v>
+      </c>
+      <c r="P256">
+        <v>3.1</v>
+      </c>
+      <c r="Q256">
+        <v>-0.25</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+      <c r="S256">
+        <v>1.85</v>
+      </c>
+      <c r="T256">
+        <v>2.25</v>
+      </c>
+      <c r="U256">
+        <v>2</v>
+      </c>
+      <c r="V256">
+        <v>1.85</v>
+      </c>
+      <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
         <v>2.4</v>
       </c>
-      <c r="L256">
-        <v>3.3</v>
-      </c>
-      <c r="M256">
-        <v>2.9</v>
-      </c>
-      <c r="N256">
-        <v>2.75</v>
-      </c>
-      <c r="O256">
-        <v>2.9</v>
-      </c>
-      <c r="P256">
-        <v>2.9</v>
-      </c>
-      <c r="Q256">
-        <v>0</v>
-      </c>
-      <c r="R256">
-        <v>1.875</v>
-      </c>
-      <c r="S256">
-        <v>1.975</v>
-      </c>
-      <c r="T256">
-        <v>1.75</v>
-      </c>
-      <c r="U256">
-        <v>1.775</v>
-      </c>
-      <c r="V256">
-        <v>2.1</v>
-      </c>
-      <c r="W256">
-        <v>1.75</v>
-      </c>
-      <c r="X256">
-        <v>-1</v>
-      </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB256">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -26183,7 +26183,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6677290</v>
+        <v>6733768</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26195,13 +26195,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F289" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I289">
         <v>0</v>
@@ -26210,43 +26210,43 @@
         <v>54</v>
       </c>
       <c r="K289">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L289">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M289">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N289">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O289">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P289">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q289">
         <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S289">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T289">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U289">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V289">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W289">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26255,16 +26255,16 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA289">
         <v>-1</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC289">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26272,7 +26272,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6733768</v>
+        <v>6677290</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26284,13 +26284,13 @@
         <v>45263.77083333334</v>
       </c>
       <c r="F290" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -26299,61 +26299,61 @@
         <v>54</v>
       </c>
       <c r="K290">
+        <v>1.727</v>
+      </c>
+      <c r="L290">
+        <v>3.6</v>
+      </c>
+      <c r="M290">
+        <v>4.75</v>
+      </c>
+      <c r="N290">
         <v>1.85</v>
       </c>
-      <c r="L290">
-        <v>3.4</v>
-      </c>
-      <c r="M290">
-        <v>4.333</v>
-      </c>
-      <c r="N290">
-        <v>1.95</v>
-      </c>
       <c r="O290">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P290">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q290">
         <v>-0.5</v>
       </c>
       <c r="R290">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S290">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T290">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U290">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V290">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W290">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X290">
+        <v>-1</v>
+      </c>
+      <c r="Y290">
+        <v>-1</v>
+      </c>
+      <c r="Z290">
+        <v>0.825</v>
+      </c>
+      <c r="AA290">
+        <v>-1</v>
+      </c>
+      <c r="AB290">
+        <v>-1</v>
+      </c>
+      <c r="AC290">
         <v>0.95</v>
-      </c>
-      <c r="X290">
-        <v>-1</v>
-      </c>
-      <c r="Y290">
-        <v>-1</v>
-      </c>
-      <c r="Z290">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA290">
-        <v>-1</v>
-      </c>
-      <c r="AB290">
-        <v>0.875</v>
-      </c>
-      <c r="AC290">
-        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7902250</v>
+        <v>7902141</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45395.77083333334</v>
       </c>
       <c r="F302" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G302" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K302">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L302">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M302">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N302">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O302">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P302">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q302">
         <v>-0.5</v>
       </c>
       <c r="R302">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S302">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T302">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="V302">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X302">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA302">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC302">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7902141</v>
+        <v>7902250</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45395.77083333334</v>
       </c>
       <c r="F303" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K303">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L303">
+        <v>3.25</v>
+      </c>
+      <c r="M303">
         <v>3.6</v>
       </c>
-      <c r="M303">
-        <v>4.5</v>
-      </c>
       <c r="N303">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O303">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P303">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q303">
         <v>-0.5</v>
       </c>
       <c r="R303">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S303">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="V303">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB303">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27696,7 +27696,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7902349</v>
+        <v>7902400</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27708,73 +27708,73 @@
         <v>45396.66666666666</v>
       </c>
       <c r="F306" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G306" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H306">
+        <v>1</v>
+      </c>
+      <c r="I306">
+        <v>2</v>
+      </c>
+      <c r="J306" t="s">
+        <v>55</v>
+      </c>
+      <c r="K306">
+        <v>5.5</v>
+      </c>
+      <c r="L306">
         <v>4</v>
       </c>
-      <c r="I306">
-        <v>0</v>
-      </c>
-      <c r="J306" t="s">
-        <v>54</v>
-      </c>
-      <c r="K306">
-        <v>1.8</v>
-      </c>
-      <c r="L306">
-        <v>3.5</v>
-      </c>
       <c r="M306">
+        <v>1.571</v>
+      </c>
+      <c r="N306">
         <v>4.75</v>
       </c>
-      <c r="N306">
-        <v>1.533</v>
-      </c>
       <c r="O306">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P306">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="Q306">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R306">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S306">
+        <v>1.925</v>
+      </c>
+      <c r="T306">
+        <v>2.5</v>
+      </c>
+      <c r="U306">
+        <v>2</v>
+      </c>
+      <c r="V306">
         <v>1.85</v>
       </c>
-      <c r="T306">
-        <v>2.25</v>
-      </c>
-      <c r="U306">
-        <v>1.975</v>
-      </c>
-      <c r="V306">
-        <v>1.875</v>
-      </c>
       <c r="W306">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X306">
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z306">
+        <v>-0.5</v>
+      </c>
+      <c r="AA306">
+        <v>0.4625</v>
+      </c>
+      <c r="AB306">
         <v>1</v>
-      </c>
-      <c r="AA306">
-        <v>-1</v>
-      </c>
-      <c r="AB306">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC306">
         <v>-1</v>
@@ -27785,7 +27785,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7902400</v>
+        <v>7902349</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27797,73 +27797,73 @@
         <v>45396.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G307" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H307">
+        <v>4</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307" t="s">
+        <v>54</v>
+      </c>
+      <c r="K307">
+        <v>1.8</v>
+      </c>
+      <c r="L307">
+        <v>3.5</v>
+      </c>
+      <c r="M307">
+        <v>4.75</v>
+      </c>
+      <c r="N307">
+        <v>1.533</v>
+      </c>
+      <c r="O307">
+        <v>3.6</v>
+      </c>
+      <c r="P307">
+        <v>7</v>
+      </c>
+      <c r="Q307">
+        <v>-1</v>
+      </c>
+      <c r="R307">
+        <v>2</v>
+      </c>
+      <c r="S307">
+        <v>1.85</v>
+      </c>
+      <c r="T307">
+        <v>2.25</v>
+      </c>
+      <c r="U307">
+        <v>1.975</v>
+      </c>
+      <c r="V307">
+        <v>1.875</v>
+      </c>
+      <c r="W307">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X307">
+        <v>-1</v>
+      </c>
+      <c r="Y307">
+        <v>-1</v>
+      </c>
+      <c r="Z307">
         <v>1</v>
       </c>
-      <c r="I307">
-        <v>2</v>
-      </c>
-      <c r="J307" t="s">
-        <v>55</v>
-      </c>
-      <c r="K307">
-        <v>5.5</v>
-      </c>
-      <c r="L307">
-        <v>4</v>
-      </c>
-      <c r="M307">
-        <v>1.571</v>
-      </c>
-      <c r="N307">
-        <v>4.75</v>
-      </c>
-      <c r="O307">
-        <v>3.75</v>
-      </c>
-      <c r="P307">
-        <v>1.727</v>
-      </c>
-      <c r="Q307">
-        <v>0.75</v>
-      </c>
-      <c r="R307">
-        <v>1.925</v>
-      </c>
-      <c r="S307">
-        <v>1.925</v>
-      </c>
-      <c r="T307">
-        <v>2.5</v>
-      </c>
-      <c r="U307">
-        <v>2</v>
-      </c>
-      <c r="V307">
-        <v>1.85</v>
-      </c>
-      <c r="W307">
-        <v>-1</v>
-      </c>
-      <c r="X307">
-        <v>-1</v>
-      </c>
-      <c r="Y307">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z307">
-        <v>-0.5</v>
-      </c>
       <c r="AA307">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -28319,7 +28319,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7902507</v>
+        <v>7902606</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28331,58 +28331,58 @@
         <v>45399.79166666666</v>
       </c>
       <c r="F313" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G313" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H313">
         <v>2</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313" t="s">
         <v>54</v>
       </c>
       <c r="K313">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L313">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M313">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N313">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O313">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P313">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q313">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R313">
-        <v>1.87</v>
+        <v>1.975</v>
       </c>
       <c r="S313">
-        <v>2.03</v>
+        <v>1.875</v>
       </c>
       <c r="T313">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U313">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V313">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W313">
-        <v>1.6</v>
+        <v>0.95</v>
       </c>
       <c r="X313">
         <v>-1</v>
@@ -28391,16 +28391,16 @@
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0.8700000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC313">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28408,7 +28408,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7902606</v>
+        <v>7902507</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28420,76 +28420,76 @@
         <v>45399.79166666666</v>
       </c>
       <c r="F314" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G314" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H314">
         <v>2</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>54</v>
       </c>
       <c r="K314">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L314">
+        <v>3.3</v>
+      </c>
+      <c r="M314">
+        <v>3.75</v>
+      </c>
+      <c r="N314">
+        <v>2.6</v>
+      </c>
+      <c r="O314">
         <v>3.25</v>
       </c>
-      <c r="M314">
-        <v>4.5</v>
-      </c>
-      <c r="N314">
+      <c r="P314">
+        <v>2.75</v>
+      </c>
+      <c r="Q314">
+        <v>0</v>
+      </c>
+      <c r="R314">
+        <v>1.87</v>
+      </c>
+      <c r="S314">
+        <v>2.03</v>
+      </c>
+      <c r="T314">
+        <v>2.25</v>
+      </c>
+      <c r="U314">
+        <v>1.9</v>
+      </c>
+      <c r="V314">
         <v>1.95</v>
       </c>
-      <c r="O314">
-        <v>3.5</v>
-      </c>
-      <c r="P314">
-        <v>4</v>
-      </c>
-      <c r="Q314">
+      <c r="W314">
+        <v>1.6</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
+        <v>-1</v>
+      </c>
+      <c r="Z314">
+        <v>0.8700000000000001</v>
+      </c>
+      <c r="AA314">
+        <v>-1</v>
+      </c>
+      <c r="AB314">
         <v>-0.5</v>
       </c>
-      <c r="R314">
-        <v>1.975</v>
-      </c>
-      <c r="S314">
-        <v>1.875</v>
-      </c>
-      <c r="T314">
-        <v>2.5</v>
-      </c>
-      <c r="U314">
-        <v>2.05</v>
-      </c>
-      <c r="V314">
-        <v>1.8</v>
-      </c>
-      <c r="W314">
-        <v>0.95</v>
-      </c>
-      <c r="X314">
-        <v>-1</v>
-      </c>
-      <c r="Y314">
-        <v>-1</v>
-      </c>
-      <c r="Z314">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA314">
-        <v>-1</v>
-      </c>
-      <c r="AB314">
-        <v>1.05</v>
-      </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28497,7 +28497,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7902251</v>
+        <v>7902774</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28509,76 +28509,76 @@
         <v>45399.83333333334</v>
       </c>
       <c r="F315" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G315" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K315">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L315">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M315">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="N315">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O315">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P315">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q315">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R315">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S315">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T315">
+        <v>1.75</v>
+      </c>
+      <c r="U315">
+        <v>1.825</v>
+      </c>
+      <c r="V315">
+        <v>2.025</v>
+      </c>
+      <c r="W315">
         <v>2.5</v>
       </c>
-      <c r="U315">
-        <v>2.03</v>
-      </c>
-      <c r="V315">
-        <v>1.87</v>
-      </c>
-      <c r="W315">
-        <v>-1</v>
-      </c>
       <c r="X315">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA315">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC315">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8086523</v>
+        <v>7902144</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,76 +28598,76 @@
         <v>45399.83333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G316" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316">
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K316">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L316">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M316">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N316">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O316">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P316">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q316">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S316">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T316">
         <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="V316">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="W316">
         <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y316">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
         <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.95</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB316">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC316">
-        <v>0.875</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7902144</v>
+        <v>8086523</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,76 +28687,76 @@
         <v>45399.83333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G317" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317">
         <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K317">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L317">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M317">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N317">
+        <v>1.666</v>
+      </c>
+      <c r="O317">
+        <v>3.6</v>
+      </c>
+      <c r="P317">
+        <v>5.75</v>
+      </c>
+      <c r="Q317">
+        <v>-0.75</v>
+      </c>
+      <c r="R317">
+        <v>1.9</v>
+      </c>
+      <c r="S317">
         <v>1.95</v>
-      </c>
-      <c r="O317">
-        <v>3.4</v>
-      </c>
-      <c r="P317">
-        <v>4</v>
-      </c>
-      <c r="Q317">
-        <v>-0.5</v>
-      </c>
-      <c r="R317">
-        <v>1.99</v>
-      </c>
-      <c r="S317">
-        <v>1.91</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="V317">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z317">
         <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.9099999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.43</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28764,7 +28764,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7902774</v>
+        <v>7902251</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28776,76 +28776,76 @@
         <v>45399.83333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G318" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K318">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L318">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M318">
-        <v>2.7</v>
+        <v>8.5</v>
       </c>
       <c r="N318">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O318">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P318">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q318">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R318">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S318">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T318">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="V318">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="W318">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB318">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -29031,7 +29031,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7902580</v>
+        <v>7902608</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29040,49 +29040,49 @@
         <v>28</v>
       </c>
       <c r="E321" s="2">
-        <v>45402.66666666666</v>
+        <v>45403.66666666666</v>
       </c>
       <c r="F321" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G321" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K321">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L321">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M321">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N321">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O321">
+        <v>3.1</v>
+      </c>
+      <c r="P321">
         <v>3.6</v>
       </c>
-      <c r="P321">
-        <v>4.5</v>
-      </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R321">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S321">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T321">
         <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="V321">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29105,7 +29105,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7903408</v>
+        <v>7902508</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29114,49 +29114,49 @@
         <v>28</v>
       </c>
       <c r="E322" s="2">
-        <v>45402.77083333334</v>
+        <v>45403.66666666666</v>
       </c>
       <c r="F322" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G322" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K322">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L322">
+        <v>3.6</v>
+      </c>
+      <c r="M322">
+        <v>4</v>
+      </c>
+      <c r="N322">
+        <v>1.95</v>
+      </c>
+      <c r="O322">
         <v>3.5</v>
       </c>
-      <c r="M322">
+      <c r="P322">
         <v>3.8</v>
-      </c>
-      <c r="N322">
-        <v>2</v>
-      </c>
-      <c r="O322">
-        <v>3.4</v>
-      </c>
-      <c r="P322">
-        <v>3.75</v>
       </c>
       <c r="Q322">
         <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="S322">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="T322">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="V322">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29179,7 +29179,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7902350</v>
+        <v>7902145</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29188,49 +29188,49 @@
         <v>28</v>
       </c>
       <c r="E323" s="2">
-        <v>45402.77083333334</v>
+        <v>45403.66666666666</v>
       </c>
       <c r="F323" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G323" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K323">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L323">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M323">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N323">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P323">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q323">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R323">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="S323">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="T323">
         <v>2.25</v>
       </c>
       <c r="U323">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V323">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29253,7 +29253,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7902881</v>
+        <v>7902607</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29262,13 +29262,13 @@
         <v>28</v>
       </c>
       <c r="E324" s="2">
-        <v>45402.875</v>
+        <v>45403.77083333334</v>
       </c>
       <c r="F324" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G324" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K324">
         <v>1.727</v>
@@ -29280,31 +29280,31 @@
         <v>4.75</v>
       </c>
       <c r="N324">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O324">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P324">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q324">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R324">
+        <v>1.98</v>
+      </c>
+      <c r="S324">
         <v>1.92</v>
       </c>
-      <c r="S324">
-        <v>1.98</v>
-      </c>
       <c r="T324">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U324">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="V324">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="W324">
         <v>0</v>
@@ -29327,7 +29327,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7902608</v>
+        <v>7902402</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29336,49 +29336,49 @@
         <v>28</v>
       </c>
       <c r="E325" s="2">
-        <v>45403.66666666666</v>
+        <v>45403.77083333334</v>
       </c>
       <c r="F325" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G325" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K325">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L325">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M325">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="N325">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O325">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P325">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R325">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S325">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="T325">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U325">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V325">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29393,302 +29393,6 @@
         <v>0</v>
       </c>
       <c r="AA325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:27">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326">
-        <v>7902508</v>
-      </c>
-      <c r="C326" t="s">
-        <v>28</v>
-      </c>
-      <c r="D326" t="s">
-        <v>28</v>
-      </c>
-      <c r="E326" s="2">
-        <v>45403.66666666666</v>
-      </c>
-      <c r="F326" t="s">
-        <v>30</v>
-      </c>
-      <c r="G326" t="s">
-        <v>45</v>
-      </c>
-      <c r="K326">
-        <v>1.833</v>
-      </c>
-      <c r="L326">
-        <v>3.6</v>
-      </c>
-      <c r="M326">
-        <v>4</v>
-      </c>
-      <c r="N326">
-        <v>2</v>
-      </c>
-      <c r="O326">
-        <v>3.5</v>
-      </c>
-      <c r="P326">
-        <v>3.75</v>
-      </c>
-      <c r="Q326">
-        <v>-0.5</v>
-      </c>
-      <c r="R326">
-        <v>2.03</v>
-      </c>
-      <c r="S326">
-        <v>1.87</v>
-      </c>
-      <c r="T326">
-        <v>2.25</v>
-      </c>
-      <c r="U326">
-        <v>1.98</v>
-      </c>
-      <c r="V326">
-        <v>1.92</v>
-      </c>
-      <c r="W326">
-        <v>0</v>
-      </c>
-      <c r="X326">
-        <v>0</v>
-      </c>
-      <c r="Y326">
-        <v>0</v>
-      </c>
-      <c r="Z326">
-        <v>0</v>
-      </c>
-      <c r="AA326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:27">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="B327">
-        <v>7902145</v>
-      </c>
-      <c r="C327" t="s">
-        <v>28</v>
-      </c>
-      <c r="D327" t="s">
-        <v>28</v>
-      </c>
-      <c r="E327" s="2">
-        <v>45403.66666666666</v>
-      </c>
-      <c r="F327" t="s">
-        <v>51</v>
-      </c>
-      <c r="G327" t="s">
-        <v>40</v>
-      </c>
-      <c r="K327">
-        <v>2.6</v>
-      </c>
-      <c r="L327">
-        <v>3.2</v>
-      </c>
-      <c r="M327">
-        <v>2.8</v>
-      </c>
-      <c r="N327">
-        <v>2.625</v>
-      </c>
-      <c r="O327">
-        <v>3.2</v>
-      </c>
-      <c r="P327">
-        <v>2.8</v>
-      </c>
-      <c r="Q327">
-        <v>0</v>
-      </c>
-      <c r="R327">
-        <v>1.9</v>
-      </c>
-      <c r="S327">
-        <v>2</v>
-      </c>
-      <c r="T327">
-        <v>2.25</v>
-      </c>
-      <c r="U327">
-        <v>1.91</v>
-      </c>
-      <c r="V327">
-        <v>1.99</v>
-      </c>
-      <c r="W327">
-        <v>0</v>
-      </c>
-      <c r="X327">
-        <v>0</v>
-      </c>
-      <c r="Y327">
-        <v>0</v>
-      </c>
-      <c r="Z327">
-        <v>0</v>
-      </c>
-      <c r="AA327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:27">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="B328">
-        <v>7902402</v>
-      </c>
-      <c r="C328" t="s">
-        <v>28</v>
-      </c>
-      <c r="D328" t="s">
-        <v>28</v>
-      </c>
-      <c r="E328" s="2">
-        <v>45403.77083333334</v>
-      </c>
-      <c r="F328" t="s">
-        <v>50</v>
-      </c>
-      <c r="G328" t="s">
-        <v>44</v>
-      </c>
-      <c r="K328">
-        <v>3.1</v>
-      </c>
-      <c r="L328">
-        <v>3.2</v>
-      </c>
-      <c r="M328">
-        <v>2.3</v>
-      </c>
-      <c r="N328">
-        <v>2.9</v>
-      </c>
-      <c r="O328">
-        <v>3.2</v>
-      </c>
-      <c r="P328">
-        <v>2.45</v>
-      </c>
-      <c r="Q328">
-        <v>0</v>
-      </c>
-      <c r="R328">
-        <v>2.11</v>
-      </c>
-      <c r="S328">
-        <v>1.79</v>
-      </c>
-      <c r="T328">
-        <v>2.25</v>
-      </c>
-      <c r="U328">
-        <v>2.07</v>
-      </c>
-      <c r="V328">
-        <v>1.83</v>
-      </c>
-      <c r="W328">
-        <v>0</v>
-      </c>
-      <c r="X328">
-        <v>0</v>
-      </c>
-      <c r="Y328">
-        <v>0</v>
-      </c>
-      <c r="Z328">
-        <v>0</v>
-      </c>
-      <c r="AA328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:27">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329">
-        <v>7902607</v>
-      </c>
-      <c r="C329" t="s">
-        <v>28</v>
-      </c>
-      <c r="D329" t="s">
-        <v>28</v>
-      </c>
-      <c r="E329" s="2">
-        <v>45403.77083333334</v>
-      </c>
-      <c r="F329" t="s">
-        <v>43</v>
-      </c>
-      <c r="G329" t="s">
-        <v>52</v>
-      </c>
-      <c r="K329">
-        <v>1.727</v>
-      </c>
-      <c r="L329">
-        <v>3.6</v>
-      </c>
-      <c r="M329">
-        <v>4.75</v>
-      </c>
-      <c r="N329">
-        <v>1.666</v>
-      </c>
-      <c r="O329">
-        <v>3.8</v>
-      </c>
-      <c r="P329">
-        <v>5</v>
-      </c>
-      <c r="Q329">
-        <v>-0.75</v>
-      </c>
-      <c r="R329">
-        <v>1.91</v>
-      </c>
-      <c r="S329">
-        <v>1.99</v>
-      </c>
-      <c r="T329">
-        <v>2.25</v>
-      </c>
-      <c r="U329">
-        <v>1.85</v>
-      </c>
-      <c r="V329">
-        <v>2.05</v>
-      </c>
-      <c r="W329">
-        <v>0</v>
-      </c>
-      <c r="X329">
-        <v>0</v>
-      </c>
-      <c r="Y329">
-        <v>0</v>
-      </c>
-      <c r="Z329">
-        <v>0</v>
-      </c>
-      <c r="AA329">
         <v>0</v>
       </c>
     </row>

--- a/Brazil Serie A/Brazil Serie A.xlsx
+++ b/Brazil Serie A/Brazil Serie A.xlsx
@@ -133,13 +133,13 @@
     <t>Coritiba</t>
   </si>
   <si>
-    <t>Corinthians</t>
+    <t>EC Bahia</t>
   </si>
   <si>
     <t>Atletico Mineiro</t>
   </si>
   <si>
-    <t>EC Bahia</t>
+    <t>Corinthians</t>
   </si>
   <si>
     <t>Botafogo</t>
@@ -646,7 +646,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1580,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6655761</v>
+        <v>6277410</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1592,52 +1592,52 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>52</v>
       </c>
       <c r="J13">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="M13">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N13">
         <v>3.25</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="P13">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T13">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1649,16 +1649,16 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1752,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6277410</v>
+        <v>6655761</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1764,52 +1764,52 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>52</v>
       </c>
       <c r="J15">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L15">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="M15">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="N15">
         <v>3.25</v>
       </c>
       <c r="O15">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q15">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
         <v>-1</v>
@@ -1821,16 +1821,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2538,7 +2538,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6277914</v>
+        <v>6277869</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2621,40 +2621,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J25">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N25">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O25">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="P25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>2.025</v>
@@ -2663,34 +2663,34 @@
         <v>1.825</v>
       </c>
       <c r="S25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T25">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2698,7 +2698,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6277869</v>
+        <v>6277914</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2707,40 +2707,40 @@
         <v>45098.89583333334</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J26">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="K26">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N26">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O26">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q26">
         <v>2.025</v>
@@ -2749,34 +2749,34 @@
         <v>1.825</v>
       </c>
       <c r="S26">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2870,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6277469</v>
+        <v>6277718</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2879,10 +2879,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2894,41 +2894,41 @@
         <v>53</v>
       </c>
       <c r="J28">
+        <v>2.875</v>
+      </c>
+      <c r="K28">
+        <v>3.2</v>
+      </c>
+      <c r="L28">
+        <v>2.45</v>
+      </c>
+      <c r="M28">
+        <v>2.6</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>1.8</v>
       </c>
-      <c r="K28">
-        <v>3.5</v>
-      </c>
-      <c r="L28">
-        <v>4.5</v>
-      </c>
-      <c r="M28">
-        <v>1.909</v>
-      </c>
-      <c r="N28">
-        <v>3.4</v>
-      </c>
-      <c r="O28">
-        <v>4.2</v>
-      </c>
-      <c r="P28">
-        <v>-0.5</v>
-      </c>
-      <c r="Q28">
+      <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>1.875</v>
+      </c>
+      <c r="U28">
         <v>1.975</v>
       </c>
-      <c r="R28">
-        <v>1.875</v>
-      </c>
-      <c r="S28">
-        <v>2.25</v>
-      </c>
-      <c r="T28">
-        <v>1.975</v>
-      </c>
-      <c r="U28">
-        <v>1.875</v>
-      </c>
       <c r="V28">
         <v>-1</v>
       </c>
@@ -2936,19 +2936,19 @@
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3042,7 +3042,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6277718</v>
+        <v>6277469</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3051,10 +3051,10 @@
         <v>45099.83333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3066,61 +3066,61 @@
         <v>53</v>
       </c>
       <c r="J30">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="K30">
+        <v>3.5</v>
+      </c>
+      <c r="L30">
+        <v>4.5</v>
+      </c>
+      <c r="M30">
+        <v>1.909</v>
+      </c>
+      <c r="N30">
+        <v>3.4</v>
+      </c>
+      <c r="O30">
+        <v>4.2</v>
+      </c>
+      <c r="P30">
+        <v>-0.5</v>
+      </c>
+      <c r="Q30">
+        <v>1.975</v>
+      </c>
+      <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
+        <v>2.25</v>
+      </c>
+      <c r="T30">
+        <v>1.975</v>
+      </c>
+      <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
+        <v>-1</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
         <v>3.2</v>
       </c>
-      <c r="L30">
-        <v>2.45</v>
-      </c>
-      <c r="M30">
-        <v>2.6</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>1.8</v>
-      </c>
-      <c r="R30">
-        <v>2.05</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>1.875</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>-1</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>2</v>
-      </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3226,7 +3226,7 @@
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3312,7 +3312,7 @@
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3816,7 +3816,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6277470</v>
+        <v>6277414</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3825,76 +3825,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="K39">
+        <v>3.1</v>
+      </c>
+      <c r="L39">
+        <v>2.9</v>
+      </c>
+      <c r="M39">
+        <v>1.95</v>
+      </c>
+      <c r="N39">
+        <v>3.4</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="L39">
-        <v>5.5</v>
-      </c>
-      <c r="M39">
-        <v>1.4</v>
-      </c>
-      <c r="N39">
-        <v>4.5</v>
-      </c>
-      <c r="O39">
-        <v>7.5</v>
-      </c>
       <c r="P39">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q39">
+        <v>1.975</v>
+      </c>
+      <c r="R39">
+        <v>1.875</v>
+      </c>
+      <c r="S39">
+        <v>2.25</v>
+      </c>
+      <c r="T39">
         <v>1.925</v>
       </c>
-      <c r="R39">
+      <c r="U39">
         <v>1.925</v>
       </c>
-      <c r="S39">
-        <v>2.75</v>
-      </c>
-      <c r="T39">
-        <v>1.975</v>
-      </c>
-      <c r="U39">
-        <v>1.875</v>
-      </c>
       <c r="V39">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>0.875</v>
+      </c>
+      <c r="AA39">
         <v>0.925</v>
       </c>
-      <c r="Z39">
-        <v>-1</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
       <c r="AB39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3902,7 +3902,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6277414</v>
+        <v>6277470</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3911,76 +3911,76 @@
         <v>45102.77083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J40">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="K40">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L40">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="M40">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N40">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P40">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q40">
+        <v>1.925</v>
+      </c>
+      <c r="R40">
+        <v>1.925</v>
+      </c>
+      <c r="S40">
+        <v>2.75</v>
+      </c>
+      <c r="T40">
         <v>1.975</v>
       </c>
-      <c r="R40">
+      <c r="U40">
         <v>1.875</v>
       </c>
-      <c r="S40">
-        <v>2.25</v>
-      </c>
-      <c r="T40">
-        <v>1.925</v>
-      </c>
-      <c r="U40">
-        <v>1.925</v>
-      </c>
       <c r="V40">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>0.875</v>
-      </c>
-      <c r="AA40">
-        <v>0.925</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4160,7 +4160,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6277306</v>
+        <v>6277874</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4169,40 +4169,40 @@
         <v>45108.77083333334</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J43">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K43">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L43">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="N43">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O43">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q43">
         <v>2.025</v>
@@ -4211,34 +4211,34 @@
         <v>1.825</v>
       </c>
       <c r="S43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T43">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V43">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.825</v>
-      </c>
-      <c r="AA43">
-        <v>0.925</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4246,7 +4246,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6277874</v>
+        <v>6277306</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4255,40 +4255,40 @@
         <v>45108.77083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J44">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="M44">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O44">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="P44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>2.025</v>
@@ -4297,34 +4297,34 @@
         <v>1.825</v>
       </c>
       <c r="S44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T44">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4427,7 +4427,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
@@ -4946,7 +4946,7 @@
         <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5106,7 +5106,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6277418</v>
+        <v>6277953</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5115,76 +5115,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J54">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="K54">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L54">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="M54">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P54">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q54">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
         <v>1.85</v>
       </c>
-      <c r="U54">
-        <v>2</v>
-      </c>
       <c r="V54">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5192,7 +5192,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6277953</v>
+        <v>6277418</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5201,76 +5201,76 @@
         <v>45115.77083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J55">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="K55">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L55">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="M55">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N55">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5622,7 +5622,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6277678</v>
+        <v>6277307</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5631,19 +5631,19 @@
         <v>45116.77083333334</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5655,52 +5655,52 @@
         <v>3.4</v>
       </c>
       <c r="M60">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O60">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5708,7 +5708,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6277307</v>
+        <v>6277678</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5717,19 +5717,19 @@
         <v>45116.77083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5741,52 +5741,52 @@
         <v>3.4</v>
       </c>
       <c r="M61">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="N61">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R61">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T61">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -6224,7 +6224,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6278729</v>
+        <v>6277679</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6233,76 +6233,76 @@
         <v>45123.77083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J67">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L67">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="N67">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O67">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q67">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R67">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T67">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U67">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="V67">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W67">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6310,7 +6310,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6277679</v>
+        <v>6278729</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6319,76 +6319,76 @@
         <v>45123.77083333334</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J68">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="K68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="M68">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N68">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O68">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="P68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="R68">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="S68">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U68">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="V68">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6663,10 +6663,10 @@
         <v>45129.77083333334</v>
       </c>
       <c r="E72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
         <v>41</v>
-      </c>
-      <c r="F72" t="s">
-        <v>39</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6277422</v>
+        <v>6277881</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6921,76 +6921,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J75">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="K75">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="M75">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O75">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="P75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1.925</v>
+        <v>2.01</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.89</v>
       </c>
       <c r="S75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>1.875</v>
+        <v>2.04</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.86</v>
       </c>
       <c r="V75">
         <v>-1</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X75">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6998,7 +6998,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6277881</v>
+        <v>6277422</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -7007,76 +7007,76 @@
         <v>45130.66666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J76">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="K76">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L76">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="N76">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q76">
-        <v>2.01</v>
+        <v>1.925</v>
       </c>
       <c r="R76">
-        <v>1.89</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T76">
-        <v>2.04</v>
+        <v>1.875</v>
       </c>
       <c r="U76">
-        <v>1.86</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7600,7 +7600,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6278694</v>
+        <v>6277883</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7609,73 +7609,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J83">
         <v>2</v>
       </c>
       <c r="K83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L83">
         <v>3.75</v>
       </c>
       <c r="M83">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
         <v>1.875</v>
       </c>
-      <c r="R83">
-        <v>1.975</v>
-      </c>
       <c r="S83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T83">
+        <v>2.025</v>
+      </c>
+      <c r="U83">
         <v>1.825</v>
       </c>
-      <c r="U83">
-        <v>2.025</v>
-      </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7686,7 +7686,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6277883</v>
+        <v>6278694</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7695,73 +7695,73 @@
         <v>45136.77083333334</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>3</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <v>2</v>
       </c>
       <c r="K84">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L84">
         <v>3.75</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N84">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
+        <v>1.875</v>
+      </c>
+      <c r="R84">
         <v>1.975</v>
       </c>
-      <c r="R84">
-        <v>1.875</v>
-      </c>
       <c r="S84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T84">
+        <v>1.825</v>
+      </c>
+      <c r="U84">
         <v>2.025</v>
       </c>
-      <c r="U84">
-        <v>1.825</v>
-      </c>
       <c r="V84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
       <c r="AA84">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7870,7 +7870,7 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>45144.77083333334</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
         <v>31</v>
@@ -9160,7 +9160,7 @@
         <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9320,7 +9320,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6277686</v>
+        <v>7016600</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9329,76 +9329,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="K103">
+        <v>3.4</v>
+      </c>
+      <c r="L103">
+        <v>3.75</v>
+      </c>
+      <c r="M103">
+        <v>1.95</v>
+      </c>
+      <c r="N103">
         <v>3.5</v>
       </c>
-      <c r="L103">
-        <v>4.333</v>
-      </c>
-      <c r="M103">
-        <v>1.7</v>
-      </c>
-      <c r="N103">
-        <v>3.6</v>
-      </c>
       <c r="O103">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q103">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
         <v>2.25</v>
       </c>
       <c r="T103">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9406,7 +9406,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7016600</v>
+        <v>6277686</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9415,76 +9415,76 @@
         <v>45151.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J104">
+        <v>1.8</v>
+      </c>
+      <c r="K104">
+        <v>3.5</v>
+      </c>
+      <c r="L104">
+        <v>4.333</v>
+      </c>
+      <c r="M104">
+        <v>1.7</v>
+      </c>
+      <c r="N104">
+        <v>3.6</v>
+      </c>
+      <c r="O104">
+        <v>5.25</v>
+      </c>
+      <c r="P104">
+        <v>-0.75</v>
+      </c>
+      <c r="Q104">
         <v>1.95</v>
       </c>
-      <c r="K104">
-        <v>3.4</v>
-      </c>
-      <c r="L104">
-        <v>3.75</v>
-      </c>
-      <c r="M104">
-        <v>1.95</v>
-      </c>
-      <c r="N104">
-        <v>3.5</v>
-      </c>
-      <c r="O104">
-        <v>3.8</v>
-      </c>
-      <c r="P104">
-        <v>-0.5</v>
-      </c>
-      <c r="Q104">
-        <v>1.975</v>
-      </c>
       <c r="R104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
         <v>2.25</v>
       </c>
       <c r="T104">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9492,7 +9492,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6278695</v>
+        <v>6277886</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9501,76 +9501,76 @@
         <v>45151.77083333334</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J105">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="K105">
         <v>3.5</v>
       </c>
       <c r="L105">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="P105">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q105">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T105">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9578,7 +9578,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6277886</v>
+        <v>6278695</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9587,76 +9587,76 @@
         <v>45151.77083333334</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J106">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="K106">
         <v>3.5</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="P106">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q106">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T106">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W106">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -10278,7 +10278,7 @@
         <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10447,7 +10447,7 @@
         <v>45158.66666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
         <v>47</v>
@@ -10877,7 +10877,7 @@
         <v>45164.875</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
         <v>35</v>
@@ -11138,7 +11138,7 @@
         <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11986,7 +11986,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6277893</v>
+        <v>6278732</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -11995,67 +11995,67 @@
         <v>45172.66666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J134">
+        <v>3.5</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>4.75</v>
+      </c>
+      <c r="N134">
+        <v>3.2</v>
+      </c>
+      <c r="O134">
+        <v>1.909</v>
+      </c>
+      <c r="P134">
+        <v>0.5</v>
+      </c>
+      <c r="Q134">
+        <v>1.95</v>
+      </c>
+      <c r="R134">
+        <v>1.9</v>
+      </c>
+      <c r="S134">
+        <v>1.75</v>
+      </c>
+      <c r="T134">
         <v>1.8</v>
       </c>
-      <c r="K134">
-        <v>3.3</v>
-      </c>
-      <c r="L134">
-        <v>4</v>
-      </c>
-      <c r="M134">
-        <v>1.85</v>
-      </c>
-      <c r="N134">
-        <v>3.4</v>
-      </c>
-      <c r="O134">
-        <v>4.5</v>
-      </c>
-      <c r="P134">
-        <v>-0.5</v>
-      </c>
-      <c r="Q134">
-        <v>1.875</v>
-      </c>
-      <c r="R134">
-        <v>1.975</v>
-      </c>
-      <c r="S134">
-        <v>2.25</v>
-      </c>
-      <c r="T134">
-        <v>1.825</v>
-      </c>
       <c r="U134">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z134">
         <v>-1</v>
@@ -12064,7 +12064,7 @@
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12072,7 +12072,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6278732</v>
+        <v>6277893</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12081,67 +12081,67 @@
         <v>45172.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J135">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O135">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="P135">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U135">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="Z135">
         <v>-1</v>
@@ -12150,7 +12150,7 @@
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12158,7 +12158,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6277433</v>
+        <v>6277432</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12167,76 +12167,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J136">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="K136">
+        <v>3.1</v>
+      </c>
+      <c r="L136">
+        <v>2.625</v>
+      </c>
+      <c r="M136">
+        <v>2.45</v>
+      </c>
+      <c r="N136">
         <v>3.2</v>
       </c>
-      <c r="L136">
-        <v>2.75</v>
-      </c>
-      <c r="M136">
-        <v>2.15</v>
-      </c>
-      <c r="N136">
-        <v>3.25</v>
-      </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P136">
         <v>-0.25</v>
       </c>
       <c r="Q136">
-        <v>1.825</v>
+        <v>2.07</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.83</v>
       </c>
       <c r="S136">
         <v>2.25</v>
       </c>
       <c r="T136">
-        <v>2.025</v>
+        <v>2.07</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.83</v>
       </c>
       <c r="V136">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.4125</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12244,7 +12244,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6277432</v>
+        <v>6277895</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12253,76 +12253,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
         <v>52</v>
       </c>
       <c r="J137">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L137">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N137">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q137">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R137">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
         <v>2.25</v>
       </c>
       <c r="T137">
-        <v>2.07</v>
+        <v>1.925</v>
       </c>
       <c r="U137">
-        <v>1.83</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.8</v>
+      </c>
+      <c r="AA137">
         <v>-0.5</v>
       </c>
-      <c r="Z137">
-        <v>0.415</v>
-      </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
       <c r="AB137">
-        <v>0.8300000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12330,7 +12330,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6277895</v>
+        <v>6277433</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12339,76 +12339,76 @@
         <v>45172.77083333334</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J138">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="K138">
         <v>3.2</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M138">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N138">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
         <v>2.25</v>
       </c>
       <c r="T138">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12416,7 +12416,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6277693</v>
+        <v>7140134</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12425,73 +12425,73 @@
         <v>45182.89583333334</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>54</v>
+      </c>
+      <c r="J139">
+        <v>2.55</v>
+      </c>
+      <c r="K139">
+        <v>3.25</v>
+      </c>
+      <c r="L139">
+        <v>2.75</v>
+      </c>
+      <c r="M139">
+        <v>2.625</v>
+      </c>
+      <c r="N139">
+        <v>3.1</v>
+      </c>
+      <c r="O139">
         <v>3</v>
       </c>
-      <c r="I139" t="s">
-        <v>53</v>
-      </c>
-      <c r="J139">
-        <v>1.8</v>
-      </c>
-      <c r="K139">
-        <v>3.6</v>
-      </c>
-      <c r="L139">
-        <v>4.333</v>
-      </c>
-      <c r="M139">
-        <v>1.8</v>
-      </c>
-      <c r="N139">
-        <v>3.5</v>
-      </c>
-      <c r="O139">
-        <v>5</v>
-      </c>
       <c r="P139">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T139">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V139">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12502,7 +12502,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7140134</v>
+        <v>6277693</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12511,73 +12511,73 @@
         <v>45182.89583333334</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J140">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="K140">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L140">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="M140">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N140">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P140">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T140">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="U140">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -12600,7 +12600,7 @@
         <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12772,7 +12772,7 @@
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -13285,7 +13285,7 @@
         <v>45187.83333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
         <v>32</v>
@@ -13371,7 +13371,7 @@
         <v>45187.875</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
         <v>34</v>
@@ -13620,7 +13620,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6277436</v>
+        <v>6278698</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13629,76 +13629,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J153">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="K153">
+        <v>3.4</v>
+      </c>
+      <c r="L153">
         <v>3.5</v>
       </c>
-      <c r="L153">
-        <v>4.5</v>
-      </c>
       <c r="M153">
+        <v>2.375</v>
+      </c>
+      <c r="N153">
+        <v>3.2</v>
+      </c>
+      <c r="O153">
+        <v>3.1</v>
+      </c>
+      <c r="P153">
+        <v>-0.25</v>
+      </c>
+      <c r="Q153">
+        <v>2</v>
+      </c>
+      <c r="R153">
         <v>1.85</v>
-      </c>
-      <c r="N153">
-        <v>3.3</v>
-      </c>
-      <c r="O153">
-        <v>4.5</v>
-      </c>
-      <c r="P153">
-        <v>-0.75</v>
-      </c>
-      <c r="Q153">
-        <v>2.025</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
       </c>
       <c r="S153">
         <v>2.25</v>
       </c>
       <c r="T153">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
+        <v>-1</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>2.1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
         <v>0.8500000000000001</v>
       </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>0.5125</v>
-      </c>
-      <c r="Z153">
-        <v>-0.5</v>
-      </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13706,7 +13706,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6278698</v>
+        <v>6277436</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13715,76 +13715,76 @@
         <v>45189.89583333334</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J154">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K154">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N154">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O154">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P154">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
         <v>2.25</v>
       </c>
       <c r="T154">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z154">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA154">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -14059,7 +14059,7 @@
         <v>45191.83333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
         <v>42</v>
@@ -14492,7 +14492,7 @@
         <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14664,7 +14664,7 @@
         <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -15266,7 +15266,7 @@
         <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -15435,7 +15435,7 @@
         <v>45206.875</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
         <v>45</v>
@@ -15770,7 +15770,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6277699</v>
+        <v>6277698</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15779,76 +15779,76 @@
         <v>45207.77083333334</v>
       </c>
       <c r="E178" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J178">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="L178">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M178">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N178">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O178">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="P178">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q178">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
         <v>2.25</v>
       </c>
       <c r="T178">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V178">
         <v>-1</v>
       </c>
       <c r="W178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15856,7 +15856,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6277698</v>
+        <v>6277439</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15865,73 +15865,73 @@
         <v>45207.77083333334</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J179">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="K179">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L179">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="M179">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="N179">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O179">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="P179">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q179">
+        <v>1.875</v>
+      </c>
+      <c r="R179">
         <v>1.975</v>
       </c>
-      <c r="R179">
-        <v>1.875</v>
-      </c>
       <c r="S179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
         <v>-1</v>
@@ -15942,7 +15942,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6277439</v>
+        <v>6277699</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15951,49 +15951,49 @@
         <v>45207.77083333334</v>
       </c>
       <c r="E180" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J180">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K180">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L180">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M180">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N180">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="P180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T180">
         <v>1.85</v>
@@ -16002,10 +16002,10 @@
         <v>2</v>
       </c>
       <c r="V180">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16017,10 +16017,10 @@
         <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16467,7 +16467,7 @@
         <v>45217.89583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
         <v>43</v>
@@ -16900,7 +16900,7 @@
         <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -17069,7 +17069,7 @@
         <v>45220.77083333334</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F193" t="s">
         <v>28</v>
@@ -17576,7 +17576,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7323303</v>
+        <v>6301327</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
@@ -17585,76 +17585,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J199">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="K199">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L199">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="M199">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N199">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O199">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="P199">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q199">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R199">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
         <v>2.25</v>
       </c>
       <c r="T199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U199">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
         <v>-1</v>
       </c>
       <c r="W199">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA199">
         <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17662,7 +17662,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6301327</v>
+        <v>7323303</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17671,76 +17671,76 @@
         <v>45221.77083333334</v>
       </c>
       <c r="E200" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J200">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="K200">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L200">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="M200">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N200">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O200">
+        <v>3.8</v>
+      </c>
+      <c r="P200">
+        <v>-0.5</v>
+      </c>
+      <c r="Q200">
+        <v>2.05</v>
+      </c>
+      <c r="R200">
         <v>1.8</v>
-      </c>
-      <c r="P200">
-        <v>0.75</v>
-      </c>
-      <c r="Q200">
-        <v>1.825</v>
-      </c>
-      <c r="R200">
-        <v>2.025</v>
       </c>
       <c r="S200">
         <v>2.25</v>
       </c>
       <c r="T200">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V200">
         <v>-1</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
         <v>0.8</v>
-      </c>
-      <c r="Y200">
-        <v>-1</v>
-      </c>
-      <c r="Z200">
-        <v>1.025</v>
       </c>
       <c r="AA200">
         <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -18104,7 +18104,7 @@
         <v>29</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18276,7 +18276,7 @@
         <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18620,7 +18620,7 @@
         <v>36</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -19047,7 +19047,7 @@
         <v>45228.77083333334</v>
       </c>
       <c r="E216" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F216" t="s">
         <v>32</v>
@@ -19305,7 +19305,7 @@
         <v>45230.79166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F219" t="s">
         <v>33</v>
@@ -19391,7 +19391,7 @@
         <v>45231.79166666666</v>
       </c>
       <c r="E220" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F220" t="s">
         <v>30</v>
@@ -19554,7 +19554,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6575367</v>
+        <v>6648378</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -19563,10 +19563,10 @@
         <v>45231.83333333334</v>
       </c>
       <c r="E222" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19578,40 +19578,40 @@
         <v>53</v>
       </c>
       <c r="J222">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="K222">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L222">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="M222">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N222">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O222">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="P222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q222">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S222">
         <v>2.5</v>
       </c>
       <c r="T222">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U222">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
         <v>-1</v>
@@ -19620,16 +19620,16 @@
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA222">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB222">
         <v>-1</v>
@@ -19640,7 +19640,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6648378</v>
+        <v>6575367</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -19649,10 +19649,10 @@
         <v>45231.83333333334</v>
       </c>
       <c r="E223" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19664,40 +19664,40 @@
         <v>53</v>
       </c>
       <c r="J223">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="K223">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L223">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="M223">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="N223">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O223">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="P223">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q223">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R223">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S223">
         <v>2.5</v>
       </c>
       <c r="T223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V223">
         <v>-1</v>
@@ -19706,16 +19706,16 @@
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA223">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB223">
         <v>-1</v>
@@ -20168,7 +20168,7 @@
         <v>34</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20500,7 +20500,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6661664</v>
+        <v>6665176</v>
       </c>
       <c r="C233" t="s">
         <v>27</v>
@@ -20509,76 +20509,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E233" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F233" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J233">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="K233">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L233">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="M233">
+        <v>1.55</v>
+      </c>
+      <c r="N233">
+        <v>4.333</v>
+      </c>
+      <c r="O233">
+        <v>5.5</v>
+      </c>
+      <c r="P233">
+        <v>-1</v>
+      </c>
+      <c r="Q233">
+        <v>2</v>
+      </c>
+      <c r="R233">
+        <v>1.85</v>
+      </c>
+      <c r="S233">
         <v>2.5</v>
       </c>
-      <c r="N233">
-        <v>3.1</v>
-      </c>
-      <c r="O233">
-        <v>3</v>
-      </c>
-      <c r="P233">
-        <v>0</v>
-      </c>
-      <c r="Q233">
-        <v>1.775</v>
-      </c>
-      <c r="R233">
-        <v>2.1</v>
-      </c>
-      <c r="S233">
-        <v>2.25</v>
-      </c>
       <c r="T233">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U233">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z233">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20586,7 +20586,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6665176</v>
+        <v>6661664</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
@@ -20595,76 +20595,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E234" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J234">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="K234">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L234">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M234">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N234">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O234">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R234">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T234">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB234">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -21360,7 +21360,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6677105</v>
+        <v>6676669</v>
       </c>
       <c r="C243" t="s">
         <v>27</v>
@@ -21369,76 +21369,76 @@
         <v>45239.79166666666</v>
       </c>
       <c r="E243" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J243">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K243">
         <v>3.1</v>
       </c>
       <c r="L243">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="M243">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N243">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O243">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P243">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q243">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R243">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S243">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U243">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V243">
         <v>-1</v>
       </c>
       <c r="W243">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA243">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -21446,7 +21446,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6676669</v>
+        <v>6677105</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
@@ -21455,76 +21455,76 @@
         <v>45239.79166666666</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J244">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K244">
         <v>3.1</v>
       </c>
       <c r="L244">
+        <v>2.625</v>
+      </c>
+      <c r="M244">
+        <v>2.8</v>
+      </c>
+      <c r="N244">
+        <v>2.875</v>
+      </c>
+      <c r="O244">
         <v>2.9</v>
       </c>
-      <c r="M244">
-        <v>2.1</v>
-      </c>
-      <c r="N244">
-        <v>3.3</v>
-      </c>
-      <c r="O244">
-        <v>3.6</v>
-      </c>
       <c r="P244">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q244">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R244">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S244">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T244">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V244">
         <v>-1</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X244">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z244">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB244">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="245" spans="1:28">
@@ -21532,7 +21532,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6594708</v>
+        <v>7428388</v>
       </c>
       <c r="C245" t="s">
         <v>27</v>
@@ -21541,55 +21541,55 @@
         <v>45239.83333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F245" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
         <v>3</v>
-      </c>
-      <c r="H245">
-        <v>4</v>
       </c>
       <c r="I245" t="s">
         <v>53</v>
       </c>
       <c r="J245">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="K245">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L245">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M245">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="N245">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P245">
         <v>-0.5</v>
       </c>
       <c r="Q245">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R245">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S245">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T245">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V245">
         <v>-1</v>
@@ -21598,16 +21598,16 @@
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA245">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB245">
         <v>-1</v>
@@ -21618,7 +21618,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7428388</v>
+        <v>6594708</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
@@ -21627,55 +21627,55 @@
         <v>45239.83333333334</v>
       </c>
       <c r="E246" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I246" t="s">
         <v>53</v>
       </c>
       <c r="J246">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="K246">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L246">
+        <v>3.9</v>
+      </c>
+      <c r="M246">
+        <v>1.85</v>
+      </c>
+      <c r="N246">
+        <v>3.75</v>
+      </c>
+      <c r="O246">
         <v>4</v>
-      </c>
-      <c r="M246">
-        <v>1.833</v>
-      </c>
-      <c r="N246">
-        <v>3.4</v>
-      </c>
-      <c r="O246">
-        <v>4.75</v>
       </c>
       <c r="P246">
         <v>-0.5</v>
       </c>
       <c r="Q246">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R246">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S246">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T246">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
         <v>-1</v>
@@ -21684,16 +21684,16 @@
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Y246">
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA246">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB246">
         <v>-1</v>
@@ -21974,7 +21974,7 @@
         <v>34</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -22220,7 +22220,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6619639</v>
+        <v>6689151</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22229,61 +22229,61 @@
         <v>45242.77083333334</v>
       </c>
       <c r="E253" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F253" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J253">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="K253">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L253">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="M253">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="N253">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O253">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="P253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q253">
-        <v>1.8</v>
+        <v>1.85</v>
 